--- a/monthly_reports/monthly_data/2021 Charts Month 1.xlsx
+++ b/monthly_reports/monthly_data/2021 Charts Month 1.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="184">
   <si>
     <t>Artist</t>
   </si>
@@ -69,6 +69,9 @@
     <t>Rosenfeld</t>
   </si>
   <si>
+    <t>DubDogz, Mariana Bo, Flakkē, Luisah</t>
+  </si>
+  <si>
     <t>Aspyer</t>
   </si>
   <si>
@@ -114,6 +117,9 @@
     <t>Polygon, Martin Jasper</t>
   </si>
   <si>
+    <t>Flux Pavilion, Chime, spaceKDET</t>
+  </si>
+  <si>
     <t>Lulleaux</t>
   </si>
   <si>
@@ -207,6 +213,9 @@
     <t>Dangerous Woman</t>
   </si>
   <si>
+    <t>Drop It</t>
+  </si>
+  <si>
     <t>Symphony</t>
   </si>
   <si>
@@ -252,6 +261,9 @@
     <t>Coming Home</t>
   </si>
   <si>
+    <t>Fall To Me</t>
+  </si>
+  <si>
     <t>Even If You Don't</t>
   </si>
   <si>
@@ -345,6 +357,9 @@
     <t>WLTD Entertainment LTD</t>
   </si>
   <si>
+    <t>Musical Freedom, Spinnin' Records</t>
+  </si>
+  <si>
     <t>STMPD RCRDS</t>
   </si>
   <si>
@@ -360,6 +375,9 @@
     <t>Liquicity</t>
   </si>
   <si>
+    <t>Circus Records</t>
+  </si>
+  <si>
     <t>Tribal Trap</t>
   </si>
   <si>
@@ -408,6 +426,18 @@
     <t>deadmau5</t>
   </si>
   <si>
+    <t>DubDogz</t>
+  </si>
+  <si>
+    <t>Flakkē</t>
+  </si>
+  <si>
+    <t>Luisah</t>
+  </si>
+  <si>
+    <t>Mariana Bo</t>
+  </si>
+  <si>
     <t>Ace Aura</t>
   </si>
   <si>
@@ -432,6 +462,15 @@
     <t>Polygon</t>
   </si>
   <si>
+    <t>Chime</t>
+  </si>
+  <si>
+    <t>Flux Pavilion</t>
+  </si>
+  <si>
+    <t>spaceKDET</t>
+  </si>
+  <si>
     <t>Diandra Faye</t>
   </si>
   <si>
@@ -498,10 +537,13 @@
     <t>Armada Music</t>
   </si>
   <si>
+    <t>Spinnin' Records</t>
+  </si>
+  <si>
     <t>Maxximize Records</t>
   </si>
   <si>
-    <t>Spinnin' Records</t>
+    <t>Musical Freedom</t>
   </si>
   <si>
     <t>GenerationHEX</t>
@@ -889,7 +931,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D48"/>
+  <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -914,13 +956,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D2">
-        <v>2631252</v>
+        <v>2811551</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -928,13 +970,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C3" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D3">
-        <v>1296610</v>
+        <v>1395249</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -945,10 +987,10 @@
         <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D4">
-        <v>1220449</v>
+        <v>1241317</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -956,13 +998,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D5">
-        <v>955772</v>
+        <v>975493</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -970,13 +1012,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C6" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D6">
-        <v>830548</v>
+        <v>841918</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -984,13 +1026,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D7">
-        <v>695603</v>
+        <v>718323</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -998,13 +1040,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C8" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D8">
-        <v>473116</v>
+        <v>616099</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1012,13 +1054,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C9" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D9">
-        <v>416185</v>
+        <v>462747</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1026,13 +1068,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C10" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D10">
-        <v>364686</v>
+        <v>377246</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1040,13 +1082,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C11" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D11">
-        <v>336188</v>
+        <v>364536</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1054,13 +1096,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C12" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D12">
-        <v>303531</v>
+        <v>323133</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1068,13 +1110,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C13" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D13">
-        <v>227242</v>
+        <v>285587</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1082,13 +1124,13 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C14" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="D14">
-        <v>187158</v>
+        <v>235340</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1096,13 +1138,13 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D15">
-        <v>150182</v>
+        <v>199646</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1110,13 +1152,13 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C16" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="D16">
-        <v>129542</v>
+        <v>159727</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1124,13 +1166,13 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C17" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="D17">
-        <v>129229</v>
+        <v>134003</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1138,13 +1180,13 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C18" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D18">
-        <v>119609</v>
+        <v>133857</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1152,13 +1194,13 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C19" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D19">
-        <v>116440</v>
+        <v>123872</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1166,13 +1208,13 @@
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C20" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="D20">
-        <v>114821</v>
+        <v>123469</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1180,13 +1222,13 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C21" t="s">
         <v>107</v>
       </c>
       <c r="D21">
-        <v>81963</v>
+        <v>122339</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1194,13 +1236,13 @@
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C22" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D22">
-        <v>78952</v>
+        <v>84291</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1208,13 +1250,13 @@
         <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C23" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D23">
-        <v>71826</v>
+        <v>80040</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1222,13 +1264,13 @@
         <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C24" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="D24">
-        <v>66907</v>
+        <v>75340</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1236,13 +1278,13 @@
         <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C25" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D25">
-        <v>61794</v>
+        <v>70508</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1250,13 +1292,13 @@
         <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C26" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="D26">
-        <v>53132</v>
+        <v>63837</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1264,13 +1306,13 @@
         <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C27" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D27">
-        <v>52061</v>
+        <v>58063</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1278,13 +1320,13 @@
         <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C28" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="D28">
-        <v>47650</v>
+        <v>54269</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1292,13 +1334,13 @@
         <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C29" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="D29">
-        <v>42427</v>
+        <v>51582</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1306,13 +1348,13 @@
         <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C30" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D30">
-        <v>40015</v>
+        <v>50326</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1320,13 +1362,13 @@
         <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C31" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D31">
-        <v>34164</v>
+        <v>43501</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1334,13 +1376,13 @@
         <v>34</v>
       </c>
       <c r="B32" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C32" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="D32">
-        <v>31171</v>
+        <v>41690</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1348,13 +1390,13 @@
         <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C33" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="D33">
-        <v>30210</v>
+        <v>35151</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1362,13 +1404,13 @@
         <v>36</v>
       </c>
       <c r="B34" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C34" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D34">
-        <v>29360</v>
+        <v>32183</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1376,13 +1418,13 @@
         <v>37</v>
       </c>
       <c r="B35" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C35" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D35">
-        <v>22164</v>
+        <v>31488</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1390,13 +1432,13 @@
         <v>38</v>
       </c>
       <c r="B36" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C36" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="D36">
-        <v>17511</v>
+        <v>29572</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1404,13 +1446,13 @@
         <v>39</v>
       </c>
       <c r="B37" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C37" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="D37">
-        <v>11191</v>
+        <v>22719</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1418,13 +1460,13 @@
         <v>40</v>
       </c>
       <c r="B38" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C38" t="s">
         <v>112</v>
       </c>
       <c r="D38">
-        <v>8751</v>
+        <v>17747</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1432,13 +1474,13 @@
         <v>41</v>
       </c>
       <c r="B39" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C39" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D39">
-        <v>7950</v>
+        <v>11454</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1446,13 +1488,13 @@
         <v>42</v>
       </c>
       <c r="B40" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C40" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D40">
-        <v>6530</v>
+        <v>9096</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1460,13 +1502,13 @@
         <v>43</v>
       </c>
       <c r="B41" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C41" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D41">
-        <v>6045</v>
+        <v>8150</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1474,13 +1516,13 @@
         <v>44</v>
       </c>
       <c r="B42" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C42" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D42">
-        <v>5425</v>
+        <v>6712</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1488,13 +1530,13 @@
         <v>45</v>
       </c>
       <c r="B43" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C43" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D43">
-        <v>4216</v>
+        <v>6156</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1502,13 +1544,13 @@
         <v>46</v>
       </c>
       <c r="B44" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C44" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="D44">
-        <v>4094</v>
+        <v>6131</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1516,13 +1558,13 @@
         <v>47</v>
       </c>
       <c r="B45" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C45" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="D45">
-        <v>2538</v>
+        <v>4270</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1530,13 +1572,13 @@
         <v>48</v>
       </c>
       <c r="B46" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C46" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="D46">
-        <v>2050</v>
+        <v>4195</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1544,13 +1586,13 @@
         <v>49</v>
       </c>
       <c r="B47" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C47" t="s">
         <v>119</v>
       </c>
       <c r="D47">
-        <v>1166</v>
+        <v>2622</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1558,12 +1600,40 @@
         <v>50</v>
       </c>
       <c r="B48" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C48" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D48">
+        <v>2230</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49" t="s">
+        <v>99</v>
+      </c>
+      <c r="C49" t="s">
+        <v>125</v>
+      </c>
+      <c r="D49">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>52</v>
+      </c>
+      <c r="B50" t="s">
+        <v>100</v>
+      </c>
+      <c r="C50" t="s">
+        <v>126</v>
+      </c>
+      <c r="D50">
         <v>0</v>
       </c>
     </row>
@@ -1574,7 +1644,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E48"/>
+  <dimension ref="A1:E50"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1591,228 +1661,228 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D2">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E2">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C3" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="D3">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E3">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="C4" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="D4">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E4">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="C5" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D5">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E5">
-        <v>102</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C6" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="D6">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E6">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="C7" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="D7">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E7">
-        <v>59</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="C8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D8">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="E8">
-        <v>51</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
         <v>64</v>
       </c>
       <c r="C9" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="D9">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E9">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="C10" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D10">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="E10">
-        <v>36</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B11" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C11" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D11">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E11">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B12" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C12" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D12">
         <v>32</v>
       </c>
       <c r="E12">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="B13" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="C13" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="D13">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E13">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B14" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C14" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D14">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E14">
         <v>35</v>
@@ -1820,84 +1890,84 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C15" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D15">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E15">
-        <v>28</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="B16" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="C16" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="D16">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E16">
-        <v>42</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" t="s">
+        <v>104</v>
+      </c>
+      <c r="D17">
         <v>25</v>
       </c>
-      <c r="B17" t="s">
-        <v>71</v>
-      </c>
-      <c r="C17" t="s">
-        <v>110</v>
-      </c>
-      <c r="D17">
-        <v>24</v>
-      </c>
       <c r="E17">
-        <v>31</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C18" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="D18">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E18">
-        <v>18</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="C19" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D19">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E19">
         <v>19</v>
@@ -1905,13 +1975,13 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B20" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C20" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="D20">
         <v>16</v>
@@ -1922,135 +1992,135 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B21" t="s">
         <v>53</v>
       </c>
       <c r="C21" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D21">
         <v>16</v>
       </c>
       <c r="E21">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="C22" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="D22">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E22">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="B23" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="C23" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="D23">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E23">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="C24" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D24">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E24">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="B25" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="C25" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="D25">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E25">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" t="s">
+        <v>113</v>
+      </c>
+      <c r="D26">
         <v>10</v>
       </c>
-      <c r="B26" t="s">
-        <v>56</v>
-      </c>
-      <c r="C26" t="s">
-        <v>102</v>
-      </c>
-      <c r="D26">
-        <v>8</v>
-      </c>
       <c r="E26">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B27" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C27" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D27">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E27">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B28" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C28" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="D28">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E28">
         <v>11</v>
@@ -2058,19 +2128,19 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="B29" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="C29" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="D29">
         <v>7</v>
       </c>
       <c r="E29">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -2078,163 +2148,163 @@
         <v>45</v>
       </c>
       <c r="B30" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C30" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D30">
         <v>7</v>
       </c>
       <c r="E30">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="B31" t="s">
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="C31" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="D31">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E31">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="B32" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="C32" t="s">
         <v>107</v>
       </c>
       <c r="D32">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E32">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="C33" t="s">
         <v>117</v>
       </c>
       <c r="D33">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E33">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="B34" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="C34" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E34">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="B35" t="s">
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="C35" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="D35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E35">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="B36" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="C36" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>6</v>
-      </c>
-      <c r="B37">
-        <v>21</v>
+        <v>23</v>
+      </c>
+      <c r="B37" t="s">
+        <v>71</v>
       </c>
       <c r="C37" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="B38" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="C38" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>48</v>
-      </c>
-      <c r="B39" t="s">
-        <v>94</v>
+        <v>6</v>
+      </c>
+      <c r="B39">
+        <v>21</v>
       </c>
       <c r="C39" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -2245,13 +2315,13 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B40" t="s">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="C40" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -2262,13 +2332,13 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="B41" t="s">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="C41" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -2279,13 +2349,13 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B42" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C42" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -2296,13 +2366,13 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="B43" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="C43" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -2313,13 +2383,13 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="B44" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="C44" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -2330,13 +2400,13 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="B45" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="C45" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -2347,13 +2417,13 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="C46" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -2364,13 +2434,13 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="B47" t="s">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="C47" t="s">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -2381,18 +2451,52 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
+        <v>25</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48" t="s">
+        <v>114</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" t="s">
+        <v>21</v>
+      </c>
+      <c r="B49" t="s">
+        <v>69</v>
+      </c>
+      <c r="C49" t="s">
+        <v>108</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" t="s">
         <v>12</v>
       </c>
-      <c r="B48" t="s">
-        <v>58</v>
-      </c>
-      <c r="C48" t="s">
-        <v>104</v>
-      </c>
-      <c r="D48">
-        <v>0</v>
-      </c>
-      <c r="E48">
+      <c r="B50" t="s">
+        <v>60</v>
+      </c>
+      <c r="C50" t="s">
+        <v>108</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
         <v>0</v>
       </c>
     </row>
@@ -2403,7 +2507,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D48"/>
+  <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2420,7 +2524,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2428,27 +2532,27 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D2">
-        <v>147082</v>
+        <v>155148</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C3" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D3">
-        <v>99991</v>
+        <v>102906</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2456,13 +2560,13 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C4" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D4">
-        <v>94648</v>
+        <v>97945</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2470,584 +2574,584 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C5" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D5">
-        <v>89181</v>
+        <v>94065</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="C6" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="D6">
-        <v>69549</v>
+        <v>79969</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D7">
-        <v>61960</v>
+        <v>72302</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="C8" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="D8">
-        <v>49556</v>
+        <v>65622</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C9" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D9">
-        <v>36609</v>
+        <v>53181</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10">
-        <v>21</v>
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>63</v>
       </c>
       <c r="C10" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="D10">
-        <v>35234</v>
+        <v>52994</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C11" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D11">
-        <v>29971</v>
+        <v>41830</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C12" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D12">
-        <v>22750</v>
+        <v>40442</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" t="s">
-        <v>56</v>
+        <v>6</v>
+      </c>
+      <c r="B13">
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D13">
-        <v>22157</v>
+        <v>36297</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C14" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="D14">
-        <v>20881</v>
+        <v>31436</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C15" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D15">
-        <v>20178</v>
+        <v>24028</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="C16" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="D16">
-        <v>18836</v>
+        <v>23101</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="C17" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="D17">
-        <v>17374</v>
+        <v>21697</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="C18" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D18">
-        <v>17079</v>
+        <v>21173</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C19" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D19">
-        <v>16918</v>
+        <v>19795</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="B20" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="C20" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="D20">
-        <v>16317</v>
+        <v>18237</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B21" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="C21" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="D21">
-        <v>16197</v>
+        <v>17885</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B22" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="C22" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D22">
-        <v>14922</v>
+        <v>17605</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B23" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C23" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D23">
-        <v>13578</v>
+        <v>17298</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="B24" t="s">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="C24" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="D24">
-        <v>13578</v>
+        <v>17110</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C25" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D25">
-        <v>13061</v>
+        <v>15734</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C26" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D26">
-        <v>11527</v>
+        <v>14757</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="B27" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="C27" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="D27">
-        <v>10788</v>
+        <v>14079</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="C28" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="D28">
-        <v>10398</v>
+        <v>13876</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="B29" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C29" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="D29">
-        <v>9833</v>
+        <v>12095</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B30" t="s">
         <v>78</v>
       </c>
       <c r="C30" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="D30">
-        <v>8691</v>
+        <v>11321</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B31" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="C31" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="D31">
-        <v>8528</v>
+        <v>10673</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B32" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C32" t="s">
         <v>113</v>
       </c>
       <c r="D32">
-        <v>8088</v>
+        <v>10143</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B33" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C33" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D33">
-        <v>7162</v>
+        <v>9249</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C34" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D34">
-        <v>7056</v>
+        <v>9087</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="B35" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="C35" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="D35">
-        <v>6899</v>
+        <v>8588</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B36" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C36" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D36">
-        <v>5109</v>
+        <v>7982</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B37" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C37" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="D37">
-        <v>4157</v>
+        <v>7245</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="C38" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D38">
-        <v>2165</v>
+        <v>7127</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="B39" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="C39" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="D39">
-        <v>1502</v>
+        <v>5274</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C40" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D40">
-        <v>1472</v>
+        <v>4247</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B41" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C41" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="D41">
-        <v>1376</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C42" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D42">
-        <v>503</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="B43" t="s">
-        <v>53</v>
+        <v>95</v>
       </c>
       <c r="C43" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="C44" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="B45" t="s">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="C45" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="D45">
-        <v>0</v>
+        <v>545</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B46" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="C46" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -3055,13 +3159,13 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="B47" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="C47" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -3069,15 +3173,43 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B48" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="C48" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>40</v>
+      </c>
+      <c r="B49" t="s">
+        <v>88</v>
+      </c>
+      <c r="C49" t="s">
+        <v>112</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>21</v>
+      </c>
+      <c r="B50" t="s">
+        <v>69</v>
+      </c>
+      <c r="C50" t="s">
+        <v>108</v>
+      </c>
+      <c r="D50">
         <v>0</v>
       </c>
     </row>
@@ -3088,7 +3220,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B65"/>
+  <dimension ref="A1:B72"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3107,7 +3239,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>2631252</v>
+        <v>2811551</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3115,23 +3247,23 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>1296610</v>
+        <v>1395249</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="B4">
-        <v>1220449</v>
+        <v>1241317</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B5">
-        <v>1220449</v>
+        <v>1241317</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3139,23 +3271,23 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>955772</v>
+        <v>975493</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="B7">
-        <v>830548</v>
+        <v>841918</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B8">
-        <v>830548</v>
+        <v>841918</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3163,7 +3295,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>695603</v>
+        <v>718323</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3171,7 +3303,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>473116</v>
+        <v>616099</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3179,7 +3311,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>416185</v>
+        <v>462747</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3187,7 +3319,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>364686</v>
+        <v>377246</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3195,7 +3327,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>336188</v>
+        <v>364536</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3203,414 +3335,470 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>303531</v>
+        <v>323133</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>134</v>
       </c>
       <c r="B15">
-        <v>227242</v>
+        <v>285587</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>135</v>
       </c>
       <c r="B16">
-        <v>187158</v>
+        <v>285587</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>136</v>
       </c>
       <c r="B17">
-        <v>150182</v>
+        <v>285587</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>137</v>
       </c>
       <c r="B18">
-        <v>129542</v>
+        <v>285587</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="B19">
-        <v>129229</v>
+        <v>235340</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>129</v>
+        <v>17</v>
       </c>
       <c r="B20">
-        <v>129229</v>
+        <v>199646</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B21">
-        <v>119609</v>
+        <v>159727</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B22">
-        <v>116440</v>
+        <v>134003</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>138</v>
       </c>
       <c r="B23">
-        <v>114821</v>
+        <v>133857</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>139</v>
       </c>
       <c r="B24">
-        <v>81963</v>
+        <v>133857</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B25">
-        <v>78952</v>
+        <v>123872</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>130</v>
+        <v>22</v>
       </c>
       <c r="B26">
-        <v>71826</v>
+        <v>123469</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>131</v>
+        <v>23</v>
       </c>
       <c r="B27">
-        <v>71826</v>
+        <v>122339</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B28">
-        <v>66907</v>
+        <v>84291</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>132</v>
+        <v>25</v>
       </c>
       <c r="B29">
-        <v>61794</v>
+        <v>80040</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="B30">
-        <v>61794</v>
+        <v>75340</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>28</v>
+        <v>141</v>
       </c>
       <c r="B31">
-        <v>53132</v>
+        <v>75340</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>134</v>
+        <v>27</v>
       </c>
       <c r="B32">
-        <v>52061</v>
+        <v>70508</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="B33">
-        <v>52061</v>
+        <v>63837</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>30</v>
+        <v>143</v>
       </c>
       <c r="B34">
-        <v>47650</v>
+        <v>63837</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B35">
-        <v>42427</v>
+        <v>58063</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="B36">
-        <v>40015</v>
+        <v>54269</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="B37">
-        <v>40015</v>
+        <v>54269</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="B38">
-        <v>34164</v>
+        <v>51582</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="B39">
-        <v>34164</v>
+        <v>51582</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="B40">
-        <v>34164</v>
+        <v>51582</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B41">
-        <v>31171</v>
+        <v>50326</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B42">
-        <v>30210</v>
+        <v>43501</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>36</v>
+        <v>149</v>
       </c>
       <c r="B43">
-        <v>29360</v>
+        <v>41690</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="B44">
-        <v>22164</v>
+        <v>41690</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="B45">
-        <v>22164</v>
+        <v>35151</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="B46">
-        <v>17511</v>
+        <v>35151</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="B47">
-        <v>17511</v>
+        <v>35151</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>145</v>
+        <v>36</v>
       </c>
       <c r="B48">
-        <v>11191</v>
+        <v>32183</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>146</v>
+        <v>37</v>
       </c>
       <c r="B49">
-        <v>11191</v>
+        <v>31488</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>147</v>
+        <v>38</v>
       </c>
       <c r="B50">
-        <v>11191</v>
+        <v>29572</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>40</v>
+        <v>154</v>
       </c>
       <c r="B51">
-        <v>8751</v>
+        <v>22719</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="B52">
-        <v>7950</v>
+        <v>22719</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="B53">
-        <v>7950</v>
+        <v>17747</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>42</v>
+        <v>157</v>
       </c>
       <c r="B54">
-        <v>6530</v>
+        <v>17747</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>43</v>
+        <v>158</v>
       </c>
       <c r="B55">
-        <v>6045</v>
+        <v>11454</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="B56">
-        <v>5425</v>
+        <v>11454</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="B57">
-        <v>5425</v>
+        <v>11454</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B58">
-        <v>4216</v>
+        <v>9096</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>46</v>
+        <v>161</v>
       </c>
       <c r="B59">
-        <v>4094</v>
+        <v>8150</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="B60">
-        <v>2538</v>
+        <v>8150</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>152</v>
+        <v>44</v>
       </c>
       <c r="B61">
-        <v>2050</v>
+        <v>6712</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="1" t="s">
-        <v>153</v>
+        <v>45</v>
       </c>
       <c r="B62">
-        <v>2050</v>
+        <v>6156</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="1" t="s">
-        <v>49</v>
+        <v>163</v>
       </c>
       <c r="B63">
-        <v>1166</v>
+        <v>6131</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="1" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="B64">
-        <v>0</v>
+        <v>6131</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="1" t="s">
-        <v>155</v>
+        <v>47</v>
       </c>
       <c r="B65">
+        <v>4270</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B66">
+        <v>4195</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B67">
+        <v>2622</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B68">
+        <v>2230</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B69">
+        <v>2230</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B70">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B72">
         <v>0</v>
       </c>
     </row>
@@ -3621,7 +3809,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C65"/>
+  <dimension ref="A1:C72"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3632,631 +3820,631 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B2">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C2">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B3">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C3">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="B4">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="C4">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="B5">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C5">
-        <v>102</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="B6">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C6">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="B7">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C7">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>31</v>
+        <v>134</v>
       </c>
       <c r="B8">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C8">
-        <v>59</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>135</v>
       </c>
       <c r="B9">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="C9">
-        <v>51</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>136</v>
       </c>
       <c r="B10">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="C10">
-        <v>48</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>36</v>
+        <v>137</v>
       </c>
       <c r="B11">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="C11">
-        <v>36</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>141</v>
+        <v>33</v>
       </c>
       <c r="B12">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="C12">
-        <v>42</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>142</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="C13">
-        <v>42</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="C14">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15">
         <v>34</v>
       </c>
-      <c r="B15">
-        <v>30</v>
-      </c>
       <c r="C15">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="B16">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C16">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="B17">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C17">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>140</v>
+        <v>49</v>
       </c>
       <c r="B18">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C18">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>148</v>
+        <v>36</v>
       </c>
       <c r="B19">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C19">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B20">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C20">
-        <v>28</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>126</v>
+        <v>152</v>
       </c>
       <c r="B21">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C21">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>127</v>
+        <v>153</v>
       </c>
       <c r="B22">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C22">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
-        <v>130</v>
+        <v>161</v>
       </c>
       <c r="B23">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C23">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
-        <v>131</v>
+        <v>162</v>
       </c>
       <c r="B24">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C24">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
-        <v>30</v>
+        <v>132</v>
       </c>
       <c r="B25">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C25">
-        <v>18</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
-        <v>9</v>
+        <v>133</v>
       </c>
       <c r="B26">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C26">
-        <v>19</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
-        <v>4</v>
+        <v>140</v>
       </c>
       <c r="B27">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C27">
-        <v>19</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
-        <v>7</v>
+        <v>141</v>
       </c>
       <c r="B28">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C28">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
-        <v>136</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C29">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1" t="s">
-        <v>137</v>
+        <v>9</v>
       </c>
       <c r="B30">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C30">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B31">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C31">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
-        <v>145</v>
+        <v>7</v>
       </c>
       <c r="B32">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C32">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B33">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C33">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B34">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C34">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B35">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C35">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1" t="s">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="B36">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C36">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1" t="s">
-        <v>128</v>
+        <v>159</v>
       </c>
       <c r="B37">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C37">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1" t="s">
-        <v>129</v>
+        <v>160</v>
       </c>
       <c r="B38">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C38">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="B39">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C39">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1" t="s">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="B40">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="B41">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>164</v>
       </c>
       <c r="B42">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1" t="s">
-        <v>16</v>
+        <v>138</v>
       </c>
       <c r="B43">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C43">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B44">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C44">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="1" t="s">
-        <v>144</v>
+        <v>45</v>
       </c>
       <c r="B45">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C45">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C46">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="1" t="s">
-        <v>134</v>
+        <v>17</v>
       </c>
       <c r="B47">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C47">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="1" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="B48">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C48">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="1" t="s">
-        <v>22</v>
+        <v>147</v>
       </c>
       <c r="B49">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C49">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>148</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C50">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="1" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B51">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C51">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="1" t="s">
-        <v>124</v>
+        <v>157</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="1" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="B53">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C53">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="1" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="B54">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="1" t="s">
-        <v>42</v>
+        <v>145</v>
       </c>
       <c r="B55">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="1" t="s">
-        <v>155</v>
+        <v>51</v>
       </c>
       <c r="B57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C57">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="1" t="s">
-        <v>12</v>
+        <v>165</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -4267,7 +4455,7 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="1" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -4278,7 +4466,7 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -4289,7 +4477,7 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="1" t="s">
-        <v>24</v>
+        <v>167</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -4300,7 +4488,7 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -4311,7 +4499,7 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="1" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -4322,7 +4510,7 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="1" t="s">
-        <v>125</v>
+        <v>168</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -4333,12 +4521,89 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B65">
         <v>0</v>
       </c>
       <c r="C65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B66">
+        <v>0</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B67">
+        <v>0</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B68">
+        <v>0</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B69">
+        <v>0</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B70">
+        <v>0</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B71">
+        <v>0</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B72">
+        <v>0</v>
+      </c>
+      <c r="C72">
         <v>0</v>
       </c>
     </row>
@@ -4349,7 +4614,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B65"/>
+  <dimension ref="A1:B72"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4360,7 +4625,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -4368,39 +4633,39 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>147082</v>
+        <v>155148</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="B3">
-        <v>99991</v>
+        <v>102906</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="B4">
-        <v>99991</v>
+        <v>102906</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="B5">
-        <v>94648</v>
+        <v>97945</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B6">
-        <v>94648</v>
+        <v>97945</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4408,470 +4673,526 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>89181</v>
+        <v>94065</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>146</v>
       </c>
       <c r="B8">
-        <v>69549</v>
+        <v>79969</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>22</v>
+        <v>147</v>
       </c>
       <c r="B9">
-        <v>61960</v>
+        <v>79969</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>5</v>
+        <v>148</v>
       </c>
       <c r="B10">
-        <v>49556</v>
+        <v>79969</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>36609</v>
+        <v>72302</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>124</v>
+        <v>23</v>
       </c>
       <c r="B12">
-        <v>35234</v>
+        <v>65622</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>125</v>
+        <v>5</v>
       </c>
       <c r="B13">
-        <v>35234</v>
+        <v>53181</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>134</v>
       </c>
       <c r="B14">
-        <v>29971</v>
+        <v>52994</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>135</v>
       </c>
       <c r="B15">
-        <v>22750</v>
+        <v>52994</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>10</v>
+        <v>136</v>
       </c>
       <c r="B16">
-        <v>22157</v>
+        <v>52994</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>12</v>
+        <v>137</v>
       </c>
       <c r="B17">
-        <v>20881</v>
+        <v>52994</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B18">
-        <v>20178</v>
+        <v>41830</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B19">
-        <v>18836</v>
+        <v>40442</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>28</v>
+        <v>130</v>
       </c>
       <c r="B20">
-        <v>17374</v>
+        <v>36297</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="B21">
-        <v>17079</v>
+        <v>36297</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>142</v>
+        <v>16</v>
       </c>
       <c r="B22">
-        <v>17079</v>
+        <v>31436</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="B23">
-        <v>16918</v>
+        <v>24028</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>154</v>
+        <v>10</v>
       </c>
       <c r="B24">
-        <v>16317</v>
+        <v>23101</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>155</v>
+        <v>12</v>
       </c>
       <c r="B25">
-        <v>16317</v>
+        <v>21697</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="B26">
-        <v>16197</v>
+        <v>21173</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>14922</v>
+        <v>19795</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>132</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>13578</v>
+        <v>18237</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>133</v>
+        <v>154</v>
       </c>
       <c r="B29">
-        <v>13578</v>
+        <v>17885</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>43</v>
+        <v>155</v>
       </c>
       <c r="B30">
-        <v>13578</v>
+        <v>17885</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>130</v>
+        <v>33</v>
       </c>
       <c r="B31">
-        <v>13061</v>
+        <v>17605</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>131</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>13061</v>
+        <v>17298</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>24</v>
+        <v>167</v>
       </c>
       <c r="B33">
-        <v>11527</v>
+        <v>17110</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>134</v>
+        <v>168</v>
       </c>
       <c r="B34">
-        <v>10788</v>
+        <v>17110</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>135</v>
+        <v>27</v>
       </c>
       <c r="B35">
-        <v>10788</v>
+        <v>15734</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>17</v>
+        <v>142</v>
       </c>
       <c r="B36">
-        <v>10398</v>
+        <v>14757</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>143</v>
       </c>
       <c r="B37">
-        <v>9833</v>
+        <v>14757</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>136</v>
+        <v>45</v>
       </c>
       <c r="B38">
-        <v>8691</v>
+        <v>14079</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B39">
-        <v>8691</v>
+        <v>13876</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>35</v>
+        <v>141</v>
       </c>
       <c r="B40">
-        <v>8528</v>
+        <v>13876</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="B41">
-        <v>8088</v>
+        <v>12095</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B42">
-        <v>7162</v>
+        <v>11321</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B43">
-        <v>7162</v>
+        <v>11321</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="B44">
-        <v>7056</v>
+        <v>10673</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>138</v>
+        <v>38</v>
       </c>
       <c r="B45">
-        <v>6899</v>
+        <v>10143</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>139</v>
+        <v>37</v>
       </c>
       <c r="B46">
-        <v>6899</v>
+        <v>9249</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="B47">
-        <v>6899</v>
+        <v>9087</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>150</v>
       </c>
       <c r="B48">
-        <v>5109</v>
+        <v>9087</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>145</v>
+        <v>49</v>
       </c>
       <c r="B49">
-        <v>4157</v>
+        <v>8588</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="B50">
-        <v>4157</v>
+        <v>7982</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="B51">
-        <v>4157</v>
+        <v>7982</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B52">
-        <v>2165</v>
+        <v>7245</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B53">
-        <v>1502</v>
+        <v>7127</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B54">
-        <v>1502</v>
+        <v>7127</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>45</v>
+        <v>153</v>
       </c>
       <c r="B55">
-        <v>1472</v>
+        <v>7127</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="B56">
-        <v>1376</v>
+        <v>5274</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="B57">
-        <v>503</v>
+        <v>4247</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="B58">
-        <v>503</v>
+        <v>4247</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="B59">
-        <v>0</v>
+        <v>4247</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="B60">
-        <v>0</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>7</v>
+        <v>161</v>
       </c>
       <c r="B61">
-        <v>0</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="1" t="s">
-        <v>9</v>
+        <v>162</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="1" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="B63">
-        <v>0</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="1" t="s">
-        <v>144</v>
+        <v>44</v>
       </c>
       <c r="B64">
-        <v>0</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B65">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B66">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B65">
+      <c r="B68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B72">
         <v>0</v>
       </c>
     </row>
@@ -4882,7 +5203,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4898,225 +5219,241 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B2">
-        <v>2631252</v>
+        <v>2811551</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B3">
-        <v>2176221</v>
+        <v>2216810</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="B4">
-        <v>1296610</v>
+        <v>1395249</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="B5">
-        <v>1296610</v>
+        <v>1395249</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B6">
-        <v>1018354</v>
+        <v>1059512</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B7">
-        <v>847393</v>
+        <v>918589</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>100</v>
+        <v>171</v>
       </c>
       <c r="B8">
-        <v>830548</v>
+        <v>901686</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B9">
-        <v>579433</v>
+        <v>841918</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="B10">
-        <v>473116</v>
+        <v>616099</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>159</v>
+        <v>112</v>
       </c>
       <c r="B11">
-        <v>473116</v>
+        <v>598889</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B12">
-        <v>336188</v>
+        <v>364536</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B13">
-        <v>303531</v>
+        <v>323133</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>110</v>
+        <v>173</v>
       </c>
       <c r="B14">
-        <v>189848</v>
+        <v>285587</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>160</v>
+        <v>115</v>
       </c>
       <c r="B15">
-        <v>179542</v>
+        <v>197126</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="B16">
-        <v>78952</v>
+        <v>189299</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="B17">
-        <v>78952</v>
+        <v>80040</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>111</v>
+        <v>176</v>
       </c>
       <c r="B18">
-        <v>53227</v>
+        <v>80040</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B19">
-        <v>14840</v>
+        <v>55510</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>163</v>
+        <v>117</v>
       </c>
       <c r="B20">
-        <v>10488</v>
+        <v>51582</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="B21">
-        <v>8751</v>
+        <v>15177</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="B22">
-        <v>6530</v>
+        <v>10772</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>165</v>
+        <v>118</v>
       </c>
       <c r="B23">
-        <v>6045</v>
+        <v>9096</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="B24">
-        <v>6045</v>
+        <v>6712</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>116</v>
+        <v>179</v>
       </c>
       <c r="B25">
-        <v>5425</v>
+        <v>6156</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>118</v>
+        <v>180</v>
       </c>
       <c r="B26">
-        <v>2050</v>
+        <v>6156</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>167</v>
+        <v>122</v>
       </c>
       <c r="B27">
-        <v>1166</v>
+        <v>6131</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>168</v>
+        <v>124</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="B29">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B31">
         <v>0</v>
       </c>
     </row>
@@ -5127,7 +5464,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5138,183 +5475,183 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B2">
-        <v>353</v>
+        <v>368</v>
       </c>
       <c r="C2">
-        <v>402</v>
+        <v>418</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B3">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="C3">
-        <v>261</v>
+        <v>269</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B4">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="C4">
-        <v>208</v>
+        <v>215</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="B5">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C5">
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="B6">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C6">
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="B7">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C7">
-        <v>65</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="B8">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="C8">
-        <v>45</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>103</v>
+        <v>173</v>
       </c>
       <c r="B9">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="C9">
-        <v>42</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>100</v>
+        <v>174</v>
       </c>
       <c r="B10">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="C10">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="B11">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="C11">
-        <v>19</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B12">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C12">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="B13">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C13">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>158</v>
+        <v>103</v>
       </c>
       <c r="B14">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C14">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>159</v>
+        <v>123</v>
       </c>
       <c r="B15">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="B16">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>166</v>
+        <v>122</v>
       </c>
       <c r="B17">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17">
         <v>11</v>
@@ -5322,62 +5659,62 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>116</v>
+        <v>179</v>
       </c>
       <c r="B18">
         <v>7</v>
       </c>
       <c r="C18">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>111</v>
+        <v>180</v>
       </c>
       <c r="B19">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C19">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>167</v>
+        <v>117</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>161</v>
+        <v>116</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -5388,7 +5725,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -5399,7 +5736,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
-        <v>118</v>
+        <v>178</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -5410,7 +5747,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
-        <v>162</v>
+        <v>183</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -5421,7 +5758,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -5432,7 +5769,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
-        <v>106</v>
+        <v>176</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -5443,12 +5780,34 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="B29">
         <v>0</v>
       </c>
       <c r="C29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
         <v>0</v>
       </c>
     </row>
@@ -5459,7 +5818,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5470,231 +5829,247 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B2">
-        <v>320681</v>
+        <v>334895</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B3">
-        <v>147082</v>
+        <v>155148</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B4">
-        <v>94648</v>
+        <v>97945</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B5">
-        <v>88452</v>
+        <v>93913</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="B6">
-        <v>73359</v>
+        <v>79969</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="B7">
-        <v>59477</v>
+        <v>78127</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>156</v>
+        <v>105</v>
       </c>
       <c r="B8">
-        <v>49556</v>
+        <v>76453</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="B9">
-        <v>49556</v>
+        <v>76095</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="B10">
-        <v>36609</v>
+        <v>62347</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>99</v>
+        <v>169</v>
       </c>
       <c r="B11">
-        <v>35234</v>
+        <v>53181</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>106</v>
+        <v>170</v>
       </c>
       <c r="B12">
-        <v>22750</v>
+        <v>53181</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="B13">
-        <v>22157</v>
+        <v>52994</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>159</v>
+        <v>109</v>
       </c>
       <c r="B14">
-        <v>22157</v>
+        <v>40442</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>160</v>
+        <v>110</v>
       </c>
       <c r="B15">
-        <v>20231</v>
+        <v>24028</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B16">
-        <v>16317</v>
+        <v>23101</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="B17">
-        <v>16317</v>
+        <v>20816</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>111</v>
+        <v>182</v>
       </c>
       <c r="B18">
-        <v>15897</v>
+        <v>17110</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="B19">
-        <v>13578</v>
+        <v>17110</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>166</v>
+        <v>116</v>
       </c>
       <c r="B20">
-        <v>13578</v>
+        <v>16595</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="B21">
-        <v>11527</v>
+        <v>14079</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="B22">
-        <v>11527</v>
+        <v>14079</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="B23">
-        <v>9590</v>
+        <v>12095</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>116</v>
+        <v>176</v>
       </c>
       <c r="B24">
-        <v>7162</v>
+        <v>12095</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>112</v>
+        <v>177</v>
       </c>
       <c r="B25">
-        <v>7056</v>
+        <v>10125</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>167</v>
+        <v>122</v>
       </c>
       <c r="B26">
-        <v>5109</v>
+        <v>7982</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B27">
-        <v>5013</v>
+        <v>7245</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="B28">
-        <v>1376</v>
+        <v>5274</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B29">
-        <v>503</v>
+        <v>5170</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B30">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B31">
+        <v>545</v>
       </c>
     </row>
   </sheetData>

--- a/monthly_reports/monthly_data/2021 Charts Month 1.xlsx
+++ b/monthly_reports/monthly_data/2021 Charts Month 1.xlsx
@@ -51,21 +51,21 @@
     <t>deadmau5, Wolfgang Gartner</t>
   </si>
   <si>
+    <t>KEVU</t>
+  </si>
+  <si>
     <t>Don Diablo</t>
   </si>
   <si>
-    <t>KEVU</t>
-  </si>
-  <si>
     <t>Kaskade</t>
   </si>
   <si>
+    <t>Maggie Lindemann</t>
+  </si>
+  <si>
     <t>Kirara Magic</t>
   </si>
   <si>
-    <t>Maggie Lindemann</t>
-  </si>
-  <si>
     <t>Rosenfeld</t>
   </si>
   <si>
@@ -87,15 +87,15 @@
     <t>TYNAN, Ace Aura</t>
   </si>
   <si>
+    <t>insaneintherainmusic</t>
+  </si>
+  <si>
+    <t>Rameses B</t>
+  </si>
+  <si>
     <t>Camellia</t>
   </si>
   <si>
-    <t>insaneintherainmusic</t>
-  </si>
-  <si>
-    <t>Rameses B</t>
-  </si>
-  <si>
     <t>DubVision</t>
   </si>
   <si>
@@ -132,12 +132,12 @@
     <t>Jaxxwell, Hardwell, Blasterjaxx</t>
   </si>
   <si>
+    <t>Body Ocean</t>
+  </si>
+  <si>
     <t>NUZB</t>
   </si>
   <si>
-    <t>Body Ocean</t>
-  </si>
-  <si>
     <t>Maurice Lessing</t>
   </si>
   <si>
@@ -156,15 +156,15 @@
     <t>DJ St3v3, Sebastian Mateo</t>
   </si>
   <si>
+    <t>Lady Bee, Dame1</t>
+  </si>
+  <si>
     <t>D3EPANK</t>
   </si>
   <si>
     <t>Slippy</t>
   </si>
   <si>
-    <t>Lady Bee, Dame1</t>
-  </si>
-  <si>
     <t>DNVX</t>
   </si>
   <si>
@@ -195,21 +195,21 @@
     <t>Channel 43</t>
   </si>
   <si>
+    <t>Melody</t>
+  </si>
+  <si>
     <t>Into The Unknown</t>
   </si>
   <si>
-    <t>Melody</t>
-  </si>
-  <si>
     <t>Closer</t>
   </si>
   <si>
+    <t>Crash And Burn</t>
+  </si>
+  <si>
     <t>Wraith</t>
   </si>
   <si>
-    <t>Crash And Burn</t>
-  </si>
-  <si>
     <t>Dangerous Woman</t>
   </si>
   <si>
@@ -231,15 +231,15 @@
     <t>Stay</t>
   </si>
   <si>
+    <t>Bonetrousle</t>
+  </si>
+  <si>
+    <t>Samurai</t>
+  </si>
+  <si>
     <t>PURE SILVER</t>
   </si>
   <si>
-    <t>Bonetrousle</t>
-  </si>
-  <si>
-    <t>Samurai</t>
-  </si>
-  <si>
     <t>Deeper</t>
   </si>
   <si>
@@ -276,12 +276,12 @@
     <t>Bootshaus ID</t>
   </si>
   <si>
+    <t>Once The Music</t>
+  </si>
+  <si>
     <t>Nighttime</t>
   </si>
   <si>
-    <t>Once The Music</t>
-  </si>
-  <si>
     <t>Never Let You Go</t>
   </si>
   <si>
@@ -300,15 +300,15 @@
     <t>So Sexy</t>
   </si>
   <si>
+    <t>Soon Not Later</t>
+  </si>
+  <si>
     <t>Eternally</t>
   </si>
   <si>
     <t>Free</t>
   </si>
   <si>
-    <t>Soon Not Later</t>
-  </si>
-  <si>
     <t>Losing Control</t>
   </si>
   <si>
@@ -339,21 +339,21 @@
     <t>mau5trap</t>
   </si>
   <si>
+    <t>Maxximize Records, Spinnin' Records</t>
+  </si>
+  <si>
     <t>HEXAGON</t>
   </si>
   <si>
-    <t>Maxximize Records, Spinnin' Records</t>
-  </si>
-  <si>
     <t>Monstercat</t>
   </si>
   <si>
+    <t>swixxzaudio</t>
+  </si>
+  <si>
     <t>NONE</t>
   </si>
   <si>
-    <t>swixxzaudio</t>
-  </si>
-  <si>
     <t>WLTD Entertainment LTD</t>
   </si>
   <si>
@@ -384,13 +384,13 @@
     <t>Revealed Music, Revealed Radar</t>
   </si>
   <si>
+    <t>Mixmash Recorsds</t>
+  </si>
+  <si>
     <t>Future House Cloud, FHC Selection</t>
   </si>
   <si>
     <t>Dim Mak, Dim Mak New Noise</t>
-  </si>
-  <si>
-    <t>Mixmash Recorsds</t>
   </si>
   <si>
     <t>Future House Cloud</t>
@@ -962,7 +962,7 @@
         <v>101</v>
       </c>
       <c r="D2">
-        <v>2811551</v>
+        <v>3061973</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -976,7 +976,7 @@
         <v>102</v>
       </c>
       <c r="D3">
-        <v>1395249</v>
+        <v>1566477</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -990,7 +990,7 @@
         <v>103</v>
       </c>
       <c r="D4">
-        <v>1241317</v>
+        <v>1272970</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1004,7 +1004,7 @@
         <v>103</v>
       </c>
       <c r="D5">
-        <v>975493</v>
+        <v>1006563</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1018,7 +1018,7 @@
         <v>104</v>
       </c>
       <c r="D6">
-        <v>841918</v>
+        <v>858535</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1032,7 +1032,7 @@
         <v>105</v>
       </c>
       <c r="D7">
-        <v>718323</v>
+        <v>844443</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1046,7 +1046,7 @@
         <v>106</v>
       </c>
       <c r="D8">
-        <v>616099</v>
+        <v>754231</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1060,7 +1060,7 @@
         <v>107</v>
       </c>
       <c r="D9">
-        <v>462747</v>
+        <v>530895</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1074,7 +1074,7 @@
         <v>108</v>
       </c>
       <c r="D10">
-        <v>377246</v>
+        <v>413868</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1088,7 +1088,7 @@
         <v>109</v>
       </c>
       <c r="D11">
-        <v>364536</v>
+        <v>396219</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1102,7 +1102,7 @@
         <v>110</v>
       </c>
       <c r="D12">
-        <v>323133</v>
+        <v>353303</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1116,7 +1116,7 @@
         <v>111</v>
       </c>
       <c r="D13">
-        <v>285587</v>
+        <v>318944</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1130,7 +1130,7 @@
         <v>112</v>
       </c>
       <c r="D14">
-        <v>235340</v>
+        <v>250045</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1144,7 +1144,7 @@
         <v>107</v>
       </c>
       <c r="D15">
-        <v>199646</v>
+        <v>222291</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1158,7 +1158,7 @@
         <v>113</v>
       </c>
       <c r="D16">
-        <v>159727</v>
+        <v>188909</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1172,7 +1172,7 @@
         <v>112</v>
       </c>
       <c r="D17">
-        <v>134003</v>
+        <v>141335</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1186,7 +1186,7 @@
         <v>107</v>
       </c>
       <c r="D18">
-        <v>133857</v>
+        <v>140816</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1197,10 +1197,10 @@
         <v>69</v>
       </c>
       <c r="C19" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D19">
-        <v>123872</v>
+        <v>133730</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1211,10 +1211,10 @@
         <v>70</v>
       </c>
       <c r="C20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D20">
-        <v>123469</v>
+        <v>132399</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1225,10 +1225,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D21">
-        <v>122339</v>
+        <v>129246</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1242,7 +1242,7 @@
         <v>112</v>
       </c>
       <c r="D22">
-        <v>84291</v>
+        <v>88811</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1256,7 +1256,7 @@
         <v>114</v>
       </c>
       <c r="D23">
-        <v>80040</v>
+        <v>81593</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1270,7 +1270,7 @@
         <v>115</v>
       </c>
       <c r="D24">
-        <v>75340</v>
+        <v>79454</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1281,10 +1281,10 @@
         <v>75</v>
       </c>
       <c r="C25" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D25">
-        <v>70508</v>
+        <v>76198</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1298,7 +1298,7 @@
         <v>112</v>
       </c>
       <c r="D26">
-        <v>63837</v>
+        <v>67249</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1309,10 +1309,10 @@
         <v>77</v>
       </c>
       <c r="C27" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D27">
-        <v>58063</v>
+        <v>65233</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1326,7 +1326,7 @@
         <v>116</v>
       </c>
       <c r="D28">
-        <v>54269</v>
+        <v>57979</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1340,7 +1340,7 @@
         <v>117</v>
       </c>
       <c r="D29">
-        <v>51582</v>
+        <v>55951</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1351,10 +1351,10 @@
         <v>80</v>
       </c>
       <c r="C30" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D30">
-        <v>50326</v>
+        <v>54193</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1365,10 +1365,10 @@
         <v>81</v>
       </c>
       <c r="C31" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D31">
-        <v>43501</v>
+        <v>45109</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1382,7 +1382,7 @@
         <v>115</v>
       </c>
       <c r="D32">
-        <v>41690</v>
+        <v>44138</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1396,7 +1396,7 @@
         <v>115</v>
       </c>
       <c r="D33">
-        <v>35151</v>
+        <v>36744</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1410,7 +1410,7 @@
         <v>112</v>
       </c>
       <c r="D34">
-        <v>32183</v>
+        <v>34079</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1424,7 +1424,7 @@
         <v>112</v>
       </c>
       <c r="D35">
-        <v>31488</v>
+        <v>33700</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1438,7 +1438,7 @@
         <v>113</v>
       </c>
       <c r="D36">
-        <v>29572</v>
+        <v>30047</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1452,7 +1452,7 @@
         <v>115</v>
       </c>
       <c r="D37">
-        <v>22719</v>
+        <v>23700</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1466,7 +1466,7 @@
         <v>112</v>
       </c>
       <c r="D38">
-        <v>17747</v>
+        <v>18215</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1480,7 +1480,7 @@
         <v>115</v>
       </c>
       <c r="D39">
-        <v>11454</v>
+        <v>11849</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1494,7 +1494,7 @@
         <v>118</v>
       </c>
       <c r="D40">
-        <v>9096</v>
+        <v>9485</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1508,7 +1508,7 @@
         <v>119</v>
       </c>
       <c r="D41">
-        <v>8150</v>
+        <v>8478</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1522,7 +1522,7 @@
         <v>120</v>
       </c>
       <c r="D42">
-        <v>6712</v>
+        <v>7667</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1536,7 +1536,7 @@
         <v>121</v>
       </c>
       <c r="D43">
-        <v>6156</v>
+        <v>7099</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1550,7 +1550,7 @@
         <v>122</v>
       </c>
       <c r="D44">
-        <v>6131</v>
+        <v>6374</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1564,7 +1564,7 @@
         <v>123</v>
       </c>
       <c r="D45">
-        <v>4270</v>
+        <v>4374</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1578,7 +1578,7 @@
         <v>123</v>
       </c>
       <c r="D46">
-        <v>4195</v>
+        <v>4335</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1592,7 +1592,7 @@
         <v>119</v>
       </c>
       <c r="D47">
-        <v>2622</v>
+        <v>3013</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1606,7 +1606,7 @@
         <v>124</v>
       </c>
       <c r="D48">
-        <v>2230</v>
+        <v>2637</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1620,7 +1620,7 @@
         <v>125</v>
       </c>
       <c r="D49">
-        <v>1241</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1675,30 +1675,30 @@
         <v>77</v>
       </c>
       <c r="C2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E2">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C3" t="s">
         <v>112</v>
       </c>
       <c r="D3">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E3">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1715,7 +1715,7 @@
         <v>88</v>
       </c>
       <c r="E4">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1732,41 +1732,41 @@
         <v>82</v>
       </c>
       <c r="E5">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="C6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D6">
         <v>60</v>
       </c>
       <c r="E6">
-        <v>67</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D7">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E7">
-        <v>86</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1777,38 +1777,38 @@
         <v>81</v>
       </c>
       <c r="C8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E8">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C9" t="s">
         <v>112</v>
       </c>
       <c r="D9">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E9">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C10" t="s">
         <v>112</v>
@@ -1817,7 +1817,7 @@
         <v>45</v>
       </c>
       <c r="E10">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1839,53 +1839,53 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C12" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D12">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E12">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B13" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C13" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D13">
         <v>32</v>
       </c>
       <c r="E13">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="B14" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="C14" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="D14">
         <v>32</v>
       </c>
       <c r="E14">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1936,7 +1936,7 @@
         <v>25</v>
       </c>
       <c r="E17">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1964,7 +1964,7 @@
         <v>80</v>
       </c>
       <c r="C19" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D19">
         <v>19</v>
@@ -1975,84 +1975,84 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C20" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D20">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E20">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="B21" t="s">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="C21" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="D21">
         <v>16</v>
       </c>
       <c r="E21">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C22" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D22">
         <v>16</v>
       </c>
       <c r="E22">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="B23" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="C23" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="D23">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E23">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B24" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C24" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D24">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E24">
         <v>19</v>
@@ -2089,75 +2089,75 @@
         <v>10</v>
       </c>
       <c r="E26">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="B27" t="s">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="C27" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="D27">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E27">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="B28" t="s">
-        <v>94</v>
+        <v>57</v>
       </c>
       <c r="C28" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="D28">
         <v>8</v>
       </c>
       <c r="E28">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="B29" t="s">
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="C29" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="D29">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E29">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="B30" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="C30" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="D30">
         <v>7</v>
       </c>
       <c r="E30">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -2213,33 +2213,33 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B34" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C34" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="D34">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E34">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B35" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C35" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="D35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E35">
         <v>3</v>
@@ -2264,10 +2264,10 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C37" t="s">
         <v>107</v>
@@ -2349,13 +2349,13 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B42" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C42" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -2366,13 +2366,13 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C43" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -2406,7 +2406,7 @@
         <v>75</v>
       </c>
       <c r="C45" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -2417,13 +2417,13 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C46" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -2468,13 +2468,13 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B49" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C49" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -2485,13 +2485,13 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B50" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C50" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -2538,7 +2538,7 @@
         <v>101</v>
       </c>
       <c r="D2">
-        <v>155148</v>
+        <v>167041</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2552,7 +2552,7 @@
         <v>107</v>
       </c>
       <c r="D3">
-        <v>102906</v>
+        <v>107120</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2566,7 +2566,7 @@
         <v>104</v>
       </c>
       <c r="D4">
-        <v>97945</v>
+        <v>103518</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2580,7 +2580,7 @@
         <v>107</v>
       </c>
       <c r="D5">
-        <v>94065</v>
+        <v>101819</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2594,7 +2594,7 @@
         <v>117</v>
       </c>
       <c r="D6">
-        <v>79969</v>
+        <v>85315</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2608,21 +2608,21 @@
         <v>107</v>
       </c>
       <c r="D7">
-        <v>72302</v>
+        <v>76839</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C8" t="s">
         <v>107</v>
       </c>
       <c r="D8">
-        <v>65622</v>
+        <v>70632</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2636,7 +2636,7 @@
         <v>102</v>
       </c>
       <c r="D9">
-        <v>53181</v>
+        <v>58485</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2650,35 +2650,35 @@
         <v>111</v>
       </c>
       <c r="D10">
-        <v>52994</v>
+        <v>57491</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C11" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="D11">
-        <v>41830</v>
+        <v>46272</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C12" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D12">
-        <v>40442</v>
+        <v>44081</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2692,7 +2692,7 @@
         <v>103</v>
       </c>
       <c r="D13">
-        <v>36297</v>
+        <v>37976</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2706,7 +2706,7 @@
         <v>112</v>
       </c>
       <c r="D14">
-        <v>31436</v>
+        <v>33859</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2720,35 +2720,35 @@
         <v>110</v>
       </c>
       <c r="D15">
-        <v>24028</v>
+        <v>25824</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D16">
-        <v>23101</v>
+        <v>24310</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C17" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D17">
-        <v>21697</v>
+        <v>23103</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2762,7 +2762,7 @@
         <v>112</v>
       </c>
       <c r="D18">
-        <v>21173</v>
+        <v>22779</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2773,10 +2773,10 @@
         <v>80</v>
       </c>
       <c r="C19" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D19">
-        <v>19795</v>
+        <v>21422</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2787,10 +2787,10 @@
         <v>77</v>
       </c>
       <c r="C20" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D20">
-        <v>18237</v>
+        <v>19476</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2804,35 +2804,35 @@
         <v>115</v>
       </c>
       <c r="D21">
-        <v>17885</v>
+        <v>18975</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B22" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C22" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="D22">
-        <v>17605</v>
+        <v>18784</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B23" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C23" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D23">
-        <v>17298</v>
+        <v>18661</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2846,7 +2846,7 @@
         <v>126</v>
       </c>
       <c r="D24">
-        <v>17110</v>
+        <v>18264</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2857,10 +2857,10 @@
         <v>75</v>
       </c>
       <c r="C25" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D25">
-        <v>15734</v>
+        <v>16926</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2874,21 +2874,21 @@
         <v>112</v>
       </c>
       <c r="D26">
-        <v>14757</v>
+        <v>16342</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B27" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C27" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D27">
-        <v>14079</v>
+        <v>14846</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2902,7 +2902,7 @@
         <v>115</v>
       </c>
       <c r="D28">
-        <v>13876</v>
+        <v>14773</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2916,7 +2916,7 @@
         <v>114</v>
       </c>
       <c r="D29">
-        <v>12095</v>
+        <v>12734</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2930,7 +2930,7 @@
         <v>116</v>
       </c>
       <c r="D30">
-        <v>11321</v>
+        <v>12258</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2944,7 +2944,7 @@
         <v>113</v>
       </c>
       <c r="D31">
-        <v>10673</v>
+        <v>10961</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2958,21 +2958,21 @@
         <v>113</v>
       </c>
       <c r="D32">
-        <v>10143</v>
+        <v>10477</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C33" t="s">
         <v>112</v>
       </c>
       <c r="D33">
-        <v>9249</v>
+        <v>10428</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -2986,7 +2986,7 @@
         <v>115</v>
       </c>
       <c r="D34">
-        <v>9087</v>
+        <v>9591</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -3000,49 +3000,49 @@
         <v>119</v>
       </c>
       <c r="D35">
-        <v>8588</v>
+        <v>9323</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B36" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C36" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D36">
-        <v>7982</v>
+        <v>9186</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C37" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D37">
-        <v>7245</v>
+        <v>7535</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B38" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="C38" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D38">
-        <v>7127</v>
+        <v>7426</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -3056,7 +3056,7 @@
         <v>125</v>
       </c>
       <c r="D39">
-        <v>5274</v>
+        <v>5567</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -3070,7 +3070,7 @@
         <v>115</v>
       </c>
       <c r="D40">
-        <v>4247</v>
+        <v>4360</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -3084,49 +3084,49 @@
         <v>123</v>
       </c>
       <c r="D41">
-        <v>2234</v>
+        <v>2395</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C42" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="D42">
-        <v>1537</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C43" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D43">
-        <v>1513</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C44" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D44">
-        <v>1423</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -3140,18 +3140,18 @@
         <v>124</v>
       </c>
       <c r="D45">
-        <v>545</v>
+        <v>646</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B46" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C46" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -3173,13 +3173,13 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B48" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C48" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -3201,13 +3201,13 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B50" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C50" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -3239,7 +3239,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>2811551</v>
+        <v>3061973</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3247,7 +3247,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>1395249</v>
+        <v>1566477</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3255,7 +3255,7 @@
         <v>130</v>
       </c>
       <c r="B4">
-        <v>1241317</v>
+        <v>1272970</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3263,7 +3263,7 @@
         <v>131</v>
       </c>
       <c r="B5">
-        <v>1241317</v>
+        <v>1272970</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3271,7 +3271,7 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>975493</v>
+        <v>1006563</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3279,7 +3279,7 @@
         <v>132</v>
       </c>
       <c r="B7">
-        <v>841918</v>
+        <v>858535</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3287,7 +3287,7 @@
         <v>133</v>
       </c>
       <c r="B8">
-        <v>841918</v>
+        <v>858535</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3295,7 +3295,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>718323</v>
+        <v>844443</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3303,7 +3303,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>616099</v>
+        <v>754231</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3311,7 +3311,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>462747</v>
+        <v>530895</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3319,7 +3319,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>377246</v>
+        <v>413868</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3327,7 +3327,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>364536</v>
+        <v>396219</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3335,7 +3335,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>323133</v>
+        <v>353303</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3343,7 +3343,7 @@
         <v>134</v>
       </c>
       <c r="B15">
-        <v>285587</v>
+        <v>318944</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3351,7 +3351,7 @@
         <v>135</v>
       </c>
       <c r="B16">
-        <v>285587</v>
+        <v>318944</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -3359,7 +3359,7 @@
         <v>136</v>
       </c>
       <c r="B17">
-        <v>285587</v>
+        <v>318944</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -3367,7 +3367,7 @@
         <v>137</v>
       </c>
       <c r="B18">
-        <v>285587</v>
+        <v>318944</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -3375,7 +3375,7 @@
         <v>16</v>
       </c>
       <c r="B19">
-        <v>235340</v>
+        <v>250045</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -3383,7 +3383,7 @@
         <v>17</v>
       </c>
       <c r="B20">
-        <v>199646</v>
+        <v>222291</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -3391,7 +3391,7 @@
         <v>18</v>
       </c>
       <c r="B21">
-        <v>159727</v>
+        <v>188909</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -3399,7 +3399,7 @@
         <v>19</v>
       </c>
       <c r="B22">
-        <v>134003</v>
+        <v>141335</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -3407,7 +3407,7 @@
         <v>138</v>
       </c>
       <c r="B23">
-        <v>133857</v>
+        <v>140816</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -3415,7 +3415,7 @@
         <v>139</v>
       </c>
       <c r="B24">
-        <v>133857</v>
+        <v>140816</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -3423,7 +3423,7 @@
         <v>21</v>
       </c>
       <c r="B25">
-        <v>123872</v>
+        <v>133730</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -3431,7 +3431,7 @@
         <v>22</v>
       </c>
       <c r="B26">
-        <v>123469</v>
+        <v>132399</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -3439,7 +3439,7 @@
         <v>23</v>
       </c>
       <c r="B27">
-        <v>122339</v>
+        <v>129246</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -3447,7 +3447,7 @@
         <v>24</v>
       </c>
       <c r="B28">
-        <v>84291</v>
+        <v>88811</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -3455,7 +3455,7 @@
         <v>25</v>
       </c>
       <c r="B29">
-        <v>80040</v>
+        <v>81593</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -3463,7 +3463,7 @@
         <v>140</v>
       </c>
       <c r="B30">
-        <v>75340</v>
+        <v>79454</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -3471,7 +3471,7 @@
         <v>141</v>
       </c>
       <c r="B31">
-        <v>75340</v>
+        <v>79454</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -3479,7 +3479,7 @@
         <v>27</v>
       </c>
       <c r="B32">
-        <v>70508</v>
+        <v>76198</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -3487,7 +3487,7 @@
         <v>142</v>
       </c>
       <c r="B33">
-        <v>63837</v>
+        <v>67249</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -3495,7 +3495,7 @@
         <v>143</v>
       </c>
       <c r="B34">
-        <v>63837</v>
+        <v>67249</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -3503,7 +3503,7 @@
         <v>29</v>
       </c>
       <c r="B35">
-        <v>58063</v>
+        <v>65233</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -3511,7 +3511,7 @@
         <v>144</v>
       </c>
       <c r="B36">
-        <v>54269</v>
+        <v>57979</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -3519,7 +3519,7 @@
         <v>145</v>
       </c>
       <c r="B37">
-        <v>54269</v>
+        <v>57979</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -3527,7 +3527,7 @@
         <v>146</v>
       </c>
       <c r="B38">
-        <v>51582</v>
+        <v>55951</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -3535,7 +3535,7 @@
         <v>147</v>
       </c>
       <c r="B39">
-        <v>51582</v>
+        <v>55951</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -3543,7 +3543,7 @@
         <v>148</v>
       </c>
       <c r="B40">
-        <v>51582</v>
+        <v>55951</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -3551,7 +3551,7 @@
         <v>32</v>
       </c>
       <c r="B41">
-        <v>50326</v>
+        <v>54193</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -3559,7 +3559,7 @@
         <v>33</v>
       </c>
       <c r="B42">
-        <v>43501</v>
+        <v>45109</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -3567,7 +3567,7 @@
         <v>149</v>
       </c>
       <c r="B43">
-        <v>41690</v>
+        <v>44138</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -3575,7 +3575,7 @@
         <v>150</v>
       </c>
       <c r="B44">
-        <v>41690</v>
+        <v>44138</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -3583,7 +3583,7 @@
         <v>151</v>
       </c>
       <c r="B45">
-        <v>35151</v>
+        <v>36744</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -3591,7 +3591,7 @@
         <v>152</v>
       </c>
       <c r="B46">
-        <v>35151</v>
+        <v>36744</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -3599,7 +3599,7 @@
         <v>153</v>
       </c>
       <c r="B47">
-        <v>35151</v>
+        <v>36744</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -3607,7 +3607,7 @@
         <v>36</v>
       </c>
       <c r="B48">
-        <v>32183</v>
+        <v>34079</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -3615,7 +3615,7 @@
         <v>37</v>
       </c>
       <c r="B49">
-        <v>31488</v>
+        <v>33700</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -3623,7 +3623,7 @@
         <v>38</v>
       </c>
       <c r="B50">
-        <v>29572</v>
+        <v>30047</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -3631,7 +3631,7 @@
         <v>154</v>
       </c>
       <c r="B51">
-        <v>22719</v>
+        <v>23700</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -3639,7 +3639,7 @@
         <v>155</v>
       </c>
       <c r="B52">
-        <v>22719</v>
+        <v>23700</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -3647,7 +3647,7 @@
         <v>156</v>
       </c>
       <c r="B53">
-        <v>17747</v>
+        <v>18215</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -3655,7 +3655,7 @@
         <v>157</v>
       </c>
       <c r="B54">
-        <v>17747</v>
+        <v>18215</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -3663,7 +3663,7 @@
         <v>158</v>
       </c>
       <c r="B55">
-        <v>11454</v>
+        <v>11849</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -3671,7 +3671,7 @@
         <v>159</v>
       </c>
       <c r="B56">
-        <v>11454</v>
+        <v>11849</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -3679,7 +3679,7 @@
         <v>160</v>
       </c>
       <c r="B57">
-        <v>11454</v>
+        <v>11849</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -3687,7 +3687,7 @@
         <v>42</v>
       </c>
       <c r="B58">
-        <v>9096</v>
+        <v>9485</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -3695,7 +3695,7 @@
         <v>161</v>
       </c>
       <c r="B59">
-        <v>8150</v>
+        <v>8478</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -3703,39 +3703,39 @@
         <v>162</v>
       </c>
       <c r="B60">
-        <v>8150</v>
+        <v>8478</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>44</v>
+        <v>163</v>
       </c>
       <c r="B61">
-        <v>6712</v>
+        <v>7667</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="1" t="s">
-        <v>45</v>
+        <v>164</v>
       </c>
       <c r="B62">
-        <v>6156</v>
+        <v>7667</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="1" t="s">
-        <v>163</v>
+        <v>45</v>
       </c>
       <c r="B63">
-        <v>6131</v>
+        <v>7099</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="1" t="s">
-        <v>164</v>
+        <v>46</v>
       </c>
       <c r="B64">
-        <v>6131</v>
+        <v>6374</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -3743,7 +3743,7 @@
         <v>47</v>
       </c>
       <c r="B65">
-        <v>4270</v>
+        <v>4374</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -3751,7 +3751,7 @@
         <v>48</v>
       </c>
       <c r="B66">
-        <v>4195</v>
+        <v>4335</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -3759,7 +3759,7 @@
         <v>49</v>
       </c>
       <c r="B67">
-        <v>2622</v>
+        <v>3013</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -3767,7 +3767,7 @@
         <v>165</v>
       </c>
       <c r="B68">
-        <v>2230</v>
+        <v>2637</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -3775,7 +3775,7 @@
         <v>166</v>
       </c>
       <c r="B69">
-        <v>2230</v>
+        <v>2637</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -3783,7 +3783,7 @@
         <v>51</v>
       </c>
       <c r="B70">
-        <v>1241</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -3831,21 +3831,21 @@
         <v>29</v>
       </c>
       <c r="B2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C2">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C3">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3856,7 +3856,7 @@
         <v>88</v>
       </c>
       <c r="C4">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3867,73 +3867,73 @@
         <v>82</v>
       </c>
       <c r="C5">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="B6">
         <v>60</v>
       </c>
       <c r="C6">
-        <v>67</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="B7">
         <v>60</v>
       </c>
       <c r="C7">
-        <v>67</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B8">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C8">
-        <v>86</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B9">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C9">
-        <v>86</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="B10">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C10">
-        <v>86</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B11">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C11">
-        <v>86</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3941,32 +3941,32 @@
         <v>33</v>
       </c>
       <c r="B12">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C12">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C13">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B14">
         <v>45</v>
       </c>
       <c r="C14">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -3982,18 +3982,18 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>154</v>
+        <v>37</v>
       </c>
       <c r="B16">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C16">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B17">
         <v>32</v>
@@ -4004,24 +4004,24 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>49</v>
+        <v>155</v>
       </c>
       <c r="B18">
         <v>32</v>
       </c>
       <c r="C18">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="B19">
         <v>32</v>
       </c>
       <c r="C19">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -4087,7 +4087,7 @@
         <v>25</v>
       </c>
       <c r="C25">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -4098,7 +4098,7 @@
         <v>25</v>
       </c>
       <c r="C26">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -4136,43 +4136,43 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B30">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C30">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1" t="s">
-        <v>4</v>
+        <v>149</v>
       </c>
       <c r="B31">
         <v>16</v>
       </c>
       <c r="C31">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
-        <v>7</v>
+        <v>150</v>
       </c>
       <c r="B32">
         <v>16</v>
       </c>
       <c r="C32">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
-        <v>149</v>
+        <v>11</v>
       </c>
       <c r="B33">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C33">
         <v>22</v>
@@ -4180,21 +4180,21 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1" t="s">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="B34">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C34">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B35">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C35">
         <v>19</v>
@@ -4241,56 +4241,56 @@
         <v>10</v>
       </c>
       <c r="C39">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1" t="s">
-        <v>10</v>
+        <v>163</v>
       </c>
       <c r="B40">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B41">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1" t="s">
-        <v>164</v>
+        <v>9</v>
       </c>
       <c r="B42">
         <v>8</v>
       </c>
       <c r="C42">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1" t="s">
-        <v>138</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B44">
         <v>7</v>
@@ -4301,13 +4301,13 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>139</v>
       </c>
       <c r="B45">
         <v>7</v>
       </c>
       <c r="C45">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -4367,18 +4367,18 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="1" t="s">
-        <v>156</v>
+        <v>48</v>
       </c>
       <c r="B51">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C51">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B52">
         <v>3</v>
@@ -4389,10 +4389,10 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="1" t="s">
-        <v>48</v>
+        <v>157</v>
       </c>
       <c r="B53">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C53">
         <v>3</v>
@@ -4422,7 +4422,7 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -4466,7 +4466,7 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -4488,7 +4488,7 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -4521,7 +4521,7 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -4543,7 +4543,7 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -4598,7 +4598,7 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -4633,7 +4633,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>155148</v>
+        <v>167041</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4641,7 +4641,7 @@
         <v>138</v>
       </c>
       <c r="B3">
-        <v>102906</v>
+        <v>107120</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4649,7 +4649,7 @@
         <v>139</v>
       </c>
       <c r="B4">
-        <v>102906</v>
+        <v>107120</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4657,7 +4657,7 @@
         <v>132</v>
       </c>
       <c r="B5">
-        <v>97945</v>
+        <v>103518</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4665,7 +4665,7 @@
         <v>133</v>
       </c>
       <c r="B6">
-        <v>97945</v>
+        <v>103518</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4673,7 +4673,7 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>94065</v>
+        <v>101819</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4681,7 +4681,7 @@
         <v>146</v>
       </c>
       <c r="B8">
-        <v>79969</v>
+        <v>85315</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4689,7 +4689,7 @@
         <v>147</v>
       </c>
       <c r="B9">
-        <v>79969</v>
+        <v>85315</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4697,7 +4697,7 @@
         <v>148</v>
       </c>
       <c r="B10">
-        <v>79969</v>
+        <v>85315</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -4705,15 +4705,15 @@
         <v>17</v>
       </c>
       <c r="B11">
-        <v>72302</v>
+        <v>76839</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12">
-        <v>65622</v>
+        <v>70632</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -4721,7 +4721,7 @@
         <v>5</v>
       </c>
       <c r="B13">
-        <v>53181</v>
+        <v>58485</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -4729,7 +4729,7 @@
         <v>134</v>
       </c>
       <c r="B14">
-        <v>52994</v>
+        <v>57491</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -4737,7 +4737,7 @@
         <v>135</v>
       </c>
       <c r="B15">
-        <v>52994</v>
+        <v>57491</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -4745,7 +4745,7 @@
         <v>136</v>
       </c>
       <c r="B16">
-        <v>52994</v>
+        <v>57491</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -4753,23 +4753,23 @@
         <v>137</v>
       </c>
       <c r="B17">
-        <v>52994</v>
+        <v>57491</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B18">
-        <v>41830</v>
+        <v>46272</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B19">
-        <v>40442</v>
+        <v>44081</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -4777,7 +4777,7 @@
         <v>130</v>
       </c>
       <c r="B20">
-        <v>36297</v>
+        <v>37976</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -4785,7 +4785,7 @@
         <v>131</v>
       </c>
       <c r="B21">
-        <v>36297</v>
+        <v>37976</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -4793,7 +4793,7 @@
         <v>16</v>
       </c>
       <c r="B22">
-        <v>31436</v>
+        <v>33859</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -4801,23 +4801,23 @@
         <v>14</v>
       </c>
       <c r="B23">
-        <v>24028</v>
+        <v>25824</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B24">
-        <v>23101</v>
+        <v>24310</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B25">
-        <v>21697</v>
+        <v>23103</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -4825,7 +4825,7 @@
         <v>19</v>
       </c>
       <c r="B26">
-        <v>21173</v>
+        <v>22779</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -4833,7 +4833,7 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>19795</v>
+        <v>21422</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -4841,7 +4841,7 @@
         <v>29</v>
       </c>
       <c r="B28">
-        <v>18237</v>
+        <v>19476</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -4849,7 +4849,7 @@
         <v>154</v>
       </c>
       <c r="B29">
-        <v>17885</v>
+        <v>18975</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -4857,23 +4857,23 @@
         <v>155</v>
       </c>
       <c r="B30">
-        <v>17885</v>
+        <v>18975</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>17605</v>
+        <v>18784</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>17298</v>
+        <v>18661</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -4881,7 +4881,7 @@
         <v>167</v>
       </c>
       <c r="B33">
-        <v>17110</v>
+        <v>18264</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -4889,7 +4889,7 @@
         <v>168</v>
       </c>
       <c r="B34">
-        <v>17110</v>
+        <v>18264</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -4897,7 +4897,7 @@
         <v>27</v>
       </c>
       <c r="B35">
-        <v>15734</v>
+        <v>16926</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -4905,7 +4905,7 @@
         <v>142</v>
       </c>
       <c r="B36">
-        <v>14757</v>
+        <v>16342</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -4913,15 +4913,15 @@
         <v>143</v>
       </c>
       <c r="B37">
-        <v>14757</v>
+        <v>16342</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B38">
-        <v>14079</v>
+        <v>14846</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -4929,7 +4929,7 @@
         <v>140</v>
       </c>
       <c r="B39">
-        <v>13876</v>
+        <v>14773</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -4937,7 +4937,7 @@
         <v>141</v>
       </c>
       <c r="B40">
-        <v>13876</v>
+        <v>14773</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -4945,7 +4945,7 @@
         <v>25</v>
       </c>
       <c r="B41">
-        <v>12095</v>
+        <v>12734</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -4953,7 +4953,7 @@
         <v>144</v>
       </c>
       <c r="B42">
-        <v>11321</v>
+        <v>12258</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -4961,7 +4961,7 @@
         <v>145</v>
       </c>
       <c r="B43">
-        <v>11321</v>
+        <v>12258</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -4969,7 +4969,7 @@
         <v>18</v>
       </c>
       <c r="B44">
-        <v>10673</v>
+        <v>10961</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -4977,15 +4977,15 @@
         <v>38</v>
       </c>
       <c r="B45">
-        <v>10143</v>
+        <v>10477</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B46">
-        <v>9249</v>
+        <v>10428</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -4993,7 +4993,7 @@
         <v>149</v>
       </c>
       <c r="B47">
-        <v>9087</v>
+        <v>9591</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -5001,7 +5001,7 @@
         <v>150</v>
       </c>
       <c r="B48">
-        <v>9087</v>
+        <v>9591</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -5009,7 +5009,7 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>8588</v>
+        <v>9323</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -5017,7 +5017,7 @@
         <v>163</v>
       </c>
       <c r="B50">
-        <v>7982</v>
+        <v>9186</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -5025,39 +5025,39 @@
         <v>164</v>
       </c>
       <c r="B51">
-        <v>7982</v>
+        <v>9186</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>42</v>
+        <v>151</v>
       </c>
       <c r="B52">
-        <v>7245</v>
+        <v>7535</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B53">
-        <v>7127</v>
+        <v>7535</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B54">
-        <v>7127</v>
+        <v>7535</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>153</v>
+        <v>42</v>
       </c>
       <c r="B55">
-        <v>7127</v>
+        <v>7426</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -5065,7 +5065,7 @@
         <v>51</v>
       </c>
       <c r="B56">
-        <v>5274</v>
+        <v>5567</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -5073,7 +5073,7 @@
         <v>158</v>
       </c>
       <c r="B57">
-        <v>4247</v>
+        <v>4360</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -5081,7 +5081,7 @@
         <v>159</v>
       </c>
       <c r="B58">
-        <v>4247</v>
+        <v>4360</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -5089,7 +5089,7 @@
         <v>160</v>
       </c>
       <c r="B59">
-        <v>4247</v>
+        <v>4360</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -5097,39 +5097,39 @@
         <v>48</v>
       </c>
       <c r="B60">
-        <v>2234</v>
+        <v>2395</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>161</v>
+        <v>47</v>
       </c>
       <c r="B61">
-        <v>1537</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B62">
-        <v>1537</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="1" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="B63">
-        <v>1513</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B64">
-        <v>1423</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -5137,7 +5137,7 @@
         <v>165</v>
       </c>
       <c r="B65">
-        <v>545</v>
+        <v>646</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -5145,7 +5145,7 @@
         <v>166</v>
       </c>
       <c r="B66">
-        <v>545</v>
+        <v>646</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -5158,7 +5158,7 @@
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -5166,7 +5166,7 @@
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -5190,7 +5190,7 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -5222,7 +5222,7 @@
         <v>101</v>
       </c>
       <c r="B2">
-        <v>2811551</v>
+        <v>3061973</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -5230,7 +5230,7 @@
         <v>103</v>
       </c>
       <c r="B3">
-        <v>2216810</v>
+        <v>2279533</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -5238,7 +5238,7 @@
         <v>169</v>
       </c>
       <c r="B4">
-        <v>1395249</v>
+        <v>1566477</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -5246,31 +5246,31 @@
         <v>170</v>
       </c>
       <c r="B5">
-        <v>1395249</v>
+        <v>1566477</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>105</v>
+        <v>171</v>
       </c>
       <c r="B6">
-        <v>1059512</v>
+        <v>1163387</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B7">
-        <v>918589</v>
+        <v>1137722</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>171</v>
+        <v>107</v>
       </c>
       <c r="B8">
-        <v>901686</v>
+        <v>1026401</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -5278,7 +5278,7 @@
         <v>104</v>
       </c>
       <c r="B9">
-        <v>841918</v>
+        <v>858535</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -5286,7 +5286,7 @@
         <v>172</v>
       </c>
       <c r="B10">
-        <v>616099</v>
+        <v>844443</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -5294,15 +5294,15 @@
         <v>112</v>
       </c>
       <c r="B11">
-        <v>598889</v>
+        <v>633434</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B12">
-        <v>364536</v>
+        <v>413868</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -5310,7 +5310,7 @@
         <v>110</v>
       </c>
       <c r="B13">
-        <v>323133</v>
+        <v>353303</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -5318,23 +5318,23 @@
         <v>173</v>
       </c>
       <c r="B14">
-        <v>285587</v>
+        <v>318944</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>115</v>
+        <v>174</v>
       </c>
       <c r="B15">
-        <v>197126</v>
+        <v>218956</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>174</v>
+        <v>115</v>
       </c>
       <c r="B16">
-        <v>189299</v>
+        <v>207376</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -5342,7 +5342,7 @@
         <v>175</v>
       </c>
       <c r="B17">
-        <v>80040</v>
+        <v>81593</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -5350,7 +5350,7 @@
         <v>176</v>
       </c>
       <c r="B18">
-        <v>80040</v>
+        <v>81593</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -5358,7 +5358,7 @@
         <v>116</v>
       </c>
       <c r="B19">
-        <v>55510</v>
+        <v>59305</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -5366,7 +5366,7 @@
         <v>117</v>
       </c>
       <c r="B20">
-        <v>51582</v>
+        <v>55951</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -5374,7 +5374,7 @@
         <v>123</v>
       </c>
       <c r="B21">
-        <v>15177</v>
+        <v>15808</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -5382,7 +5382,7 @@
         <v>177</v>
       </c>
       <c r="B22">
-        <v>10772</v>
+        <v>11491</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -5390,39 +5390,39 @@
         <v>118</v>
       </c>
       <c r="B23">
-        <v>9096</v>
+        <v>9485</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>178</v>
+        <v>120</v>
       </c>
       <c r="B24">
-        <v>6712</v>
+        <v>7667</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B25">
-        <v>6156</v>
+        <v>7099</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B26">
-        <v>6156</v>
+        <v>6374</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>122</v>
+        <v>180</v>
       </c>
       <c r="B27">
-        <v>6131</v>
+        <v>6374</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -5430,7 +5430,7 @@
         <v>124</v>
       </c>
       <c r="B28">
-        <v>2230</v>
+        <v>2637</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -5438,7 +5438,7 @@
         <v>181</v>
       </c>
       <c r="B29">
-        <v>1241</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -5486,21 +5486,21 @@
         <v>112</v>
       </c>
       <c r="B2">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="C2">
-        <v>418</v>
+        <v>426</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B3">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C3">
-        <v>269</v>
+        <v>277</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -5508,10 +5508,10 @@
         <v>115</v>
       </c>
       <c r="B4">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C4">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -5522,7 +5522,7 @@
         <v>82</v>
       </c>
       <c r="C5">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -5533,7 +5533,7 @@
         <v>82</v>
       </c>
       <c r="C6">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -5541,32 +5541,32 @@
         <v>171</v>
       </c>
       <c r="B7">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C7">
-        <v>99</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B8">
         <v>60</v>
       </c>
       <c r="C8">
-        <v>67</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B9">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C9">
-        <v>86</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -5577,7 +5577,7 @@
         <v>44</v>
       </c>
       <c r="C10">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -5585,10 +5585,10 @@
         <v>107</v>
       </c>
       <c r="B11">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C11">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -5599,29 +5599,29 @@
         <v>25</v>
       </c>
       <c r="C12">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B13">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C13">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B14">
         <v>16</v>
       </c>
       <c r="C14">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -5629,32 +5629,32 @@
         <v>123</v>
       </c>
       <c r="B15">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C15">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>172</v>
+        <v>120</v>
       </c>
       <c r="B16">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>122</v>
+        <v>172</v>
       </c>
       <c r="B17">
         <v>8</v>
       </c>
       <c r="C17">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -5662,10 +5662,10 @@
         <v>179</v>
       </c>
       <c r="B18">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -5673,10 +5673,10 @@
         <v>180</v>
       </c>
       <c r="B19">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -5802,7 +5802,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -5837,7 +5837,7 @@
         <v>107</v>
       </c>
       <c r="B2">
-        <v>334895</v>
+        <v>356410</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -5845,7 +5845,7 @@
         <v>101</v>
       </c>
       <c r="B3">
-        <v>155148</v>
+        <v>167041</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -5853,7 +5853,7 @@
         <v>104</v>
       </c>
       <c r="B4">
-        <v>97945</v>
+        <v>103518</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -5861,7 +5861,7 @@
         <v>112</v>
       </c>
       <c r="B5">
-        <v>93913</v>
+        <v>102192</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -5869,7 +5869,7 @@
         <v>117</v>
       </c>
       <c r="B6">
-        <v>79969</v>
+        <v>85315</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -5877,23 +5877,23 @@
         <v>103</v>
       </c>
       <c r="B7">
-        <v>78127</v>
+        <v>82057</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>105</v>
+        <v>171</v>
       </c>
       <c r="B8">
-        <v>76453</v>
+        <v>81801</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>171</v>
+        <v>106</v>
       </c>
       <c r="B9">
-        <v>76095</v>
+        <v>80997</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -5901,7 +5901,7 @@
         <v>115</v>
       </c>
       <c r="B10">
-        <v>62347</v>
+        <v>66154</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -5909,7 +5909,7 @@
         <v>169</v>
       </c>
       <c r="B11">
-        <v>53181</v>
+        <v>58485</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -5917,7 +5917,7 @@
         <v>170</v>
       </c>
       <c r="B12">
-        <v>53181</v>
+        <v>58485</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -5925,15 +5925,15 @@
         <v>173</v>
       </c>
       <c r="B13">
-        <v>52994</v>
+        <v>57491</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B14">
-        <v>40442</v>
+        <v>46272</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -5941,7 +5941,7 @@
         <v>110</v>
       </c>
       <c r="B15">
-        <v>24028</v>
+        <v>25824</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -5949,7 +5949,7 @@
         <v>172</v>
       </c>
       <c r="B16">
-        <v>23101</v>
+        <v>24310</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -5957,7 +5957,7 @@
         <v>174</v>
       </c>
       <c r="B17">
-        <v>20816</v>
+        <v>21438</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -5965,7 +5965,7 @@
         <v>182</v>
       </c>
       <c r="B18">
-        <v>17110</v>
+        <v>18264</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -5973,7 +5973,7 @@
         <v>183</v>
       </c>
       <c r="B19">
-        <v>17110</v>
+        <v>18264</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -5981,7 +5981,7 @@
         <v>116</v>
       </c>
       <c r="B20">
-        <v>16595</v>
+        <v>17825</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -5989,7 +5989,7 @@
         <v>179</v>
       </c>
       <c r="B21">
-        <v>14079</v>
+        <v>14846</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -5997,7 +5997,7 @@
         <v>180</v>
       </c>
       <c r="B22">
-        <v>14079</v>
+        <v>14846</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -6005,7 +6005,7 @@
         <v>175</v>
       </c>
       <c r="B23">
-        <v>12095</v>
+        <v>12734</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -6013,7 +6013,7 @@
         <v>176</v>
       </c>
       <c r="B24">
-        <v>12095</v>
+        <v>12734</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -6021,15 +6021,15 @@
         <v>177</v>
       </c>
       <c r="B25">
-        <v>10125</v>
+        <v>10920</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B26">
-        <v>7982</v>
+        <v>9186</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -6037,7 +6037,7 @@
         <v>118</v>
       </c>
       <c r="B27">
-        <v>7245</v>
+        <v>7426</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -6045,7 +6045,7 @@
         <v>181</v>
       </c>
       <c r="B28">
-        <v>5274</v>
+        <v>5567</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -6053,7 +6053,7 @@
         <v>123</v>
       </c>
       <c r="B29">
-        <v>5170</v>
+        <v>5474</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -6061,7 +6061,7 @@
         <v>178</v>
       </c>
       <c r="B30">
-        <v>1423</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -6069,7 +6069,7 @@
         <v>124</v>
       </c>
       <c r="B31">
-        <v>545</v>
+        <v>646</v>
       </c>
     </row>
   </sheetData>

--- a/monthly_reports/monthly_data/2021 Charts Month 1.xlsx
+++ b/monthly_reports/monthly_data/2021 Charts Month 1.xlsx
@@ -48,12 +48,12 @@
     <t>Castion</t>
   </si>
   <si>
+    <t>KEVU</t>
+  </si>
+  <si>
     <t>deadmau5, Wolfgang Gartner</t>
   </si>
   <si>
-    <t>KEVU</t>
-  </si>
-  <si>
     <t>Don Diablo</t>
   </si>
   <si>
@@ -192,12 +192,12 @@
     <t>Banger Machine</t>
   </si>
   <si>
+    <t>Melody</t>
+  </si>
+  <si>
     <t>Channel 43</t>
   </si>
   <si>
-    <t>Melody</t>
-  </si>
-  <si>
     <t>Into The Unknown</t>
   </si>
   <si>
@@ -336,10 +336,10 @@
     <t>NCS</t>
   </si>
   <si>
+    <t>Maxximize Records, Spinnin' Records</t>
+  </si>
+  <si>
     <t>mau5trap</t>
-  </si>
-  <si>
-    <t>Maxximize Records, Spinnin' Records</t>
   </si>
   <si>
     <t>HEXAGON</t>
@@ -962,7 +962,7 @@
         <v>101</v>
       </c>
       <c r="D2">
-        <v>3061973</v>
+        <v>3191731</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -976,7 +976,7 @@
         <v>102</v>
       </c>
       <c r="D3">
-        <v>1566477</v>
+        <v>1677342</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -990,7 +990,7 @@
         <v>103</v>
       </c>
       <c r="D4">
-        <v>1272970</v>
+        <v>1287003</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1004,7 +1004,7 @@
         <v>103</v>
       </c>
       <c r="D5">
-        <v>1006563</v>
+        <v>1021118</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1018,7 +1018,7 @@
         <v>104</v>
       </c>
       <c r="D6">
-        <v>858535</v>
+        <v>981694</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1032,7 +1032,7 @@
         <v>105</v>
       </c>
       <c r="D7">
-        <v>844443</v>
+        <v>866586</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1046,7 +1046,7 @@
         <v>106</v>
       </c>
       <c r="D8">
-        <v>754231</v>
+        <v>769332</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1060,7 +1060,7 @@
         <v>107</v>
       </c>
       <c r="D9">
-        <v>530895</v>
+        <v>564616</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1074,7 +1074,7 @@
         <v>108</v>
       </c>
       <c r="D10">
-        <v>413868</v>
+        <v>442528</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1088,7 +1088,7 @@
         <v>109</v>
       </c>
       <c r="D11">
-        <v>396219</v>
+        <v>406389</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1102,7 +1102,7 @@
         <v>110</v>
       </c>
       <c r="D12">
-        <v>353303</v>
+        <v>370102</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1116,7 +1116,7 @@
         <v>111</v>
       </c>
       <c r="D13">
-        <v>318944</v>
+        <v>335919</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1130,7 +1130,7 @@
         <v>112</v>
       </c>
       <c r="D14">
-        <v>250045</v>
+        <v>257509</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1144,7 +1144,7 @@
         <v>107</v>
       </c>
       <c r="D15">
-        <v>222291</v>
+        <v>232875</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1158,7 +1158,7 @@
         <v>113</v>
       </c>
       <c r="D16">
-        <v>188909</v>
+        <v>207447</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1172,7 +1172,7 @@
         <v>112</v>
       </c>
       <c r="D17">
-        <v>141335</v>
+        <v>145132</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1186,7 +1186,7 @@
         <v>107</v>
       </c>
       <c r="D18">
-        <v>140816</v>
+        <v>144191</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1200,7 +1200,7 @@
         <v>109</v>
       </c>
       <c r="D19">
-        <v>133730</v>
+        <v>139212</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1214,7 +1214,7 @@
         <v>107</v>
       </c>
       <c r="D20">
-        <v>132399</v>
+        <v>137154</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1228,7 +1228,7 @@
         <v>109</v>
       </c>
       <c r="D21">
-        <v>129246</v>
+        <v>131556</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1242,7 +1242,7 @@
         <v>112</v>
       </c>
       <c r="D22">
-        <v>88811</v>
+        <v>91607</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1256,7 +1256,7 @@
         <v>114</v>
       </c>
       <c r="D23">
-        <v>81593</v>
+        <v>82351</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1270,7 +1270,7 @@
         <v>115</v>
       </c>
       <c r="D24">
-        <v>79454</v>
+        <v>80778</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1284,7 +1284,7 @@
         <v>109</v>
       </c>
       <c r="D25">
-        <v>76198</v>
+        <v>78527</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1298,7 +1298,7 @@
         <v>112</v>
       </c>
       <c r="D26">
-        <v>67249</v>
+        <v>68980</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1312,7 +1312,7 @@
         <v>106</v>
       </c>
       <c r="D27">
-        <v>65233</v>
+        <v>68642</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1326,7 +1326,7 @@
         <v>116</v>
       </c>
       <c r="D28">
-        <v>57979</v>
+        <v>60019</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1340,7 +1340,7 @@
         <v>117</v>
       </c>
       <c r="D29">
-        <v>55951</v>
+        <v>57967</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1354,7 +1354,7 @@
         <v>106</v>
       </c>
       <c r="D30">
-        <v>54193</v>
+        <v>56185</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1368,7 +1368,7 @@
         <v>106</v>
       </c>
       <c r="D31">
-        <v>45109</v>
+        <v>45940</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1382,7 +1382,7 @@
         <v>115</v>
       </c>
       <c r="D32">
-        <v>44138</v>
+        <v>45334</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1396,7 +1396,7 @@
         <v>115</v>
       </c>
       <c r="D33">
-        <v>36744</v>
+        <v>37450</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1410,7 +1410,7 @@
         <v>112</v>
       </c>
       <c r="D34">
-        <v>34079</v>
+        <v>35811</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1424,7 +1424,7 @@
         <v>112</v>
       </c>
       <c r="D35">
-        <v>33700</v>
+        <v>34561</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1438,7 +1438,7 @@
         <v>113</v>
       </c>
       <c r="D36">
-        <v>30047</v>
+        <v>30254</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1452,7 +1452,7 @@
         <v>115</v>
       </c>
       <c r="D37">
-        <v>23700</v>
+        <v>24364</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1466,7 +1466,7 @@
         <v>112</v>
       </c>
       <c r="D38">
-        <v>18215</v>
+        <v>18543</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1480,7 +1480,7 @@
         <v>115</v>
       </c>
       <c r="D39">
-        <v>11849</v>
+        <v>12034</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1494,7 +1494,7 @@
         <v>118</v>
       </c>
       <c r="D40">
-        <v>9485</v>
+        <v>9765</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1508,7 +1508,7 @@
         <v>119</v>
       </c>
       <c r="D41">
-        <v>8478</v>
+        <v>8562</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1522,7 +1522,7 @@
         <v>120</v>
       </c>
       <c r="D42">
-        <v>7667</v>
+        <v>8411</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1536,7 +1536,7 @@
         <v>121</v>
       </c>
       <c r="D43">
-        <v>7099</v>
+        <v>7292</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1550,7 +1550,7 @@
         <v>122</v>
       </c>
       <c r="D44">
-        <v>6374</v>
+        <v>6477</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1564,7 +1564,7 @@
         <v>123</v>
       </c>
       <c r="D45">
-        <v>4374</v>
+        <v>4466</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1578,7 +1578,7 @@
         <v>123</v>
       </c>
       <c r="D46">
-        <v>4335</v>
+        <v>4444</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1592,7 +1592,7 @@
         <v>119</v>
       </c>
       <c r="D47">
-        <v>3013</v>
+        <v>3049</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1606,7 +1606,7 @@
         <v>124</v>
       </c>
       <c r="D48">
-        <v>2637</v>
+        <v>2848</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1620,7 +1620,7 @@
         <v>125</v>
       </c>
       <c r="D49">
-        <v>1326</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1712,10 +1712,10 @@
         <v>112</v>
       </c>
       <c r="D4">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E4">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1732,7 +1732,7 @@
         <v>82</v>
       </c>
       <c r="E5">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1746,10 +1746,10 @@
         <v>111</v>
       </c>
       <c r="D6">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E6">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1780,10 +1780,10 @@
         <v>106</v>
       </c>
       <c r="D8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E8">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1797,10 +1797,10 @@
         <v>112</v>
       </c>
       <c r="D9">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E9">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1822,33 +1822,33 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D11">
         <v>34</v>
       </c>
       <c r="E11">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B12" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C12" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D12">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E12">
         <v>36</v>
@@ -1865,10 +1865,10 @@
         <v>115</v>
       </c>
       <c r="D13">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E13">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1899,10 +1899,10 @@
         <v>115</v>
       </c>
       <c r="D15">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E15">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1916,21 +1916,21 @@
         <v>119</v>
       </c>
       <c r="D16">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E16">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D17">
         <v>25</v>
@@ -1953,7 +1953,7 @@
         <v>25</v>
       </c>
       <c r="E18">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1975,70 +1975,70 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="B20" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="C20" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="D20">
         <v>17</v>
       </c>
       <c r="E20">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="C21" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="D21">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E21">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C22" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D22">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E22">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C23" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D23">
         <v>16</v>
       </c>
       <c r="E23">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -2072,7 +2072,7 @@
         <v>13</v>
       </c>
       <c r="E25">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -2111,13 +2111,13 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C28" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D28">
         <v>8</v>
@@ -2162,36 +2162,36 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="B31" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="C31" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="D31">
         <v>7</v>
       </c>
       <c r="E31">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="B32" t="s">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="C32" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="D32">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E32">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -2205,10 +2205,10 @@
         <v>117</v>
       </c>
       <c r="D33">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E33">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -2264,16 +2264,16 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="B37" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="C37" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="D37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E37">
         <v>2</v>
@@ -2281,19 +2281,19 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="B38" t="s">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="C38" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="D38">
         <v>1</v>
       </c>
       <c r="E38">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -2538,7 +2538,7 @@
         <v>101</v>
       </c>
       <c r="D2">
-        <v>167041</v>
+        <v>172947</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2552,21 +2552,21 @@
         <v>107</v>
       </c>
       <c r="D3">
-        <v>107120</v>
+        <v>109057</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D4">
-        <v>103518</v>
+        <v>106395</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2580,7 +2580,7 @@
         <v>107</v>
       </c>
       <c r="D5">
-        <v>101819</v>
+        <v>105564</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2594,7 +2594,7 @@
         <v>117</v>
       </c>
       <c r="D6">
-        <v>85315</v>
+        <v>88325</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2608,7 +2608,7 @@
         <v>107</v>
       </c>
       <c r="D7">
-        <v>76839</v>
+        <v>79109</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2622,7 +2622,7 @@
         <v>107</v>
       </c>
       <c r="D8">
-        <v>70632</v>
+        <v>73032</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2636,7 +2636,7 @@
         <v>102</v>
       </c>
       <c r="D9">
-        <v>58485</v>
+        <v>60881</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2650,7 +2650,7 @@
         <v>111</v>
       </c>
       <c r="D10">
-        <v>57491</v>
+        <v>59649</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2664,7 +2664,7 @@
         <v>108</v>
       </c>
       <c r="D11">
-        <v>46272</v>
+        <v>48987</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2678,7 +2678,7 @@
         <v>103</v>
       </c>
       <c r="D12">
-        <v>44081</v>
+        <v>44984</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2692,7 +2692,7 @@
         <v>103</v>
       </c>
       <c r="D13">
-        <v>37976</v>
+        <v>38637</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2706,7 +2706,7 @@
         <v>112</v>
       </c>
       <c r="D14">
-        <v>33859</v>
+        <v>35030</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2720,21 +2720,21 @@
         <v>110</v>
       </c>
       <c r="D15">
-        <v>25824</v>
+        <v>26742</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D16">
-        <v>24310</v>
+        <v>24864</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2748,7 +2748,7 @@
         <v>109</v>
       </c>
       <c r="D17">
-        <v>23103</v>
+        <v>23843</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2762,7 +2762,7 @@
         <v>112</v>
       </c>
       <c r="D18">
-        <v>22779</v>
+        <v>23567</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2776,7 +2776,7 @@
         <v>106</v>
       </c>
       <c r="D19">
-        <v>21422</v>
+        <v>22276</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2790,7 +2790,7 @@
         <v>106</v>
       </c>
       <c r="D20">
-        <v>19476</v>
+        <v>20224</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2804,7 +2804,7 @@
         <v>115</v>
       </c>
       <c r="D21">
-        <v>18975</v>
+        <v>19540</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2818,7 +2818,7 @@
         <v>112</v>
       </c>
       <c r="D22">
-        <v>18784</v>
+        <v>19417</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2832,7 +2832,7 @@
         <v>106</v>
       </c>
       <c r="D23">
-        <v>18661</v>
+        <v>19161</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2846,7 +2846,7 @@
         <v>126</v>
       </c>
       <c r="D24">
-        <v>18264</v>
+        <v>18919</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2860,7 +2860,7 @@
         <v>109</v>
       </c>
       <c r="D25">
-        <v>16926</v>
+        <v>17455</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2874,35 +2874,35 @@
         <v>112</v>
       </c>
       <c r="D26">
-        <v>16342</v>
+        <v>17167</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="C27" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="D27">
-        <v>14846</v>
+        <v>15224</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="B28" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="C28" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="D28">
-        <v>14773</v>
+        <v>15152</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2916,7 +2916,7 @@
         <v>114</v>
       </c>
       <c r="D29">
-        <v>12734</v>
+        <v>13074</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2930,7 +2930,7 @@
         <v>116</v>
       </c>
       <c r="D30">
-        <v>12258</v>
+        <v>12649</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2944,35 +2944,35 @@
         <v>113</v>
       </c>
       <c r="D31">
-        <v>10961</v>
+        <v>11073</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B32" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C32" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D32">
-        <v>10477</v>
+        <v>11024</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B33" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C33" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D33">
-        <v>10428</v>
+        <v>10647</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -2986,7 +2986,7 @@
         <v>115</v>
       </c>
       <c r="D34">
-        <v>9591</v>
+        <v>9927</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -3000,7 +3000,7 @@
         <v>119</v>
       </c>
       <c r="D35">
-        <v>9323</v>
+        <v>9809</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -3014,7 +3014,7 @@
         <v>120</v>
       </c>
       <c r="D36">
-        <v>9186</v>
+        <v>9702</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -3028,7 +3028,7 @@
         <v>115</v>
       </c>
       <c r="D37">
-        <v>7535</v>
+        <v>7787</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -3042,7 +3042,7 @@
         <v>118</v>
       </c>
       <c r="D38">
-        <v>7426</v>
+        <v>7516</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -3056,7 +3056,7 @@
         <v>125</v>
       </c>
       <c r="D39">
-        <v>5567</v>
+        <v>5713</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -3070,7 +3070,7 @@
         <v>115</v>
       </c>
       <c r="D40">
-        <v>4360</v>
+        <v>4414</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -3084,7 +3084,7 @@
         <v>123</v>
       </c>
       <c r="D41">
-        <v>2395</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -3098,7 +3098,7 @@
         <v>123</v>
       </c>
       <c r="D42">
-        <v>1607</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -3112,7 +3112,7 @@
         <v>119</v>
       </c>
       <c r="D43">
-        <v>1597</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -3126,7 +3126,7 @@
         <v>121</v>
       </c>
       <c r="D44">
-        <v>1472</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -3140,7 +3140,7 @@
         <v>124</v>
       </c>
       <c r="D45">
-        <v>646</v>
+        <v>669</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -3239,7 +3239,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>3061973</v>
+        <v>3191731</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3247,7 +3247,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>1566477</v>
+        <v>1677342</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3255,7 +3255,7 @@
         <v>130</v>
       </c>
       <c r="B4">
-        <v>1272970</v>
+        <v>1287003</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3263,7 +3263,7 @@
         <v>131</v>
       </c>
       <c r="B5">
-        <v>1272970</v>
+        <v>1287003</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3271,31 +3271,31 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>1006563</v>
+        <v>1021118</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>132</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>858535</v>
+        <v>981694</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B8">
-        <v>858535</v>
+        <v>866586</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>133</v>
       </c>
       <c r="B9">
-        <v>844443</v>
+        <v>866586</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3303,7 +3303,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>754231</v>
+        <v>769332</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3311,7 +3311,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>530895</v>
+        <v>564616</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3319,7 +3319,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>413868</v>
+        <v>442528</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3327,7 +3327,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>396219</v>
+        <v>406389</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3335,7 +3335,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>353303</v>
+        <v>370102</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3343,7 +3343,7 @@
         <v>134</v>
       </c>
       <c r="B15">
-        <v>318944</v>
+        <v>335919</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3351,7 +3351,7 @@
         <v>135</v>
       </c>
       <c r="B16">
-        <v>318944</v>
+        <v>335919</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -3359,7 +3359,7 @@
         <v>136</v>
       </c>
       <c r="B17">
-        <v>318944</v>
+        <v>335919</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -3367,7 +3367,7 @@
         <v>137</v>
       </c>
       <c r="B18">
-        <v>318944</v>
+        <v>335919</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -3375,7 +3375,7 @@
         <v>16</v>
       </c>
       <c r="B19">
-        <v>250045</v>
+        <v>257509</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -3383,7 +3383,7 @@
         <v>17</v>
       </c>
       <c r="B20">
-        <v>222291</v>
+        <v>232875</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -3391,7 +3391,7 @@
         <v>18</v>
       </c>
       <c r="B21">
-        <v>188909</v>
+        <v>207447</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -3399,7 +3399,7 @@
         <v>19</v>
       </c>
       <c r="B22">
-        <v>141335</v>
+        <v>145132</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -3407,7 +3407,7 @@
         <v>138</v>
       </c>
       <c r="B23">
-        <v>140816</v>
+        <v>144191</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -3415,7 +3415,7 @@
         <v>139</v>
       </c>
       <c r="B24">
-        <v>140816</v>
+        <v>144191</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -3423,7 +3423,7 @@
         <v>21</v>
       </c>
       <c r="B25">
-        <v>133730</v>
+        <v>139212</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -3431,7 +3431,7 @@
         <v>22</v>
       </c>
       <c r="B26">
-        <v>132399</v>
+        <v>137154</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -3439,7 +3439,7 @@
         <v>23</v>
       </c>
       <c r="B27">
-        <v>129246</v>
+        <v>131556</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -3447,7 +3447,7 @@
         <v>24</v>
       </c>
       <c r="B28">
-        <v>88811</v>
+        <v>91607</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -3455,7 +3455,7 @@
         <v>25</v>
       </c>
       <c r="B29">
-        <v>81593</v>
+        <v>82351</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -3463,7 +3463,7 @@
         <v>140</v>
       </c>
       <c r="B30">
-        <v>79454</v>
+        <v>80778</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -3471,7 +3471,7 @@
         <v>141</v>
       </c>
       <c r="B31">
-        <v>79454</v>
+        <v>80778</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -3479,7 +3479,7 @@
         <v>27</v>
       </c>
       <c r="B32">
-        <v>76198</v>
+        <v>78527</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -3487,7 +3487,7 @@
         <v>142</v>
       </c>
       <c r="B33">
-        <v>67249</v>
+        <v>68980</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -3495,7 +3495,7 @@
         <v>143</v>
       </c>
       <c r="B34">
-        <v>67249</v>
+        <v>68980</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -3503,7 +3503,7 @@
         <v>29</v>
       </c>
       <c r="B35">
-        <v>65233</v>
+        <v>68642</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -3511,7 +3511,7 @@
         <v>144</v>
       </c>
       <c r="B36">
-        <v>57979</v>
+        <v>60019</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -3519,7 +3519,7 @@
         <v>145</v>
       </c>
       <c r="B37">
-        <v>57979</v>
+        <v>60019</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -3527,7 +3527,7 @@
         <v>146</v>
       </c>
       <c r="B38">
-        <v>55951</v>
+        <v>57967</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -3535,7 +3535,7 @@
         <v>147</v>
       </c>
       <c r="B39">
-        <v>55951</v>
+        <v>57967</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -3543,7 +3543,7 @@
         <v>148</v>
       </c>
       <c r="B40">
-        <v>55951</v>
+        <v>57967</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -3551,7 +3551,7 @@
         <v>32</v>
       </c>
       <c r="B41">
-        <v>54193</v>
+        <v>56185</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -3559,7 +3559,7 @@
         <v>33</v>
       </c>
       <c r="B42">
-        <v>45109</v>
+        <v>45940</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -3567,7 +3567,7 @@
         <v>149</v>
       </c>
       <c r="B43">
-        <v>44138</v>
+        <v>45334</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -3575,7 +3575,7 @@
         <v>150</v>
       </c>
       <c r="B44">
-        <v>44138</v>
+        <v>45334</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -3583,7 +3583,7 @@
         <v>151</v>
       </c>
       <c r="B45">
-        <v>36744</v>
+        <v>37450</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -3591,7 +3591,7 @@
         <v>152</v>
       </c>
       <c r="B46">
-        <v>36744</v>
+        <v>37450</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -3599,7 +3599,7 @@
         <v>153</v>
       </c>
       <c r="B47">
-        <v>36744</v>
+        <v>37450</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -3607,7 +3607,7 @@
         <v>36</v>
       </c>
       <c r="B48">
-        <v>34079</v>
+        <v>35811</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -3615,7 +3615,7 @@
         <v>37</v>
       </c>
       <c r="B49">
-        <v>33700</v>
+        <v>34561</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -3623,7 +3623,7 @@
         <v>38</v>
       </c>
       <c r="B50">
-        <v>30047</v>
+        <v>30254</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -3631,7 +3631,7 @@
         <v>154</v>
       </c>
       <c r="B51">
-        <v>23700</v>
+        <v>24364</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -3639,7 +3639,7 @@
         <v>155</v>
       </c>
       <c r="B52">
-        <v>23700</v>
+        <v>24364</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -3647,7 +3647,7 @@
         <v>156</v>
       </c>
       <c r="B53">
-        <v>18215</v>
+        <v>18543</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -3655,7 +3655,7 @@
         <v>157</v>
       </c>
       <c r="B54">
-        <v>18215</v>
+        <v>18543</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -3663,7 +3663,7 @@
         <v>158</v>
       </c>
       <c r="B55">
-        <v>11849</v>
+        <v>12034</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -3671,7 +3671,7 @@
         <v>159</v>
       </c>
       <c r="B56">
-        <v>11849</v>
+        <v>12034</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -3679,7 +3679,7 @@
         <v>160</v>
       </c>
       <c r="B57">
-        <v>11849</v>
+        <v>12034</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -3687,7 +3687,7 @@
         <v>42</v>
       </c>
       <c r="B58">
-        <v>9485</v>
+        <v>9765</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -3695,7 +3695,7 @@
         <v>161</v>
       </c>
       <c r="B59">
-        <v>8478</v>
+        <v>8562</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -3703,7 +3703,7 @@
         <v>162</v>
       </c>
       <c r="B60">
-        <v>8478</v>
+        <v>8562</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -3711,7 +3711,7 @@
         <v>163</v>
       </c>
       <c r="B61">
-        <v>7667</v>
+        <v>8411</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -3719,7 +3719,7 @@
         <v>164</v>
       </c>
       <c r="B62">
-        <v>7667</v>
+        <v>8411</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -3727,7 +3727,7 @@
         <v>45</v>
       </c>
       <c r="B63">
-        <v>7099</v>
+        <v>7292</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -3735,7 +3735,7 @@
         <v>46</v>
       </c>
       <c r="B64">
-        <v>6374</v>
+        <v>6477</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -3743,7 +3743,7 @@
         <v>47</v>
       </c>
       <c r="B65">
-        <v>4374</v>
+        <v>4466</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -3751,7 +3751,7 @@
         <v>48</v>
       </c>
       <c r="B66">
-        <v>4335</v>
+        <v>4444</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -3759,7 +3759,7 @@
         <v>49</v>
       </c>
       <c r="B67">
-        <v>3013</v>
+        <v>3049</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -3767,7 +3767,7 @@
         <v>165</v>
       </c>
       <c r="B68">
-        <v>2637</v>
+        <v>2848</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -3775,7 +3775,7 @@
         <v>166</v>
       </c>
       <c r="B69">
-        <v>2637</v>
+        <v>2848</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -3783,7 +3783,7 @@
         <v>51</v>
       </c>
       <c r="B70">
-        <v>1326</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -3853,10 +3853,10 @@
         <v>24</v>
       </c>
       <c r="B4">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C4">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3867,7 +3867,7 @@
         <v>82</v>
       </c>
       <c r="C5">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3875,10 +3875,10 @@
         <v>134</v>
       </c>
       <c r="B6">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C6">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3886,10 +3886,10 @@
         <v>135</v>
       </c>
       <c r="B7">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C7">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3897,10 +3897,10 @@
         <v>136</v>
       </c>
       <c r="B8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C8">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3908,10 +3908,10 @@
         <v>137</v>
       </c>
       <c r="B9">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C9">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3941,10 +3941,10 @@
         <v>33</v>
       </c>
       <c r="B12">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C12">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3952,10 +3952,10 @@
         <v>19</v>
       </c>
       <c r="B13">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C13">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -3971,21 +3971,21 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B15">
         <v>34</v>
       </c>
       <c r="C15">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B16">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C16">
         <v>36</v>
@@ -3996,10 +3996,10 @@
         <v>154</v>
       </c>
       <c r="B17">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C17">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -4007,10 +4007,10 @@
         <v>155</v>
       </c>
       <c r="B18">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C18">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -4029,10 +4029,10 @@
         <v>151</v>
       </c>
       <c r="B20">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C20">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -4040,10 +4040,10 @@
         <v>152</v>
       </c>
       <c r="B21">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C21">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -4051,10 +4051,10 @@
         <v>153</v>
       </c>
       <c r="B22">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C22">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -4062,10 +4062,10 @@
         <v>161</v>
       </c>
       <c r="B23">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C23">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -4073,10 +4073,10 @@
         <v>162</v>
       </c>
       <c r="B24">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C24">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -4109,7 +4109,7 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -4120,7 +4120,7 @@
         <v>25</v>
       </c>
       <c r="C28">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -4136,57 +4136,57 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1" t="s">
-        <v>7</v>
+        <v>149</v>
       </c>
       <c r="B30">
         <v>17</v>
       </c>
       <c r="C30">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B31">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C31">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="B32">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C32">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B33">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C33">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B34">
         <v>16</v>
       </c>
       <c r="C34">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -4208,7 +4208,7 @@
         <v>13</v>
       </c>
       <c r="C36">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -4219,7 +4219,7 @@
         <v>13</v>
       </c>
       <c r="C37">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -4230,7 +4230,7 @@
         <v>13</v>
       </c>
       <c r="C38">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -4268,7 +4268,7 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B42">
         <v>8</v>
@@ -4312,24 +4312,24 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="B46">
         <v>7</v>
       </c>
       <c r="C46">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="1" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="B47">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C47">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -4337,10 +4337,10 @@
         <v>146</v>
       </c>
       <c r="B48">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C48">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -4348,10 +4348,10 @@
         <v>147</v>
       </c>
       <c r="B49">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C49">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -4359,10 +4359,10 @@
         <v>148</v>
       </c>
       <c r="B50">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C50">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -4422,10 +4422,10 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="1" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="B56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C56">
         <v>2</v>
@@ -4433,13 +4433,13 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="1" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="B57">
         <v>1</v>
       </c>
       <c r="C57">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -4633,7 +4633,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>167041</v>
+        <v>172947</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4641,7 +4641,7 @@
         <v>138</v>
       </c>
       <c r="B3">
-        <v>107120</v>
+        <v>109057</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4649,7 +4649,7 @@
         <v>139</v>
       </c>
       <c r="B4">
-        <v>107120</v>
+        <v>109057</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4657,7 +4657,7 @@
         <v>132</v>
       </c>
       <c r="B5">
-        <v>103518</v>
+        <v>106395</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4665,7 +4665,7 @@
         <v>133</v>
       </c>
       <c r="B6">
-        <v>103518</v>
+        <v>106395</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4673,7 +4673,7 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>101819</v>
+        <v>105564</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4681,7 +4681,7 @@
         <v>146</v>
       </c>
       <c r="B8">
-        <v>85315</v>
+        <v>88325</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4689,7 +4689,7 @@
         <v>147</v>
       </c>
       <c r="B9">
-        <v>85315</v>
+        <v>88325</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4697,7 +4697,7 @@
         <v>148</v>
       </c>
       <c r="B10">
-        <v>85315</v>
+        <v>88325</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -4705,7 +4705,7 @@
         <v>17</v>
       </c>
       <c r="B11">
-        <v>76839</v>
+        <v>79109</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -4713,7 +4713,7 @@
         <v>22</v>
       </c>
       <c r="B12">
-        <v>70632</v>
+        <v>73032</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -4721,7 +4721,7 @@
         <v>5</v>
       </c>
       <c r="B13">
-        <v>58485</v>
+        <v>60881</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -4729,7 +4729,7 @@
         <v>134</v>
       </c>
       <c r="B14">
-        <v>57491</v>
+        <v>59649</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -4737,7 +4737,7 @@
         <v>135</v>
       </c>
       <c r="B15">
-        <v>57491</v>
+        <v>59649</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -4745,7 +4745,7 @@
         <v>136</v>
       </c>
       <c r="B16">
-        <v>57491</v>
+        <v>59649</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -4753,7 +4753,7 @@
         <v>137</v>
       </c>
       <c r="B17">
-        <v>57491</v>
+        <v>59649</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -4761,7 +4761,7 @@
         <v>12</v>
       </c>
       <c r="B18">
-        <v>46272</v>
+        <v>48987</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -4769,7 +4769,7 @@
         <v>7</v>
       </c>
       <c r="B19">
-        <v>44081</v>
+        <v>44984</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -4777,7 +4777,7 @@
         <v>130</v>
       </c>
       <c r="B20">
-        <v>37976</v>
+        <v>38637</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -4785,7 +4785,7 @@
         <v>131</v>
       </c>
       <c r="B21">
-        <v>37976</v>
+        <v>38637</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -4793,7 +4793,7 @@
         <v>16</v>
       </c>
       <c r="B22">
-        <v>33859</v>
+        <v>35030</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -4801,15 +4801,15 @@
         <v>14</v>
       </c>
       <c r="B23">
-        <v>25824</v>
+        <v>26742</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B24">
-        <v>24310</v>
+        <v>24864</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -4817,7 +4817,7 @@
         <v>13</v>
       </c>
       <c r="B25">
-        <v>23103</v>
+        <v>23843</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -4825,7 +4825,7 @@
         <v>19</v>
       </c>
       <c r="B26">
-        <v>22779</v>
+        <v>23567</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -4833,7 +4833,7 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>21422</v>
+        <v>22276</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -4841,7 +4841,7 @@
         <v>29</v>
       </c>
       <c r="B28">
-        <v>19476</v>
+        <v>20224</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -4849,7 +4849,7 @@
         <v>154</v>
       </c>
       <c r="B29">
-        <v>18975</v>
+        <v>19540</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -4857,7 +4857,7 @@
         <v>155</v>
       </c>
       <c r="B30">
-        <v>18975</v>
+        <v>19540</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -4865,7 +4865,7 @@
         <v>37</v>
       </c>
       <c r="B31">
-        <v>18784</v>
+        <v>19417</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -4873,7 +4873,7 @@
         <v>33</v>
       </c>
       <c r="B32">
-        <v>18661</v>
+        <v>19161</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -4881,7 +4881,7 @@
         <v>167</v>
       </c>
       <c r="B33">
-        <v>18264</v>
+        <v>18919</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -4889,7 +4889,7 @@
         <v>168</v>
       </c>
       <c r="B34">
-        <v>18264</v>
+        <v>18919</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -4897,7 +4897,7 @@
         <v>27</v>
       </c>
       <c r="B35">
-        <v>16926</v>
+        <v>17455</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -4905,7 +4905,7 @@
         <v>142</v>
       </c>
       <c r="B36">
-        <v>16342</v>
+        <v>17167</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -4913,31 +4913,31 @@
         <v>143</v>
       </c>
       <c r="B37">
-        <v>16342</v>
+        <v>17167</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>46</v>
+        <v>140</v>
       </c>
       <c r="B38">
-        <v>14846</v>
+        <v>15224</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B39">
-        <v>14773</v>
+        <v>15224</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>141</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>14773</v>
+        <v>15152</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -4945,7 +4945,7 @@
         <v>25</v>
       </c>
       <c r="B41">
-        <v>12734</v>
+        <v>13074</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -4953,7 +4953,7 @@
         <v>144</v>
       </c>
       <c r="B42">
-        <v>12258</v>
+        <v>12649</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -4961,7 +4961,7 @@
         <v>145</v>
       </c>
       <c r="B43">
-        <v>12258</v>
+        <v>12649</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -4969,23 +4969,23 @@
         <v>18</v>
       </c>
       <c r="B44">
-        <v>10961</v>
+        <v>11073</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B45">
-        <v>10477</v>
+        <v>11024</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B46">
-        <v>10428</v>
+        <v>10647</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -4993,7 +4993,7 @@
         <v>149</v>
       </c>
       <c r="B47">
-        <v>9591</v>
+        <v>9927</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -5001,7 +5001,7 @@
         <v>150</v>
       </c>
       <c r="B48">
-        <v>9591</v>
+        <v>9927</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -5009,7 +5009,7 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>9323</v>
+        <v>9809</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -5017,7 +5017,7 @@
         <v>163</v>
       </c>
       <c r="B50">
-        <v>9186</v>
+        <v>9702</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -5025,7 +5025,7 @@
         <v>164</v>
       </c>
       <c r="B51">
-        <v>9186</v>
+        <v>9702</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -5033,7 +5033,7 @@
         <v>151</v>
       </c>
       <c r="B52">
-        <v>7535</v>
+        <v>7787</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -5041,7 +5041,7 @@
         <v>152</v>
       </c>
       <c r="B53">
-        <v>7535</v>
+        <v>7787</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -5049,7 +5049,7 @@
         <v>153</v>
       </c>
       <c r="B54">
-        <v>7535</v>
+        <v>7787</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -5057,7 +5057,7 @@
         <v>42</v>
       </c>
       <c r="B55">
-        <v>7426</v>
+        <v>7516</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -5065,7 +5065,7 @@
         <v>51</v>
       </c>
       <c r="B56">
-        <v>5567</v>
+        <v>5713</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -5073,7 +5073,7 @@
         <v>158</v>
       </c>
       <c r="B57">
-        <v>4360</v>
+        <v>4414</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -5081,7 +5081,7 @@
         <v>159</v>
       </c>
       <c r="B58">
-        <v>4360</v>
+        <v>4414</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -5089,7 +5089,7 @@
         <v>160</v>
       </c>
       <c r="B59">
-        <v>4360</v>
+        <v>4414</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -5097,7 +5097,7 @@
         <v>48</v>
       </c>
       <c r="B60">
-        <v>2395</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -5105,7 +5105,7 @@
         <v>47</v>
       </c>
       <c r="B61">
-        <v>1607</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -5113,7 +5113,7 @@
         <v>161</v>
       </c>
       <c r="B62">
-        <v>1597</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -5121,7 +5121,7 @@
         <v>162</v>
       </c>
       <c r="B63">
-        <v>1597</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -5129,7 +5129,7 @@
         <v>45</v>
       </c>
       <c r="B64">
-        <v>1472</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -5137,7 +5137,7 @@
         <v>165</v>
       </c>
       <c r="B65">
-        <v>646</v>
+        <v>669</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -5145,7 +5145,7 @@
         <v>166</v>
       </c>
       <c r="B66">
-        <v>646</v>
+        <v>669</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -5222,7 +5222,7 @@
         <v>101</v>
       </c>
       <c r="B2">
-        <v>3061973</v>
+        <v>3191731</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -5230,7 +5230,7 @@
         <v>103</v>
       </c>
       <c r="B3">
-        <v>2279533</v>
+        <v>2308121</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -5238,7 +5238,7 @@
         <v>169</v>
       </c>
       <c r="B4">
-        <v>1566477</v>
+        <v>1677342</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -5246,7 +5246,7 @@
         <v>170</v>
       </c>
       <c r="B5">
-        <v>1566477</v>
+        <v>1677342</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -5254,7 +5254,7 @@
         <v>171</v>
       </c>
       <c r="B6">
-        <v>1163387</v>
+        <v>1317613</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -5262,7 +5262,7 @@
         <v>106</v>
       </c>
       <c r="B7">
-        <v>1137722</v>
+        <v>1177800</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -5270,23 +5270,23 @@
         <v>107</v>
       </c>
       <c r="B8">
-        <v>1026401</v>
+        <v>1078836</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>104</v>
+        <v>172</v>
       </c>
       <c r="B9">
-        <v>858535</v>
+        <v>981694</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>172</v>
+        <v>105</v>
       </c>
       <c r="B10">
-        <v>844443</v>
+        <v>866586</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -5294,7 +5294,7 @@
         <v>112</v>
       </c>
       <c r="B11">
-        <v>633434</v>
+        <v>652143</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -5302,7 +5302,7 @@
         <v>108</v>
       </c>
       <c r="B12">
-        <v>413868</v>
+        <v>442528</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -5310,7 +5310,7 @@
         <v>110</v>
       </c>
       <c r="B13">
-        <v>353303</v>
+        <v>370102</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -5318,7 +5318,7 @@
         <v>173</v>
       </c>
       <c r="B14">
-        <v>318944</v>
+        <v>335919</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -5326,7 +5326,7 @@
         <v>174</v>
       </c>
       <c r="B15">
-        <v>218956</v>
+        <v>237701</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -5334,7 +5334,7 @@
         <v>115</v>
       </c>
       <c r="B16">
-        <v>207376</v>
+        <v>211571</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -5342,7 +5342,7 @@
         <v>175</v>
       </c>
       <c r="B17">
-        <v>81593</v>
+        <v>82351</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -5350,7 +5350,7 @@
         <v>176</v>
       </c>
       <c r="B18">
-        <v>81593</v>
+        <v>82351</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -5358,7 +5358,7 @@
         <v>116</v>
       </c>
       <c r="B19">
-        <v>59305</v>
+        <v>61400</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -5366,7 +5366,7 @@
         <v>117</v>
       </c>
       <c r="B20">
-        <v>55951</v>
+        <v>57967</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -5374,7 +5374,7 @@
         <v>123</v>
       </c>
       <c r="B21">
-        <v>15808</v>
+        <v>16202</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -5382,7 +5382,7 @@
         <v>177</v>
       </c>
       <c r="B22">
-        <v>11491</v>
+        <v>11611</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -5390,7 +5390,7 @@
         <v>118</v>
       </c>
       <c r="B23">
-        <v>9485</v>
+        <v>9765</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -5398,7 +5398,7 @@
         <v>120</v>
       </c>
       <c r="B24">
-        <v>7667</v>
+        <v>8411</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -5406,7 +5406,7 @@
         <v>178</v>
       </c>
       <c r="B25">
-        <v>7099</v>
+        <v>7292</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -5414,7 +5414,7 @@
         <v>179</v>
       </c>
       <c r="B26">
-        <v>6374</v>
+        <v>6477</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -5422,7 +5422,7 @@
         <v>180</v>
       </c>
       <c r="B27">
-        <v>6374</v>
+        <v>6477</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -5430,7 +5430,7 @@
         <v>124</v>
       </c>
       <c r="B28">
-        <v>2637</v>
+        <v>2848</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -5438,7 +5438,7 @@
         <v>181</v>
       </c>
       <c r="B29">
-        <v>1326</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -5486,10 +5486,10 @@
         <v>112</v>
       </c>
       <c r="B2">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="C2">
-        <v>426</v>
+        <v>430</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -5497,10 +5497,10 @@
         <v>106</v>
       </c>
       <c r="B3">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C3">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -5508,10 +5508,10 @@
         <v>115</v>
       </c>
       <c r="B4">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C4">
-        <v>217</v>
+        <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -5522,7 +5522,7 @@
         <v>82</v>
       </c>
       <c r="C5">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -5533,7 +5533,7 @@
         <v>82</v>
       </c>
       <c r="C6">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -5541,10 +5541,10 @@
         <v>171</v>
       </c>
       <c r="B7">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C7">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -5552,10 +5552,10 @@
         <v>173</v>
       </c>
       <c r="B8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C8">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -5563,10 +5563,10 @@
         <v>177</v>
       </c>
       <c r="B9">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C9">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -5585,15 +5585,15 @@
         <v>107</v>
       </c>
       <c r="B11">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C11">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B12">
         <v>25</v>
@@ -5684,10 +5684,10 @@
         <v>117</v>
       </c>
       <c r="B20">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C20">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -5695,10 +5695,10 @@
         <v>116</v>
       </c>
       <c r="B21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C21">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -5706,10 +5706,10 @@
         <v>181</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -5837,7 +5837,7 @@
         <v>107</v>
       </c>
       <c r="B2">
-        <v>356410</v>
+        <v>366762</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -5845,15 +5845,15 @@
         <v>101</v>
       </c>
       <c r="B3">
-        <v>167041</v>
+        <v>172947</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B4">
-        <v>103518</v>
+        <v>106395</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -5861,7 +5861,7 @@
         <v>112</v>
       </c>
       <c r="B5">
-        <v>102192</v>
+        <v>106205</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -5869,23 +5869,23 @@
         <v>117</v>
       </c>
       <c r="B6">
-        <v>85315</v>
+        <v>88325</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>103</v>
+        <v>171</v>
       </c>
       <c r="B7">
-        <v>82057</v>
+        <v>84513</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>171</v>
+        <v>103</v>
       </c>
       <c r="B8">
-        <v>81801</v>
+        <v>83621</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -5893,7 +5893,7 @@
         <v>106</v>
       </c>
       <c r="B9">
-        <v>80997</v>
+        <v>83381</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -5901,7 +5901,7 @@
         <v>115</v>
       </c>
       <c r="B10">
-        <v>66154</v>
+        <v>68330</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -5909,7 +5909,7 @@
         <v>169</v>
       </c>
       <c r="B11">
-        <v>58485</v>
+        <v>60881</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -5917,7 +5917,7 @@
         <v>170</v>
       </c>
       <c r="B12">
-        <v>58485</v>
+        <v>60881</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -5925,7 +5925,7 @@
         <v>173</v>
       </c>
       <c r="B13">
-        <v>57491</v>
+        <v>59649</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -5933,7 +5933,7 @@
         <v>108</v>
       </c>
       <c r="B14">
-        <v>46272</v>
+        <v>48987</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -5941,7 +5941,7 @@
         <v>110</v>
       </c>
       <c r="B15">
-        <v>25824</v>
+        <v>26742</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -5949,7 +5949,7 @@
         <v>172</v>
       </c>
       <c r="B16">
-        <v>24310</v>
+        <v>24864</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -5957,7 +5957,7 @@
         <v>174</v>
       </c>
       <c r="B17">
-        <v>21438</v>
+        <v>21720</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -5965,7 +5965,7 @@
         <v>182</v>
       </c>
       <c r="B18">
-        <v>18264</v>
+        <v>18919</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -5973,7 +5973,7 @@
         <v>183</v>
       </c>
       <c r="B19">
-        <v>18264</v>
+        <v>18919</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -5981,7 +5981,7 @@
         <v>116</v>
       </c>
       <c r="B20">
-        <v>17825</v>
+        <v>18362</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -5989,7 +5989,7 @@
         <v>179</v>
       </c>
       <c r="B21">
-        <v>14846</v>
+        <v>15152</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -5997,7 +5997,7 @@
         <v>180</v>
       </c>
       <c r="B22">
-        <v>14846</v>
+        <v>15152</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -6005,7 +6005,7 @@
         <v>175</v>
       </c>
       <c r="B23">
-        <v>12734</v>
+        <v>13074</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -6013,7 +6013,7 @@
         <v>176</v>
       </c>
       <c r="B24">
-        <v>12734</v>
+        <v>13074</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -6021,7 +6021,7 @@
         <v>177</v>
       </c>
       <c r="B25">
-        <v>10920</v>
+        <v>11438</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -6029,7 +6029,7 @@
         <v>120</v>
       </c>
       <c r="B26">
-        <v>9186</v>
+        <v>9702</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -6037,7 +6037,7 @@
         <v>118</v>
       </c>
       <c r="B27">
-        <v>7426</v>
+        <v>7516</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -6045,7 +6045,7 @@
         <v>181</v>
       </c>
       <c r="B28">
-        <v>5567</v>
+        <v>5713</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -6053,7 +6053,7 @@
         <v>123</v>
       </c>
       <c r="B29">
-        <v>5474</v>
+        <v>5630</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -6061,7 +6061,7 @@
         <v>178</v>
       </c>
       <c r="B30">
-        <v>1472</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -6069,7 +6069,7 @@
         <v>124</v>
       </c>
       <c r="B31">
-        <v>646</v>
+        <v>669</v>
       </c>
     </row>
   </sheetData>

--- a/monthly_reports/monthly_data/2021 Charts Month 1.xlsx
+++ b/monthly_reports/monthly_data/2021 Charts Month 1.xlsx
@@ -45,12 +45,12 @@
     <t>Arlow, Shiah Maisel</t>
   </si>
   <si>
+    <t>KEVU</t>
+  </si>
+  <si>
     <t>Castion</t>
   </si>
   <si>
-    <t>KEVU</t>
-  </si>
-  <si>
     <t>deadmau5, Wolfgang Gartner</t>
   </si>
   <si>
@@ -108,12 +108,12 @@
     <t>Dirty Palm</t>
   </si>
   <si>
+    <t>Malarkey</t>
+  </si>
+  <si>
     <t>Matt Nash, Lucas Marx</t>
   </si>
   <si>
-    <t>Malarkey</t>
-  </si>
-  <si>
     <t>Polygon, Martin Jasper</t>
   </si>
   <si>
@@ -153,30 +153,30 @@
     <t>RAMSSEY</t>
   </si>
   <si>
+    <t>Lady Bee, Dame1</t>
+  </si>
+  <si>
     <t>DJ St3v3, Sebastian Mateo</t>
   </si>
   <si>
-    <t>Lady Bee, Dame1</t>
-  </si>
-  <si>
     <t>D3EPANK</t>
   </si>
   <si>
     <t>Slippy</t>
   </si>
   <si>
+    <t>Aitor Hertz</t>
+  </si>
+  <si>
     <t>DNVX</t>
   </si>
   <si>
-    <t>Aitor Hertz</t>
+    <t>Lost Identities, Anna Vellington</t>
   </si>
   <si>
     <t>Deekey</t>
   </si>
   <si>
-    <t>Lost Identities, Anna Vellington</t>
-  </si>
-  <si>
     <t>Rezilient</t>
   </si>
   <si>
@@ -189,12 +189,12 @@
     <t>Turn The World Into A Dancefloor (ASOT 1000 Anthem)</t>
   </si>
   <si>
+    <t>Melody</t>
+  </si>
+  <si>
     <t>Banger Machine</t>
   </si>
   <si>
-    <t>Melody</t>
-  </si>
-  <si>
     <t>Channel 43</t>
   </si>
   <si>
@@ -252,12 +252,12 @@
     <t>Diamonds</t>
   </si>
   <si>
+    <t>Shackles (Praise You)</t>
+  </si>
+  <si>
     <t>Midnight</t>
   </si>
   <si>
-    <t>Shackles (Praise You)</t>
-  </si>
-  <si>
     <t>Coming Home</t>
   </si>
   <si>
@@ -297,30 +297,30 @@
     <t>Anubis</t>
   </si>
   <si>
+    <t>Soon Not Later</t>
+  </si>
+  <si>
     <t>So Sexy</t>
   </si>
   <si>
-    <t>Soon Not Later</t>
-  </si>
-  <si>
     <t>Eternally</t>
   </si>
   <si>
     <t>Free</t>
   </si>
   <si>
+    <t>Dance</t>
+  </si>
+  <si>
     <t>Losing Control</t>
   </si>
   <si>
-    <t>Dance</t>
+    <t>Any Other Way</t>
   </si>
   <si>
     <t>Without You</t>
   </si>
   <si>
-    <t>Any Other Way</t>
-  </si>
-  <si>
     <t>Positive Reaction</t>
   </si>
   <si>
@@ -381,12 +381,12 @@
     <t>Tribal Trap</t>
   </si>
   <si>
+    <t>Mixmash Recorsds</t>
+  </si>
+  <si>
     <t>Revealed Music, Revealed Radar</t>
   </si>
   <si>
-    <t>Mixmash Recorsds</t>
-  </si>
-  <si>
     <t>Future House Cloud, FHC Selection</t>
   </si>
   <si>
@@ -507,16 +507,16 @@
     <t>Offer Nissim</t>
   </si>
   <si>
+    <t>Dame1</t>
+  </si>
+  <si>
+    <t>Lady Bee</t>
+  </si>
+  <si>
     <t>DJ St3v3</t>
   </si>
   <si>
     <t>Sebastian Mateo</t>
-  </si>
-  <si>
-    <t>Dame1</t>
-  </si>
-  <si>
-    <t>Lady Bee</t>
   </si>
   <si>
     <t>Anna Vellington</t>
@@ -962,7 +962,7 @@
         <v>101</v>
       </c>
       <c r="D2">
-        <v>3191731</v>
+        <v>3402519</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -976,7 +976,7 @@
         <v>102</v>
       </c>
       <c r="D3">
-        <v>1677342</v>
+        <v>1836064</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -990,7 +990,7 @@
         <v>103</v>
       </c>
       <c r="D4">
-        <v>1287003</v>
+        <v>1303012</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1001,10 +1001,10 @@
         <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D5">
-        <v>1021118</v>
+        <v>1205086</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1015,10 +1015,10 @@
         <v>56</v>
       </c>
       <c r="C6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D6">
-        <v>981694</v>
+        <v>1039621</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1032,7 +1032,7 @@
         <v>105</v>
       </c>
       <c r="D7">
-        <v>866586</v>
+        <v>879615</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1046,7 +1046,7 @@
         <v>106</v>
       </c>
       <c r="D8">
-        <v>769332</v>
+        <v>786102</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1060,7 +1060,7 @@
         <v>107</v>
       </c>
       <c r="D9">
-        <v>564616</v>
+        <v>604354</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1074,7 +1074,7 @@
         <v>108</v>
       </c>
       <c r="D10">
-        <v>442528</v>
+        <v>477145</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1088,7 +1088,7 @@
         <v>109</v>
       </c>
       <c r="D11">
-        <v>406389</v>
+        <v>418534</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1102,7 +1102,7 @@
         <v>110</v>
       </c>
       <c r="D12">
-        <v>370102</v>
+        <v>392775</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1116,7 +1116,7 @@
         <v>111</v>
       </c>
       <c r="D13">
-        <v>335919</v>
+        <v>358254</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1130,7 +1130,7 @@
         <v>112</v>
       </c>
       <c r="D14">
-        <v>257509</v>
+        <v>266348</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1144,7 +1144,7 @@
         <v>107</v>
       </c>
       <c r="D15">
-        <v>232875</v>
+        <v>253456</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1158,7 +1158,7 @@
         <v>113</v>
       </c>
       <c r="D16">
-        <v>207447</v>
+        <v>239448</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1172,7 +1172,7 @@
         <v>112</v>
       </c>
       <c r="D17">
-        <v>145132</v>
+        <v>149748</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1186,7 +1186,7 @@
         <v>107</v>
       </c>
       <c r="D18">
-        <v>144191</v>
+        <v>148459</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1200,7 +1200,7 @@
         <v>109</v>
       </c>
       <c r="D19">
-        <v>139212</v>
+        <v>146486</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1214,7 +1214,7 @@
         <v>107</v>
       </c>
       <c r="D20">
-        <v>137154</v>
+        <v>142720</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1228,7 +1228,7 @@
         <v>109</v>
       </c>
       <c r="D21">
-        <v>131556</v>
+        <v>134372</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1242,7 +1242,7 @@
         <v>112</v>
       </c>
       <c r="D22">
-        <v>91607</v>
+        <v>95317</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1256,7 +1256,7 @@
         <v>114</v>
       </c>
       <c r="D23">
-        <v>82351</v>
+        <v>83302</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1270,7 +1270,7 @@
         <v>115</v>
       </c>
       <c r="D24">
-        <v>80778</v>
+        <v>82400</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1284,7 +1284,7 @@
         <v>109</v>
       </c>
       <c r="D25">
-        <v>78527</v>
+        <v>81512</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1295,10 +1295,10 @@
         <v>76</v>
       </c>
       <c r="C26" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D26">
-        <v>68980</v>
+        <v>73105</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1309,10 +1309,10 @@
         <v>77</v>
       </c>
       <c r="C27" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="D27">
-        <v>68642</v>
+        <v>70815</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1326,7 +1326,7 @@
         <v>116</v>
       </c>
       <c r="D28">
-        <v>60019</v>
+        <v>62802</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1340,7 +1340,7 @@
         <v>117</v>
       </c>
       <c r="D29">
-        <v>57967</v>
+        <v>60549</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1354,7 +1354,7 @@
         <v>106</v>
       </c>
       <c r="D30">
-        <v>56185</v>
+        <v>58767</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1368,7 +1368,7 @@
         <v>106</v>
       </c>
       <c r="D31">
-        <v>45940</v>
+        <v>47032</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1382,7 +1382,7 @@
         <v>115</v>
       </c>
       <c r="D32">
-        <v>45334</v>
+        <v>46407</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1396,7 +1396,7 @@
         <v>115</v>
       </c>
       <c r="D33">
-        <v>37450</v>
+        <v>38289</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1410,7 +1410,7 @@
         <v>112</v>
       </c>
       <c r="D34">
-        <v>35811</v>
+        <v>37534</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1424,7 +1424,7 @@
         <v>112</v>
       </c>
       <c r="D35">
-        <v>34561</v>
+        <v>35628</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1438,7 +1438,7 @@
         <v>113</v>
       </c>
       <c r="D36">
-        <v>30254</v>
+        <v>30456</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1452,7 +1452,7 @@
         <v>115</v>
       </c>
       <c r="D37">
-        <v>24364</v>
+        <v>25185</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1466,7 +1466,7 @@
         <v>112</v>
       </c>
       <c r="D38">
-        <v>18543</v>
+        <v>18786</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1480,7 +1480,7 @@
         <v>115</v>
       </c>
       <c r="D39">
-        <v>12034</v>
+        <v>12214</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1494,7 +1494,7 @@
         <v>118</v>
       </c>
       <c r="D40">
-        <v>9765</v>
+        <v>10230</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1508,7 +1508,7 @@
         <v>119</v>
       </c>
       <c r="D41">
-        <v>8562</v>
+        <v>9199</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1522,7 +1522,7 @@
         <v>120</v>
       </c>
       <c r="D42">
-        <v>8411</v>
+        <v>8658</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1536,7 +1536,7 @@
         <v>121</v>
       </c>
       <c r="D43">
-        <v>7292</v>
+        <v>7482</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1550,7 +1550,7 @@
         <v>122</v>
       </c>
       <c r="D44">
-        <v>6477</v>
+        <v>6597</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1564,7 +1564,7 @@
         <v>123</v>
       </c>
       <c r="D45">
-        <v>4466</v>
+        <v>4632</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1578,7 +1578,7 @@
         <v>123</v>
       </c>
       <c r="D46">
-        <v>4444</v>
+        <v>4560</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1589,10 +1589,10 @@
         <v>97</v>
       </c>
       <c r="C47" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D47">
-        <v>3049</v>
+        <v>3256</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1603,10 +1603,10 @@
         <v>98</v>
       </c>
       <c r="C48" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D48">
-        <v>2848</v>
+        <v>3148</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1620,7 +1620,7 @@
         <v>125</v>
       </c>
       <c r="D49">
-        <v>1381</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1669,10 +1669,10 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C2" t="s">
         <v>106</v>
@@ -1712,10 +1712,10 @@
         <v>112</v>
       </c>
       <c r="D4">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E4">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1732,7 +1732,7 @@
         <v>82</v>
       </c>
       <c r="E5">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1746,18 +1746,18 @@
         <v>111</v>
       </c>
       <c r="D6">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E6">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C7" t="s">
         <v>112</v>
@@ -1783,7 +1783,7 @@
         <v>58</v>
       </c>
       <c r="E8">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1797,10 +1797,10 @@
         <v>112</v>
       </c>
       <c r="D9">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E9">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1814,24 +1814,24 @@
         <v>112</v>
       </c>
       <c r="D10">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E10">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C11" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D11">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E11">
         <v>37</v>
@@ -1839,19 +1839,19 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D12">
         <v>34</v>
       </c>
       <c r="E12">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1868,18 +1868,18 @@
         <v>33</v>
       </c>
       <c r="E13">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C14" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D14">
         <v>32</v>
@@ -1907,13 +1907,13 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B16" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C16" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D16">
         <v>29</v>
@@ -1924,36 +1924,36 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="C17" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="D17">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E17">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="C18" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="D18">
         <v>25</v>
       </c>
       <c r="E18">
-        <v>33</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -2009,10 +2009,10 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C22" t="s">
         <v>103</v>
@@ -2055,7 +2055,7 @@
         <v>16</v>
       </c>
       <c r="E24">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -2094,13 +2094,13 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B27" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C27" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D27">
         <v>9</v>
@@ -2111,10 +2111,10 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C28" t="s">
         <v>104</v>
@@ -2179,10 +2179,10 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B32" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C32" t="s">
         <v>123</v>
@@ -2213,10 +2213,10 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B34" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C34" t="s">
         <v>123</v>
@@ -2230,47 +2230,47 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="B35" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="C35" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="D35">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E35">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="B36" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="C36" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E36">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="B37" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="C37" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="D37">
         <v>2</v>
@@ -2332,10 +2332,10 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B41" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C41" t="s">
         <v>124</v>
@@ -2538,7 +2538,7 @@
         <v>101</v>
       </c>
       <c r="D2">
-        <v>172947</v>
+        <v>198529</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2552,7 +2552,7 @@
         <v>107</v>
       </c>
       <c r="D3">
-        <v>109057</v>
+        <v>111656</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2566,7 +2566,7 @@
         <v>105</v>
       </c>
       <c r="D4">
-        <v>106395</v>
+        <v>111572</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2580,7 +2580,7 @@
         <v>107</v>
       </c>
       <c r="D5">
-        <v>105564</v>
+        <v>110415</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2594,7 +2594,7 @@
         <v>117</v>
       </c>
       <c r="D6">
-        <v>88325</v>
+        <v>91783</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2608,7 +2608,7 @@
         <v>107</v>
       </c>
       <c r="D7">
-        <v>79109</v>
+        <v>82437</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2622,7 +2622,7 @@
         <v>107</v>
       </c>
       <c r="D8">
-        <v>73032</v>
+        <v>75936</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2636,7 +2636,7 @@
         <v>102</v>
       </c>
       <c r="D9">
-        <v>60881</v>
+        <v>64177</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2650,7 +2650,7 @@
         <v>111</v>
       </c>
       <c r="D10">
-        <v>59649</v>
+        <v>62299</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2664,21 +2664,21 @@
         <v>108</v>
       </c>
       <c r="D11">
-        <v>48987</v>
+        <v>52466</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C12" t="s">
         <v>103</v>
       </c>
       <c r="D12">
-        <v>44984</v>
+        <v>46303</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2692,7 +2692,7 @@
         <v>103</v>
       </c>
       <c r="D13">
-        <v>38637</v>
+        <v>39697</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2706,7 +2706,7 @@
         <v>112</v>
       </c>
       <c r="D14">
-        <v>35030</v>
+        <v>36509</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2720,21 +2720,21 @@
         <v>110</v>
       </c>
       <c r="D15">
-        <v>26742</v>
+        <v>27808</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C16" t="s">
         <v>104</v>
       </c>
       <c r="D16">
-        <v>24864</v>
+        <v>25574</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2748,7 +2748,7 @@
         <v>109</v>
       </c>
       <c r="D17">
-        <v>23843</v>
+        <v>24789</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2762,7 +2762,7 @@
         <v>112</v>
       </c>
       <c r="D18">
-        <v>23567</v>
+        <v>24572</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2776,21 +2776,21 @@
         <v>106</v>
       </c>
       <c r="D19">
-        <v>22276</v>
+        <v>23143</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C20" t="s">
         <v>106</v>
       </c>
       <c r="D20">
-        <v>20224</v>
+        <v>20878</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2804,7 +2804,7 @@
         <v>115</v>
       </c>
       <c r="D21">
-        <v>19540</v>
+        <v>20536</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2818,7 +2818,7 @@
         <v>112</v>
       </c>
       <c r="D22">
-        <v>19417</v>
+        <v>20291</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2832,7 +2832,7 @@
         <v>106</v>
       </c>
       <c r="D23">
-        <v>19161</v>
+        <v>19776</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2846,35 +2846,35 @@
         <v>126</v>
       </c>
       <c r="D24">
-        <v>18919</v>
+        <v>19653</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B25" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C25" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D25">
-        <v>17455</v>
+        <v>18114</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C26" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D26">
-        <v>17167</v>
+        <v>18058</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2888,7 +2888,7 @@
         <v>115</v>
       </c>
       <c r="D27">
-        <v>15224</v>
+        <v>15843</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2902,7 +2902,7 @@
         <v>122</v>
       </c>
       <c r="D28">
-        <v>15152</v>
+        <v>15520</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2916,7 +2916,7 @@
         <v>114</v>
       </c>
       <c r="D29">
-        <v>13074</v>
+        <v>13466</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2930,35 +2930,35 @@
         <v>116</v>
       </c>
       <c r="D30">
-        <v>12649</v>
+        <v>13210</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="B31" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="C31" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D31">
-        <v>11073</v>
+        <v>11711</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="B32" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="C32" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D32">
-        <v>11024</v>
+        <v>11239</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -2972,49 +2972,49 @@
         <v>113</v>
       </c>
       <c r="D33">
-        <v>10647</v>
+        <v>10832</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="B34" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="C34" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D34">
-        <v>9927</v>
+        <v>10299</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="C35" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D35">
-        <v>9809</v>
+        <v>10259</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B36" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="C36" t="s">
         <v>120</v>
       </c>
       <c r="D36">
-        <v>9702</v>
+        <v>10213</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -3028,7 +3028,7 @@
         <v>115</v>
       </c>
       <c r="D37">
-        <v>7787</v>
+        <v>8098</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -3042,7 +3042,7 @@
         <v>118</v>
       </c>
       <c r="D38">
-        <v>7516</v>
+        <v>7655</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -3056,7 +3056,7 @@
         <v>125</v>
       </c>
       <c r="D39">
-        <v>5713</v>
+        <v>5837</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -3070,49 +3070,49 @@
         <v>115</v>
       </c>
       <c r="D40">
-        <v>4414</v>
+        <v>4469</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B41" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C41" t="s">
         <v>123</v>
       </c>
       <c r="D41">
-        <v>2461</v>
+        <v>2538</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B42" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C42" t="s">
         <v>123</v>
       </c>
       <c r="D42">
-        <v>1655</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C43" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D43">
-        <v>1629</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -3126,21 +3126,21 @@
         <v>121</v>
       </c>
       <c r="D44">
-        <v>1514</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B45" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C45" t="s">
         <v>124</v>
       </c>
       <c r="D45">
-        <v>669</v>
+        <v>710</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -3239,7 +3239,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>3191731</v>
+        <v>3402519</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3247,7 +3247,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>1677342</v>
+        <v>1836064</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3255,7 +3255,7 @@
         <v>130</v>
       </c>
       <c r="B4">
-        <v>1287003</v>
+        <v>1303012</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3263,7 +3263,7 @@
         <v>131</v>
       </c>
       <c r="B5">
-        <v>1287003</v>
+        <v>1303012</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3271,7 +3271,7 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>1021118</v>
+        <v>1205086</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3279,7 +3279,7 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>981694</v>
+        <v>1039621</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3287,7 +3287,7 @@
         <v>132</v>
       </c>
       <c r="B8">
-        <v>866586</v>
+        <v>879615</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3295,7 +3295,7 @@
         <v>133</v>
       </c>
       <c r="B9">
-        <v>866586</v>
+        <v>879615</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3303,7 +3303,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>769332</v>
+        <v>786102</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3311,7 +3311,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>564616</v>
+        <v>604354</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3319,7 +3319,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>442528</v>
+        <v>477145</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3327,7 +3327,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>406389</v>
+        <v>418534</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3335,7 +3335,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>370102</v>
+        <v>392775</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3343,7 +3343,7 @@
         <v>134</v>
       </c>
       <c r="B15">
-        <v>335919</v>
+        <v>358254</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3351,7 +3351,7 @@
         <v>135</v>
       </c>
       <c r="B16">
-        <v>335919</v>
+        <v>358254</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -3359,7 +3359,7 @@
         <v>136</v>
       </c>
       <c r="B17">
-        <v>335919</v>
+        <v>358254</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -3367,7 +3367,7 @@
         <v>137</v>
       </c>
       <c r="B18">
-        <v>335919</v>
+        <v>358254</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -3375,7 +3375,7 @@
         <v>16</v>
       </c>
       <c r="B19">
-        <v>257509</v>
+        <v>266348</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -3383,7 +3383,7 @@
         <v>17</v>
       </c>
       <c r="B20">
-        <v>232875</v>
+        <v>253456</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -3391,7 +3391,7 @@
         <v>18</v>
       </c>
       <c r="B21">
-        <v>207447</v>
+        <v>239448</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -3399,7 +3399,7 @@
         <v>19</v>
       </c>
       <c r="B22">
-        <v>145132</v>
+        <v>149748</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -3407,7 +3407,7 @@
         <v>138</v>
       </c>
       <c r="B23">
-        <v>144191</v>
+        <v>148459</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -3415,7 +3415,7 @@
         <v>139</v>
       </c>
       <c r="B24">
-        <v>144191</v>
+        <v>148459</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -3423,7 +3423,7 @@
         <v>21</v>
       </c>
       <c r="B25">
-        <v>139212</v>
+        <v>146486</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -3431,7 +3431,7 @@
         <v>22</v>
       </c>
       <c r="B26">
-        <v>137154</v>
+        <v>142720</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -3439,7 +3439,7 @@
         <v>23</v>
       </c>
       <c r="B27">
-        <v>131556</v>
+        <v>134372</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -3447,7 +3447,7 @@
         <v>24</v>
       </c>
       <c r="B28">
-        <v>91607</v>
+        <v>95317</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -3455,7 +3455,7 @@
         <v>25</v>
       </c>
       <c r="B29">
-        <v>82351</v>
+        <v>83302</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -3463,7 +3463,7 @@
         <v>140</v>
       </c>
       <c r="B30">
-        <v>80778</v>
+        <v>82400</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -3471,7 +3471,7 @@
         <v>141</v>
       </c>
       <c r="B31">
-        <v>80778</v>
+        <v>82400</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -3479,31 +3479,31 @@
         <v>27</v>
       </c>
       <c r="B32">
-        <v>78527</v>
+        <v>81512</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>142</v>
+        <v>28</v>
       </c>
       <c r="B33">
-        <v>68980</v>
+        <v>73105</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B34">
-        <v>68980</v>
+        <v>70815</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>29</v>
+        <v>143</v>
       </c>
       <c r="B35">
-        <v>68642</v>
+        <v>70815</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -3511,7 +3511,7 @@
         <v>144</v>
       </c>
       <c r="B36">
-        <v>60019</v>
+        <v>62802</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -3519,7 +3519,7 @@
         <v>145</v>
       </c>
       <c r="B37">
-        <v>60019</v>
+        <v>62802</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -3527,7 +3527,7 @@
         <v>146</v>
       </c>
       <c r="B38">
-        <v>57967</v>
+        <v>60549</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -3535,7 +3535,7 @@
         <v>147</v>
       </c>
       <c r="B39">
-        <v>57967</v>
+        <v>60549</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -3543,7 +3543,7 @@
         <v>148</v>
       </c>
       <c r="B40">
-        <v>57967</v>
+        <v>60549</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -3551,7 +3551,7 @@
         <v>32</v>
       </c>
       <c r="B41">
-        <v>56185</v>
+        <v>58767</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -3559,7 +3559,7 @@
         <v>33</v>
       </c>
       <c r="B42">
-        <v>45940</v>
+        <v>47032</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -3567,7 +3567,7 @@
         <v>149</v>
       </c>
       <c r="B43">
-        <v>45334</v>
+        <v>46407</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -3575,7 +3575,7 @@
         <v>150</v>
       </c>
       <c r="B44">
-        <v>45334</v>
+        <v>46407</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -3583,7 +3583,7 @@
         <v>151</v>
       </c>
       <c r="B45">
-        <v>37450</v>
+        <v>38289</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -3591,7 +3591,7 @@
         <v>152</v>
       </c>
       <c r="B46">
-        <v>37450</v>
+        <v>38289</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -3599,7 +3599,7 @@
         <v>153</v>
       </c>
       <c r="B47">
-        <v>37450</v>
+        <v>38289</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -3607,7 +3607,7 @@
         <v>36</v>
       </c>
       <c r="B48">
-        <v>35811</v>
+        <v>37534</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -3615,7 +3615,7 @@
         <v>37</v>
       </c>
       <c r="B49">
-        <v>34561</v>
+        <v>35628</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -3623,7 +3623,7 @@
         <v>38</v>
       </c>
       <c r="B50">
-        <v>30254</v>
+        <v>30456</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -3631,7 +3631,7 @@
         <v>154</v>
       </c>
       <c r="B51">
-        <v>24364</v>
+        <v>25185</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -3639,7 +3639,7 @@
         <v>155</v>
       </c>
       <c r="B52">
-        <v>24364</v>
+        <v>25185</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -3647,7 +3647,7 @@
         <v>156</v>
       </c>
       <c r="B53">
-        <v>18543</v>
+        <v>18786</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -3655,7 +3655,7 @@
         <v>157</v>
       </c>
       <c r="B54">
-        <v>18543</v>
+        <v>18786</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -3663,7 +3663,7 @@
         <v>158</v>
       </c>
       <c r="B55">
-        <v>12034</v>
+        <v>12214</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -3671,7 +3671,7 @@
         <v>159</v>
       </c>
       <c r="B56">
-        <v>12034</v>
+        <v>12214</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -3679,7 +3679,7 @@
         <v>160</v>
       </c>
       <c r="B57">
-        <v>12034</v>
+        <v>12214</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -3687,7 +3687,7 @@
         <v>42</v>
       </c>
       <c r="B58">
-        <v>9765</v>
+        <v>10230</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -3695,7 +3695,7 @@
         <v>161</v>
       </c>
       <c r="B59">
-        <v>8562</v>
+        <v>9199</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -3703,7 +3703,7 @@
         <v>162</v>
       </c>
       <c r="B60">
-        <v>8562</v>
+        <v>9199</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -3711,7 +3711,7 @@
         <v>163</v>
       </c>
       <c r="B61">
-        <v>8411</v>
+        <v>8658</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -3719,7 +3719,7 @@
         <v>164</v>
       </c>
       <c r="B62">
-        <v>8411</v>
+        <v>8658</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -3727,7 +3727,7 @@
         <v>45</v>
       </c>
       <c r="B63">
-        <v>7292</v>
+        <v>7482</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -3735,7 +3735,7 @@
         <v>46</v>
       </c>
       <c r="B64">
-        <v>6477</v>
+        <v>6597</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -3743,7 +3743,7 @@
         <v>47</v>
       </c>
       <c r="B65">
-        <v>4466</v>
+        <v>4632</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -3751,31 +3751,31 @@
         <v>48</v>
       </c>
       <c r="B66">
-        <v>4444</v>
+        <v>4560</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="1" t="s">
-        <v>49</v>
+        <v>165</v>
       </c>
       <c r="B67">
-        <v>3049</v>
+        <v>3256</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B68">
-        <v>2848</v>
+        <v>3256</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="1" t="s">
-        <v>166</v>
+        <v>50</v>
       </c>
       <c r="B69">
-        <v>2848</v>
+        <v>3148</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -3783,7 +3783,7 @@
         <v>51</v>
       </c>
       <c r="B70">
-        <v>1381</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -3828,7 +3828,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2">
         <v>104</v>
@@ -3853,10 +3853,10 @@
         <v>24</v>
       </c>
       <c r="B4">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C4">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3867,7 +3867,7 @@
         <v>82</v>
       </c>
       <c r="C5">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3875,10 +3875,10 @@
         <v>134</v>
       </c>
       <c r="B6">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C6">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3886,10 +3886,10 @@
         <v>135</v>
       </c>
       <c r="B7">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C7">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3897,10 +3897,10 @@
         <v>136</v>
       </c>
       <c r="B8">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C8">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3908,10 +3908,10 @@
         <v>137</v>
       </c>
       <c r="B9">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C9">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3944,7 +3944,7 @@
         <v>58</v>
       </c>
       <c r="C12">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3952,10 +3952,10 @@
         <v>19</v>
       </c>
       <c r="B13">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C13">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -3963,18 +3963,18 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C14">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B15">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15">
         <v>37</v>
@@ -3982,13 +3982,13 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B16">
         <v>34</v>
       </c>
       <c r="C16">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -3999,7 +3999,7 @@
         <v>33</v>
       </c>
       <c r="C17">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -4010,12 +4010,12 @@
         <v>33</v>
       </c>
       <c r="C18">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B19">
         <v>32</v>
@@ -4059,7 +4059,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B23">
         <v>29</v>
@@ -4070,7 +4070,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B24">
         <v>29</v>
@@ -4081,46 +4081,46 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="B25">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C25">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="B26">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B27">
         <v>25</v>
       </c>
       <c r="C27">
-        <v>33</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="B28">
         <v>25</v>
       </c>
       <c r="C28">
-        <v>33</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -4169,7 +4169,7 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B33">
         <v>17</v>
@@ -4197,7 +4197,7 @@
         <v>16</v>
       </c>
       <c r="C35">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -4246,7 +4246,7 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B40">
         <v>9</v>
@@ -4257,7 +4257,7 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B41">
         <v>9</v>
@@ -4268,7 +4268,7 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B42">
         <v>8</v>
@@ -4323,7 +4323,7 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B47">
         <v>7</v>
@@ -4367,7 +4367,7 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B51">
         <v>4</v>
@@ -4378,18 +4378,18 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="1" t="s">
-        <v>156</v>
+        <v>51</v>
       </c>
       <c r="B52">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C52">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B53">
         <v>3</v>
@@ -4400,18 +4400,18 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="1" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="B54">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C54">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B55">
         <v>2</v>
@@ -4422,7 +4422,7 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="1" t="s">
-        <v>51</v>
+        <v>145</v>
       </c>
       <c r="B56">
         <v>2</v>
@@ -4633,7 +4633,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>172947</v>
+        <v>198529</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4641,7 +4641,7 @@
         <v>138</v>
       </c>
       <c r="B3">
-        <v>109057</v>
+        <v>111656</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4649,7 +4649,7 @@
         <v>139</v>
       </c>
       <c r="B4">
-        <v>109057</v>
+        <v>111656</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4657,7 +4657,7 @@
         <v>132</v>
       </c>
       <c r="B5">
-        <v>106395</v>
+        <v>111572</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4665,7 +4665,7 @@
         <v>133</v>
       </c>
       <c r="B6">
-        <v>106395</v>
+        <v>111572</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4673,7 +4673,7 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>105564</v>
+        <v>110415</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4681,7 +4681,7 @@
         <v>146</v>
       </c>
       <c r="B8">
-        <v>88325</v>
+        <v>91783</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4689,7 +4689,7 @@
         <v>147</v>
       </c>
       <c r="B9">
-        <v>88325</v>
+        <v>91783</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4697,7 +4697,7 @@
         <v>148</v>
       </c>
       <c r="B10">
-        <v>88325</v>
+        <v>91783</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -4705,7 +4705,7 @@
         <v>17</v>
       </c>
       <c r="B11">
-        <v>79109</v>
+        <v>82437</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -4713,7 +4713,7 @@
         <v>22</v>
       </c>
       <c r="B12">
-        <v>73032</v>
+        <v>75936</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -4721,7 +4721,7 @@
         <v>5</v>
       </c>
       <c r="B13">
-        <v>60881</v>
+        <v>64177</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -4729,7 +4729,7 @@
         <v>134</v>
       </c>
       <c r="B14">
-        <v>59649</v>
+        <v>62299</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -4737,7 +4737,7 @@
         <v>135</v>
       </c>
       <c r="B15">
-        <v>59649</v>
+        <v>62299</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -4745,7 +4745,7 @@
         <v>136</v>
       </c>
       <c r="B16">
-        <v>59649</v>
+        <v>62299</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -4753,7 +4753,7 @@
         <v>137</v>
       </c>
       <c r="B17">
-        <v>59649</v>
+        <v>62299</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -4761,15 +4761,15 @@
         <v>12</v>
       </c>
       <c r="B18">
-        <v>48987</v>
+        <v>52466</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B19">
-        <v>44984</v>
+        <v>46303</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -4777,7 +4777,7 @@
         <v>130</v>
       </c>
       <c r="B20">
-        <v>38637</v>
+        <v>39697</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -4785,7 +4785,7 @@
         <v>131</v>
       </c>
       <c r="B21">
-        <v>38637</v>
+        <v>39697</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -4793,7 +4793,7 @@
         <v>16</v>
       </c>
       <c r="B22">
-        <v>35030</v>
+        <v>36509</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -4801,15 +4801,15 @@
         <v>14</v>
       </c>
       <c r="B23">
-        <v>26742</v>
+        <v>27808</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B24">
-        <v>24864</v>
+        <v>25574</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -4817,7 +4817,7 @@
         <v>13</v>
       </c>
       <c r="B25">
-        <v>23843</v>
+        <v>24789</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -4825,7 +4825,7 @@
         <v>19</v>
       </c>
       <c r="B26">
-        <v>23567</v>
+        <v>24572</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -4833,15 +4833,15 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>22276</v>
+        <v>23143</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B28">
-        <v>20224</v>
+        <v>20878</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -4849,7 +4849,7 @@
         <v>154</v>
       </c>
       <c r="B29">
-        <v>19540</v>
+        <v>20536</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -4857,7 +4857,7 @@
         <v>155</v>
       </c>
       <c r="B30">
-        <v>19540</v>
+        <v>20536</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -4865,7 +4865,7 @@
         <v>37</v>
       </c>
       <c r="B31">
-        <v>19417</v>
+        <v>20291</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -4873,7 +4873,7 @@
         <v>33</v>
       </c>
       <c r="B32">
-        <v>19161</v>
+        <v>19776</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -4881,7 +4881,7 @@
         <v>167</v>
       </c>
       <c r="B33">
-        <v>18919</v>
+        <v>19653</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -4889,31 +4889,31 @@
         <v>168</v>
       </c>
       <c r="B34">
-        <v>18919</v>
+        <v>19653</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>27</v>
+        <v>142</v>
       </c>
       <c r="B35">
-        <v>17455</v>
+        <v>18114</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B36">
-        <v>17167</v>
+        <v>18114</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>143</v>
+        <v>27</v>
       </c>
       <c r="B37">
-        <v>17167</v>
+        <v>18058</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -4921,7 +4921,7 @@
         <v>140</v>
       </c>
       <c r="B38">
-        <v>15224</v>
+        <v>15843</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -4929,7 +4929,7 @@
         <v>141</v>
       </c>
       <c r="B39">
-        <v>15224</v>
+        <v>15843</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -4937,7 +4937,7 @@
         <v>46</v>
       </c>
       <c r="B40">
-        <v>15152</v>
+        <v>15520</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -4945,7 +4945,7 @@
         <v>25</v>
       </c>
       <c r="B41">
-        <v>13074</v>
+        <v>13466</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -4953,7 +4953,7 @@
         <v>144</v>
       </c>
       <c r="B42">
-        <v>12649</v>
+        <v>13210</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -4961,23 +4961,23 @@
         <v>145</v>
       </c>
       <c r="B43">
-        <v>12649</v>
+        <v>13210</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="B44">
-        <v>11073</v>
+        <v>11711</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="B45">
-        <v>11024</v>
+        <v>11239</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -4985,47 +4985,47 @@
         <v>38</v>
       </c>
       <c r="B46">
-        <v>10647</v>
+        <v>10832</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="B47">
-        <v>9927</v>
+        <v>10299</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="B48">
-        <v>9927</v>
+        <v>10299</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>149</v>
       </c>
       <c r="B49">
-        <v>9809</v>
+        <v>10259</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="B50">
-        <v>9702</v>
+        <v>10259</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>164</v>
+        <v>50</v>
       </c>
       <c r="B51">
-        <v>9702</v>
+        <v>10213</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -5033,7 +5033,7 @@
         <v>151</v>
       </c>
       <c r="B52">
-        <v>7787</v>
+        <v>8098</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -5041,7 +5041,7 @@
         <v>152</v>
       </c>
       <c r="B53">
-        <v>7787</v>
+        <v>8098</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -5049,7 +5049,7 @@
         <v>153</v>
       </c>
       <c r="B54">
-        <v>7787</v>
+        <v>8098</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -5057,7 +5057,7 @@
         <v>42</v>
       </c>
       <c r="B55">
-        <v>7516</v>
+        <v>7655</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -5065,7 +5065,7 @@
         <v>51</v>
       </c>
       <c r="B56">
-        <v>5713</v>
+        <v>5837</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -5073,7 +5073,7 @@
         <v>158</v>
       </c>
       <c r="B57">
-        <v>4414</v>
+        <v>4469</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -5081,7 +5081,7 @@
         <v>159</v>
       </c>
       <c r="B58">
-        <v>4414</v>
+        <v>4469</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -5089,39 +5089,39 @@
         <v>160</v>
       </c>
       <c r="B59">
-        <v>4414</v>
+        <v>4469</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B60">
-        <v>2461</v>
+        <v>2538</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B61">
-        <v>1655</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B62">
-        <v>1629</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B63">
-        <v>1629</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -5129,7 +5129,7 @@
         <v>45</v>
       </c>
       <c r="B64">
-        <v>1514</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -5137,7 +5137,7 @@
         <v>165</v>
       </c>
       <c r="B65">
-        <v>669</v>
+        <v>710</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -5145,7 +5145,7 @@
         <v>166</v>
       </c>
       <c r="B66">
-        <v>669</v>
+        <v>710</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -5222,7 +5222,7 @@
         <v>101</v>
       </c>
       <c r="B2">
-        <v>3191731</v>
+        <v>3402519</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -5230,7 +5230,7 @@
         <v>103</v>
       </c>
       <c r="B3">
-        <v>2308121</v>
+        <v>2342633</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -5238,7 +5238,7 @@
         <v>169</v>
       </c>
       <c r="B4">
-        <v>1677342</v>
+        <v>1836064</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -5246,7 +5246,7 @@
         <v>170</v>
       </c>
       <c r="B5">
-        <v>1677342</v>
+        <v>1836064</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -5254,7 +5254,7 @@
         <v>171</v>
       </c>
       <c r="B6">
-        <v>1317613</v>
+        <v>1563340</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -5262,23 +5262,23 @@
         <v>106</v>
       </c>
       <c r="B7">
-        <v>1177800</v>
+        <v>1234910</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>107</v>
+        <v>172</v>
       </c>
       <c r="B8">
-        <v>1078836</v>
+        <v>1205086</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>172</v>
+        <v>107</v>
       </c>
       <c r="B9">
-        <v>981694</v>
+        <v>1148989</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -5286,7 +5286,7 @@
         <v>105</v>
       </c>
       <c r="B10">
-        <v>866586</v>
+        <v>879615</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -5294,7 +5294,7 @@
         <v>112</v>
       </c>
       <c r="B11">
-        <v>652143</v>
+        <v>674176</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -5302,7 +5302,7 @@
         <v>108</v>
       </c>
       <c r="B12">
-        <v>442528</v>
+        <v>477145</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -5310,7 +5310,7 @@
         <v>110</v>
       </c>
       <c r="B13">
-        <v>370102</v>
+        <v>392775</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -5318,7 +5318,7 @@
         <v>173</v>
       </c>
       <c r="B14">
-        <v>335919</v>
+        <v>358254</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -5326,7 +5326,7 @@
         <v>174</v>
       </c>
       <c r="B15">
-        <v>237701</v>
+        <v>269904</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -5334,7 +5334,7 @@
         <v>115</v>
       </c>
       <c r="B16">
-        <v>211571</v>
+        <v>216301</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -5342,7 +5342,7 @@
         <v>175</v>
       </c>
       <c r="B17">
-        <v>82351</v>
+        <v>83302</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -5350,7 +5350,7 @@
         <v>176</v>
       </c>
       <c r="B18">
-        <v>82351</v>
+        <v>83302</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -5358,7 +5358,7 @@
         <v>116</v>
       </c>
       <c r="B19">
-        <v>61400</v>
+        <v>64240</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -5366,7 +5366,7 @@
         <v>117</v>
       </c>
       <c r="B20">
-        <v>57967</v>
+        <v>60549</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -5374,7 +5374,7 @@
         <v>123</v>
       </c>
       <c r="B21">
-        <v>16202</v>
+        <v>16674</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -5382,7 +5382,7 @@
         <v>177</v>
       </c>
       <c r="B22">
-        <v>11611</v>
+        <v>11806</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -5390,15 +5390,15 @@
         <v>118</v>
       </c>
       <c r="B23">
-        <v>9765</v>
+        <v>10230</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B24">
-        <v>8411</v>
+        <v>9199</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -5406,7 +5406,7 @@
         <v>178</v>
       </c>
       <c r="B25">
-        <v>7292</v>
+        <v>7482</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -5414,7 +5414,7 @@
         <v>179</v>
       </c>
       <c r="B26">
-        <v>6477</v>
+        <v>6597</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -5422,7 +5422,7 @@
         <v>180</v>
       </c>
       <c r="B27">
-        <v>6477</v>
+        <v>6597</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -5430,7 +5430,7 @@
         <v>124</v>
       </c>
       <c r="B28">
-        <v>2848</v>
+        <v>3256</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -5438,7 +5438,7 @@
         <v>181</v>
       </c>
       <c r="B29">
-        <v>1381</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -5486,10 +5486,10 @@
         <v>112</v>
       </c>
       <c r="B2">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C2">
-        <v>430</v>
+        <v>434</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -5497,10 +5497,10 @@
         <v>106</v>
       </c>
       <c r="B3">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C3">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -5508,10 +5508,10 @@
         <v>115</v>
       </c>
       <c r="B4">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C4">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -5522,7 +5522,7 @@
         <v>82</v>
       </c>
       <c r="C5">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -5533,7 +5533,7 @@
         <v>82</v>
       </c>
       <c r="C6">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -5541,10 +5541,10 @@
         <v>171</v>
       </c>
       <c r="B7">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C7">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -5552,10 +5552,10 @@
         <v>173</v>
       </c>
       <c r="B8">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C8">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -5574,10 +5574,10 @@
         <v>174</v>
       </c>
       <c r="B10">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C10">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -5621,7 +5621,7 @@
         <v>16</v>
       </c>
       <c r="C14">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -5637,7 +5637,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B16">
         <v>9</v>
@@ -5695,10 +5695,10 @@
         <v>116</v>
       </c>
       <c r="B21">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C21">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -5706,10 +5706,10 @@
         <v>181</v>
       </c>
       <c r="B22">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C22">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -5837,7 +5837,7 @@
         <v>107</v>
       </c>
       <c r="B2">
-        <v>366762</v>
+        <v>380444</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -5845,7 +5845,7 @@
         <v>101</v>
       </c>
       <c r="B3">
-        <v>172947</v>
+        <v>198529</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -5853,7 +5853,7 @@
         <v>105</v>
       </c>
       <c r="B4">
-        <v>106395</v>
+        <v>111572</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -5861,7 +5861,7 @@
         <v>112</v>
       </c>
       <c r="B5">
-        <v>106205</v>
+        <v>111197</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -5869,7 +5869,7 @@
         <v>117</v>
       </c>
       <c r="B6">
-        <v>88325</v>
+        <v>91783</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -5877,7 +5877,7 @@
         <v>171</v>
       </c>
       <c r="B7">
-        <v>84513</v>
+        <v>87873</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -5885,7 +5885,7 @@
         <v>103</v>
       </c>
       <c r="B8">
-        <v>83621</v>
+        <v>86000</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -5893,7 +5893,7 @@
         <v>106</v>
       </c>
       <c r="B9">
-        <v>83381</v>
+        <v>85868</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -5901,7 +5901,7 @@
         <v>115</v>
       </c>
       <c r="B10">
-        <v>68330</v>
+        <v>71083</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -5909,7 +5909,7 @@
         <v>169</v>
       </c>
       <c r="B11">
-        <v>60881</v>
+        <v>64177</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -5917,7 +5917,7 @@
         <v>170</v>
       </c>
       <c r="B12">
-        <v>60881</v>
+        <v>64177</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -5925,7 +5925,7 @@
         <v>173</v>
       </c>
       <c r="B13">
-        <v>59649</v>
+        <v>62299</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -5933,7 +5933,7 @@
         <v>108</v>
       </c>
       <c r="B14">
-        <v>48987</v>
+        <v>52466</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -5941,7 +5941,7 @@
         <v>110</v>
       </c>
       <c r="B15">
-        <v>26742</v>
+        <v>27808</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -5949,7 +5949,7 @@
         <v>172</v>
       </c>
       <c r="B16">
-        <v>24864</v>
+        <v>25574</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -5957,7 +5957,7 @@
         <v>174</v>
       </c>
       <c r="B17">
-        <v>21720</v>
+        <v>22071</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -5965,7 +5965,7 @@
         <v>182</v>
       </c>
       <c r="B18">
-        <v>18919</v>
+        <v>19653</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -5973,7 +5973,7 @@
         <v>183</v>
       </c>
       <c r="B19">
-        <v>18919</v>
+        <v>19653</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -5981,7 +5981,7 @@
         <v>116</v>
       </c>
       <c r="B20">
-        <v>18362</v>
+        <v>19047</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -5989,7 +5989,7 @@
         <v>179</v>
       </c>
       <c r="B21">
-        <v>15152</v>
+        <v>15520</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -5997,7 +5997,7 @@
         <v>180</v>
       </c>
       <c r="B22">
-        <v>15152</v>
+        <v>15520</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -6005,7 +6005,7 @@
         <v>175</v>
       </c>
       <c r="B23">
-        <v>13074</v>
+        <v>13466</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -6013,7 +6013,7 @@
         <v>176</v>
       </c>
       <c r="B24">
-        <v>13074</v>
+        <v>13466</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -6021,15 +6021,15 @@
         <v>177</v>
       </c>
       <c r="B25">
-        <v>11438</v>
+        <v>11878</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B26">
-        <v>9702</v>
+        <v>10299</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -6037,7 +6037,7 @@
         <v>118</v>
       </c>
       <c r="B27">
-        <v>7516</v>
+        <v>7655</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -6045,7 +6045,7 @@
         <v>181</v>
       </c>
       <c r="B28">
-        <v>5713</v>
+        <v>5837</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -6053,7 +6053,7 @@
         <v>123</v>
       </c>
       <c r="B29">
-        <v>5630</v>
+        <v>5761</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -6061,7 +6061,7 @@
         <v>178</v>
       </c>
       <c r="B30">
-        <v>1514</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -6069,7 +6069,7 @@
         <v>124</v>
       </c>
       <c r="B31">
-        <v>669</v>
+        <v>710</v>
       </c>
     </row>
   </sheetData>

--- a/monthly_reports/monthly_data/2021 Charts Month 1.xlsx
+++ b/monthly_reports/monthly_data/2021 Charts Month 1.xlsx
@@ -42,12 +42,12 @@
     <t>Armin van Buuren</t>
   </si>
   <si>
+    <t>KEVU</t>
+  </si>
+  <si>
     <t>Arlow, Shiah Maisel</t>
   </si>
   <si>
-    <t>KEVU</t>
-  </si>
-  <si>
     <t>Castion</t>
   </si>
   <si>
@@ -69,27 +69,27 @@
     <t>Rosenfeld</t>
   </si>
   <si>
-    <t>DubDogz, Mariana Bo, Flakkē, Luisah</t>
+    <t>DubDogz, Mariana Bo, Flakkë, Luisah</t>
+  </si>
+  <si>
+    <t>Saint Punk</t>
   </si>
   <si>
     <t>Aspyer</t>
   </si>
   <si>
-    <t>Saint Punk</t>
-  </si>
-  <si>
     <t>WbToys</t>
   </si>
   <si>
     <t>Julian Jordan</t>
   </si>
   <si>
+    <t>insaneintherainmusic</t>
+  </si>
+  <si>
     <t>TYNAN, Ace Aura</t>
   </si>
   <si>
-    <t>insaneintherainmusic</t>
-  </si>
-  <si>
     <t>Rameses B</t>
   </si>
   <si>
@@ -216,24 +216,24 @@
     <t>Drop It</t>
   </si>
   <si>
+    <t>Empty Bed</t>
+  </si>
+  <si>
     <t>Symphony</t>
   </si>
   <si>
-    <t>Empty Bed</t>
-  </si>
-  <si>
     <t>Let Me Love You</t>
   </si>
   <si>
     <t>Big Bad Bass</t>
   </si>
   <si>
+    <t>Bonetrousle</t>
+  </si>
+  <si>
     <t>Stay</t>
   </si>
   <si>
-    <t>Bonetrousle</t>
-  </si>
-  <si>
     <t>Samurai</t>
   </si>
   <si>
@@ -333,12 +333,12 @@
     <t>A State Of Trance, Armada Music</t>
   </si>
   <si>
+    <t>Maxximize Records, Spinnin' Records</t>
+  </si>
+  <si>
     <t>NCS</t>
   </si>
   <si>
-    <t>Maxximize Records, Spinnin' Records</t>
-  </si>
-  <si>
     <t>mau5trap</t>
   </si>
   <si>
@@ -429,7 +429,7 @@
     <t>DubDogz</t>
   </si>
   <si>
-    <t>Flakkē</t>
+    <t>Flakkë</t>
   </si>
   <si>
     <t>Luisah</t>
@@ -962,7 +962,7 @@
         <v>101</v>
       </c>
       <c r="D2">
-        <v>3402519</v>
+        <v>3500210</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -976,35 +976,35 @@
         <v>102</v>
       </c>
       <c r="D3">
-        <v>1836064</v>
+        <v>1931359</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
-        <v>21</v>
+      <c r="B4" t="s">
+        <v>55</v>
       </c>
       <c r="C4" t="s">
         <v>103</v>
       </c>
       <c r="D4">
-        <v>1303012</v>
+        <v>1398073</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
-        <v>55</v>
+      <c r="B5">
+        <v>21</v>
       </c>
       <c r="C5" t="s">
         <v>104</v>
       </c>
       <c r="D5">
-        <v>1205086</v>
+        <v>1311928</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1015,10 +1015,10 @@
         <v>56</v>
       </c>
       <c r="C6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D6">
-        <v>1039621</v>
+        <v>1048549</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1032,7 +1032,7 @@
         <v>105</v>
       </c>
       <c r="D7">
-        <v>879615</v>
+        <v>888098</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1046,7 +1046,7 @@
         <v>106</v>
       </c>
       <c r="D8">
-        <v>786102</v>
+        <v>795496</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1060,7 +1060,7 @@
         <v>107</v>
       </c>
       <c r="D9">
-        <v>604354</v>
+        <v>625520</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1074,7 +1074,7 @@
         <v>108</v>
       </c>
       <c r="D10">
-        <v>477145</v>
+        <v>495311</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1088,7 +1088,7 @@
         <v>109</v>
       </c>
       <c r="D11">
-        <v>418534</v>
+        <v>423756</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1102,7 +1102,7 @@
         <v>110</v>
       </c>
       <c r="D12">
-        <v>392775</v>
+        <v>404826</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1116,7 +1116,7 @@
         <v>111</v>
       </c>
       <c r="D13">
-        <v>358254</v>
+        <v>370868</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1127,10 +1127,10 @@
         <v>64</v>
       </c>
       <c r="C14" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D14">
-        <v>266348</v>
+        <v>273240</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1141,10 +1141,10 @@
         <v>65</v>
       </c>
       <c r="C15" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="D15">
-        <v>253456</v>
+        <v>270699</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1158,7 +1158,7 @@
         <v>113</v>
       </c>
       <c r="D16">
-        <v>239448</v>
+        <v>256116</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1172,7 +1172,7 @@
         <v>112</v>
       </c>
       <c r="D17">
-        <v>149748</v>
+        <v>152129</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1183,10 +1183,10 @@
         <v>68</v>
       </c>
       <c r="C18" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D18">
-        <v>148459</v>
+        <v>151040</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1197,10 +1197,10 @@
         <v>69</v>
       </c>
       <c r="C19" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D19">
-        <v>146486</v>
+        <v>150983</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1214,7 +1214,7 @@
         <v>107</v>
       </c>
       <c r="D20">
-        <v>142720</v>
+        <v>145976</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1228,7 +1228,7 @@
         <v>109</v>
       </c>
       <c r="D21">
-        <v>134372</v>
+        <v>135828</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1242,7 +1242,7 @@
         <v>112</v>
       </c>
       <c r="D22">
-        <v>95317</v>
+        <v>97214</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1256,7 +1256,7 @@
         <v>114</v>
       </c>
       <c r="D23">
-        <v>83302</v>
+        <v>83776</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1270,7 +1270,7 @@
         <v>115</v>
       </c>
       <c r="D24">
-        <v>82400</v>
+        <v>83161</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1284,7 +1284,7 @@
         <v>109</v>
       </c>
       <c r="D25">
-        <v>81512</v>
+        <v>82805</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1298,7 +1298,7 @@
         <v>106</v>
       </c>
       <c r="D26">
-        <v>73105</v>
+        <v>75617</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1312,7 +1312,7 @@
         <v>112</v>
       </c>
       <c r="D27">
-        <v>70815</v>
+        <v>71792</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1326,7 +1326,7 @@
         <v>116</v>
       </c>
       <c r="D28">
-        <v>62802</v>
+        <v>64580</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1340,7 +1340,7 @@
         <v>117</v>
       </c>
       <c r="D29">
-        <v>60549</v>
+        <v>61819</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1354,7 +1354,7 @@
         <v>106</v>
       </c>
       <c r="D30">
-        <v>58767</v>
+        <v>60080</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1368,7 +1368,7 @@
         <v>106</v>
       </c>
       <c r="D31">
-        <v>47032</v>
+        <v>47529</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1382,7 +1382,7 @@
         <v>115</v>
       </c>
       <c r="D32">
-        <v>46407</v>
+        <v>46872</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1396,7 +1396,7 @@
         <v>115</v>
       </c>
       <c r="D33">
-        <v>38289</v>
+        <v>38699</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1410,7 +1410,7 @@
         <v>112</v>
       </c>
       <c r="D34">
-        <v>37534</v>
+        <v>38422</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1424,7 +1424,7 @@
         <v>112</v>
       </c>
       <c r="D35">
-        <v>35628</v>
+        <v>36214</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1438,7 +1438,7 @@
         <v>113</v>
       </c>
       <c r="D36">
-        <v>30456</v>
+        <v>30590</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1452,7 +1452,7 @@
         <v>115</v>
       </c>
       <c r="D37">
-        <v>25185</v>
+        <v>25535</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1466,7 +1466,7 @@
         <v>112</v>
       </c>
       <c r="D38">
-        <v>18786</v>
+        <v>18924</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1480,7 +1480,7 @@
         <v>115</v>
       </c>
       <c r="D39">
-        <v>12214</v>
+        <v>12314</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1494,7 +1494,7 @@
         <v>118</v>
       </c>
       <c r="D40">
-        <v>10230</v>
+        <v>10447</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1508,7 +1508,7 @@
         <v>119</v>
       </c>
       <c r="D41">
-        <v>9199</v>
+        <v>9689</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1522,7 +1522,7 @@
         <v>120</v>
       </c>
       <c r="D42">
-        <v>8658</v>
+        <v>8712</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1536,7 +1536,7 @@
         <v>121</v>
       </c>
       <c r="D43">
-        <v>7482</v>
+        <v>7577</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1550,7 +1550,7 @@
         <v>122</v>
       </c>
       <c r="D44">
-        <v>6597</v>
+        <v>6667</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1564,7 +1564,7 @@
         <v>123</v>
       </c>
       <c r="D45">
-        <v>4632</v>
+        <v>4696</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1578,7 +1578,7 @@
         <v>123</v>
       </c>
       <c r="D46">
-        <v>4560</v>
+        <v>4599</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1592,7 +1592,7 @@
         <v>124</v>
       </c>
       <c r="D47">
-        <v>3256</v>
+        <v>3416</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1606,7 +1606,7 @@
         <v>120</v>
       </c>
       <c r="D48">
-        <v>3148</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1620,7 +1620,7 @@
         <v>125</v>
       </c>
       <c r="D49">
-        <v>1438</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1678,10 +1678,10 @@
         <v>106</v>
       </c>
       <c r="D2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E2">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1695,10 +1695,10 @@
         <v>112</v>
       </c>
       <c r="D3">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E3">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1729,10 +1729,10 @@
         <v>102</v>
       </c>
       <c r="D5">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E5">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1780,10 +1780,10 @@
         <v>106</v>
       </c>
       <c r="D8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E8">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1800,15 +1800,15 @@
         <v>49</v>
       </c>
       <c r="E9">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C10" t="s">
         <v>112</v>
@@ -1882,10 +1882,10 @@
         <v>120</v>
       </c>
       <c r="D14">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E14">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1936,7 +1936,7 @@
         <v>26</v>
       </c>
       <c r="E17">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -2004,7 +2004,7 @@
         <v>17</v>
       </c>
       <c r="E21">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -2015,13 +2015,13 @@
         <v>56</v>
       </c>
       <c r="C22" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D22">
         <v>17</v>
       </c>
       <c r="E22">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -2111,13 +2111,13 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B28" t="s">
         <v>55</v>
       </c>
       <c r="C28" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D28">
         <v>8</v>
@@ -2145,10 +2145,10 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B30" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C30" t="s">
         <v>107</v>
@@ -2162,10 +2162,10 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C31" t="s">
         <v>107</v>
@@ -2298,13 +2298,13 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B39">
         <v>21</v>
       </c>
       <c r="C39" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -2349,10 +2349,10 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B42" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C42" t="s">
         <v>109</v>
@@ -2538,35 +2538,35 @@
         <v>101</v>
       </c>
       <c r="D2">
-        <v>198529</v>
+        <v>210507</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="C3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D3">
-        <v>111656</v>
+        <v>114343</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="C4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D4">
-        <v>111572</v>
+        <v>112883</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2580,7 +2580,7 @@
         <v>107</v>
       </c>
       <c r="D5">
-        <v>110415</v>
+        <v>112851</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2594,21 +2594,21 @@
         <v>117</v>
       </c>
       <c r="D6">
-        <v>91783</v>
+        <v>93497</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C7" t="s">
         <v>107</v>
       </c>
       <c r="D7">
-        <v>82437</v>
+        <v>84821</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2622,7 +2622,7 @@
         <v>107</v>
       </c>
       <c r="D8">
-        <v>75936</v>
+        <v>77408</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2636,7 +2636,7 @@
         <v>102</v>
       </c>
       <c r="D9">
-        <v>64177</v>
+        <v>66052</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2650,7 +2650,7 @@
         <v>111</v>
       </c>
       <c r="D10">
-        <v>62299</v>
+        <v>63884</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2664,7 +2664,7 @@
         <v>108</v>
       </c>
       <c r="D11">
-        <v>52466</v>
+        <v>54279</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2675,38 +2675,38 @@
         <v>56</v>
       </c>
       <c r="C12" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D12">
-        <v>46303</v>
+        <v>46968</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B13">
         <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D13">
-        <v>39697</v>
+        <v>40263</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C14" t="s">
         <v>112</v>
       </c>
       <c r="D14">
-        <v>36509</v>
+        <v>37297</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2720,21 +2720,21 @@
         <v>110</v>
       </c>
       <c r="D15">
-        <v>27808</v>
+        <v>28553</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B16" t="s">
         <v>55</v>
       </c>
       <c r="C16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D16">
-        <v>25574</v>
+        <v>25949</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2748,7 +2748,7 @@
         <v>109</v>
       </c>
       <c r="D17">
-        <v>24789</v>
+        <v>25304</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2762,7 +2762,7 @@
         <v>112</v>
       </c>
       <c r="D18">
-        <v>24572</v>
+        <v>25059</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2776,7 +2776,7 @@
         <v>106</v>
       </c>
       <c r="D19">
-        <v>23143</v>
+        <v>23531</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2790,7 +2790,7 @@
         <v>106</v>
       </c>
       <c r="D20">
-        <v>20878</v>
+        <v>21273</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2804,7 +2804,7 @@
         <v>115</v>
       </c>
       <c r="D21">
-        <v>20536</v>
+        <v>21041</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2818,7 +2818,7 @@
         <v>112</v>
       </c>
       <c r="D22">
-        <v>20291</v>
+        <v>20951</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2832,7 +2832,7 @@
         <v>106</v>
       </c>
       <c r="D23">
-        <v>19776</v>
+        <v>20045</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2846,7 +2846,7 @@
         <v>126</v>
       </c>
       <c r="D24">
-        <v>19653</v>
+        <v>20006</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2860,7 +2860,7 @@
         <v>112</v>
       </c>
       <c r="D25">
-        <v>18114</v>
+        <v>18689</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2874,7 +2874,7 @@
         <v>109</v>
       </c>
       <c r="D26">
-        <v>18058</v>
+        <v>18384</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2888,7 +2888,7 @@
         <v>115</v>
       </c>
       <c r="D27">
-        <v>15843</v>
+        <v>16194</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2902,7 +2902,7 @@
         <v>122</v>
       </c>
       <c r="D28">
-        <v>15520</v>
+        <v>15688</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2916,7 +2916,7 @@
         <v>114</v>
       </c>
       <c r="D29">
-        <v>13466</v>
+        <v>13687</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2930,7 +2930,7 @@
         <v>116</v>
       </c>
       <c r="D30">
-        <v>13210</v>
+        <v>13521</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2944,7 +2944,7 @@
         <v>112</v>
       </c>
       <c r="D31">
-        <v>11711</v>
+        <v>12060</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2958,7 +2958,7 @@
         <v>113</v>
       </c>
       <c r="D32">
-        <v>11239</v>
+        <v>11310</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -2972,7 +2972,7 @@
         <v>113</v>
       </c>
       <c r="D33">
-        <v>10832</v>
+        <v>10958</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -2986,35 +2986,35 @@
         <v>119</v>
       </c>
       <c r="D34">
-        <v>10299</v>
+        <v>10674</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="B35" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="C35" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="D35">
-        <v>10259</v>
+        <v>10465</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="C36" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D36">
-        <v>10213</v>
+        <v>10431</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -3028,7 +3028,7 @@
         <v>115</v>
       </c>
       <c r="D37">
-        <v>8098</v>
+        <v>8276</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -3042,7 +3042,7 @@
         <v>118</v>
       </c>
       <c r="D38">
-        <v>7655</v>
+        <v>7683</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -3056,7 +3056,7 @@
         <v>125</v>
       </c>
       <c r="D39">
-        <v>5837</v>
+        <v>5886</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -3070,7 +3070,7 @@
         <v>115</v>
       </c>
       <c r="D40">
-        <v>4469</v>
+        <v>4505</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -3084,35 +3084,35 @@
         <v>123</v>
       </c>
       <c r="D41">
-        <v>2538</v>
+        <v>2569</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B42" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C42" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D42">
-        <v>1668</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C43" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D43">
-        <v>1665</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -3126,7 +3126,7 @@
         <v>121</v>
       </c>
       <c r="D44">
-        <v>1555</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -3140,15 +3140,15 @@
         <v>124</v>
       </c>
       <c r="D45">
-        <v>710</v>
+        <v>731</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B46" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C46" t="s">
         <v>109</v>
@@ -3239,7 +3239,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>3402519</v>
+        <v>3500210</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3247,31 +3247,31 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>1836064</v>
+        <v>1931359</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>130</v>
+        <v>6</v>
       </c>
       <c r="B4">
-        <v>1303012</v>
+        <v>1398073</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B5">
-        <v>1303012</v>
+        <v>1311928</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>131</v>
       </c>
       <c r="B6">
-        <v>1205086</v>
+        <v>1311928</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3279,7 +3279,7 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>1039621</v>
+        <v>1048549</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3287,7 +3287,7 @@
         <v>132</v>
       </c>
       <c r="B8">
-        <v>879615</v>
+        <v>888098</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3295,7 +3295,7 @@
         <v>133</v>
       </c>
       <c r="B9">
-        <v>879615</v>
+        <v>888098</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3303,7 +3303,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>786102</v>
+        <v>795496</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3311,7 +3311,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>604354</v>
+        <v>625520</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3319,7 +3319,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>477145</v>
+        <v>495311</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3327,7 +3327,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>418534</v>
+        <v>423756</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3335,7 +3335,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>392775</v>
+        <v>404826</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3343,7 +3343,7 @@
         <v>134</v>
       </c>
       <c r="B15">
-        <v>358254</v>
+        <v>370868</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3351,7 +3351,7 @@
         <v>135</v>
       </c>
       <c r="B16">
-        <v>358254</v>
+        <v>370868</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -3359,7 +3359,7 @@
         <v>136</v>
       </c>
       <c r="B17">
-        <v>358254</v>
+        <v>370868</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -3367,7 +3367,7 @@
         <v>137</v>
       </c>
       <c r="B18">
-        <v>358254</v>
+        <v>370868</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -3375,7 +3375,7 @@
         <v>16</v>
       </c>
       <c r="B19">
-        <v>266348</v>
+        <v>273240</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -3383,7 +3383,7 @@
         <v>17</v>
       </c>
       <c r="B20">
-        <v>253456</v>
+        <v>270699</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -3391,7 +3391,7 @@
         <v>18</v>
       </c>
       <c r="B21">
-        <v>239448</v>
+        <v>256116</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -3399,31 +3399,31 @@
         <v>19</v>
       </c>
       <c r="B22">
-        <v>149748</v>
+        <v>152129</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>138</v>
+        <v>20</v>
       </c>
       <c r="B23">
-        <v>148459</v>
+        <v>151040</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B24">
-        <v>148459</v>
+        <v>150983</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>21</v>
+        <v>139</v>
       </c>
       <c r="B25">
-        <v>146486</v>
+        <v>150983</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -3431,7 +3431,7 @@
         <v>22</v>
       </c>
       <c r="B26">
-        <v>142720</v>
+        <v>145976</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -3439,7 +3439,7 @@
         <v>23</v>
       </c>
       <c r="B27">
-        <v>134372</v>
+        <v>135828</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -3447,7 +3447,7 @@
         <v>24</v>
       </c>
       <c r="B28">
-        <v>95317</v>
+        <v>97214</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -3455,7 +3455,7 @@
         <v>25</v>
       </c>
       <c r="B29">
-        <v>83302</v>
+        <v>83776</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -3463,7 +3463,7 @@
         <v>140</v>
       </c>
       <c r="B30">
-        <v>82400</v>
+        <v>83161</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -3471,7 +3471,7 @@
         <v>141</v>
       </c>
       <c r="B31">
-        <v>82400</v>
+        <v>83161</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -3479,7 +3479,7 @@
         <v>27</v>
       </c>
       <c r="B32">
-        <v>81512</v>
+        <v>82805</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -3487,7 +3487,7 @@
         <v>28</v>
       </c>
       <c r="B33">
-        <v>73105</v>
+        <v>75617</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -3495,7 +3495,7 @@
         <v>142</v>
       </c>
       <c r="B34">
-        <v>70815</v>
+        <v>71792</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -3503,7 +3503,7 @@
         <v>143</v>
       </c>
       <c r="B35">
-        <v>70815</v>
+        <v>71792</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -3511,7 +3511,7 @@
         <v>144</v>
       </c>
       <c r="B36">
-        <v>62802</v>
+        <v>64580</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -3519,7 +3519,7 @@
         <v>145</v>
       </c>
       <c r="B37">
-        <v>62802</v>
+        <v>64580</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -3527,7 +3527,7 @@
         <v>146</v>
       </c>
       <c r="B38">
-        <v>60549</v>
+        <v>61819</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -3535,7 +3535,7 @@
         <v>147</v>
       </c>
       <c r="B39">
-        <v>60549</v>
+        <v>61819</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -3543,7 +3543,7 @@
         <v>148</v>
       </c>
       <c r="B40">
-        <v>60549</v>
+        <v>61819</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -3551,7 +3551,7 @@
         <v>32</v>
       </c>
       <c r="B41">
-        <v>58767</v>
+        <v>60080</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -3559,7 +3559,7 @@
         <v>33</v>
       </c>
       <c r="B42">
-        <v>47032</v>
+        <v>47529</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -3567,7 +3567,7 @@
         <v>149</v>
       </c>
       <c r="B43">
-        <v>46407</v>
+        <v>46872</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -3575,7 +3575,7 @@
         <v>150</v>
       </c>
       <c r="B44">
-        <v>46407</v>
+        <v>46872</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -3583,7 +3583,7 @@
         <v>151</v>
       </c>
       <c r="B45">
-        <v>38289</v>
+        <v>38699</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -3591,7 +3591,7 @@
         <v>152</v>
       </c>
       <c r="B46">
-        <v>38289</v>
+        <v>38699</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -3599,7 +3599,7 @@
         <v>153</v>
       </c>
       <c r="B47">
-        <v>38289</v>
+        <v>38699</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -3607,7 +3607,7 @@
         <v>36</v>
       </c>
       <c r="B48">
-        <v>37534</v>
+        <v>38422</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -3615,7 +3615,7 @@
         <v>37</v>
       </c>
       <c r="B49">
-        <v>35628</v>
+        <v>36214</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -3623,7 +3623,7 @@
         <v>38</v>
       </c>
       <c r="B50">
-        <v>30456</v>
+        <v>30590</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -3631,7 +3631,7 @@
         <v>154</v>
       </c>
       <c r="B51">
-        <v>25185</v>
+        <v>25535</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -3639,7 +3639,7 @@
         <v>155</v>
       </c>
       <c r="B52">
-        <v>25185</v>
+        <v>25535</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -3647,7 +3647,7 @@
         <v>156</v>
       </c>
       <c r="B53">
-        <v>18786</v>
+        <v>18924</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -3655,7 +3655,7 @@
         <v>157</v>
       </c>
       <c r="B54">
-        <v>18786</v>
+        <v>18924</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -3663,7 +3663,7 @@
         <v>158</v>
       </c>
       <c r="B55">
-        <v>12214</v>
+        <v>12314</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -3671,7 +3671,7 @@
         <v>159</v>
       </c>
       <c r="B56">
-        <v>12214</v>
+        <v>12314</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -3679,7 +3679,7 @@
         <v>160</v>
       </c>
       <c r="B57">
-        <v>12214</v>
+        <v>12314</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -3687,7 +3687,7 @@
         <v>42</v>
       </c>
       <c r="B58">
-        <v>10230</v>
+        <v>10447</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -3695,7 +3695,7 @@
         <v>161</v>
       </c>
       <c r="B59">
-        <v>9199</v>
+        <v>9689</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -3703,7 +3703,7 @@
         <v>162</v>
       </c>
       <c r="B60">
-        <v>9199</v>
+        <v>9689</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -3711,7 +3711,7 @@
         <v>163</v>
       </c>
       <c r="B61">
-        <v>8658</v>
+        <v>8712</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -3719,7 +3719,7 @@
         <v>164</v>
       </c>
       <c r="B62">
-        <v>8658</v>
+        <v>8712</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -3727,7 +3727,7 @@
         <v>45</v>
       </c>
       <c r="B63">
-        <v>7482</v>
+        <v>7577</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -3735,7 +3735,7 @@
         <v>46</v>
       </c>
       <c r="B64">
-        <v>6597</v>
+        <v>6667</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -3743,7 +3743,7 @@
         <v>47</v>
       </c>
       <c r="B65">
-        <v>4632</v>
+        <v>4696</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -3751,7 +3751,7 @@
         <v>48</v>
       </c>
       <c r="B66">
-        <v>4560</v>
+        <v>4599</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -3759,7 +3759,7 @@
         <v>165</v>
       </c>
       <c r="B67">
-        <v>3256</v>
+        <v>3416</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -3767,7 +3767,7 @@
         <v>166</v>
       </c>
       <c r="B68">
-        <v>3256</v>
+        <v>3416</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -3775,7 +3775,7 @@
         <v>50</v>
       </c>
       <c r="B69">
-        <v>3148</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -3783,7 +3783,7 @@
         <v>51</v>
       </c>
       <c r="B70">
-        <v>1438</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -3831,10 +3831,10 @@
         <v>28</v>
       </c>
       <c r="B2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C2">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3842,10 +3842,10 @@
         <v>36</v>
       </c>
       <c r="B3">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C3">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3864,10 +3864,10 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C5">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3941,10 +3941,10 @@
         <v>33</v>
       </c>
       <c r="B12">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C12">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3955,12 +3955,12 @@
         <v>49</v>
       </c>
       <c r="C13">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B14">
         <v>46</v>
@@ -4018,10 +4018,10 @@
         <v>50</v>
       </c>
       <c r="B19">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C19">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -4087,7 +4087,7 @@
         <v>26</v>
       </c>
       <c r="C25">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -4098,7 +4098,7 @@
         <v>26</v>
       </c>
       <c r="C26">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -4164,7 +4164,7 @@
         <v>17</v>
       </c>
       <c r="C32">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -4175,7 +4175,7 @@
         <v>17</v>
       </c>
       <c r="C33">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -4268,7 +4268,7 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B42">
         <v>8</v>
@@ -4312,7 +4312,7 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B46">
         <v>7</v>
@@ -4598,7 +4598,7 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -4633,39 +4633,39 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>198529</v>
+        <v>210507</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B3">
-        <v>111656</v>
+        <v>114343</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B4">
-        <v>111656</v>
+        <v>114343</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B5">
-        <v>111572</v>
+        <v>112883</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="B6">
-        <v>111572</v>
+        <v>112883</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4673,7 +4673,7 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>110415</v>
+        <v>112851</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4681,7 +4681,7 @@
         <v>146</v>
       </c>
       <c r="B8">
-        <v>91783</v>
+        <v>93497</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4689,7 +4689,7 @@
         <v>147</v>
       </c>
       <c r="B9">
-        <v>91783</v>
+        <v>93497</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4697,15 +4697,15 @@
         <v>148</v>
       </c>
       <c r="B10">
-        <v>91783</v>
+        <v>93497</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>82437</v>
+        <v>84821</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -4713,7 +4713,7 @@
         <v>22</v>
       </c>
       <c r="B12">
-        <v>75936</v>
+        <v>77408</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -4721,7 +4721,7 @@
         <v>5</v>
       </c>
       <c r="B13">
-        <v>64177</v>
+        <v>66052</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -4729,7 +4729,7 @@
         <v>134</v>
       </c>
       <c r="B14">
-        <v>62299</v>
+        <v>63884</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -4737,7 +4737,7 @@
         <v>135</v>
       </c>
       <c r="B15">
-        <v>62299</v>
+        <v>63884</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -4745,7 +4745,7 @@
         <v>136</v>
       </c>
       <c r="B16">
-        <v>62299</v>
+        <v>63884</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -4753,7 +4753,7 @@
         <v>137</v>
       </c>
       <c r="B17">
-        <v>62299</v>
+        <v>63884</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -4761,7 +4761,7 @@
         <v>12</v>
       </c>
       <c r="B18">
-        <v>52466</v>
+        <v>54279</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -4769,7 +4769,7 @@
         <v>8</v>
       </c>
       <c r="B19">
-        <v>46303</v>
+        <v>46968</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -4777,7 +4777,7 @@
         <v>130</v>
       </c>
       <c r="B20">
-        <v>39697</v>
+        <v>40263</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -4785,15 +4785,15 @@
         <v>131</v>
       </c>
       <c r="B21">
-        <v>39697</v>
+        <v>40263</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B22">
-        <v>36509</v>
+        <v>37297</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -4801,15 +4801,15 @@
         <v>14</v>
       </c>
       <c r="B23">
-        <v>27808</v>
+        <v>28553</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B24">
-        <v>25574</v>
+        <v>25949</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -4817,7 +4817,7 @@
         <v>13</v>
       </c>
       <c r="B25">
-        <v>24789</v>
+        <v>25304</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -4825,7 +4825,7 @@
         <v>19</v>
       </c>
       <c r="B26">
-        <v>24572</v>
+        <v>25059</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -4833,7 +4833,7 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>23143</v>
+        <v>23531</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -4841,7 +4841,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>20878</v>
+        <v>21273</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -4849,7 +4849,7 @@
         <v>154</v>
       </c>
       <c r="B29">
-        <v>20536</v>
+        <v>21041</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -4857,7 +4857,7 @@
         <v>155</v>
       </c>
       <c r="B30">
-        <v>20536</v>
+        <v>21041</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -4865,7 +4865,7 @@
         <v>37</v>
       </c>
       <c r="B31">
-        <v>20291</v>
+        <v>20951</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -4873,7 +4873,7 @@
         <v>33</v>
       </c>
       <c r="B32">
-        <v>19776</v>
+        <v>20045</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -4881,7 +4881,7 @@
         <v>167</v>
       </c>
       <c r="B33">
-        <v>19653</v>
+        <v>20006</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -4889,7 +4889,7 @@
         <v>168</v>
       </c>
       <c r="B34">
-        <v>19653</v>
+        <v>20006</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -4897,7 +4897,7 @@
         <v>142</v>
       </c>
       <c r="B35">
-        <v>18114</v>
+        <v>18689</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -4905,7 +4905,7 @@
         <v>143</v>
       </c>
       <c r="B36">
-        <v>18114</v>
+        <v>18689</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -4913,7 +4913,7 @@
         <v>27</v>
       </c>
       <c r="B37">
-        <v>18058</v>
+        <v>18384</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -4921,7 +4921,7 @@
         <v>140</v>
       </c>
       <c r="B38">
-        <v>15843</v>
+        <v>16194</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -4929,7 +4929,7 @@
         <v>141</v>
       </c>
       <c r="B39">
-        <v>15843</v>
+        <v>16194</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -4937,7 +4937,7 @@
         <v>46</v>
       </c>
       <c r="B40">
-        <v>15520</v>
+        <v>15688</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -4945,7 +4945,7 @@
         <v>25</v>
       </c>
       <c r="B41">
-        <v>13466</v>
+        <v>13687</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -4953,7 +4953,7 @@
         <v>144</v>
       </c>
       <c r="B42">
-        <v>13210</v>
+        <v>13521</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -4961,7 +4961,7 @@
         <v>145</v>
       </c>
       <c r="B43">
-        <v>13210</v>
+        <v>13521</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -4969,7 +4969,7 @@
         <v>36</v>
       </c>
       <c r="B44">
-        <v>11711</v>
+        <v>12060</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -4977,7 +4977,7 @@
         <v>18</v>
       </c>
       <c r="B45">
-        <v>11239</v>
+        <v>11310</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -4985,7 +4985,7 @@
         <v>38</v>
       </c>
       <c r="B46">
-        <v>10832</v>
+        <v>10958</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -4993,7 +4993,7 @@
         <v>161</v>
       </c>
       <c r="B47">
-        <v>10299</v>
+        <v>10674</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -5001,31 +5001,31 @@
         <v>162</v>
       </c>
       <c r="B48">
-        <v>10299</v>
+        <v>10674</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>149</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>10259</v>
+        <v>10465</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B50">
-        <v>10259</v>
+        <v>10431</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="B51">
-        <v>10213</v>
+        <v>10431</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -5033,7 +5033,7 @@
         <v>151</v>
       </c>
       <c r="B52">
-        <v>8098</v>
+        <v>8276</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -5041,7 +5041,7 @@
         <v>152</v>
       </c>
       <c r="B53">
-        <v>8098</v>
+        <v>8276</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -5049,7 +5049,7 @@
         <v>153</v>
       </c>
       <c r="B54">
-        <v>8098</v>
+        <v>8276</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -5057,7 +5057,7 @@
         <v>42</v>
       </c>
       <c r="B55">
-        <v>7655</v>
+        <v>7683</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -5065,7 +5065,7 @@
         <v>51</v>
       </c>
       <c r="B56">
-        <v>5837</v>
+        <v>5886</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -5073,7 +5073,7 @@
         <v>158</v>
       </c>
       <c r="B57">
-        <v>4469</v>
+        <v>4505</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -5081,7 +5081,7 @@
         <v>159</v>
       </c>
       <c r="B58">
-        <v>4469</v>
+        <v>4505</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -5089,7 +5089,7 @@
         <v>160</v>
       </c>
       <c r="B59">
-        <v>4469</v>
+        <v>4505</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -5097,31 +5097,31 @@
         <v>47</v>
       </c>
       <c r="B60">
-        <v>2538</v>
+        <v>2569</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>48</v>
+        <v>163</v>
       </c>
       <c r="B61">
-        <v>1668</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B62">
-        <v>1665</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="1" t="s">
-        <v>164</v>
+        <v>48</v>
       </c>
       <c r="B63">
-        <v>1665</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -5129,7 +5129,7 @@
         <v>45</v>
       </c>
       <c r="B64">
-        <v>1555</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -5137,7 +5137,7 @@
         <v>165</v>
       </c>
       <c r="B65">
-        <v>710</v>
+        <v>731</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -5145,7 +5145,7 @@
         <v>166</v>
       </c>
       <c r="B66">
-        <v>710</v>
+        <v>731</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -5190,7 +5190,7 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -5222,15 +5222,15 @@
         <v>101</v>
       </c>
       <c r="B2">
-        <v>3402519</v>
+        <v>3500210</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B3">
-        <v>2342633</v>
+        <v>2360477</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -5238,7 +5238,7 @@
         <v>169</v>
       </c>
       <c r="B4">
-        <v>1836064</v>
+        <v>1931359</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -5246,7 +5246,7 @@
         <v>170</v>
       </c>
       <c r="B5">
-        <v>1836064</v>
+        <v>1931359</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -5254,23 +5254,23 @@
         <v>171</v>
       </c>
       <c r="B6">
-        <v>1563340</v>
+        <v>1768941</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>106</v>
+        <v>172</v>
       </c>
       <c r="B7">
-        <v>1234910</v>
+        <v>1398073</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>172</v>
+        <v>106</v>
       </c>
       <c r="B8">
-        <v>1205086</v>
+        <v>1265428</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -5278,7 +5278,7 @@
         <v>107</v>
       </c>
       <c r="B9">
-        <v>1148989</v>
+        <v>1195719</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -5286,7 +5286,7 @@
         <v>105</v>
       </c>
       <c r="B10">
-        <v>879615</v>
+        <v>888098</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -5294,7 +5294,7 @@
         <v>112</v>
       </c>
       <c r="B11">
-        <v>674176</v>
+        <v>685394</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -5302,7 +5302,7 @@
         <v>108</v>
       </c>
       <c r="B12">
-        <v>477145</v>
+        <v>495311</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -5310,7 +5310,7 @@
         <v>110</v>
       </c>
       <c r="B13">
-        <v>392775</v>
+        <v>404826</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -5318,7 +5318,7 @@
         <v>173</v>
       </c>
       <c r="B14">
-        <v>358254</v>
+        <v>370868</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -5326,7 +5326,7 @@
         <v>174</v>
       </c>
       <c r="B15">
-        <v>269904</v>
+        <v>286706</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -5334,7 +5334,7 @@
         <v>115</v>
       </c>
       <c r="B16">
-        <v>216301</v>
+        <v>218473</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -5342,7 +5342,7 @@
         <v>175</v>
       </c>
       <c r="B17">
-        <v>83302</v>
+        <v>83776</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -5350,7 +5350,7 @@
         <v>176</v>
       </c>
       <c r="B18">
-        <v>83302</v>
+        <v>83776</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -5358,7 +5358,7 @@
         <v>116</v>
       </c>
       <c r="B19">
-        <v>64240</v>
+        <v>66035</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -5366,7 +5366,7 @@
         <v>117</v>
       </c>
       <c r="B20">
-        <v>60549</v>
+        <v>61819</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -5374,7 +5374,7 @@
         <v>123</v>
       </c>
       <c r="B21">
-        <v>16674</v>
+        <v>16872</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -5382,7 +5382,7 @@
         <v>177</v>
       </c>
       <c r="B22">
-        <v>11806</v>
+        <v>11892</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -5390,7 +5390,7 @@
         <v>118</v>
       </c>
       <c r="B23">
-        <v>10230</v>
+        <v>10447</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -5398,7 +5398,7 @@
         <v>119</v>
       </c>
       <c r="B24">
-        <v>9199</v>
+        <v>9689</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -5406,7 +5406,7 @@
         <v>178</v>
       </c>
       <c r="B25">
-        <v>7482</v>
+        <v>7577</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -5414,7 +5414,7 @@
         <v>179</v>
       </c>
       <c r="B26">
-        <v>6597</v>
+        <v>6667</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -5422,7 +5422,7 @@
         <v>180</v>
       </c>
       <c r="B27">
-        <v>6597</v>
+        <v>6667</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -5430,7 +5430,7 @@
         <v>124</v>
       </c>
       <c r="B28">
-        <v>3256</v>
+        <v>3416</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -5438,7 +5438,7 @@
         <v>181</v>
       </c>
       <c r="B29">
-        <v>1438</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -5486,10 +5486,10 @@
         <v>112</v>
       </c>
       <c r="B2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C2">
-        <v>434</v>
+        <v>437</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -5497,10 +5497,10 @@
         <v>106</v>
       </c>
       <c r="B3">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="C3">
-        <v>282</v>
+        <v>287</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -5508,10 +5508,10 @@
         <v>115</v>
       </c>
       <c r="B4">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C4">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -5519,10 +5519,10 @@
         <v>169</v>
       </c>
       <c r="B5">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C5">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -5530,10 +5530,10 @@
         <v>170</v>
       </c>
       <c r="B6">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C6">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -5563,10 +5563,10 @@
         <v>177</v>
       </c>
       <c r="B9">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C9">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -5604,13 +5604,13 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B13">
         <v>17</v>
       </c>
       <c r="C13">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -5837,7 +5837,7 @@
         <v>107</v>
       </c>
       <c r="B2">
-        <v>380444</v>
+        <v>387963</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -5845,7 +5845,7 @@
         <v>101</v>
       </c>
       <c r="B3">
-        <v>198529</v>
+        <v>210507</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -5853,7 +5853,7 @@
         <v>105</v>
       </c>
       <c r="B4">
-        <v>111572</v>
+        <v>114343</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -5861,7 +5861,7 @@
         <v>112</v>
       </c>
       <c r="B5">
-        <v>111197</v>
+        <v>114056</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -5869,7 +5869,7 @@
         <v>117</v>
       </c>
       <c r="B6">
-        <v>91783</v>
+        <v>93497</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -5877,15 +5877,15 @@
         <v>171</v>
       </c>
       <c r="B7">
-        <v>87873</v>
+        <v>89833</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B8">
-        <v>86000</v>
+        <v>87231</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -5893,7 +5893,7 @@
         <v>106</v>
       </c>
       <c r="B9">
-        <v>85868</v>
+        <v>87117</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -5901,7 +5901,7 @@
         <v>115</v>
       </c>
       <c r="B10">
-        <v>71083</v>
+        <v>72598</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -5909,7 +5909,7 @@
         <v>169</v>
       </c>
       <c r="B11">
-        <v>64177</v>
+        <v>66052</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -5917,7 +5917,7 @@
         <v>170</v>
       </c>
       <c r="B12">
-        <v>64177</v>
+        <v>66052</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -5925,7 +5925,7 @@
         <v>173</v>
       </c>
       <c r="B13">
-        <v>62299</v>
+        <v>63884</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -5933,7 +5933,7 @@
         <v>108</v>
       </c>
       <c r="B14">
-        <v>52466</v>
+        <v>54279</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -5941,7 +5941,7 @@
         <v>110</v>
       </c>
       <c r="B15">
-        <v>27808</v>
+        <v>28553</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -5949,7 +5949,7 @@
         <v>172</v>
       </c>
       <c r="B16">
-        <v>25574</v>
+        <v>25949</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -5957,7 +5957,7 @@
         <v>174</v>
       </c>
       <c r="B17">
-        <v>22071</v>
+        <v>22268</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -5965,7 +5965,7 @@
         <v>182</v>
       </c>
       <c r="B18">
-        <v>19653</v>
+        <v>20006</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -5973,7 +5973,7 @@
         <v>183</v>
       </c>
       <c r="B19">
-        <v>19653</v>
+        <v>20006</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -5981,7 +5981,7 @@
         <v>116</v>
       </c>
       <c r="B20">
-        <v>19047</v>
+        <v>19407</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -5989,7 +5989,7 @@
         <v>179</v>
       </c>
       <c r="B21">
-        <v>15520</v>
+        <v>15688</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -5997,7 +5997,7 @@
         <v>180</v>
       </c>
       <c r="B22">
-        <v>15520</v>
+        <v>15688</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -6005,7 +6005,7 @@
         <v>175</v>
       </c>
       <c r="B23">
-        <v>13466</v>
+        <v>13687</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -6013,7 +6013,7 @@
         <v>176</v>
       </c>
       <c r="B24">
-        <v>13466</v>
+        <v>13687</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -6021,7 +6021,7 @@
         <v>177</v>
       </c>
       <c r="B25">
-        <v>11878</v>
+        <v>12151</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -6029,7 +6029,7 @@
         <v>119</v>
       </c>
       <c r="B26">
-        <v>10299</v>
+        <v>10674</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -6037,7 +6037,7 @@
         <v>118</v>
       </c>
       <c r="B27">
-        <v>7655</v>
+        <v>7683</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -6045,7 +6045,7 @@
         <v>181</v>
       </c>
       <c r="B28">
-        <v>5837</v>
+        <v>5886</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -6053,7 +6053,7 @@
         <v>123</v>
       </c>
       <c r="B29">
-        <v>5761</v>
+        <v>5829</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -6061,7 +6061,7 @@
         <v>178</v>
       </c>
       <c r="B30">
-        <v>1555</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -6069,7 +6069,7 @@
         <v>124</v>
       </c>
       <c r="B31">
-        <v>710</v>
+        <v>731</v>
       </c>
     </row>
   </sheetData>

--- a/monthly_reports/monthly_data/2021 Charts Month 1.xlsx
+++ b/monthly_reports/monthly_data/2021 Charts Month 1.xlsx
@@ -81,12 +81,12 @@
     <t>WbToys</t>
   </si>
   <si>
+    <t>insaneintherainmusic</t>
+  </si>
+  <si>
     <t>Julian Jordan</t>
   </si>
   <si>
-    <t>insaneintherainmusic</t>
-  </si>
-  <si>
     <t>TYNAN, Ace Aura</t>
   </si>
   <si>
@@ -99,15 +99,15 @@
     <t>DubVision</t>
   </si>
   <si>
+    <t>Dirty Palm</t>
+  </si>
+  <si>
     <t>Misfit</t>
   </si>
   <si>
     <t>KAAZE, Nino Lucarelli</t>
   </si>
   <si>
-    <t>Dirty Palm</t>
-  </si>
-  <si>
     <t>Malarkey</t>
   </si>
   <si>
@@ -129,12 +129,12 @@
     <t>Dr Phunk, Diandra Faye</t>
   </si>
   <si>
+    <t>Body Ocean</t>
+  </si>
+  <si>
     <t>Jaxxwell, Hardwell, Blasterjaxx</t>
   </si>
   <si>
-    <t>Body Ocean</t>
-  </si>
-  <si>
     <t>NUZB</t>
   </si>
   <si>
@@ -225,12 +225,12 @@
     <t>Let Me Love You</t>
   </si>
   <si>
+    <t>Bonetrousle</t>
+  </si>
+  <si>
     <t>Big Bad Bass</t>
   </si>
   <si>
-    <t>Bonetrousle</t>
-  </si>
-  <si>
     <t>Stay</t>
   </si>
   <si>
@@ -243,15 +243,15 @@
     <t>Deeper</t>
   </si>
   <si>
+    <t>Diamonds</t>
+  </si>
+  <si>
     <t>Mirage</t>
   </si>
   <si>
     <t>Temperature</t>
   </si>
   <si>
-    <t>Diamonds</t>
-  </si>
-  <si>
     <t>Shackles (Praise You)</t>
   </si>
   <si>
@@ -273,12 +273,12 @@
     <t>Firebomb</t>
   </si>
   <si>
+    <t>Once The Music</t>
+  </si>
+  <si>
     <t>Bootshaus ID</t>
   </si>
   <si>
-    <t>Once The Music</t>
-  </si>
-  <si>
     <t>Nighttime</t>
   </si>
   <si>
@@ -531,13 +531,13 @@
     <t>Jonth</t>
   </si>
   <si>
+    <t>Spinnin' Records</t>
+  </si>
+  <si>
     <t>A State Of Trance</t>
   </si>
   <si>
     <t>Armada Music</t>
-  </si>
-  <si>
-    <t>Spinnin' Records</t>
   </si>
   <si>
     <t>Maxximize Records</t>
@@ -962,7 +962,7 @@
         <v>101</v>
       </c>
       <c r="D2">
-        <v>3500210</v>
+        <v>3611123</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -976,7 +976,7 @@
         <v>102</v>
       </c>
       <c r="D3">
-        <v>1931359</v>
+        <v>2033717</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -990,7 +990,7 @@
         <v>103</v>
       </c>
       <c r="D4">
-        <v>1398073</v>
+        <v>1669215</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1004,7 +1004,7 @@
         <v>104</v>
       </c>
       <c r="D5">
-        <v>1311928</v>
+        <v>1323244</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1018,7 +1018,7 @@
         <v>104</v>
       </c>
       <c r="D6">
-        <v>1048549</v>
+        <v>1060350</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1032,7 +1032,7 @@
         <v>105</v>
       </c>
       <c r="D7">
-        <v>888098</v>
+        <v>898879</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1046,7 +1046,7 @@
         <v>106</v>
       </c>
       <c r="D8">
-        <v>795496</v>
+        <v>807186</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1060,7 +1060,7 @@
         <v>107</v>
       </c>
       <c r="D9">
-        <v>625520</v>
+        <v>653191</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1074,7 +1074,7 @@
         <v>108</v>
       </c>
       <c r="D10">
-        <v>495311</v>
+        <v>518928</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1088,7 +1088,7 @@
         <v>109</v>
       </c>
       <c r="D11">
-        <v>423756</v>
+        <v>430112</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1102,7 +1102,7 @@
         <v>110</v>
       </c>
       <c r="D12">
-        <v>404826</v>
+        <v>421829</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1116,7 +1116,7 @@
         <v>111</v>
       </c>
       <c r="D13">
-        <v>370868</v>
+        <v>387568</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1130,7 +1130,7 @@
         <v>107</v>
       </c>
       <c r="D14">
-        <v>273240</v>
+        <v>290232</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1144,7 +1144,7 @@
         <v>112</v>
       </c>
       <c r="D15">
-        <v>270699</v>
+        <v>276370</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1158,7 +1158,7 @@
         <v>113</v>
       </c>
       <c r="D16">
-        <v>256116</v>
+        <v>275983</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1169,10 +1169,10 @@
         <v>67</v>
       </c>
       <c r="C17" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D17">
-        <v>152129</v>
+        <v>157003</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1183,10 +1183,10 @@
         <v>68</v>
       </c>
       <c r="C18" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D18">
-        <v>151040</v>
+        <v>155106</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1200,7 +1200,7 @@
         <v>107</v>
       </c>
       <c r="D19">
-        <v>150983</v>
+        <v>154140</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1214,7 +1214,7 @@
         <v>107</v>
       </c>
       <c r="D20">
-        <v>145976</v>
+        <v>150189</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1228,7 +1228,7 @@
         <v>109</v>
       </c>
       <c r="D21">
-        <v>135828</v>
+        <v>137895</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1242,7 +1242,7 @@
         <v>112</v>
       </c>
       <c r="D22">
-        <v>97214</v>
+        <v>99285</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1253,10 +1253,10 @@
         <v>73</v>
       </c>
       <c r="C23" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D23">
-        <v>83776</v>
+        <v>84605</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1267,10 +1267,10 @@
         <v>74</v>
       </c>
       <c r="C24" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D24">
-        <v>83161</v>
+        <v>84577</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1281,10 +1281,10 @@
         <v>75</v>
       </c>
       <c r="C25" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="D25">
-        <v>82805</v>
+        <v>84005</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1298,7 +1298,7 @@
         <v>106</v>
       </c>
       <c r="D26">
-        <v>75617</v>
+        <v>79078</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1312,7 +1312,7 @@
         <v>112</v>
       </c>
       <c r="D27">
-        <v>71792</v>
+        <v>73195</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1326,7 +1326,7 @@
         <v>116</v>
       </c>
       <c r="D28">
-        <v>64580</v>
+        <v>66837</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1340,7 +1340,7 @@
         <v>117</v>
       </c>
       <c r="D29">
-        <v>61819</v>
+        <v>63358</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1354,7 +1354,7 @@
         <v>106</v>
       </c>
       <c r="D30">
-        <v>60080</v>
+        <v>61663</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1368,7 +1368,7 @@
         <v>106</v>
       </c>
       <c r="D31">
-        <v>47529</v>
+        <v>48229</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1382,7 +1382,7 @@
         <v>115</v>
       </c>
       <c r="D32">
-        <v>46872</v>
+        <v>47494</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1393,10 +1393,10 @@
         <v>83</v>
       </c>
       <c r="C33" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D33">
-        <v>38699</v>
+        <v>39425</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1407,10 +1407,10 @@
         <v>84</v>
       </c>
       <c r="C34" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D34">
-        <v>38422</v>
+        <v>39194</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1424,7 +1424,7 @@
         <v>112</v>
       </c>
       <c r="D35">
-        <v>36214</v>
+        <v>36829</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1438,7 +1438,7 @@
         <v>113</v>
       </c>
       <c r="D36">
-        <v>30590</v>
+        <v>30730</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1452,7 +1452,7 @@
         <v>115</v>
       </c>
       <c r="D37">
-        <v>25535</v>
+        <v>26184</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1466,7 +1466,7 @@
         <v>112</v>
       </c>
       <c r="D38">
-        <v>18924</v>
+        <v>19120</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1480,7 +1480,7 @@
         <v>115</v>
       </c>
       <c r="D39">
-        <v>12314</v>
+        <v>12473</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1494,7 +1494,7 @@
         <v>118</v>
       </c>
       <c r="D40">
-        <v>10447</v>
+        <v>10723</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1508,7 +1508,7 @@
         <v>119</v>
       </c>
       <c r="D41">
-        <v>9689</v>
+        <v>10281</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1522,7 +1522,7 @@
         <v>120</v>
       </c>
       <c r="D42">
-        <v>8712</v>
+        <v>8797</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1536,7 +1536,7 @@
         <v>121</v>
       </c>
       <c r="D43">
-        <v>7577</v>
+        <v>7687</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1550,7 +1550,7 @@
         <v>122</v>
       </c>
       <c r="D44">
-        <v>6667</v>
+        <v>6730</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1564,7 +1564,7 @@
         <v>123</v>
       </c>
       <c r="D45">
-        <v>4696</v>
+        <v>4784</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1578,7 +1578,7 @@
         <v>123</v>
       </c>
       <c r="D46">
-        <v>4599</v>
+        <v>4644</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1592,7 +1592,7 @@
         <v>124</v>
       </c>
       <c r="D47">
-        <v>3416</v>
+        <v>3590</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1606,7 +1606,7 @@
         <v>120</v>
       </c>
       <c r="D48">
-        <v>3180</v>
+        <v>3206</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1620,7 +1620,7 @@
         <v>125</v>
       </c>
       <c r="D49">
-        <v>1455</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1686,19 +1686,19 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C3" t="s">
         <v>112</v>
       </c>
       <c r="D3">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="E3">
-        <v>106</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1715,7 +1715,7 @@
         <v>91</v>
       </c>
       <c r="E4">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1732,7 +1732,7 @@
         <v>84</v>
       </c>
       <c r="E5">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1788,10 +1788,10 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C9" t="s">
         <v>112</v>
@@ -1831,10 +1831,10 @@
         <v>113</v>
       </c>
       <c r="D11">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E11">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1890,10 +1890,10 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B15" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C15" t="s">
         <v>115</v>
@@ -1924,36 +1924,36 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="B17" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="C17" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="D17">
         <v>26</v>
       </c>
       <c r="E17">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="C18" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="D18">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E18">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1975,13 +1975,13 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="C20" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="D20">
         <v>17</v>
@@ -1992,53 +1992,53 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="B21" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="C21" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="D21">
         <v>17</v>
       </c>
       <c r="E21">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B22" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C22" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D22">
         <v>17</v>
       </c>
       <c r="E22">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B23" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C23" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D23">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E23">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -2349,10 +2349,10 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B42" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C42" t="s">
         <v>109</v>
@@ -2400,10 +2400,10 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B45" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C45" t="s">
         <v>109</v>
@@ -2451,10 +2451,10 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B48" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C48" t="s">
         <v>114</v>
@@ -2538,7 +2538,7 @@
         <v>101</v>
       </c>
       <c r="D2">
-        <v>210507</v>
+        <v>221410</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2552,35 +2552,35 @@
         <v>105</v>
       </c>
       <c r="D3">
-        <v>114343</v>
+        <v>117063</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C4" t="s">
         <v>107</v>
       </c>
       <c r="D4">
-        <v>112883</v>
+        <v>116152</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="C5" t="s">
         <v>107</v>
       </c>
       <c r="D5">
-        <v>112851</v>
+        <v>114574</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2594,7 +2594,7 @@
         <v>117</v>
       </c>
       <c r="D6">
-        <v>93497</v>
+        <v>95466</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2608,7 +2608,7 @@
         <v>107</v>
       </c>
       <c r="D7">
-        <v>84821</v>
+        <v>87363</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2622,7 +2622,7 @@
         <v>107</v>
       </c>
       <c r="D8">
-        <v>77408</v>
+        <v>79256</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2636,7 +2636,7 @@
         <v>102</v>
       </c>
       <c r="D9">
-        <v>66052</v>
+        <v>68145</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2650,7 +2650,7 @@
         <v>111</v>
       </c>
       <c r="D10">
-        <v>63884</v>
+        <v>65969</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2664,7 +2664,7 @@
         <v>108</v>
       </c>
       <c r="D11">
-        <v>54279</v>
+        <v>57255</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2678,7 +2678,7 @@
         <v>104</v>
       </c>
       <c r="D12">
-        <v>46968</v>
+        <v>47829</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2692,7 +2692,7 @@
         <v>104</v>
       </c>
       <c r="D13">
-        <v>40263</v>
+        <v>41095</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2706,7 +2706,7 @@
         <v>112</v>
       </c>
       <c r="D14">
-        <v>37297</v>
+        <v>38287</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2720,7 +2720,7 @@
         <v>110</v>
       </c>
       <c r="D15">
-        <v>28553</v>
+        <v>29402</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2734,7 +2734,7 @@
         <v>103</v>
       </c>
       <c r="D16">
-        <v>25949</v>
+        <v>26514</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2748,21 +2748,21 @@
         <v>109</v>
       </c>
       <c r="D17">
-        <v>25304</v>
+        <v>26040</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C18" t="s">
         <v>112</v>
       </c>
       <c r="D18">
-        <v>25059</v>
+        <v>25655</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2776,7 +2776,7 @@
         <v>106</v>
       </c>
       <c r="D19">
-        <v>23531</v>
+        <v>24177</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2790,7 +2790,7 @@
         <v>106</v>
       </c>
       <c r="D20">
-        <v>21273</v>
+        <v>21757</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2804,7 +2804,7 @@
         <v>115</v>
       </c>
       <c r="D21">
-        <v>21041</v>
+        <v>21685</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2818,7 +2818,7 @@
         <v>112</v>
       </c>
       <c r="D22">
-        <v>20951</v>
+        <v>21510</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2832,7 +2832,7 @@
         <v>106</v>
       </c>
       <c r="D23">
-        <v>20045</v>
+        <v>20431</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2846,7 +2846,7 @@
         <v>126</v>
       </c>
       <c r="D24">
-        <v>20006</v>
+        <v>20429</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2860,35 +2860,35 @@
         <v>112</v>
       </c>
       <c r="D25">
-        <v>18689</v>
+        <v>19401</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C26" t="s">
         <v>109</v>
       </c>
       <c r="D26">
-        <v>18384</v>
+        <v>18833</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C27" t="s">
         <v>115</v>
       </c>
       <c r="D27">
-        <v>16194</v>
+        <v>16588</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2902,21 +2902,21 @@
         <v>122</v>
       </c>
       <c r="D28">
-        <v>15688</v>
+        <v>15884</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C29" t="s">
         <v>114</v>
       </c>
       <c r="D29">
-        <v>13687</v>
+        <v>13943</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2930,21 +2930,21 @@
         <v>116</v>
       </c>
       <c r="D30">
-        <v>13521</v>
+        <v>13881</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B31" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C31" t="s">
         <v>112</v>
       </c>
       <c r="D31">
-        <v>12060</v>
+        <v>12530</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2958,7 +2958,7 @@
         <v>113</v>
       </c>
       <c r="D32">
-        <v>11310</v>
+        <v>11408</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -2972,7 +2972,7 @@
         <v>113</v>
       </c>
       <c r="D33">
-        <v>10958</v>
+        <v>11072</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -2986,7 +2986,7 @@
         <v>119</v>
       </c>
       <c r="D34">
-        <v>10674</v>
+        <v>11047</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -3000,7 +3000,7 @@
         <v>120</v>
       </c>
       <c r="D35">
-        <v>10465</v>
+        <v>10802</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -3014,21 +3014,21 @@
         <v>115</v>
       </c>
       <c r="D36">
-        <v>10431</v>
+        <v>10602</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C37" t="s">
         <v>115</v>
       </c>
       <c r="D37">
-        <v>8276</v>
+        <v>8461</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -3042,7 +3042,7 @@
         <v>118</v>
       </c>
       <c r="D38">
-        <v>7683</v>
+        <v>7759</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -3056,7 +3056,7 @@
         <v>125</v>
       </c>
       <c r="D39">
-        <v>5886</v>
+        <v>5949</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -3070,7 +3070,7 @@
         <v>115</v>
       </c>
       <c r="D40">
-        <v>4505</v>
+        <v>4556</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -3084,7 +3084,7 @@
         <v>123</v>
       </c>
       <c r="D41">
-        <v>2569</v>
+        <v>2591</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -3098,7 +3098,7 @@
         <v>120</v>
       </c>
       <c r="D42">
-        <v>1686</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -3112,7 +3112,7 @@
         <v>123</v>
       </c>
       <c r="D43">
-        <v>1672</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -3126,7 +3126,7 @@
         <v>121</v>
       </c>
       <c r="D44">
-        <v>1588</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -3140,15 +3140,15 @@
         <v>124</v>
       </c>
       <c r="D45">
-        <v>731</v>
+        <v>748</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B46" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C46" t="s">
         <v>109</v>
@@ -3239,7 +3239,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>3500210</v>
+        <v>3611123</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3247,7 +3247,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>1931359</v>
+        <v>2033717</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3255,7 +3255,7 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>1398073</v>
+        <v>1669215</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3263,7 +3263,7 @@
         <v>130</v>
       </c>
       <c r="B5">
-        <v>1311928</v>
+        <v>1323244</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3271,7 +3271,7 @@
         <v>131</v>
       </c>
       <c r="B6">
-        <v>1311928</v>
+        <v>1323244</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3279,7 +3279,7 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>1048549</v>
+        <v>1060350</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3287,7 +3287,7 @@
         <v>132</v>
       </c>
       <c r="B8">
-        <v>888098</v>
+        <v>898879</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3295,7 +3295,7 @@
         <v>133</v>
       </c>
       <c r="B9">
-        <v>888098</v>
+        <v>898879</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3303,7 +3303,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>795496</v>
+        <v>807186</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3311,7 +3311,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>625520</v>
+        <v>653191</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3319,7 +3319,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>495311</v>
+        <v>518928</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3327,7 +3327,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>423756</v>
+        <v>430112</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3335,7 +3335,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>404826</v>
+        <v>421829</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3343,7 +3343,7 @@
         <v>134</v>
       </c>
       <c r="B15">
-        <v>370868</v>
+        <v>387568</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3351,7 +3351,7 @@
         <v>135</v>
       </c>
       <c r="B16">
-        <v>370868</v>
+        <v>387568</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -3359,7 +3359,7 @@
         <v>136</v>
       </c>
       <c r="B17">
-        <v>370868</v>
+        <v>387568</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -3367,7 +3367,7 @@
         <v>137</v>
       </c>
       <c r="B18">
-        <v>370868</v>
+        <v>387568</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -3375,7 +3375,7 @@
         <v>16</v>
       </c>
       <c r="B19">
-        <v>273240</v>
+        <v>290232</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -3383,7 +3383,7 @@
         <v>17</v>
       </c>
       <c r="B20">
-        <v>270699</v>
+        <v>276370</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -3391,7 +3391,7 @@
         <v>18</v>
       </c>
       <c r="B21">
-        <v>256116</v>
+        <v>275983</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -3399,7 +3399,7 @@
         <v>19</v>
       </c>
       <c r="B22">
-        <v>152129</v>
+        <v>157003</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -3407,7 +3407,7 @@
         <v>20</v>
       </c>
       <c r="B23">
-        <v>151040</v>
+        <v>155106</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -3415,7 +3415,7 @@
         <v>138</v>
       </c>
       <c r="B24">
-        <v>150983</v>
+        <v>154140</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -3423,7 +3423,7 @@
         <v>139</v>
       </c>
       <c r="B25">
-        <v>150983</v>
+        <v>154140</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -3431,7 +3431,7 @@
         <v>22</v>
       </c>
       <c r="B26">
-        <v>145976</v>
+        <v>150189</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -3439,7 +3439,7 @@
         <v>23</v>
       </c>
       <c r="B27">
-        <v>135828</v>
+        <v>137895</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -3447,7 +3447,7 @@
         <v>24</v>
       </c>
       <c r="B28">
-        <v>97214</v>
+        <v>99285</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -3455,31 +3455,31 @@
         <v>25</v>
       </c>
       <c r="B29">
-        <v>83776</v>
+        <v>84605</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>140</v>
+        <v>26</v>
       </c>
       <c r="B30">
-        <v>83161</v>
+        <v>84577</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B31">
-        <v>83161</v>
+        <v>84005</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>27</v>
+        <v>141</v>
       </c>
       <c r="B32">
-        <v>82805</v>
+        <v>84005</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -3487,7 +3487,7 @@
         <v>28</v>
       </c>
       <c r="B33">
-        <v>75617</v>
+        <v>79078</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -3495,7 +3495,7 @@
         <v>142</v>
       </c>
       <c r="B34">
-        <v>71792</v>
+        <v>73195</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -3503,7 +3503,7 @@
         <v>143</v>
       </c>
       <c r="B35">
-        <v>71792</v>
+        <v>73195</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -3511,7 +3511,7 @@
         <v>144</v>
       </c>
       <c r="B36">
-        <v>64580</v>
+        <v>66837</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -3519,7 +3519,7 @@
         <v>145</v>
       </c>
       <c r="B37">
-        <v>64580</v>
+        <v>66837</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -3527,7 +3527,7 @@
         <v>146</v>
       </c>
       <c r="B38">
-        <v>61819</v>
+        <v>63358</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -3535,7 +3535,7 @@
         <v>147</v>
       </c>
       <c r="B39">
-        <v>61819</v>
+        <v>63358</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -3543,7 +3543,7 @@
         <v>148</v>
       </c>
       <c r="B40">
-        <v>61819</v>
+        <v>63358</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -3551,7 +3551,7 @@
         <v>32</v>
       </c>
       <c r="B41">
-        <v>60080</v>
+        <v>61663</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -3559,7 +3559,7 @@
         <v>33</v>
       </c>
       <c r="B42">
-        <v>47529</v>
+        <v>48229</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -3567,7 +3567,7 @@
         <v>149</v>
       </c>
       <c r="B43">
-        <v>46872</v>
+        <v>47494</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -3575,39 +3575,39 @@
         <v>150</v>
       </c>
       <c r="B44">
-        <v>46872</v>
+        <v>47494</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>151</v>
+        <v>35</v>
       </c>
       <c r="B45">
-        <v>38699</v>
+        <v>39425</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B46">
-        <v>38699</v>
+        <v>39194</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B47">
-        <v>38699</v>
+        <v>39194</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>36</v>
+        <v>153</v>
       </c>
       <c r="B48">
-        <v>38422</v>
+        <v>39194</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -3615,7 +3615,7 @@
         <v>37</v>
       </c>
       <c r="B49">
-        <v>36214</v>
+        <v>36829</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -3623,7 +3623,7 @@
         <v>38</v>
       </c>
       <c r="B50">
-        <v>30590</v>
+        <v>30730</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -3631,7 +3631,7 @@
         <v>154</v>
       </c>
       <c r="B51">
-        <v>25535</v>
+        <v>26184</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -3639,7 +3639,7 @@
         <v>155</v>
       </c>
       <c r="B52">
-        <v>25535</v>
+        <v>26184</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -3647,7 +3647,7 @@
         <v>156</v>
       </c>
       <c r="B53">
-        <v>18924</v>
+        <v>19120</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -3655,7 +3655,7 @@
         <v>157</v>
       </c>
       <c r="B54">
-        <v>18924</v>
+        <v>19120</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -3663,7 +3663,7 @@
         <v>158</v>
       </c>
       <c r="B55">
-        <v>12314</v>
+        <v>12473</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -3671,7 +3671,7 @@
         <v>159</v>
       </c>
       <c r="B56">
-        <v>12314</v>
+        <v>12473</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -3679,7 +3679,7 @@
         <v>160</v>
       </c>
       <c r="B57">
-        <v>12314</v>
+        <v>12473</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -3687,7 +3687,7 @@
         <v>42</v>
       </c>
       <c r="B58">
-        <v>10447</v>
+        <v>10723</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -3695,7 +3695,7 @@
         <v>161</v>
       </c>
       <c r="B59">
-        <v>9689</v>
+        <v>10281</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -3703,7 +3703,7 @@
         <v>162</v>
       </c>
       <c r="B60">
-        <v>9689</v>
+        <v>10281</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -3711,7 +3711,7 @@
         <v>163</v>
       </c>
       <c r="B61">
-        <v>8712</v>
+        <v>8797</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -3719,7 +3719,7 @@
         <v>164</v>
       </c>
       <c r="B62">
-        <v>8712</v>
+        <v>8797</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -3727,7 +3727,7 @@
         <v>45</v>
       </c>
       <c r="B63">
-        <v>7577</v>
+        <v>7687</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -3735,7 +3735,7 @@
         <v>46</v>
       </c>
       <c r="B64">
-        <v>6667</v>
+        <v>6730</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -3743,7 +3743,7 @@
         <v>47</v>
       </c>
       <c r="B65">
-        <v>4696</v>
+        <v>4784</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -3751,7 +3751,7 @@
         <v>48</v>
       </c>
       <c r="B66">
-        <v>4599</v>
+        <v>4644</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -3759,7 +3759,7 @@
         <v>165</v>
       </c>
       <c r="B67">
-        <v>3416</v>
+        <v>3590</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -3767,7 +3767,7 @@
         <v>166</v>
       </c>
       <c r="B68">
-        <v>3416</v>
+        <v>3590</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -3775,7 +3775,7 @@
         <v>50</v>
       </c>
       <c r="B69">
-        <v>3180</v>
+        <v>3206</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -3783,7 +3783,7 @@
         <v>51</v>
       </c>
       <c r="B70">
-        <v>1455</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -3839,13 +3839,13 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B3">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="C3">
-        <v>106</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3856,7 +3856,7 @@
         <v>91</v>
       </c>
       <c r="C4">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3867,7 +3867,7 @@
         <v>84</v>
       </c>
       <c r="C5">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3949,7 +3949,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B13">
         <v>49</v>
@@ -3974,10 +3974,10 @@
         <v>38</v>
       </c>
       <c r="B15">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C15">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -4081,46 +4081,46 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B25">
         <v>26</v>
       </c>
       <c r="C25">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="B26">
         <v>26</v>
       </c>
       <c r="C26">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="B27">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C27">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="B28">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C28">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -4158,35 +4158,35 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B32">
         <v>17</v>
       </c>
       <c r="C32">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B33">
         <v>17</v>
       </c>
       <c r="C33">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B34">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C34">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -4499,7 +4499,7 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -4554,7 +4554,7 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -4598,7 +4598,7 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -4633,7 +4633,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>210507</v>
+        <v>221410</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4641,7 +4641,7 @@
         <v>132</v>
       </c>
       <c r="B3">
-        <v>114343</v>
+        <v>117063</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4649,31 +4649,31 @@
         <v>133</v>
       </c>
       <c r="B4">
-        <v>114343</v>
+        <v>117063</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>138</v>
+        <v>11</v>
       </c>
       <c r="B5">
-        <v>112883</v>
+        <v>116152</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B6">
-        <v>112883</v>
+        <v>114574</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>139</v>
       </c>
       <c r="B7">
-        <v>112851</v>
+        <v>114574</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4681,7 +4681,7 @@
         <v>146</v>
       </c>
       <c r="B8">
-        <v>93497</v>
+        <v>95466</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4689,7 +4689,7 @@
         <v>147</v>
       </c>
       <c r="B9">
-        <v>93497</v>
+        <v>95466</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4697,7 +4697,7 @@
         <v>148</v>
       </c>
       <c r="B10">
-        <v>93497</v>
+        <v>95466</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -4705,7 +4705,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>84821</v>
+        <v>87363</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -4713,7 +4713,7 @@
         <v>22</v>
       </c>
       <c r="B12">
-        <v>77408</v>
+        <v>79256</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -4721,7 +4721,7 @@
         <v>5</v>
       </c>
       <c r="B13">
-        <v>66052</v>
+        <v>68145</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -4729,7 +4729,7 @@
         <v>134</v>
       </c>
       <c r="B14">
-        <v>63884</v>
+        <v>65969</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -4737,7 +4737,7 @@
         <v>135</v>
       </c>
       <c r="B15">
-        <v>63884</v>
+        <v>65969</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -4745,7 +4745,7 @@
         <v>136</v>
       </c>
       <c r="B16">
-        <v>63884</v>
+        <v>65969</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -4753,7 +4753,7 @@
         <v>137</v>
       </c>
       <c r="B17">
-        <v>63884</v>
+        <v>65969</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -4761,7 +4761,7 @@
         <v>12</v>
       </c>
       <c r="B18">
-        <v>54279</v>
+        <v>57255</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -4769,7 +4769,7 @@
         <v>8</v>
       </c>
       <c r="B19">
-        <v>46968</v>
+        <v>47829</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -4777,7 +4777,7 @@
         <v>130</v>
       </c>
       <c r="B20">
-        <v>40263</v>
+        <v>41095</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -4785,7 +4785,7 @@
         <v>131</v>
       </c>
       <c r="B21">
-        <v>40263</v>
+        <v>41095</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -4793,7 +4793,7 @@
         <v>17</v>
       </c>
       <c r="B22">
-        <v>37297</v>
+        <v>38287</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -4801,7 +4801,7 @@
         <v>14</v>
       </c>
       <c r="B23">
-        <v>28553</v>
+        <v>29402</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -4809,7 +4809,7 @@
         <v>6</v>
       </c>
       <c r="B24">
-        <v>25949</v>
+        <v>26514</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -4817,15 +4817,15 @@
         <v>13</v>
       </c>
       <c r="B25">
-        <v>25304</v>
+        <v>26040</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B26">
-        <v>25059</v>
+        <v>25655</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -4833,7 +4833,7 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>23531</v>
+        <v>24177</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -4841,7 +4841,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>21273</v>
+        <v>21757</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -4849,7 +4849,7 @@
         <v>154</v>
       </c>
       <c r="B29">
-        <v>21041</v>
+        <v>21685</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -4857,7 +4857,7 @@
         <v>155</v>
       </c>
       <c r="B30">
-        <v>21041</v>
+        <v>21685</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -4865,7 +4865,7 @@
         <v>37</v>
       </c>
       <c r="B31">
-        <v>20951</v>
+        <v>21510</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -4873,7 +4873,7 @@
         <v>33</v>
       </c>
       <c r="B32">
-        <v>20045</v>
+        <v>20431</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -4881,7 +4881,7 @@
         <v>167</v>
       </c>
       <c r="B33">
-        <v>20006</v>
+        <v>20429</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -4889,7 +4889,7 @@
         <v>168</v>
       </c>
       <c r="B34">
-        <v>20006</v>
+        <v>20429</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -4897,7 +4897,7 @@
         <v>142</v>
       </c>
       <c r="B35">
-        <v>18689</v>
+        <v>19401</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -4905,15 +4905,15 @@
         <v>143</v>
       </c>
       <c r="B36">
-        <v>18689</v>
+        <v>19401</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B37">
-        <v>18384</v>
+        <v>18833</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -4921,7 +4921,7 @@
         <v>140</v>
       </c>
       <c r="B38">
-        <v>16194</v>
+        <v>16588</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -4929,7 +4929,7 @@
         <v>141</v>
       </c>
       <c r="B39">
-        <v>16194</v>
+        <v>16588</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -4937,15 +4937,15 @@
         <v>46</v>
       </c>
       <c r="B40">
-        <v>15688</v>
+        <v>15884</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B41">
-        <v>13687</v>
+        <v>13943</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -4953,7 +4953,7 @@
         <v>144</v>
       </c>
       <c r="B42">
-        <v>13521</v>
+        <v>13881</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -4961,15 +4961,15 @@
         <v>145</v>
       </c>
       <c r="B43">
-        <v>13521</v>
+        <v>13881</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B44">
-        <v>12060</v>
+        <v>12530</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -4977,7 +4977,7 @@
         <v>18</v>
       </c>
       <c r="B45">
-        <v>11310</v>
+        <v>11408</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -4985,7 +4985,7 @@
         <v>38</v>
       </c>
       <c r="B46">
-        <v>10958</v>
+        <v>11072</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -4993,7 +4993,7 @@
         <v>161</v>
       </c>
       <c r="B47">
-        <v>10674</v>
+        <v>11047</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -5001,7 +5001,7 @@
         <v>162</v>
       </c>
       <c r="B48">
-        <v>10674</v>
+        <v>11047</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -5009,7 +5009,7 @@
         <v>50</v>
       </c>
       <c r="B49">
-        <v>10465</v>
+        <v>10802</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -5017,7 +5017,7 @@
         <v>149</v>
       </c>
       <c r="B50">
-        <v>10431</v>
+        <v>10602</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -5025,7 +5025,7 @@
         <v>150</v>
       </c>
       <c r="B51">
-        <v>10431</v>
+        <v>10602</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -5033,7 +5033,7 @@
         <v>151</v>
       </c>
       <c r="B52">
-        <v>8276</v>
+        <v>8461</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -5041,7 +5041,7 @@
         <v>152</v>
       </c>
       <c r="B53">
-        <v>8276</v>
+        <v>8461</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -5049,7 +5049,7 @@
         <v>153</v>
       </c>
       <c r="B54">
-        <v>8276</v>
+        <v>8461</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -5057,7 +5057,7 @@
         <v>42</v>
       </c>
       <c r="B55">
-        <v>7683</v>
+        <v>7759</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -5065,7 +5065,7 @@
         <v>51</v>
       </c>
       <c r="B56">
-        <v>5886</v>
+        <v>5949</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -5073,7 +5073,7 @@
         <v>158</v>
       </c>
       <c r="B57">
-        <v>4505</v>
+        <v>4556</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -5081,7 +5081,7 @@
         <v>159</v>
       </c>
       <c r="B58">
-        <v>4505</v>
+        <v>4556</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -5089,7 +5089,7 @@
         <v>160</v>
       </c>
       <c r="B59">
-        <v>4505</v>
+        <v>4556</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -5097,7 +5097,7 @@
         <v>47</v>
       </c>
       <c r="B60">
-        <v>2569</v>
+        <v>2591</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -5105,7 +5105,7 @@
         <v>163</v>
       </c>
       <c r="B61">
-        <v>1686</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -5113,7 +5113,7 @@
         <v>164</v>
       </c>
       <c r="B62">
-        <v>1686</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -5121,7 +5121,7 @@
         <v>48</v>
       </c>
       <c r="B63">
-        <v>1672</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -5129,7 +5129,7 @@
         <v>45</v>
       </c>
       <c r="B64">
-        <v>1588</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -5137,7 +5137,7 @@
         <v>165</v>
       </c>
       <c r="B65">
-        <v>731</v>
+        <v>748</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -5145,7 +5145,7 @@
         <v>166</v>
       </c>
       <c r="B66">
-        <v>731</v>
+        <v>748</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -5190,7 +5190,7 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -5222,7 +5222,7 @@
         <v>101</v>
       </c>
       <c r="B2">
-        <v>3500210</v>
+        <v>3611123</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -5230,7 +5230,7 @@
         <v>104</v>
       </c>
       <c r="B3">
-        <v>2360477</v>
+        <v>2383594</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -5238,7 +5238,7 @@
         <v>169</v>
       </c>
       <c r="B4">
-        <v>1931359</v>
+        <v>2056783</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -5246,7 +5246,7 @@
         <v>170</v>
       </c>
       <c r="B5">
-        <v>1931359</v>
+        <v>2033717</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -5254,7 +5254,7 @@
         <v>171</v>
       </c>
       <c r="B6">
-        <v>1768941</v>
+        <v>2033717</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -5262,7 +5262,7 @@
         <v>172</v>
       </c>
       <c r="B7">
-        <v>1398073</v>
+        <v>1669215</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -5270,7 +5270,7 @@
         <v>106</v>
       </c>
       <c r="B8">
-        <v>1265428</v>
+        <v>1302869</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -5278,7 +5278,7 @@
         <v>107</v>
       </c>
       <c r="B9">
-        <v>1195719</v>
+        <v>1247752</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -5286,7 +5286,7 @@
         <v>105</v>
       </c>
       <c r="B10">
-        <v>888098</v>
+        <v>898879</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -5294,7 +5294,7 @@
         <v>112</v>
       </c>
       <c r="B11">
-        <v>685394</v>
+        <v>699330</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -5302,7 +5302,7 @@
         <v>108</v>
       </c>
       <c r="B12">
-        <v>495311</v>
+        <v>518928</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -5310,7 +5310,7 @@
         <v>110</v>
       </c>
       <c r="B13">
-        <v>404826</v>
+        <v>421829</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -5318,7 +5318,7 @@
         <v>173</v>
       </c>
       <c r="B14">
-        <v>370868</v>
+        <v>387568</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -5326,7 +5326,7 @@
         <v>174</v>
       </c>
       <c r="B15">
-        <v>286706</v>
+        <v>306713</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -5334,7 +5334,7 @@
         <v>115</v>
       </c>
       <c r="B16">
-        <v>218473</v>
+        <v>221353</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -5342,7 +5342,7 @@
         <v>175</v>
       </c>
       <c r="B17">
-        <v>83776</v>
+        <v>84577</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -5350,7 +5350,7 @@
         <v>176</v>
       </c>
       <c r="B18">
-        <v>83776</v>
+        <v>84577</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -5358,7 +5358,7 @@
         <v>116</v>
       </c>
       <c r="B19">
-        <v>66035</v>
+        <v>68336</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -5366,7 +5366,7 @@
         <v>117</v>
       </c>
       <c r="B20">
-        <v>61819</v>
+        <v>63358</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -5374,7 +5374,7 @@
         <v>123</v>
       </c>
       <c r="B21">
-        <v>16872</v>
+        <v>17115</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -5382,7 +5382,7 @@
         <v>177</v>
       </c>
       <c r="B22">
-        <v>11892</v>
+        <v>12003</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -5390,7 +5390,7 @@
         <v>118</v>
       </c>
       <c r="B23">
-        <v>10447</v>
+        <v>10723</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -5398,7 +5398,7 @@
         <v>119</v>
       </c>
       <c r="B24">
-        <v>9689</v>
+        <v>10281</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -5406,7 +5406,7 @@
         <v>178</v>
       </c>
       <c r="B25">
-        <v>7577</v>
+        <v>7687</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -5414,7 +5414,7 @@
         <v>179</v>
       </c>
       <c r="B26">
-        <v>6667</v>
+        <v>6730</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -5422,7 +5422,7 @@
         <v>180</v>
       </c>
       <c r="B27">
-        <v>6667</v>
+        <v>6730</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -5430,7 +5430,7 @@
         <v>124</v>
       </c>
       <c r="B28">
-        <v>3416</v>
+        <v>3590</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -5438,7 +5438,7 @@
         <v>181</v>
       </c>
       <c r="B29">
-        <v>1455</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -5486,10 +5486,10 @@
         <v>112</v>
       </c>
       <c r="B2">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="C2">
-        <v>437</v>
+        <v>446</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -5497,10 +5497,10 @@
         <v>106</v>
       </c>
       <c r="B3">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C3">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -5516,29 +5516,29 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B5">
         <v>84</v>
       </c>
       <c r="C5">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B6">
         <v>84</v>
       </c>
       <c r="C6">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B7">
         <v>71</v>
@@ -5574,10 +5574,10 @@
         <v>174</v>
       </c>
       <c r="B10">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C10">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -5585,10 +5585,10 @@
         <v>107</v>
       </c>
       <c r="B11">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C11">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -5596,10 +5596,10 @@
         <v>105</v>
       </c>
       <c r="B12">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -5610,7 +5610,7 @@
         <v>17</v>
       </c>
       <c r="C13">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -5837,7 +5837,7 @@
         <v>107</v>
       </c>
       <c r="B2">
-        <v>387963</v>
+        <v>397345</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -5845,23 +5845,23 @@
         <v>101</v>
       </c>
       <c r="B3">
-        <v>210507</v>
+        <v>221410</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="B4">
-        <v>114343</v>
+        <v>117383</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B5">
-        <v>114056</v>
+        <v>117063</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -5869,15 +5869,15 @@
         <v>117</v>
       </c>
       <c r="B6">
-        <v>93497</v>
+        <v>95466</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B7">
-        <v>89833</v>
+        <v>92483</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -5885,7 +5885,7 @@
         <v>104</v>
       </c>
       <c r="B8">
-        <v>87231</v>
+        <v>88924</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -5893,7 +5893,7 @@
         <v>106</v>
       </c>
       <c r="B9">
-        <v>87117</v>
+        <v>88845</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -5901,23 +5901,23 @@
         <v>115</v>
       </c>
       <c r="B10">
-        <v>72598</v>
+        <v>74397</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B11">
-        <v>66052</v>
+        <v>68145</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B12">
-        <v>66052</v>
+        <v>68145</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -5925,7 +5925,7 @@
         <v>173</v>
       </c>
       <c r="B13">
-        <v>63884</v>
+        <v>65969</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -5933,7 +5933,7 @@
         <v>108</v>
       </c>
       <c r="B14">
-        <v>54279</v>
+        <v>57255</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -5941,7 +5941,7 @@
         <v>110</v>
       </c>
       <c r="B15">
-        <v>28553</v>
+        <v>29402</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -5949,7 +5949,7 @@
         <v>172</v>
       </c>
       <c r="B16">
-        <v>25949</v>
+        <v>26514</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -5957,7 +5957,7 @@
         <v>174</v>
       </c>
       <c r="B17">
-        <v>22268</v>
+        <v>22480</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -5965,7 +5965,7 @@
         <v>182</v>
       </c>
       <c r="B18">
-        <v>20006</v>
+        <v>20429</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -5973,7 +5973,7 @@
         <v>183</v>
       </c>
       <c r="B19">
-        <v>20006</v>
+        <v>20429</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -5981,7 +5981,7 @@
         <v>116</v>
       </c>
       <c r="B20">
-        <v>19407</v>
+        <v>19830</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -5989,7 +5989,7 @@
         <v>179</v>
       </c>
       <c r="B21">
-        <v>15688</v>
+        <v>15884</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -5997,7 +5997,7 @@
         <v>180</v>
       </c>
       <c r="B22">
-        <v>15688</v>
+        <v>15884</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -6005,7 +6005,7 @@
         <v>175</v>
       </c>
       <c r="B23">
-        <v>13687</v>
+        <v>13943</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -6013,7 +6013,7 @@
         <v>176</v>
       </c>
       <c r="B24">
-        <v>13687</v>
+        <v>13943</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -6021,7 +6021,7 @@
         <v>177</v>
       </c>
       <c r="B25">
-        <v>12151</v>
+        <v>12505</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -6029,7 +6029,7 @@
         <v>119</v>
       </c>
       <c r="B26">
-        <v>10674</v>
+        <v>11047</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -6037,7 +6037,7 @@
         <v>118</v>
       </c>
       <c r="B27">
-        <v>7683</v>
+        <v>7759</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -6045,7 +6045,7 @@
         <v>181</v>
       </c>
       <c r="B28">
-        <v>5886</v>
+        <v>5949</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -6053,7 +6053,7 @@
         <v>123</v>
       </c>
       <c r="B29">
-        <v>5829</v>
+        <v>5875</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -6061,7 +6061,7 @@
         <v>178</v>
       </c>
       <c r="B30">
-        <v>1588</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -6069,7 +6069,7 @@
         <v>124</v>
       </c>
       <c r="B31">
-        <v>731</v>
+        <v>748</v>
       </c>
     </row>
   </sheetData>

--- a/monthly_reports/monthly_data/2021 Charts Month 1.xlsx
+++ b/monthly_reports/monthly_data/2021 Charts Month 1.xlsx
@@ -63,24 +63,24 @@
     <t>Maggie Lindemann</t>
   </si>
   <si>
+    <t>Rosenfeld</t>
+  </si>
+  <si>
     <t>Kirara Magic</t>
   </si>
   <si>
-    <t>Rosenfeld</t>
-  </si>
-  <si>
     <t>DubDogz, Mariana Bo, Flakkë, Luisah</t>
   </si>
   <si>
     <t>Saint Punk</t>
   </si>
   <si>
+    <t>WbToys</t>
+  </si>
+  <si>
     <t>Aspyer</t>
   </si>
   <si>
-    <t>WbToys</t>
-  </si>
-  <si>
     <t>insaneintherainmusic</t>
   </si>
   <si>
@@ -207,24 +207,24 @@
     <t>Crash And Burn</t>
   </si>
   <si>
+    <t>Dangerous Woman</t>
+  </si>
+  <si>
     <t>Wraith</t>
   </si>
   <si>
-    <t>Dangerous Woman</t>
-  </si>
-  <si>
     <t>Drop It</t>
   </si>
   <si>
     <t>Empty Bed</t>
   </si>
   <si>
+    <t>Let Me Love You</t>
+  </si>
+  <si>
     <t>Symphony</t>
   </si>
   <si>
-    <t>Let Me Love You</t>
-  </si>
-  <si>
     <t>Bonetrousle</t>
   </si>
   <si>
@@ -351,19 +351,19 @@
     <t>swixxzaudio</t>
   </si>
   <si>
+    <t>WLTD Entertainment LTD</t>
+  </si>
+  <si>
     <t>NONE</t>
   </si>
   <si>
-    <t>WLTD Entertainment LTD</t>
-  </si>
-  <si>
     <t>Musical Freedom, Spinnin' Records</t>
   </si>
   <si>
+    <t>HEXAGON, GenerationHEX</t>
+  </si>
+  <si>
     <t>STMPD RCRDS</t>
-  </si>
-  <si>
-    <t>HEXAGON, GenerationHEX</t>
   </si>
   <si>
     <t>BreadnButter, Trap City</t>
@@ -962,7 +962,7 @@
         <v>101</v>
       </c>
       <c r="D2">
-        <v>3611123</v>
+        <v>3699176</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -976,7 +976,7 @@
         <v>102</v>
       </c>
       <c r="D3">
-        <v>2033717</v>
+        <v>2111962</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -990,7 +990,7 @@
         <v>103</v>
       </c>
       <c r="D4">
-        <v>1669215</v>
+        <v>1853386</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1004,7 +1004,7 @@
         <v>104</v>
       </c>
       <c r="D5">
-        <v>1323244</v>
+        <v>1333217</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1018,7 +1018,7 @@
         <v>104</v>
       </c>
       <c r="D6">
-        <v>1060350</v>
+        <v>1071792</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1032,7 +1032,7 @@
         <v>105</v>
       </c>
       <c r="D7">
-        <v>898879</v>
+        <v>907594</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1046,7 +1046,7 @@
         <v>106</v>
       </c>
       <c r="D8">
-        <v>807186</v>
+        <v>818650</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1060,7 +1060,7 @@
         <v>107</v>
       </c>
       <c r="D9">
-        <v>653191</v>
+        <v>675894</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1074,7 +1074,7 @@
         <v>108</v>
       </c>
       <c r="D10">
-        <v>518928</v>
+        <v>538783</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1088,7 +1088,7 @@
         <v>109</v>
       </c>
       <c r="D11">
-        <v>430112</v>
+        <v>439661</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1102,7 +1102,7 @@
         <v>110</v>
       </c>
       <c r="D12">
-        <v>421829</v>
+        <v>436313</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1116,7 +1116,7 @@
         <v>111</v>
       </c>
       <c r="D13">
-        <v>387568</v>
+        <v>402882</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1130,7 +1130,7 @@
         <v>107</v>
       </c>
       <c r="D14">
-        <v>290232</v>
+        <v>310816</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1144,7 +1144,7 @@
         <v>112</v>
       </c>
       <c r="D15">
-        <v>276370</v>
+        <v>296948</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1158,7 +1158,7 @@
         <v>113</v>
       </c>
       <c r="D16">
-        <v>275983</v>
+        <v>281210</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1169,10 +1169,10 @@
         <v>67</v>
       </c>
       <c r="C17" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D17">
-        <v>157003</v>
+        <v>162157</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1183,10 +1183,10 @@
         <v>68</v>
       </c>
       <c r="C18" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D18">
-        <v>155106</v>
+        <v>157624</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1200,7 +1200,7 @@
         <v>107</v>
       </c>
       <c r="D19">
-        <v>154140</v>
+        <v>156991</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1214,7 +1214,7 @@
         <v>107</v>
       </c>
       <c r="D20">
-        <v>150189</v>
+        <v>154422</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1225,10 +1225,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D21">
-        <v>137895</v>
+        <v>139722</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1239,10 +1239,10 @@
         <v>72</v>
       </c>
       <c r="C22" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D22">
-        <v>99285</v>
+        <v>101362</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1253,10 +1253,10 @@
         <v>73</v>
       </c>
       <c r="C23" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D23">
-        <v>84605</v>
+        <v>86314</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1270,7 +1270,7 @@
         <v>114</v>
       </c>
       <c r="D24">
-        <v>84577</v>
+        <v>85289</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1284,7 +1284,7 @@
         <v>115</v>
       </c>
       <c r="D25">
-        <v>84005</v>
+        <v>84849</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1298,7 +1298,7 @@
         <v>106</v>
       </c>
       <c r="D26">
-        <v>79078</v>
+        <v>82176</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1309,10 +1309,10 @@
         <v>77</v>
       </c>
       <c r="C27" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D27">
-        <v>73195</v>
+        <v>74377</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1326,7 +1326,7 @@
         <v>116</v>
       </c>
       <c r="D28">
-        <v>66837</v>
+        <v>69177</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1340,7 +1340,7 @@
         <v>117</v>
       </c>
       <c r="D29">
-        <v>63358</v>
+        <v>64750</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1354,7 +1354,7 @@
         <v>106</v>
       </c>
       <c r="D30">
-        <v>61663</v>
+        <v>63074</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1368,7 +1368,7 @@
         <v>106</v>
       </c>
       <c r="D31">
-        <v>48229</v>
+        <v>48927</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1382,7 +1382,7 @@
         <v>115</v>
       </c>
       <c r="D32">
-        <v>47494</v>
+        <v>48055</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1393,10 +1393,10 @@
         <v>83</v>
       </c>
       <c r="C33" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D33">
-        <v>39425</v>
+        <v>40477</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1410,7 +1410,7 @@
         <v>115</v>
       </c>
       <c r="D34">
-        <v>39194</v>
+        <v>39806</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1421,10 +1421,10 @@
         <v>85</v>
       </c>
       <c r="C35" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D35">
-        <v>36829</v>
+        <v>37460</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1435,10 +1435,10 @@
         <v>86</v>
       </c>
       <c r="C36" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D36">
-        <v>30730</v>
+        <v>30906</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1452,7 +1452,7 @@
         <v>115</v>
       </c>
       <c r="D37">
-        <v>26184</v>
+        <v>26716</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1463,10 +1463,10 @@
         <v>88</v>
       </c>
       <c r="C38" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D38">
-        <v>19120</v>
+        <v>19255</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1480,7 +1480,7 @@
         <v>115</v>
       </c>
       <c r="D39">
-        <v>12473</v>
+        <v>12602</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1494,7 +1494,7 @@
         <v>118</v>
       </c>
       <c r="D40">
-        <v>10723</v>
+        <v>10965</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1508,7 +1508,7 @@
         <v>119</v>
       </c>
       <c r="D41">
-        <v>10281</v>
+        <v>10908</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1522,7 +1522,7 @@
         <v>120</v>
       </c>
       <c r="D42">
-        <v>8797</v>
+        <v>8845</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1536,7 +1536,7 @@
         <v>121</v>
       </c>
       <c r="D43">
-        <v>7687</v>
+        <v>7814</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1550,7 +1550,7 @@
         <v>122</v>
       </c>
       <c r="D44">
-        <v>6730</v>
+        <v>6799</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1564,7 +1564,7 @@
         <v>123</v>
       </c>
       <c r="D45">
-        <v>4784</v>
+        <v>4867</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1578,7 +1578,7 @@
         <v>123</v>
       </c>
       <c r="D46">
-        <v>4644</v>
+        <v>4695</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1592,7 +1592,7 @@
         <v>124</v>
       </c>
       <c r="D47">
-        <v>3590</v>
+        <v>3894</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1606,7 +1606,7 @@
         <v>120</v>
       </c>
       <c r="D48">
-        <v>3206</v>
+        <v>3222</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1620,7 +1620,7 @@
         <v>125</v>
       </c>
       <c r="D49">
-        <v>1499</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1692,7 +1692,7 @@
         <v>83</v>
       </c>
       <c r="C3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D3">
         <v>106</v>
@@ -1709,13 +1709,13 @@
         <v>72</v>
       </c>
       <c r="C4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D4">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E4">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1746,10 +1746,10 @@
         <v>111</v>
       </c>
       <c r="D6">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E6">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1760,13 +1760,13 @@
         <v>77</v>
       </c>
       <c r="C7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D7">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E7">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1794,30 +1794,30 @@
         <v>68</v>
       </c>
       <c r="C9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D9">
         <v>49</v>
       </c>
       <c r="E9">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C10" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D10">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E10">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1828,7 +1828,7 @@
         <v>86</v>
       </c>
       <c r="C11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D11">
         <v>36</v>
@@ -1845,13 +1845,13 @@
         <v>85</v>
       </c>
       <c r="C12" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D12">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E12">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1868,7 +1868,7 @@
         <v>33</v>
       </c>
       <c r="E13">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1916,10 +1916,10 @@
         <v>120</v>
       </c>
       <c r="D16">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E16">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1970,7 +1970,7 @@
         <v>19</v>
       </c>
       <c r="E19">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1987,7 +1987,7 @@
         <v>17</v>
       </c>
       <c r="E20">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -2077,13 +2077,13 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C26" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D26">
         <v>10</v>
@@ -2213,30 +2213,30 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B34" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C34" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D34">
         <v>4</v>
       </c>
       <c r="E34">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B35" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C35" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D35">
         <v>4</v>
@@ -2253,7 +2253,7 @@
         <v>88</v>
       </c>
       <c r="C36" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D36">
         <v>3</v>
@@ -2355,7 +2355,7 @@
         <v>67</v>
       </c>
       <c r="C42" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -2383,13 +2383,13 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B44" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C44" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -2406,7 +2406,7 @@
         <v>73</v>
       </c>
       <c r="C45" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -2474,7 +2474,7 @@
         <v>71</v>
       </c>
       <c r="C49" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -2485,13 +2485,13 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B50" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C50" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -2538,7 +2538,7 @@
         <v>101</v>
       </c>
       <c r="D2">
-        <v>221410</v>
+        <v>229660</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2552,7 +2552,7 @@
         <v>105</v>
       </c>
       <c r="D3">
-        <v>117063</v>
+        <v>119652</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2566,7 +2566,7 @@
         <v>107</v>
       </c>
       <c r="D4">
-        <v>116152</v>
+        <v>118804</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2580,7 +2580,7 @@
         <v>107</v>
       </c>
       <c r="D5">
-        <v>114574</v>
+        <v>116284</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2594,7 +2594,7 @@
         <v>117</v>
       </c>
       <c r="D6">
-        <v>95466</v>
+        <v>97465</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2608,7 +2608,7 @@
         <v>107</v>
       </c>
       <c r="D7">
-        <v>87363</v>
+        <v>90080</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2622,7 +2622,7 @@
         <v>107</v>
       </c>
       <c r="D8">
-        <v>79256</v>
+        <v>80789</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2636,7 +2636,7 @@
         <v>102</v>
       </c>
       <c r="D9">
-        <v>68145</v>
+        <v>70267</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2650,7 +2650,7 @@
         <v>111</v>
       </c>
       <c r="D10">
-        <v>65969</v>
+        <v>67855</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2664,7 +2664,7 @@
         <v>108</v>
       </c>
       <c r="D11">
-        <v>57255</v>
+        <v>59552</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2678,7 +2678,7 @@
         <v>104</v>
       </c>
       <c r="D12">
-        <v>47829</v>
+        <v>48574</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2692,35 +2692,35 @@
         <v>104</v>
       </c>
       <c r="D13">
-        <v>41095</v>
+        <v>41730</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C14" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D14">
-        <v>38287</v>
+        <v>39102</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D15">
-        <v>29402</v>
+        <v>30297</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2734,21 +2734,21 @@
         <v>103</v>
       </c>
       <c r="D16">
-        <v>26514</v>
+        <v>27041</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C17" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D17">
-        <v>26040</v>
+        <v>26916</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2759,10 +2759,10 @@
         <v>68</v>
       </c>
       <c r="C18" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D18">
-        <v>25655</v>
+        <v>26267</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2776,35 +2776,35 @@
         <v>106</v>
       </c>
       <c r="D19">
-        <v>24177</v>
+        <v>24898</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="B20" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="C20" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="D20">
-        <v>21757</v>
+        <v>22207</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="C21" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="D21">
-        <v>21685</v>
+        <v>22192</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2815,10 +2815,10 @@
         <v>85</v>
       </c>
       <c r="C22" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D22">
-        <v>21510</v>
+        <v>22077</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2832,7 +2832,7 @@
         <v>106</v>
       </c>
       <c r="D23">
-        <v>20431</v>
+        <v>20844</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2846,7 +2846,7 @@
         <v>126</v>
       </c>
       <c r="D24">
-        <v>20429</v>
+        <v>20839</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2857,10 +2857,10 @@
         <v>77</v>
       </c>
       <c r="C25" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D25">
-        <v>19401</v>
+        <v>20034</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2871,10 +2871,10 @@
         <v>73</v>
       </c>
       <c r="C26" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D26">
-        <v>18833</v>
+        <v>19203</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2888,7 +2888,7 @@
         <v>115</v>
       </c>
       <c r="D27">
-        <v>16588</v>
+        <v>16878</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2902,35 +2902,35 @@
         <v>122</v>
       </c>
       <c r="D28">
-        <v>15884</v>
+        <v>16063</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C29" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D29">
-        <v>13943</v>
+        <v>14300</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B30" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C30" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D30">
-        <v>13881</v>
+        <v>14166</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2941,52 +2941,52 @@
         <v>83</v>
       </c>
       <c r="C31" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D31">
-        <v>12530</v>
+        <v>12917</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B32" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C32" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D32">
-        <v>11408</v>
+        <v>11521</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B33" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C33" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="D33">
-        <v>11072</v>
+        <v>11445</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B34" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C34" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="D34">
-        <v>11047</v>
+        <v>11179</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -3000,7 +3000,7 @@
         <v>120</v>
       </c>
       <c r="D35">
-        <v>10802</v>
+        <v>11045</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -3014,7 +3014,7 @@
         <v>115</v>
       </c>
       <c r="D36">
-        <v>10602</v>
+        <v>10768</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -3028,7 +3028,7 @@
         <v>115</v>
       </c>
       <c r="D37">
-        <v>8461</v>
+        <v>8643</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -3042,7 +3042,7 @@
         <v>118</v>
       </c>
       <c r="D38">
-        <v>7759</v>
+        <v>7838</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -3056,7 +3056,7 @@
         <v>125</v>
       </c>
       <c r="D39">
-        <v>5949</v>
+        <v>6004</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -3070,7 +3070,7 @@
         <v>115</v>
       </c>
       <c r="D40">
-        <v>4556</v>
+        <v>4612</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -3084,7 +3084,7 @@
         <v>123</v>
       </c>
       <c r="D41">
-        <v>2591</v>
+        <v>2631</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -3098,7 +3098,7 @@
         <v>120</v>
       </c>
       <c r="D42">
-        <v>1703</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -3112,7 +3112,7 @@
         <v>123</v>
       </c>
       <c r="D43">
-        <v>1684</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -3126,7 +3126,7 @@
         <v>121</v>
       </c>
       <c r="D44">
-        <v>1600</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -3140,7 +3140,7 @@
         <v>124</v>
       </c>
       <c r="D45">
-        <v>748</v>
+        <v>771</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -3151,7 +3151,7 @@
         <v>67</v>
       </c>
       <c r="C46" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -3165,7 +3165,7 @@
         <v>72</v>
       </c>
       <c r="C47" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -3193,7 +3193,7 @@
         <v>88</v>
       </c>
       <c r="C49" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>71</v>
       </c>
       <c r="C50" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -3239,7 +3239,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>3611123</v>
+        <v>3699176</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3247,7 +3247,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>2033717</v>
+        <v>2111962</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3255,7 +3255,7 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>1669215</v>
+        <v>1853386</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3263,7 +3263,7 @@
         <v>130</v>
       </c>
       <c r="B5">
-        <v>1323244</v>
+        <v>1333217</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3271,7 +3271,7 @@
         <v>131</v>
       </c>
       <c r="B6">
-        <v>1323244</v>
+        <v>1333217</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3279,7 +3279,7 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>1060350</v>
+        <v>1071792</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3287,7 +3287,7 @@
         <v>132</v>
       </c>
       <c r="B8">
-        <v>898879</v>
+        <v>907594</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3295,7 +3295,7 @@
         <v>133</v>
       </c>
       <c r="B9">
-        <v>898879</v>
+        <v>907594</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3303,7 +3303,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>807186</v>
+        <v>818650</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3311,7 +3311,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>653191</v>
+        <v>675894</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3319,7 +3319,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>518928</v>
+        <v>538783</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3327,7 +3327,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>430112</v>
+        <v>439661</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3335,7 +3335,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>421829</v>
+        <v>436313</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3343,7 +3343,7 @@
         <v>134</v>
       </c>
       <c r="B15">
-        <v>387568</v>
+        <v>402882</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3351,7 +3351,7 @@
         <v>135</v>
       </c>
       <c r="B16">
-        <v>387568</v>
+        <v>402882</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -3359,7 +3359,7 @@
         <v>136</v>
       </c>
       <c r="B17">
-        <v>387568</v>
+        <v>402882</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -3367,7 +3367,7 @@
         <v>137</v>
       </c>
       <c r="B18">
-        <v>387568</v>
+        <v>402882</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -3375,7 +3375,7 @@
         <v>16</v>
       </c>
       <c r="B19">
-        <v>290232</v>
+        <v>310816</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -3383,7 +3383,7 @@
         <v>17</v>
       </c>
       <c r="B20">
-        <v>276370</v>
+        <v>296948</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -3391,7 +3391,7 @@
         <v>18</v>
       </c>
       <c r="B21">
-        <v>275983</v>
+        <v>281210</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -3399,7 +3399,7 @@
         <v>19</v>
       </c>
       <c r="B22">
-        <v>157003</v>
+        <v>162157</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -3407,7 +3407,7 @@
         <v>20</v>
       </c>
       <c r="B23">
-        <v>155106</v>
+        <v>157624</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -3415,7 +3415,7 @@
         <v>138</v>
       </c>
       <c r="B24">
-        <v>154140</v>
+        <v>156991</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -3423,7 +3423,7 @@
         <v>139</v>
       </c>
       <c r="B25">
-        <v>154140</v>
+        <v>156991</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -3431,7 +3431,7 @@
         <v>22</v>
       </c>
       <c r="B26">
-        <v>150189</v>
+        <v>154422</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -3439,7 +3439,7 @@
         <v>23</v>
       </c>
       <c r="B27">
-        <v>137895</v>
+        <v>139722</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -3447,7 +3447,7 @@
         <v>24</v>
       </c>
       <c r="B28">
-        <v>99285</v>
+        <v>101362</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -3455,7 +3455,7 @@
         <v>25</v>
       </c>
       <c r="B29">
-        <v>84605</v>
+        <v>86314</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -3463,7 +3463,7 @@
         <v>26</v>
       </c>
       <c r="B30">
-        <v>84577</v>
+        <v>85289</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -3471,7 +3471,7 @@
         <v>140</v>
       </c>
       <c r="B31">
-        <v>84005</v>
+        <v>84849</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -3479,7 +3479,7 @@
         <v>141</v>
       </c>
       <c r="B32">
-        <v>84005</v>
+        <v>84849</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -3487,7 +3487,7 @@
         <v>28</v>
       </c>
       <c r="B33">
-        <v>79078</v>
+        <v>82176</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -3495,7 +3495,7 @@
         <v>142</v>
       </c>
       <c r="B34">
-        <v>73195</v>
+        <v>74377</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -3503,7 +3503,7 @@
         <v>143</v>
       </c>
       <c r="B35">
-        <v>73195</v>
+        <v>74377</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -3511,7 +3511,7 @@
         <v>144</v>
       </c>
       <c r="B36">
-        <v>66837</v>
+        <v>69177</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -3519,7 +3519,7 @@
         <v>145</v>
       </c>
       <c r="B37">
-        <v>66837</v>
+        <v>69177</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -3527,7 +3527,7 @@
         <v>146</v>
       </c>
       <c r="B38">
-        <v>63358</v>
+        <v>64750</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -3535,7 +3535,7 @@
         <v>147</v>
       </c>
       <c r="B39">
-        <v>63358</v>
+        <v>64750</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -3543,7 +3543,7 @@
         <v>148</v>
       </c>
       <c r="B40">
-        <v>63358</v>
+        <v>64750</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -3551,7 +3551,7 @@
         <v>32</v>
       </c>
       <c r="B41">
-        <v>61663</v>
+        <v>63074</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -3559,7 +3559,7 @@
         <v>33</v>
       </c>
       <c r="B42">
-        <v>48229</v>
+        <v>48927</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -3567,7 +3567,7 @@
         <v>149</v>
       </c>
       <c r="B43">
-        <v>47494</v>
+        <v>48055</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -3575,7 +3575,7 @@
         <v>150</v>
       </c>
       <c r="B44">
-        <v>47494</v>
+        <v>48055</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -3583,7 +3583,7 @@
         <v>35</v>
       </c>
       <c r="B45">
-        <v>39425</v>
+        <v>40477</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -3591,7 +3591,7 @@
         <v>151</v>
       </c>
       <c r="B46">
-        <v>39194</v>
+        <v>39806</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -3599,7 +3599,7 @@
         <v>152</v>
       </c>
       <c r="B47">
-        <v>39194</v>
+        <v>39806</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -3607,7 +3607,7 @@
         <v>153</v>
       </c>
       <c r="B48">
-        <v>39194</v>
+        <v>39806</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -3615,7 +3615,7 @@
         <v>37</v>
       </c>
       <c r="B49">
-        <v>36829</v>
+        <v>37460</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -3623,7 +3623,7 @@
         <v>38</v>
       </c>
       <c r="B50">
-        <v>30730</v>
+        <v>30906</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -3631,7 +3631,7 @@
         <v>154</v>
       </c>
       <c r="B51">
-        <v>26184</v>
+        <v>26716</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -3639,7 +3639,7 @@
         <v>155</v>
       </c>
       <c r="B52">
-        <v>26184</v>
+        <v>26716</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -3647,7 +3647,7 @@
         <v>156</v>
       </c>
       <c r="B53">
-        <v>19120</v>
+        <v>19255</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -3655,7 +3655,7 @@
         <v>157</v>
       </c>
       <c r="B54">
-        <v>19120</v>
+        <v>19255</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -3663,7 +3663,7 @@
         <v>158</v>
       </c>
       <c r="B55">
-        <v>12473</v>
+        <v>12602</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -3671,7 +3671,7 @@
         <v>159</v>
       </c>
       <c r="B56">
-        <v>12473</v>
+        <v>12602</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -3679,7 +3679,7 @@
         <v>160</v>
       </c>
       <c r="B57">
-        <v>12473</v>
+        <v>12602</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -3687,7 +3687,7 @@
         <v>42</v>
       </c>
       <c r="B58">
-        <v>10723</v>
+        <v>10965</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -3695,7 +3695,7 @@
         <v>161</v>
       </c>
       <c r="B59">
-        <v>10281</v>
+        <v>10908</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -3703,7 +3703,7 @@
         <v>162</v>
       </c>
       <c r="B60">
-        <v>10281</v>
+        <v>10908</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -3711,7 +3711,7 @@
         <v>163</v>
       </c>
       <c r="B61">
-        <v>8797</v>
+        <v>8845</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -3719,7 +3719,7 @@
         <v>164</v>
       </c>
       <c r="B62">
-        <v>8797</v>
+        <v>8845</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -3727,7 +3727,7 @@
         <v>45</v>
       </c>
       <c r="B63">
-        <v>7687</v>
+        <v>7814</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -3735,7 +3735,7 @@
         <v>46</v>
       </c>
       <c r="B64">
-        <v>6730</v>
+        <v>6799</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -3743,7 +3743,7 @@
         <v>47</v>
       </c>
       <c r="B65">
-        <v>4784</v>
+        <v>4867</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -3751,7 +3751,7 @@
         <v>48</v>
       </c>
       <c r="B66">
-        <v>4644</v>
+        <v>4695</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -3759,7 +3759,7 @@
         <v>165</v>
       </c>
       <c r="B67">
-        <v>3590</v>
+        <v>3894</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -3767,7 +3767,7 @@
         <v>166</v>
       </c>
       <c r="B68">
-        <v>3590</v>
+        <v>3894</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -3775,7 +3775,7 @@
         <v>50</v>
       </c>
       <c r="B69">
-        <v>3206</v>
+        <v>3222</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -3783,7 +3783,7 @@
         <v>51</v>
       </c>
       <c r="B70">
-        <v>1499</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -3853,10 +3853,10 @@
         <v>24</v>
       </c>
       <c r="B4">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C4">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3875,10 +3875,10 @@
         <v>134</v>
       </c>
       <c r="B6">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C6">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3886,10 +3886,10 @@
         <v>135</v>
       </c>
       <c r="B7">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C7">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3897,10 +3897,10 @@
         <v>136</v>
       </c>
       <c r="B8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C8">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3908,10 +3908,10 @@
         <v>137</v>
       </c>
       <c r="B9">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C9">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3919,10 +3919,10 @@
         <v>142</v>
       </c>
       <c r="B10">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C10">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3930,10 +3930,10 @@
         <v>143</v>
       </c>
       <c r="B11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C11">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3955,18 +3955,18 @@
         <v>49</v>
       </c>
       <c r="C13">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C14">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -3985,10 +3985,10 @@
         <v>37</v>
       </c>
       <c r="B16">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C16">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -3999,7 +3999,7 @@
         <v>33</v>
       </c>
       <c r="C17">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -4010,7 +4010,7 @@
         <v>33</v>
       </c>
       <c r="C18">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -4062,10 +4062,10 @@
         <v>163</v>
       </c>
       <c r="B23">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C23">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -4073,10 +4073,10 @@
         <v>164</v>
       </c>
       <c r="B24">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C24">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -4131,23 +4131,23 @@
         <v>19</v>
       </c>
       <c r="C29">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1" t="s">
-        <v>149</v>
+        <v>11</v>
       </c>
       <c r="B30">
         <v>17</v>
       </c>
       <c r="C30">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B31">
         <v>17</v>
@@ -4158,7 +4158,7 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
-        <v>11</v>
+        <v>150</v>
       </c>
       <c r="B32">
         <v>17</v>
@@ -4235,7 +4235,7 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B39">
         <v>10</v>
@@ -4367,18 +4367,18 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B51">
         <v>4</v>
       </c>
       <c r="C51">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B52">
         <v>4</v>
@@ -4521,7 +4521,7 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -4576,7 +4576,7 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -4633,7 +4633,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>221410</v>
+        <v>229660</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4641,7 +4641,7 @@
         <v>132</v>
       </c>
       <c r="B3">
-        <v>117063</v>
+        <v>119652</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4649,7 +4649,7 @@
         <v>133</v>
       </c>
       <c r="B4">
-        <v>117063</v>
+        <v>119652</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4657,7 +4657,7 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>116152</v>
+        <v>118804</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4665,7 +4665,7 @@
         <v>138</v>
       </c>
       <c r="B6">
-        <v>114574</v>
+        <v>116284</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4673,7 +4673,7 @@
         <v>139</v>
       </c>
       <c r="B7">
-        <v>114574</v>
+        <v>116284</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4681,7 +4681,7 @@
         <v>146</v>
       </c>
       <c r="B8">
-        <v>95466</v>
+        <v>97465</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4689,7 +4689,7 @@
         <v>147</v>
       </c>
       <c r="B9">
-        <v>95466</v>
+        <v>97465</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4697,7 +4697,7 @@
         <v>148</v>
       </c>
       <c r="B10">
-        <v>95466</v>
+        <v>97465</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -4705,7 +4705,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>87363</v>
+        <v>90080</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -4713,7 +4713,7 @@
         <v>22</v>
       </c>
       <c r="B12">
-        <v>79256</v>
+        <v>80789</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -4721,7 +4721,7 @@
         <v>5</v>
       </c>
       <c r="B13">
-        <v>68145</v>
+        <v>70267</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -4729,7 +4729,7 @@
         <v>134</v>
       </c>
       <c r="B14">
-        <v>65969</v>
+        <v>67855</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -4737,7 +4737,7 @@
         <v>135</v>
       </c>
       <c r="B15">
-        <v>65969</v>
+        <v>67855</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -4745,7 +4745,7 @@
         <v>136</v>
       </c>
       <c r="B16">
-        <v>65969</v>
+        <v>67855</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -4753,7 +4753,7 @@
         <v>137</v>
       </c>
       <c r="B17">
-        <v>65969</v>
+        <v>67855</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -4761,7 +4761,7 @@
         <v>12</v>
       </c>
       <c r="B18">
-        <v>57255</v>
+        <v>59552</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -4769,7 +4769,7 @@
         <v>8</v>
       </c>
       <c r="B19">
-        <v>47829</v>
+        <v>48574</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -4777,7 +4777,7 @@
         <v>130</v>
       </c>
       <c r="B20">
-        <v>41095</v>
+        <v>41730</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -4785,23 +4785,23 @@
         <v>131</v>
       </c>
       <c r="B21">
-        <v>41095</v>
+        <v>41730</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B22">
-        <v>38287</v>
+        <v>39102</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B23">
-        <v>29402</v>
+        <v>30297</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -4809,15 +4809,15 @@
         <v>6</v>
       </c>
       <c r="B24">
-        <v>26514</v>
+        <v>27041</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B25">
-        <v>26040</v>
+        <v>26916</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -4825,7 +4825,7 @@
         <v>20</v>
       </c>
       <c r="B26">
-        <v>25655</v>
+        <v>26267</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -4833,31 +4833,31 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>24177</v>
+        <v>24898</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>154</v>
       </c>
       <c r="B28">
-        <v>21757</v>
+        <v>22207</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B29">
-        <v>21685</v>
+        <v>22207</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>155</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>21685</v>
+        <v>22192</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -4865,7 +4865,7 @@
         <v>37</v>
       </c>
       <c r="B31">
-        <v>21510</v>
+        <v>22077</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -4873,7 +4873,7 @@
         <v>33</v>
       </c>
       <c r="B32">
-        <v>20431</v>
+        <v>20844</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -4881,7 +4881,7 @@
         <v>167</v>
       </c>
       <c r="B33">
-        <v>20429</v>
+        <v>20839</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -4889,7 +4889,7 @@
         <v>168</v>
       </c>
       <c r="B34">
-        <v>20429</v>
+        <v>20839</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -4897,7 +4897,7 @@
         <v>142</v>
       </c>
       <c r="B35">
-        <v>19401</v>
+        <v>20034</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -4905,7 +4905,7 @@
         <v>143</v>
       </c>
       <c r="B36">
-        <v>19401</v>
+        <v>20034</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -4913,7 +4913,7 @@
         <v>25</v>
       </c>
       <c r="B37">
-        <v>18833</v>
+        <v>19203</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -4921,7 +4921,7 @@
         <v>140</v>
       </c>
       <c r="B38">
-        <v>16588</v>
+        <v>16878</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -4929,7 +4929,7 @@
         <v>141</v>
       </c>
       <c r="B39">
-        <v>16588</v>
+        <v>16878</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -4937,31 +4937,31 @@
         <v>46</v>
       </c>
       <c r="B40">
-        <v>15884</v>
+        <v>16063</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>26</v>
+        <v>144</v>
       </c>
       <c r="B41">
-        <v>13943</v>
+        <v>14300</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B42">
-        <v>13881</v>
+        <v>14300</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>145</v>
+        <v>26</v>
       </c>
       <c r="B43">
-        <v>13881</v>
+        <v>14166</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -4969,39 +4969,39 @@
         <v>35</v>
       </c>
       <c r="B44">
-        <v>12530</v>
+        <v>12917</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B45">
-        <v>11408</v>
+        <v>11521</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>38</v>
+        <v>161</v>
       </c>
       <c r="B46">
-        <v>11072</v>
+        <v>11445</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B47">
-        <v>11047</v>
+        <v>11445</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>162</v>
+        <v>38</v>
       </c>
       <c r="B48">
-        <v>11047</v>
+        <v>11179</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -5009,7 +5009,7 @@
         <v>50</v>
       </c>
       <c r="B49">
-        <v>10802</v>
+        <v>11045</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -5017,7 +5017,7 @@
         <v>149</v>
       </c>
       <c r="B50">
-        <v>10602</v>
+        <v>10768</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -5025,7 +5025,7 @@
         <v>150</v>
       </c>
       <c r="B51">
-        <v>10602</v>
+        <v>10768</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -5033,7 +5033,7 @@
         <v>151</v>
       </c>
       <c r="B52">
-        <v>8461</v>
+        <v>8643</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -5041,7 +5041,7 @@
         <v>152</v>
       </c>
       <c r="B53">
-        <v>8461</v>
+        <v>8643</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -5049,7 +5049,7 @@
         <v>153</v>
       </c>
       <c r="B54">
-        <v>8461</v>
+        <v>8643</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -5057,7 +5057,7 @@
         <v>42</v>
       </c>
       <c r="B55">
-        <v>7759</v>
+        <v>7838</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -5065,7 +5065,7 @@
         <v>51</v>
       </c>
       <c r="B56">
-        <v>5949</v>
+        <v>6004</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -5073,7 +5073,7 @@
         <v>158</v>
       </c>
       <c r="B57">
-        <v>4556</v>
+        <v>4612</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -5081,7 +5081,7 @@
         <v>159</v>
       </c>
       <c r="B58">
-        <v>4556</v>
+        <v>4612</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -5089,7 +5089,7 @@
         <v>160</v>
       </c>
       <c r="B59">
-        <v>4556</v>
+        <v>4612</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -5097,7 +5097,7 @@
         <v>47</v>
       </c>
       <c r="B60">
-        <v>2591</v>
+        <v>2631</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -5105,7 +5105,7 @@
         <v>163</v>
       </c>
       <c r="B61">
-        <v>1703</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -5113,7 +5113,7 @@
         <v>164</v>
       </c>
       <c r="B62">
-        <v>1703</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -5121,7 +5121,7 @@
         <v>48</v>
       </c>
       <c r="B63">
-        <v>1684</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -5129,7 +5129,7 @@
         <v>45</v>
       </c>
       <c r="B64">
-        <v>1600</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -5137,7 +5137,7 @@
         <v>165</v>
       </c>
       <c r="B65">
-        <v>748</v>
+        <v>771</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -5145,7 +5145,7 @@
         <v>166</v>
       </c>
       <c r="B66">
-        <v>748</v>
+        <v>771</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -5222,7 +5222,7 @@
         <v>101</v>
       </c>
       <c r="B2">
-        <v>3611123</v>
+        <v>3699176</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -5230,7 +5230,7 @@
         <v>104</v>
       </c>
       <c r="B3">
-        <v>2383594</v>
+        <v>2405009</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -5238,7 +5238,7 @@
         <v>169</v>
       </c>
       <c r="B4">
-        <v>2056783</v>
+        <v>2256268</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -5246,7 +5246,7 @@
         <v>170</v>
       </c>
       <c r="B5">
-        <v>2033717</v>
+        <v>2111962</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -5254,7 +5254,7 @@
         <v>171</v>
       </c>
       <c r="B6">
-        <v>2033717</v>
+        <v>2111962</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -5262,7 +5262,7 @@
         <v>172</v>
       </c>
       <c r="B7">
-        <v>1669215</v>
+        <v>1853386</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -5270,7 +5270,7 @@
         <v>106</v>
       </c>
       <c r="B8">
-        <v>1302869</v>
+        <v>1340681</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -5278,7 +5278,7 @@
         <v>107</v>
       </c>
       <c r="B9">
-        <v>1247752</v>
+        <v>1298123</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -5286,15 +5286,15 @@
         <v>105</v>
       </c>
       <c r="B10">
-        <v>898879</v>
+        <v>907594</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B11">
-        <v>699330</v>
+        <v>711765</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -5302,15 +5302,15 @@
         <v>108</v>
       </c>
       <c r="B12">
-        <v>518928</v>
+        <v>538783</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B13">
-        <v>421829</v>
+        <v>439661</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -5318,7 +5318,7 @@
         <v>173</v>
       </c>
       <c r="B14">
-        <v>387568</v>
+        <v>402882</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -5326,7 +5326,7 @@
         <v>174</v>
       </c>
       <c r="B15">
-        <v>306713</v>
+        <v>327854</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -5334,7 +5334,7 @@
         <v>115</v>
       </c>
       <c r="B16">
-        <v>221353</v>
+        <v>224095</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -5342,7 +5342,7 @@
         <v>175</v>
       </c>
       <c r="B17">
-        <v>84577</v>
+        <v>85289</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -5350,7 +5350,7 @@
         <v>176</v>
       </c>
       <c r="B18">
-        <v>84577</v>
+        <v>85289</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -5358,7 +5358,7 @@
         <v>116</v>
       </c>
       <c r="B19">
-        <v>68336</v>
+        <v>70707</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -5366,7 +5366,7 @@
         <v>117</v>
       </c>
       <c r="B20">
-        <v>63358</v>
+        <v>64750</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -5374,7 +5374,7 @@
         <v>123</v>
       </c>
       <c r="B21">
-        <v>17115</v>
+        <v>17376</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -5382,7 +5382,7 @@
         <v>177</v>
       </c>
       <c r="B22">
-        <v>12003</v>
+        <v>12067</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -5390,7 +5390,7 @@
         <v>118</v>
       </c>
       <c r="B23">
-        <v>10723</v>
+        <v>10965</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -5398,7 +5398,7 @@
         <v>119</v>
       </c>
       <c r="B24">
-        <v>10281</v>
+        <v>10908</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -5406,7 +5406,7 @@
         <v>178</v>
       </c>
       <c r="B25">
-        <v>7687</v>
+        <v>7814</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -5414,7 +5414,7 @@
         <v>179</v>
       </c>
       <c r="B26">
-        <v>6730</v>
+        <v>6799</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -5422,7 +5422,7 @@
         <v>180</v>
       </c>
       <c r="B27">
-        <v>6730</v>
+        <v>6799</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -5430,7 +5430,7 @@
         <v>124</v>
       </c>
       <c r="B28">
-        <v>3590</v>
+        <v>3894</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -5438,7 +5438,7 @@
         <v>181</v>
       </c>
       <c r="B29">
-        <v>1499</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -5483,13 +5483,13 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B2">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="C2">
-        <v>446</v>
+        <v>454</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -5500,7 +5500,7 @@
         <v>247</v>
       </c>
       <c r="C3">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -5508,10 +5508,10 @@
         <v>115</v>
       </c>
       <c r="B4">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C4">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -5541,10 +5541,10 @@
         <v>169</v>
       </c>
       <c r="B7">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C7">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -5552,10 +5552,10 @@
         <v>173</v>
       </c>
       <c r="B8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C8">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -5563,10 +5563,10 @@
         <v>177</v>
       </c>
       <c r="B9">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C9">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -5588,7 +5588,7 @@
         <v>32</v>
       </c>
       <c r="C11">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -5698,7 +5698,7 @@
         <v>6</v>
       </c>
       <c r="C21">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -5709,7 +5709,7 @@
         <v>4</v>
       </c>
       <c r="C22">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -5791,7 +5791,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -5837,7 +5837,7 @@
         <v>107</v>
       </c>
       <c r="B2">
-        <v>397345</v>
+        <v>405957</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -5845,15 +5845,15 @@
         <v>101</v>
       </c>
       <c r="B3">
-        <v>221410</v>
+        <v>229660</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B4">
-        <v>117383</v>
+        <v>120397</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -5861,7 +5861,7 @@
         <v>105</v>
       </c>
       <c r="B5">
-        <v>117063</v>
+        <v>119652</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -5869,7 +5869,7 @@
         <v>117</v>
       </c>
       <c r="B6">
-        <v>95466</v>
+        <v>97465</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -5877,23 +5877,23 @@
         <v>169</v>
       </c>
       <c r="B7">
-        <v>92483</v>
+        <v>94896</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B8">
-        <v>88924</v>
+        <v>90634</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B9">
-        <v>88845</v>
+        <v>90304</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -5901,7 +5901,7 @@
         <v>115</v>
       </c>
       <c r="B10">
-        <v>74397</v>
+        <v>75871</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -5909,7 +5909,7 @@
         <v>170</v>
       </c>
       <c r="B11">
-        <v>68145</v>
+        <v>70267</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -5917,7 +5917,7 @@
         <v>171</v>
       </c>
       <c r="B12">
-        <v>68145</v>
+        <v>70267</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -5925,7 +5925,7 @@
         <v>173</v>
       </c>
       <c r="B13">
-        <v>65969</v>
+        <v>67855</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -5933,15 +5933,15 @@
         <v>108</v>
       </c>
       <c r="B14">
-        <v>57255</v>
+        <v>59552</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B15">
-        <v>29402</v>
+        <v>30297</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -5949,7 +5949,7 @@
         <v>172</v>
       </c>
       <c r="B16">
-        <v>26514</v>
+        <v>27041</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -5957,7 +5957,7 @@
         <v>174</v>
       </c>
       <c r="B17">
-        <v>22480</v>
+        <v>22700</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -5965,7 +5965,7 @@
         <v>182</v>
       </c>
       <c r="B18">
-        <v>20429</v>
+        <v>20839</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -5973,7 +5973,7 @@
         <v>183</v>
       </c>
       <c r="B19">
-        <v>20429</v>
+        <v>20839</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -5981,7 +5981,7 @@
         <v>116</v>
       </c>
       <c r="B20">
-        <v>19830</v>
+        <v>20304</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -5989,7 +5989,7 @@
         <v>179</v>
       </c>
       <c r="B21">
-        <v>15884</v>
+        <v>16063</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -5997,7 +5997,7 @@
         <v>180</v>
       </c>
       <c r="B22">
-        <v>15884</v>
+        <v>16063</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -6005,7 +6005,7 @@
         <v>175</v>
       </c>
       <c r="B23">
-        <v>13943</v>
+        <v>14166</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -6013,7 +6013,7 @@
         <v>176</v>
       </c>
       <c r="B24">
-        <v>13943</v>
+        <v>14166</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -6021,7 +6021,7 @@
         <v>177</v>
       </c>
       <c r="B25">
-        <v>12505</v>
+        <v>12763</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -6029,7 +6029,7 @@
         <v>119</v>
       </c>
       <c r="B26">
-        <v>11047</v>
+        <v>11445</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -6037,7 +6037,7 @@
         <v>118</v>
       </c>
       <c r="B27">
-        <v>7759</v>
+        <v>7838</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -6045,7 +6045,7 @@
         <v>181</v>
       </c>
       <c r="B28">
-        <v>5949</v>
+        <v>6004</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -6053,7 +6053,7 @@
         <v>123</v>
       </c>
       <c r="B29">
-        <v>5875</v>
+        <v>5935</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -6061,7 +6061,7 @@
         <v>178</v>
       </c>
       <c r="B30">
-        <v>1600</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -6069,7 +6069,7 @@
         <v>124</v>
       </c>
       <c r="B31">
-        <v>748</v>
+        <v>771</v>
       </c>
     </row>
   </sheetData>

--- a/monthly_reports/monthly_data/2021 Charts Month 1.xlsx
+++ b/monthly_reports/monthly_data/2021 Charts Month 1.xlsx
@@ -150,12 +150,12 @@
     <t>MR.BLACK, Offer Nissim, Chester Young</t>
   </si>
   <si>
+    <t>Lady Bee, Dame1</t>
+  </si>
+  <si>
     <t>RAMSSEY</t>
   </si>
   <si>
-    <t>Lady Bee, Dame1</t>
-  </si>
-  <si>
     <t>DJ St3v3, Sebastian Mateo</t>
   </si>
   <si>
@@ -294,12 +294,12 @@
     <t>Mucho Bien (Chester Young Remix)</t>
   </si>
   <si>
+    <t>Soon Not Later</t>
+  </si>
+  <si>
     <t>Anubis</t>
   </si>
   <si>
-    <t>Soon Not Later</t>
-  </si>
-  <si>
     <t>So Sexy</t>
   </si>
   <si>
@@ -378,10 +378,10 @@
     <t>Circus Records</t>
   </si>
   <si>
+    <t>Mixmash Recorsds</t>
+  </si>
+  <si>
     <t>Tribal Trap</t>
-  </si>
-  <si>
-    <t>Mixmash Recorsds</t>
   </si>
   <si>
     <t>Revealed Music, Revealed Radar</t>
@@ -962,7 +962,7 @@
         <v>101</v>
       </c>
       <c r="D2">
-        <v>3699176</v>
+        <v>3787476</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -976,7 +976,7 @@
         <v>102</v>
       </c>
       <c r="D3">
-        <v>2111962</v>
+        <v>2195712</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -990,7 +990,7 @@
         <v>103</v>
       </c>
       <c r="D4">
-        <v>1853386</v>
+        <v>2041544</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1004,7 +1004,7 @@
         <v>104</v>
       </c>
       <c r="D5">
-        <v>1333217</v>
+        <v>1345206</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1018,7 +1018,7 @@
         <v>104</v>
       </c>
       <c r="D6">
-        <v>1071792</v>
+        <v>1085075</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1032,7 +1032,7 @@
         <v>105</v>
       </c>
       <c r="D7">
-        <v>907594</v>
+        <v>916158</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1046,7 +1046,7 @@
         <v>106</v>
       </c>
       <c r="D8">
-        <v>818650</v>
+        <v>830044</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1060,7 +1060,7 @@
         <v>107</v>
       </c>
       <c r="D9">
-        <v>675894</v>
+        <v>701131</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1074,7 +1074,7 @@
         <v>108</v>
       </c>
       <c r="D10">
-        <v>538783</v>
+        <v>562342</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1088,7 +1088,7 @@
         <v>109</v>
       </c>
       <c r="D11">
-        <v>439661</v>
+        <v>458650</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1102,7 +1102,7 @@
         <v>110</v>
       </c>
       <c r="D12">
-        <v>436313</v>
+        <v>443144</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1116,7 +1116,7 @@
         <v>111</v>
       </c>
       <c r="D13">
-        <v>402882</v>
+        <v>420262</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1130,7 +1130,7 @@
         <v>107</v>
       </c>
       <c r="D14">
-        <v>310816</v>
+        <v>346369</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1144,7 +1144,7 @@
         <v>112</v>
       </c>
       <c r="D15">
-        <v>296948</v>
+        <v>321152</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1158,7 +1158,7 @@
         <v>113</v>
       </c>
       <c r="D16">
-        <v>281210</v>
+        <v>287050</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1172,7 +1172,7 @@
         <v>110</v>
       </c>
       <c r="D17">
-        <v>162157</v>
+        <v>167927</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1186,7 +1186,7 @@
         <v>113</v>
       </c>
       <c r="D18">
-        <v>157624</v>
+        <v>160724</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1200,7 +1200,7 @@
         <v>107</v>
       </c>
       <c r="D19">
-        <v>156991</v>
+        <v>160053</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1214,7 +1214,7 @@
         <v>107</v>
       </c>
       <c r="D20">
-        <v>154422</v>
+        <v>158976</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1228,7 +1228,7 @@
         <v>110</v>
       </c>
       <c r="D21">
-        <v>139722</v>
+        <v>141727</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1242,7 +1242,7 @@
         <v>113</v>
       </c>
       <c r="D22">
-        <v>101362</v>
+        <v>103423</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1256,7 +1256,7 @@
         <v>110</v>
       </c>
       <c r="D23">
-        <v>86314</v>
+        <v>88118</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1270,7 +1270,7 @@
         <v>114</v>
       </c>
       <c r="D24">
-        <v>85289</v>
+        <v>85998</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1284,7 +1284,7 @@
         <v>115</v>
       </c>
       <c r="D25">
-        <v>84849</v>
+        <v>85817</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1298,7 +1298,7 @@
         <v>106</v>
       </c>
       <c r="D26">
-        <v>82176</v>
+        <v>85341</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1312,7 +1312,7 @@
         <v>113</v>
       </c>
       <c r="D27">
-        <v>74377</v>
+        <v>75443</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1326,7 +1326,7 @@
         <v>116</v>
       </c>
       <c r="D28">
-        <v>69177</v>
+        <v>72213</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1340,7 +1340,7 @@
         <v>117</v>
       </c>
       <c r="D29">
-        <v>64750</v>
+        <v>66279</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1354,7 +1354,7 @@
         <v>106</v>
       </c>
       <c r="D30">
-        <v>63074</v>
+        <v>64690</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1368,7 +1368,7 @@
         <v>106</v>
       </c>
       <c r="D31">
-        <v>48927</v>
+        <v>49633</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1382,7 +1382,7 @@
         <v>115</v>
       </c>
       <c r="D32">
-        <v>48055</v>
+        <v>48673</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1396,7 +1396,7 @@
         <v>113</v>
       </c>
       <c r="D33">
-        <v>40477</v>
+        <v>41671</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1410,7 +1410,7 @@
         <v>115</v>
       </c>
       <c r="D34">
-        <v>39806</v>
+        <v>40819</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1424,7 +1424,7 @@
         <v>113</v>
       </c>
       <c r="D35">
-        <v>37460</v>
+        <v>37968</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1438,7 +1438,7 @@
         <v>112</v>
       </c>
       <c r="D36">
-        <v>30906</v>
+        <v>31060</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1452,7 +1452,7 @@
         <v>115</v>
       </c>
       <c r="D37">
-        <v>26716</v>
+        <v>28069</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1466,7 +1466,7 @@
         <v>113</v>
       </c>
       <c r="D38">
-        <v>19255</v>
+        <v>19401</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1480,7 +1480,7 @@
         <v>115</v>
       </c>
       <c r="D39">
-        <v>12602</v>
+        <v>12786</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1494,7 +1494,7 @@
         <v>118</v>
       </c>
       <c r="D40">
-        <v>10965</v>
+        <v>11467</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1508,7 +1508,7 @@
         <v>119</v>
       </c>
       <c r="D41">
-        <v>10908</v>
+        <v>11144</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1522,7 +1522,7 @@
         <v>120</v>
       </c>
       <c r="D42">
-        <v>8845</v>
+        <v>8905</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1536,7 +1536,7 @@
         <v>121</v>
       </c>
       <c r="D43">
-        <v>7814</v>
+        <v>7932</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1550,7 +1550,7 @@
         <v>122</v>
       </c>
       <c r="D44">
-        <v>6799</v>
+        <v>6879</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1564,7 +1564,7 @@
         <v>123</v>
       </c>
       <c r="D45">
-        <v>4867</v>
+        <v>4939</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1578,7 +1578,7 @@
         <v>123</v>
       </c>
       <c r="D46">
-        <v>4695</v>
+        <v>4741</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1592,7 +1592,7 @@
         <v>124</v>
       </c>
       <c r="D47">
-        <v>3894</v>
+        <v>4131</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1606,7 +1606,7 @@
         <v>120</v>
       </c>
       <c r="D48">
-        <v>3222</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1620,7 +1620,7 @@
         <v>125</v>
       </c>
       <c r="D49">
-        <v>1530</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1669,36 +1669,36 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="C2" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="D2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E2">
-        <v>130</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C3" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="D3">
         <v>106</v>
       </c>
       <c r="E3">
-        <v>113</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1712,10 +1712,10 @@
         <v>113</v>
       </c>
       <c r="D4">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E4">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1746,10 +1746,10 @@
         <v>111</v>
       </c>
       <c r="D6">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E6">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1766,7 +1766,7 @@
         <v>61</v>
       </c>
       <c r="E7">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1797,10 +1797,10 @@
         <v>113</v>
       </c>
       <c r="D9">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E9">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1868,7 +1868,7 @@
         <v>33</v>
       </c>
       <c r="E13">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1936,7 +1936,7 @@
         <v>26</v>
       </c>
       <c r="E17">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1987,7 +1987,7 @@
         <v>17</v>
       </c>
       <c r="E20">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -2094,13 +2094,13 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C27" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D27">
         <v>9</v>
@@ -2315,13 +2315,13 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B40" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C40" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -2538,7 +2538,7 @@
         <v>101</v>
       </c>
       <c r="D2">
-        <v>229660</v>
+        <v>236877</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2552,7 +2552,7 @@
         <v>105</v>
       </c>
       <c r="D3">
-        <v>119652</v>
+        <v>122178</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2566,7 +2566,7 @@
         <v>107</v>
       </c>
       <c r="D4">
-        <v>118804</v>
+        <v>121469</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2580,7 +2580,7 @@
         <v>107</v>
       </c>
       <c r="D5">
-        <v>116284</v>
+        <v>117751</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2594,7 +2594,7 @@
         <v>117</v>
       </c>
       <c r="D6">
-        <v>97465</v>
+        <v>99168</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2608,7 +2608,7 @@
         <v>107</v>
       </c>
       <c r="D7">
-        <v>90080</v>
+        <v>94522</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2622,7 +2622,7 @@
         <v>107</v>
       </c>
       <c r="D8">
-        <v>80789</v>
+        <v>82464</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2636,7 +2636,7 @@
         <v>102</v>
       </c>
       <c r="D9">
-        <v>70267</v>
+        <v>72521</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2650,7 +2650,7 @@
         <v>111</v>
       </c>
       <c r="D10">
-        <v>67855</v>
+        <v>69888</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2664,7 +2664,7 @@
         <v>108</v>
       </c>
       <c r="D11">
-        <v>59552</v>
+        <v>61418</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2678,7 +2678,7 @@
         <v>104</v>
       </c>
       <c r="D12">
-        <v>48574</v>
+        <v>49365</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2692,7 +2692,7 @@
         <v>104</v>
       </c>
       <c r="D13">
-        <v>41730</v>
+        <v>42404</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2706,7 +2706,7 @@
         <v>113</v>
       </c>
       <c r="D14">
-        <v>39102</v>
+        <v>39897</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2720,35 +2720,35 @@
         <v>109</v>
       </c>
       <c r="D15">
-        <v>30297</v>
+        <v>31186</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C16" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="D16">
-        <v>27041</v>
+        <v>27563</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C17" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="D17">
-        <v>26916</v>
+        <v>27540</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2762,7 +2762,7 @@
         <v>113</v>
       </c>
       <c r="D18">
-        <v>26267</v>
+        <v>26822</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2776,7 +2776,7 @@
         <v>106</v>
       </c>
       <c r="D19">
-        <v>24898</v>
+        <v>25555</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2790,7 +2790,7 @@
         <v>115</v>
       </c>
       <c r="D20">
-        <v>22207</v>
+        <v>22811</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2804,7 +2804,7 @@
         <v>106</v>
       </c>
       <c r="D21">
-        <v>22192</v>
+        <v>22738</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2818,35 +2818,35 @@
         <v>113</v>
       </c>
       <c r="D22">
-        <v>22077</v>
+        <v>22573</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="B23" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="C23" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="D23">
-        <v>20844</v>
+        <v>21346</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="B24" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="C24" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="D24">
-        <v>20839</v>
+        <v>21317</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2860,7 +2860,7 @@
         <v>113</v>
       </c>
       <c r="D25">
-        <v>20034</v>
+        <v>20644</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2874,7 +2874,7 @@
         <v>110</v>
       </c>
       <c r="D26">
-        <v>19203</v>
+        <v>19561</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2888,7 +2888,7 @@
         <v>115</v>
       </c>
       <c r="D27">
-        <v>16878</v>
+        <v>17206</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2902,7 +2902,7 @@
         <v>122</v>
       </c>
       <c r="D28">
-        <v>16063</v>
+        <v>16415</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2916,7 +2916,7 @@
         <v>116</v>
       </c>
       <c r="D29">
-        <v>14300</v>
+        <v>14804</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2930,7 +2930,7 @@
         <v>114</v>
       </c>
       <c r="D30">
-        <v>14166</v>
+        <v>14424</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2944,35 +2944,35 @@
         <v>113</v>
       </c>
       <c r="D31">
-        <v>12917</v>
+        <v>13337</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="B32" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="C32" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="D32">
-        <v>11521</v>
+        <v>11843</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="B33" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="C33" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="D33">
-        <v>11445</v>
+        <v>11626</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -2986,7 +2986,7 @@
         <v>112</v>
       </c>
       <c r="D34">
-        <v>11179</v>
+        <v>11378</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -3000,7 +3000,7 @@
         <v>120</v>
       </c>
       <c r="D35">
-        <v>11045</v>
+        <v>11354</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -3014,7 +3014,7 @@
         <v>115</v>
       </c>
       <c r="D36">
-        <v>10768</v>
+        <v>11103</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -3028,21 +3028,21 @@
         <v>115</v>
       </c>
       <c r="D37">
-        <v>8643</v>
+        <v>8831</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B38" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C38" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D38">
-        <v>7838</v>
+        <v>7920</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -3056,7 +3056,7 @@
         <v>125</v>
       </c>
       <c r="D39">
-        <v>6004</v>
+        <v>6069</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -3070,7 +3070,7 @@
         <v>115</v>
       </c>
       <c r="D40">
-        <v>4612</v>
+        <v>4644</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -3084,7 +3084,7 @@
         <v>123</v>
       </c>
       <c r="D41">
-        <v>2631</v>
+        <v>2743</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -3098,7 +3098,7 @@
         <v>120</v>
       </c>
       <c r="D42">
-        <v>1718</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -3112,7 +3112,7 @@
         <v>123</v>
       </c>
       <c r="D43">
-        <v>1686</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -3126,7 +3126,7 @@
         <v>121</v>
       </c>
       <c r="D44">
-        <v>1618</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -3140,7 +3140,7 @@
         <v>124</v>
       </c>
       <c r="D45">
-        <v>771</v>
+        <v>785</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -3239,7 +3239,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>3699176</v>
+        <v>3787476</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3247,7 +3247,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>2111962</v>
+        <v>2195712</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3255,7 +3255,7 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>1853386</v>
+        <v>2041544</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3263,7 +3263,7 @@
         <v>130</v>
       </c>
       <c r="B5">
-        <v>1333217</v>
+        <v>1345206</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3271,7 +3271,7 @@
         <v>131</v>
       </c>
       <c r="B6">
-        <v>1333217</v>
+        <v>1345206</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3279,7 +3279,7 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>1071792</v>
+        <v>1085075</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3287,7 +3287,7 @@
         <v>132</v>
       </c>
       <c r="B8">
-        <v>907594</v>
+        <v>916158</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3295,7 +3295,7 @@
         <v>133</v>
       </c>
       <c r="B9">
-        <v>907594</v>
+        <v>916158</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3303,7 +3303,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>818650</v>
+        <v>830044</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3311,7 +3311,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>675894</v>
+        <v>701131</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3319,7 +3319,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>538783</v>
+        <v>562342</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3327,7 +3327,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>439661</v>
+        <v>458650</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3335,7 +3335,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>436313</v>
+        <v>443144</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3343,7 +3343,7 @@
         <v>134</v>
       </c>
       <c r="B15">
-        <v>402882</v>
+        <v>420262</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3351,7 +3351,7 @@
         <v>135</v>
       </c>
       <c r="B16">
-        <v>402882</v>
+        <v>420262</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -3359,7 +3359,7 @@
         <v>136</v>
       </c>
       <c r="B17">
-        <v>402882</v>
+        <v>420262</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -3367,7 +3367,7 @@
         <v>137</v>
       </c>
       <c r="B18">
-        <v>402882</v>
+        <v>420262</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -3375,7 +3375,7 @@
         <v>16</v>
       </c>
       <c r="B19">
-        <v>310816</v>
+        <v>346369</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -3383,7 +3383,7 @@
         <v>17</v>
       </c>
       <c r="B20">
-        <v>296948</v>
+        <v>321152</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -3391,7 +3391,7 @@
         <v>18</v>
       </c>
       <c r="B21">
-        <v>281210</v>
+        <v>287050</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -3399,7 +3399,7 @@
         <v>19</v>
       </c>
       <c r="B22">
-        <v>162157</v>
+        <v>167927</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -3407,7 +3407,7 @@
         <v>20</v>
       </c>
       <c r="B23">
-        <v>157624</v>
+        <v>160724</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -3415,7 +3415,7 @@
         <v>138</v>
       </c>
       <c r="B24">
-        <v>156991</v>
+        <v>160053</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -3423,7 +3423,7 @@
         <v>139</v>
       </c>
       <c r="B25">
-        <v>156991</v>
+        <v>160053</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -3431,7 +3431,7 @@
         <v>22</v>
       </c>
       <c r="B26">
-        <v>154422</v>
+        <v>158976</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -3439,7 +3439,7 @@
         <v>23</v>
       </c>
       <c r="B27">
-        <v>139722</v>
+        <v>141727</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -3447,7 +3447,7 @@
         <v>24</v>
       </c>
       <c r="B28">
-        <v>101362</v>
+        <v>103423</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -3455,7 +3455,7 @@
         <v>25</v>
       </c>
       <c r="B29">
-        <v>86314</v>
+        <v>88118</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -3463,7 +3463,7 @@
         <v>26</v>
       </c>
       <c r="B30">
-        <v>85289</v>
+        <v>85998</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -3471,7 +3471,7 @@
         <v>140</v>
       </c>
       <c r="B31">
-        <v>84849</v>
+        <v>85817</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -3479,7 +3479,7 @@
         <v>141</v>
       </c>
       <c r="B32">
-        <v>84849</v>
+        <v>85817</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -3487,7 +3487,7 @@
         <v>28</v>
       </c>
       <c r="B33">
-        <v>82176</v>
+        <v>85341</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -3495,7 +3495,7 @@
         <v>142</v>
       </c>
       <c r="B34">
-        <v>74377</v>
+        <v>75443</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -3503,7 +3503,7 @@
         <v>143</v>
       </c>
       <c r="B35">
-        <v>74377</v>
+        <v>75443</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -3511,7 +3511,7 @@
         <v>144</v>
       </c>
       <c r="B36">
-        <v>69177</v>
+        <v>72213</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -3519,7 +3519,7 @@
         <v>145</v>
       </c>
       <c r="B37">
-        <v>69177</v>
+        <v>72213</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -3527,7 +3527,7 @@
         <v>146</v>
       </c>
       <c r="B38">
-        <v>64750</v>
+        <v>66279</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -3535,7 +3535,7 @@
         <v>147</v>
       </c>
       <c r="B39">
-        <v>64750</v>
+        <v>66279</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -3543,7 +3543,7 @@
         <v>148</v>
       </c>
       <c r="B40">
-        <v>64750</v>
+        <v>66279</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -3551,7 +3551,7 @@
         <v>32</v>
       </c>
       <c r="B41">
-        <v>63074</v>
+        <v>64690</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -3559,7 +3559,7 @@
         <v>33</v>
       </c>
       <c r="B42">
-        <v>48927</v>
+        <v>49633</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -3567,7 +3567,7 @@
         <v>149</v>
       </c>
       <c r="B43">
-        <v>48055</v>
+        <v>48673</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -3575,7 +3575,7 @@
         <v>150</v>
       </c>
       <c r="B44">
-        <v>48055</v>
+        <v>48673</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -3583,7 +3583,7 @@
         <v>35</v>
       </c>
       <c r="B45">
-        <v>40477</v>
+        <v>41671</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -3591,7 +3591,7 @@
         <v>151</v>
       </c>
       <c r="B46">
-        <v>39806</v>
+        <v>40819</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -3599,7 +3599,7 @@
         <v>152</v>
       </c>
       <c r="B47">
-        <v>39806</v>
+        <v>40819</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -3607,7 +3607,7 @@
         <v>153</v>
       </c>
       <c r="B48">
-        <v>39806</v>
+        <v>40819</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -3615,7 +3615,7 @@
         <v>37</v>
       </c>
       <c r="B49">
-        <v>37460</v>
+        <v>37968</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -3623,7 +3623,7 @@
         <v>38</v>
       </c>
       <c r="B50">
-        <v>30906</v>
+        <v>31060</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -3631,7 +3631,7 @@
         <v>154</v>
       </c>
       <c r="B51">
-        <v>26716</v>
+        <v>28069</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -3639,7 +3639,7 @@
         <v>155</v>
       </c>
       <c r="B52">
-        <v>26716</v>
+        <v>28069</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -3647,7 +3647,7 @@
         <v>156</v>
       </c>
       <c r="B53">
-        <v>19255</v>
+        <v>19401</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -3655,7 +3655,7 @@
         <v>157</v>
       </c>
       <c r="B54">
-        <v>19255</v>
+        <v>19401</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -3663,7 +3663,7 @@
         <v>158</v>
       </c>
       <c r="B55">
-        <v>12602</v>
+        <v>12786</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -3671,7 +3671,7 @@
         <v>159</v>
       </c>
       <c r="B56">
-        <v>12602</v>
+        <v>12786</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -3679,31 +3679,31 @@
         <v>160</v>
       </c>
       <c r="B57">
-        <v>12602</v>
+        <v>12786</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>42</v>
+        <v>161</v>
       </c>
       <c r="B58">
-        <v>10965</v>
+        <v>11467</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B59">
-        <v>10908</v>
+        <v>11467</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>162</v>
+        <v>43</v>
       </c>
       <c r="B60">
-        <v>10908</v>
+        <v>11144</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -3711,7 +3711,7 @@
         <v>163</v>
       </c>
       <c r="B61">
-        <v>8845</v>
+        <v>8905</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -3719,7 +3719,7 @@
         <v>164</v>
       </c>
       <c r="B62">
-        <v>8845</v>
+        <v>8905</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -3727,7 +3727,7 @@
         <v>45</v>
       </c>
       <c r="B63">
-        <v>7814</v>
+        <v>7932</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -3735,7 +3735,7 @@
         <v>46</v>
       </c>
       <c r="B64">
-        <v>6799</v>
+        <v>6879</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -3743,7 +3743,7 @@
         <v>47</v>
       </c>
       <c r="B65">
-        <v>4867</v>
+        <v>4939</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -3751,7 +3751,7 @@
         <v>48</v>
       </c>
       <c r="B66">
-        <v>4695</v>
+        <v>4741</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -3759,7 +3759,7 @@
         <v>165</v>
       </c>
       <c r="B67">
-        <v>3894</v>
+        <v>4131</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -3767,7 +3767,7 @@
         <v>166</v>
       </c>
       <c r="B68">
-        <v>3894</v>
+        <v>4131</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -3775,7 +3775,7 @@
         <v>50</v>
       </c>
       <c r="B69">
-        <v>3222</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -3783,7 +3783,7 @@
         <v>51</v>
       </c>
       <c r="B70">
-        <v>1530</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -3828,24 +3828,24 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C2">
-        <v>130</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B3">
         <v>106</v>
       </c>
       <c r="C3">
-        <v>113</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3853,10 +3853,10 @@
         <v>24</v>
       </c>
       <c r="B4">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C4">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3875,10 +3875,10 @@
         <v>134</v>
       </c>
       <c r="B6">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C6">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3886,10 +3886,10 @@
         <v>135</v>
       </c>
       <c r="B7">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C7">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3897,10 +3897,10 @@
         <v>136</v>
       </c>
       <c r="B8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C8">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3908,10 +3908,10 @@
         <v>137</v>
       </c>
       <c r="B9">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C9">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3922,7 +3922,7 @@
         <v>61</v>
       </c>
       <c r="C10">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3933,7 +3933,7 @@
         <v>61</v>
       </c>
       <c r="C11">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3952,10 +3952,10 @@
         <v>20</v>
       </c>
       <c r="B13">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C13">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -3999,7 +3999,7 @@
         <v>33</v>
       </c>
       <c r="C17">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -4010,7 +4010,7 @@
         <v>33</v>
       </c>
       <c r="C18">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -4087,7 +4087,7 @@
         <v>26</v>
       </c>
       <c r="C25">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -4098,7 +4098,7 @@
         <v>26</v>
       </c>
       <c r="C26">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -4142,7 +4142,7 @@
         <v>17</v>
       </c>
       <c r="C30">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -4565,7 +4565,7 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -4633,7 +4633,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>229660</v>
+        <v>236877</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4641,7 +4641,7 @@
         <v>132</v>
       </c>
       <c r="B3">
-        <v>119652</v>
+        <v>122178</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4649,7 +4649,7 @@
         <v>133</v>
       </c>
       <c r="B4">
-        <v>119652</v>
+        <v>122178</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4657,7 +4657,7 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>118804</v>
+        <v>121469</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4665,7 +4665,7 @@
         <v>138</v>
       </c>
       <c r="B6">
-        <v>116284</v>
+        <v>117751</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4673,7 +4673,7 @@
         <v>139</v>
       </c>
       <c r="B7">
-        <v>116284</v>
+        <v>117751</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4681,7 +4681,7 @@
         <v>146</v>
       </c>
       <c r="B8">
-        <v>97465</v>
+        <v>99168</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4689,7 +4689,7 @@
         <v>147</v>
       </c>
       <c r="B9">
-        <v>97465</v>
+        <v>99168</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4697,7 +4697,7 @@
         <v>148</v>
       </c>
       <c r="B10">
-        <v>97465</v>
+        <v>99168</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -4705,7 +4705,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>90080</v>
+        <v>94522</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -4713,7 +4713,7 @@
         <v>22</v>
       </c>
       <c r="B12">
-        <v>80789</v>
+        <v>82464</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -4721,7 +4721,7 @@
         <v>5</v>
       </c>
       <c r="B13">
-        <v>70267</v>
+        <v>72521</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -4729,7 +4729,7 @@
         <v>134</v>
       </c>
       <c r="B14">
-        <v>67855</v>
+        <v>69888</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -4737,7 +4737,7 @@
         <v>135</v>
       </c>
       <c r="B15">
-        <v>67855</v>
+        <v>69888</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -4745,7 +4745,7 @@
         <v>136</v>
       </c>
       <c r="B16">
-        <v>67855</v>
+        <v>69888</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -4753,7 +4753,7 @@
         <v>137</v>
       </c>
       <c r="B17">
-        <v>67855</v>
+        <v>69888</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -4761,7 +4761,7 @@
         <v>12</v>
       </c>
       <c r="B18">
-        <v>59552</v>
+        <v>61418</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -4769,7 +4769,7 @@
         <v>8</v>
       </c>
       <c r="B19">
-        <v>48574</v>
+        <v>49365</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -4777,7 +4777,7 @@
         <v>130</v>
       </c>
       <c r="B20">
-        <v>41730</v>
+        <v>42404</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -4785,7 +4785,7 @@
         <v>131</v>
       </c>
       <c r="B21">
-        <v>41730</v>
+        <v>42404</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -4793,7 +4793,7 @@
         <v>18</v>
       </c>
       <c r="B22">
-        <v>39102</v>
+        <v>39897</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -4801,23 +4801,23 @@
         <v>13</v>
       </c>
       <c r="B23">
-        <v>30297</v>
+        <v>31186</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B24">
-        <v>27041</v>
+        <v>27563</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B25">
-        <v>26916</v>
+        <v>27540</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -4825,7 +4825,7 @@
         <v>20</v>
       </c>
       <c r="B26">
-        <v>26267</v>
+        <v>26822</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -4833,7 +4833,7 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>24898</v>
+        <v>25555</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -4841,7 +4841,7 @@
         <v>154</v>
       </c>
       <c r="B28">
-        <v>22207</v>
+        <v>22811</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -4849,7 +4849,7 @@
         <v>155</v>
       </c>
       <c r="B29">
-        <v>22207</v>
+        <v>22811</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -4857,7 +4857,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>22192</v>
+        <v>22738</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -4865,31 +4865,31 @@
         <v>37</v>
       </c>
       <c r="B31">
-        <v>22077</v>
+        <v>22573</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>167</v>
       </c>
       <c r="B32">
-        <v>20844</v>
+        <v>21346</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B33">
-        <v>20839</v>
+        <v>21346</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>168</v>
+        <v>33</v>
       </c>
       <c r="B34">
-        <v>20839</v>
+        <v>21317</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -4897,7 +4897,7 @@
         <v>142</v>
       </c>
       <c r="B35">
-        <v>20034</v>
+        <v>20644</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -4905,7 +4905,7 @@
         <v>143</v>
       </c>
       <c r="B36">
-        <v>20034</v>
+        <v>20644</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -4913,7 +4913,7 @@
         <v>25</v>
       </c>
       <c r="B37">
-        <v>19203</v>
+        <v>19561</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -4921,7 +4921,7 @@
         <v>140</v>
       </c>
       <c r="B38">
-        <v>16878</v>
+        <v>17206</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -4929,7 +4929,7 @@
         <v>141</v>
       </c>
       <c r="B39">
-        <v>16878</v>
+        <v>17206</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -4937,7 +4937,7 @@
         <v>46</v>
       </c>
       <c r="B40">
-        <v>16063</v>
+        <v>16415</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -4945,7 +4945,7 @@
         <v>144</v>
       </c>
       <c r="B41">
-        <v>14300</v>
+        <v>14804</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -4953,7 +4953,7 @@
         <v>145</v>
       </c>
       <c r="B42">
-        <v>14300</v>
+        <v>14804</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -4961,7 +4961,7 @@
         <v>26</v>
       </c>
       <c r="B43">
-        <v>14166</v>
+        <v>14424</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -4969,31 +4969,31 @@
         <v>35</v>
       </c>
       <c r="B44">
-        <v>12917</v>
+        <v>13337</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>17</v>
+        <v>161</v>
       </c>
       <c r="B45">
-        <v>11521</v>
+        <v>11843</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B46">
-        <v>11445</v>
+        <v>11843</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>162</v>
+        <v>17</v>
       </c>
       <c r="B47">
-        <v>11445</v>
+        <v>11626</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -5001,7 +5001,7 @@
         <v>38</v>
       </c>
       <c r="B48">
-        <v>11179</v>
+        <v>11378</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -5009,7 +5009,7 @@
         <v>50</v>
       </c>
       <c r="B49">
-        <v>11045</v>
+        <v>11354</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -5017,7 +5017,7 @@
         <v>149</v>
       </c>
       <c r="B50">
-        <v>10768</v>
+        <v>11103</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -5025,7 +5025,7 @@
         <v>150</v>
       </c>
       <c r="B51">
-        <v>10768</v>
+        <v>11103</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -5033,7 +5033,7 @@
         <v>151</v>
       </c>
       <c r="B52">
-        <v>8643</v>
+        <v>8831</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -5041,7 +5041,7 @@
         <v>152</v>
       </c>
       <c r="B53">
-        <v>8643</v>
+        <v>8831</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -5049,15 +5049,15 @@
         <v>153</v>
       </c>
       <c r="B54">
-        <v>8643</v>
+        <v>8831</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B55">
-        <v>7838</v>
+        <v>7920</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -5065,7 +5065,7 @@
         <v>51</v>
       </c>
       <c r="B56">
-        <v>6004</v>
+        <v>6069</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -5073,7 +5073,7 @@
         <v>158</v>
       </c>
       <c r="B57">
-        <v>4612</v>
+        <v>4644</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -5081,7 +5081,7 @@
         <v>159</v>
       </c>
       <c r="B58">
-        <v>4612</v>
+        <v>4644</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -5089,7 +5089,7 @@
         <v>160</v>
       </c>
       <c r="B59">
-        <v>4612</v>
+        <v>4644</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -5097,7 +5097,7 @@
         <v>47</v>
       </c>
       <c r="B60">
-        <v>2631</v>
+        <v>2743</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -5105,7 +5105,7 @@
         <v>163</v>
       </c>
       <c r="B61">
-        <v>1718</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -5113,7 +5113,7 @@
         <v>164</v>
       </c>
       <c r="B62">
-        <v>1718</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -5121,7 +5121,7 @@
         <v>48</v>
       </c>
       <c r="B63">
-        <v>1686</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -5129,7 +5129,7 @@
         <v>45</v>
       </c>
       <c r="B64">
-        <v>1618</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -5137,7 +5137,7 @@
         <v>165</v>
       </c>
       <c r="B65">
-        <v>771</v>
+        <v>785</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -5145,7 +5145,7 @@
         <v>166</v>
       </c>
       <c r="B66">
-        <v>771</v>
+        <v>785</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -5222,23 +5222,23 @@
         <v>101</v>
       </c>
       <c r="B2">
-        <v>3699176</v>
+        <v>3787476</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>104</v>
+        <v>169</v>
       </c>
       <c r="B3">
-        <v>2405009</v>
+        <v>2461806</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>169</v>
+        <v>104</v>
       </c>
       <c r="B4">
-        <v>2256268</v>
+        <v>2430281</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -5246,7 +5246,7 @@
         <v>170</v>
       </c>
       <c r="B5">
-        <v>2111962</v>
+        <v>2195712</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -5254,7 +5254,7 @@
         <v>171</v>
       </c>
       <c r="B6">
-        <v>2111962</v>
+        <v>2195712</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -5262,7 +5262,7 @@
         <v>172</v>
       </c>
       <c r="B7">
-        <v>1853386</v>
+        <v>2041544</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -5270,7 +5270,7 @@
         <v>106</v>
       </c>
       <c r="B8">
-        <v>1340681</v>
+        <v>1381920</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -5278,7 +5278,7 @@
         <v>107</v>
       </c>
       <c r="B9">
-        <v>1298123</v>
+        <v>1366529</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -5286,7 +5286,7 @@
         <v>105</v>
       </c>
       <c r="B10">
-        <v>907594</v>
+        <v>916158</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -5294,7 +5294,7 @@
         <v>113</v>
       </c>
       <c r="B11">
-        <v>711765</v>
+        <v>725680</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -5302,7 +5302,7 @@
         <v>108</v>
       </c>
       <c r="B12">
-        <v>538783</v>
+        <v>562342</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -5310,7 +5310,7 @@
         <v>109</v>
       </c>
       <c r="B13">
-        <v>439661</v>
+        <v>458650</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -5318,7 +5318,7 @@
         <v>173</v>
       </c>
       <c r="B14">
-        <v>402882</v>
+        <v>420262</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -5326,7 +5326,7 @@
         <v>174</v>
       </c>
       <c r="B15">
-        <v>327854</v>
+        <v>352212</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -5334,7 +5334,7 @@
         <v>115</v>
       </c>
       <c r="B16">
-        <v>224095</v>
+        <v>228309</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -5342,7 +5342,7 @@
         <v>175</v>
       </c>
       <c r="B17">
-        <v>85289</v>
+        <v>85998</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -5350,7 +5350,7 @@
         <v>176</v>
       </c>
       <c r="B18">
-        <v>85289</v>
+        <v>85998</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -5358,7 +5358,7 @@
         <v>116</v>
       </c>
       <c r="B19">
-        <v>70707</v>
+        <v>73791</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -5366,7 +5366,7 @@
         <v>117</v>
       </c>
       <c r="B20">
-        <v>64750</v>
+        <v>66279</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -5374,7 +5374,7 @@
         <v>123</v>
       </c>
       <c r="B21">
-        <v>17376</v>
+        <v>17612</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -5382,7 +5382,7 @@
         <v>177</v>
       </c>
       <c r="B22">
-        <v>12067</v>
+        <v>12145</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -5390,7 +5390,7 @@
         <v>118</v>
       </c>
       <c r="B23">
-        <v>10965</v>
+        <v>11467</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -5398,7 +5398,7 @@
         <v>119</v>
       </c>
       <c r="B24">
-        <v>10908</v>
+        <v>11144</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -5406,7 +5406,7 @@
         <v>178</v>
       </c>
       <c r="B25">
-        <v>7814</v>
+        <v>7932</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -5414,7 +5414,7 @@
         <v>179</v>
       </c>
       <c r="B26">
-        <v>6799</v>
+        <v>6879</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -5422,7 +5422,7 @@
         <v>180</v>
       </c>
       <c r="B27">
-        <v>6799</v>
+        <v>6879</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -5430,7 +5430,7 @@
         <v>124</v>
       </c>
       <c r="B28">
-        <v>3894</v>
+        <v>4131</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -5438,7 +5438,7 @@
         <v>181</v>
       </c>
       <c r="B29">
-        <v>1530</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -5486,10 +5486,10 @@
         <v>113</v>
       </c>
       <c r="B2">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="C2">
-        <v>454</v>
+        <v>461</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -5500,7 +5500,7 @@
         <v>247</v>
       </c>
       <c r="C3">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -5511,7 +5511,7 @@
         <v>182</v>
       </c>
       <c r="C4">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -5541,10 +5541,10 @@
         <v>169</v>
       </c>
       <c r="B7">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C7">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -5552,10 +5552,10 @@
         <v>173</v>
       </c>
       <c r="B8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C8">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -5588,7 +5588,7 @@
         <v>32</v>
       </c>
       <c r="C11">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -5599,7 +5599,7 @@
         <v>26</v>
       </c>
       <c r="C12">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -5637,7 +5637,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B16">
         <v>9</v>
@@ -5780,7 +5780,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -5837,7 +5837,7 @@
         <v>107</v>
       </c>
       <c r="B2">
-        <v>405957</v>
+        <v>416206</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -5845,7 +5845,7 @@
         <v>101</v>
       </c>
       <c r="B3">
-        <v>229660</v>
+        <v>236877</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -5853,7 +5853,7 @@
         <v>113</v>
       </c>
       <c r="B4">
-        <v>120397</v>
+        <v>123273</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -5861,7 +5861,7 @@
         <v>105</v>
       </c>
       <c r="B5">
-        <v>119652</v>
+        <v>122178</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -5869,7 +5869,7 @@
         <v>117</v>
       </c>
       <c r="B6">
-        <v>97465</v>
+        <v>99168</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -5877,7 +5877,7 @@
         <v>169</v>
       </c>
       <c r="B7">
-        <v>94896</v>
+        <v>97428</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -5885,7 +5885,7 @@
         <v>106</v>
       </c>
       <c r="B8">
-        <v>90634</v>
+        <v>92614</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -5893,7 +5893,7 @@
         <v>104</v>
       </c>
       <c r="B9">
-        <v>90304</v>
+        <v>91769</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -5901,7 +5901,7 @@
         <v>115</v>
       </c>
       <c r="B10">
-        <v>75871</v>
+        <v>77698</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -5909,7 +5909,7 @@
         <v>170</v>
       </c>
       <c r="B11">
-        <v>70267</v>
+        <v>72521</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -5917,7 +5917,7 @@
         <v>171</v>
       </c>
       <c r="B12">
-        <v>70267</v>
+        <v>72521</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -5925,7 +5925,7 @@
         <v>173</v>
       </c>
       <c r="B13">
-        <v>67855</v>
+        <v>69888</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -5933,7 +5933,7 @@
         <v>108</v>
       </c>
       <c r="B14">
-        <v>59552</v>
+        <v>61418</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -5941,7 +5941,7 @@
         <v>109</v>
       </c>
       <c r="B15">
-        <v>30297</v>
+        <v>31186</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -5949,7 +5949,7 @@
         <v>172</v>
       </c>
       <c r="B16">
-        <v>27041</v>
+        <v>27540</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -5957,7 +5957,7 @@
         <v>174</v>
       </c>
       <c r="B17">
-        <v>22700</v>
+        <v>23004</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -5965,7 +5965,7 @@
         <v>182</v>
       </c>
       <c r="B18">
-        <v>20839</v>
+        <v>21346</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -5973,7 +5973,7 @@
         <v>183</v>
       </c>
       <c r="B19">
-        <v>20839</v>
+        <v>21346</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -5981,7 +5981,7 @@
         <v>116</v>
       </c>
       <c r="B20">
-        <v>20304</v>
+        <v>20873</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -5989,7 +5989,7 @@
         <v>179</v>
       </c>
       <c r="B21">
-        <v>16063</v>
+        <v>16415</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -5997,7 +5997,7 @@
         <v>180</v>
       </c>
       <c r="B22">
-        <v>16063</v>
+        <v>16415</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -6005,7 +6005,7 @@
         <v>175</v>
       </c>
       <c r="B23">
-        <v>14166</v>
+        <v>14424</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -6013,7 +6013,7 @@
         <v>176</v>
       </c>
       <c r="B24">
-        <v>14166</v>
+        <v>14424</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -6021,23 +6021,23 @@
         <v>177</v>
       </c>
       <c r="B25">
-        <v>12763</v>
+        <v>13103</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B26">
-        <v>11445</v>
+        <v>11843</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B27">
-        <v>7838</v>
+        <v>7920</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -6045,7 +6045,7 @@
         <v>181</v>
       </c>
       <c r="B28">
-        <v>6004</v>
+        <v>6069</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -6053,7 +6053,7 @@
         <v>123</v>
       </c>
       <c r="B29">
-        <v>5935</v>
+        <v>6064</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -6061,7 +6061,7 @@
         <v>178</v>
       </c>
       <c r="B30">
-        <v>1618</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -6069,7 +6069,7 @@
         <v>124</v>
       </c>
       <c r="B31">
-        <v>771</v>
+        <v>785</v>
       </c>
     </row>
   </sheetData>

--- a/monthly_reports/monthly_data/2021 Charts Month 1.xlsx
+++ b/monthly_reports/monthly_data/2021 Charts Month 1.xlsx
@@ -87,12 +87,12 @@
     <t>Julian Jordan</t>
   </si>
   <si>
+    <t>Rameses B</t>
+  </si>
+  <si>
     <t>TYNAN, Ace Aura</t>
   </si>
   <si>
-    <t>Rameses B</t>
-  </si>
-  <si>
     <t>Camellia</t>
   </si>
   <si>
@@ -102,15 +102,15 @@
     <t>Dirty Palm</t>
   </si>
   <si>
+    <t>Malarkey</t>
+  </si>
+  <si>
+    <t>KAAZE, Nino Lucarelli</t>
+  </si>
+  <si>
     <t>Misfit</t>
   </si>
   <si>
-    <t>KAAZE, Nino Lucarelli</t>
-  </si>
-  <si>
-    <t>Malarkey</t>
-  </si>
-  <si>
     <t>Matt Nash, Lucas Marx</t>
   </si>
   <si>
@@ -231,12 +231,12 @@
     <t>Big Bad Bass</t>
   </si>
   <si>
+    <t>Samurai</t>
+  </si>
+  <si>
     <t>Stay</t>
   </si>
   <si>
-    <t>Samurai</t>
-  </si>
-  <si>
     <t>PURE SILVER</t>
   </si>
   <si>
@@ -246,15 +246,15 @@
     <t>Diamonds</t>
   </si>
   <si>
+    <t>Shackles (Praise You)</t>
+  </si>
+  <si>
+    <t>Temperature</t>
+  </si>
+  <si>
     <t>Mirage</t>
   </si>
   <si>
-    <t>Temperature</t>
-  </si>
-  <si>
-    <t>Shackles (Praise You)</t>
-  </si>
-  <si>
     <t>Midnight</t>
   </si>
   <si>
@@ -366,10 +366,10 @@
     <t>STMPD RCRDS</t>
   </si>
   <si>
+    <t>Revealed Music</t>
+  </si>
+  <si>
     <t>BreadnButter, Trap City</t>
-  </si>
-  <si>
-    <t>Revealed Music</t>
   </si>
   <si>
     <t>Liquicity</t>
@@ -962,7 +962,7 @@
         <v>101</v>
       </c>
       <c r="D2">
-        <v>3787476</v>
+        <v>3873509</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -976,7 +976,7 @@
         <v>102</v>
       </c>
       <c r="D3">
-        <v>2195712</v>
+        <v>2290795</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -990,7 +990,7 @@
         <v>103</v>
       </c>
       <c r="D4">
-        <v>2041544</v>
+        <v>2227137</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1004,7 +1004,7 @@
         <v>104</v>
       </c>
       <c r="D5">
-        <v>1345206</v>
+        <v>1357185</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1018,7 +1018,7 @@
         <v>104</v>
       </c>
       <c r="D6">
-        <v>1085075</v>
+        <v>1097657</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1032,7 +1032,7 @@
         <v>105</v>
       </c>
       <c r="D7">
-        <v>916158</v>
+        <v>925699</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1046,7 +1046,7 @@
         <v>106</v>
       </c>
       <c r="D8">
-        <v>830044</v>
+        <v>840899</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1060,7 +1060,7 @@
         <v>107</v>
       </c>
       <c r="D9">
-        <v>701131</v>
+        <v>728822</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1074,7 +1074,7 @@
         <v>108</v>
       </c>
       <c r="D10">
-        <v>562342</v>
+        <v>590849</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1088,7 +1088,7 @@
         <v>109</v>
       </c>
       <c r="D11">
-        <v>458650</v>
+        <v>478049</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1102,7 +1102,7 @@
         <v>110</v>
       </c>
       <c r="D12">
-        <v>443144</v>
+        <v>449561</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1116,7 +1116,7 @@
         <v>111</v>
       </c>
       <c r="D13">
-        <v>420262</v>
+        <v>439615</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1130,7 +1130,7 @@
         <v>107</v>
       </c>
       <c r="D14">
-        <v>346369</v>
+        <v>382016</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1144,7 +1144,7 @@
         <v>112</v>
       </c>
       <c r="D15">
-        <v>321152</v>
+        <v>343896</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1158,7 +1158,7 @@
         <v>113</v>
       </c>
       <c r="D16">
-        <v>287050</v>
+        <v>292619</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1172,7 +1172,7 @@
         <v>110</v>
       </c>
       <c r="D17">
-        <v>167927</v>
+        <v>173936</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1186,7 +1186,7 @@
         <v>113</v>
       </c>
       <c r="D18">
-        <v>160724</v>
+        <v>163753</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1200,7 +1200,7 @@
         <v>107</v>
       </c>
       <c r="D19">
-        <v>160053</v>
+        <v>163694</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1214,7 +1214,7 @@
         <v>107</v>
       </c>
       <c r="D20">
-        <v>158976</v>
+        <v>163227</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1228,7 +1228,7 @@
         <v>110</v>
       </c>
       <c r="D21">
-        <v>141727</v>
+        <v>144072</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1242,7 +1242,7 @@
         <v>113</v>
       </c>
       <c r="D22">
-        <v>103423</v>
+        <v>105623</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1256,7 +1256,7 @@
         <v>110</v>
       </c>
       <c r="D23">
-        <v>88118</v>
+        <v>90083</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1267,10 +1267,10 @@
         <v>74</v>
       </c>
       <c r="C24" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="D24">
-        <v>85998</v>
+        <v>88491</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1281,10 +1281,10 @@
         <v>75</v>
       </c>
       <c r="C25" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D25">
-        <v>85817</v>
+        <v>86626</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1295,10 +1295,10 @@
         <v>76</v>
       </c>
       <c r="C26" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="D26">
-        <v>85341</v>
+        <v>86624</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1312,7 +1312,7 @@
         <v>113</v>
       </c>
       <c r="D27">
-        <v>75443</v>
+        <v>76814</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1326,7 +1326,7 @@
         <v>116</v>
       </c>
       <c r="D28">
-        <v>72213</v>
+        <v>75482</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1340,7 +1340,7 @@
         <v>117</v>
       </c>
       <c r="D29">
-        <v>66279</v>
+        <v>67849</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1354,7 +1354,7 @@
         <v>106</v>
       </c>
       <c r="D30">
-        <v>64690</v>
+        <v>66394</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1368,7 +1368,7 @@
         <v>106</v>
       </c>
       <c r="D31">
-        <v>49633</v>
+        <v>50285</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1379,10 +1379,10 @@
         <v>82</v>
       </c>
       <c r="C32" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D32">
-        <v>48673</v>
+        <v>49416</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1396,7 +1396,7 @@
         <v>113</v>
       </c>
       <c r="D33">
-        <v>41671</v>
+        <v>42933</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1407,10 +1407,10 @@
         <v>84</v>
       </c>
       <c r="C34" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D34">
-        <v>40819</v>
+        <v>41517</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1424,7 +1424,7 @@
         <v>113</v>
       </c>
       <c r="D35">
-        <v>37968</v>
+        <v>38408</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1438,7 +1438,7 @@
         <v>112</v>
       </c>
       <c r="D36">
-        <v>31060</v>
+        <v>31255</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1449,10 +1449,10 @@
         <v>87</v>
       </c>
       <c r="C37" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D37">
-        <v>28069</v>
+        <v>30904</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1466,7 +1466,7 @@
         <v>113</v>
       </c>
       <c r="D38">
-        <v>19401</v>
+        <v>19534</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1477,10 +1477,10 @@
         <v>89</v>
       </c>
       <c r="C39" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D39">
-        <v>12786</v>
+        <v>12972</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1494,7 +1494,7 @@
         <v>118</v>
       </c>
       <c r="D40">
-        <v>11467</v>
+        <v>12183</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1508,7 +1508,7 @@
         <v>119</v>
       </c>
       <c r="D41">
-        <v>11144</v>
+        <v>11302</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1522,7 +1522,7 @@
         <v>120</v>
       </c>
       <c r="D42">
-        <v>8905</v>
+        <v>8968</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1536,7 +1536,7 @@
         <v>121</v>
       </c>
       <c r="D43">
-        <v>7932</v>
+        <v>8068</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1550,7 +1550,7 @@
         <v>122</v>
       </c>
       <c r="D44">
-        <v>6879</v>
+        <v>6976</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1564,7 +1564,7 @@
         <v>123</v>
       </c>
       <c r="D45">
-        <v>4939</v>
+        <v>5040</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1578,7 +1578,7 @@
         <v>123</v>
       </c>
       <c r="D46">
-        <v>4741</v>
+        <v>4793</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1592,7 +1592,7 @@
         <v>124</v>
       </c>
       <c r="D47">
-        <v>4131</v>
+        <v>4383</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1606,7 +1606,7 @@
         <v>120</v>
       </c>
       <c r="D48">
-        <v>3240</v>
+        <v>3274</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1620,7 +1620,7 @@
         <v>125</v>
       </c>
       <c r="D49">
-        <v>1578</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1678,18 +1678,18 @@
         <v>113</v>
       </c>
       <c r="D2">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E2">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C3" t="s">
         <v>106</v>
@@ -1698,7 +1698,7 @@
         <v>106</v>
       </c>
       <c r="E3">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1715,7 +1715,7 @@
         <v>95</v>
       </c>
       <c r="E4">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1729,10 +1729,10 @@
         <v>102</v>
       </c>
       <c r="D5">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E5">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1746,10 +1746,10 @@
         <v>111</v>
       </c>
       <c r="D6">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E6">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1766,7 +1766,7 @@
         <v>61</v>
       </c>
       <c r="E7">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1780,10 +1780,10 @@
         <v>106</v>
       </c>
       <c r="D8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E8">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1839,53 +1839,53 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="B12" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="C12" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="D12">
         <v>35</v>
       </c>
       <c r="E12">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C13" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D13">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E13">
-        <v>48</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="B14" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C14" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D14">
         <v>33</v>
       </c>
       <c r="E14">
-        <v>38</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1896,13 +1896,13 @@
         <v>84</v>
       </c>
       <c r="C15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D15">
         <v>30</v>
       </c>
       <c r="E15">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1947,7 +1947,7 @@
         <v>75</v>
       </c>
       <c r="C18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D18">
         <v>26</v>
@@ -1984,10 +1984,10 @@
         <v>107</v>
       </c>
       <c r="D20">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E20">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1998,7 +1998,7 @@
         <v>82</v>
       </c>
       <c r="C21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D21">
         <v>17</v>
@@ -2066,7 +2066,7 @@
         <v>89</v>
       </c>
       <c r="C25" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D25">
         <v>13</v>
@@ -2077,47 +2077,47 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="B26" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="C26" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="D26">
         <v>10</v>
       </c>
       <c r="E26">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="B27" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="C27" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D27">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="B28" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="C28" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="D28">
         <v>8</v>
@@ -2128,27 +2128,27 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>94</v>
+        <v>55</v>
       </c>
       <c r="C29" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="D29">
         <v>8</v>
       </c>
       <c r="E29">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B30" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C30" t="s">
         <v>107</v>
@@ -2281,10 +2281,10 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C38" t="s">
         <v>107</v>
@@ -2451,13 +2451,13 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B48" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C48" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -2538,7 +2538,7 @@
         <v>101</v>
       </c>
       <c r="D2">
-        <v>236877</v>
+        <v>243435</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2552,7 +2552,7 @@
         <v>105</v>
       </c>
       <c r="D3">
-        <v>122178</v>
+        <v>124871</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2566,21 +2566,21 @@
         <v>107</v>
       </c>
       <c r="D4">
-        <v>121469</v>
+        <v>124257</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C5" t="s">
         <v>107</v>
       </c>
       <c r="D5">
-        <v>117751</v>
+        <v>119316</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2594,7 +2594,7 @@
         <v>117</v>
       </c>
       <c r="D6">
-        <v>99168</v>
+        <v>100868</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2608,21 +2608,21 @@
         <v>107</v>
       </c>
       <c r="D7">
-        <v>94522</v>
+        <v>98906</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C8" t="s">
         <v>107</v>
       </c>
       <c r="D8">
-        <v>82464</v>
+        <v>84276</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2636,7 +2636,7 @@
         <v>102</v>
       </c>
       <c r="D9">
-        <v>72521</v>
+        <v>74943</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2650,7 +2650,7 @@
         <v>111</v>
       </c>
       <c r="D10">
-        <v>69888</v>
+        <v>72044</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2664,7 +2664,7 @@
         <v>108</v>
       </c>
       <c r="D11">
-        <v>61418</v>
+        <v>63625</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2678,7 +2678,7 @@
         <v>104</v>
       </c>
       <c r="D12">
-        <v>49365</v>
+        <v>50254</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2692,7 +2692,7 @@
         <v>104</v>
       </c>
       <c r="D13">
-        <v>42404</v>
+        <v>43232</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2706,7 +2706,7 @@
         <v>113</v>
       </c>
       <c r="D14">
-        <v>39897</v>
+        <v>41193</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2720,7 +2720,7 @@
         <v>109</v>
       </c>
       <c r="D15">
-        <v>31186</v>
+        <v>31988</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2734,7 +2734,7 @@
         <v>110</v>
       </c>
       <c r="D16">
-        <v>27563</v>
+        <v>28246</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2748,7 +2748,7 @@
         <v>103</v>
       </c>
       <c r="D17">
-        <v>27540</v>
+        <v>28231</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2762,7 +2762,7 @@
         <v>113</v>
       </c>
       <c r="D18">
-        <v>26822</v>
+        <v>27572</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2776,7 +2776,7 @@
         <v>106</v>
       </c>
       <c r="D19">
-        <v>25555</v>
+        <v>26539</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2787,24 +2787,24 @@
         <v>87</v>
       </c>
       <c r="C20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D20">
-        <v>22811</v>
+        <v>23441</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B21" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C21" t="s">
         <v>106</v>
       </c>
       <c r="D21">
-        <v>22738</v>
+        <v>23244</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2818,7 +2818,7 @@
         <v>113</v>
       </c>
       <c r="D22">
-        <v>22573</v>
+        <v>23052</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2832,7 +2832,7 @@
         <v>126</v>
       </c>
       <c r="D23">
-        <v>21346</v>
+        <v>21878</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2846,7 +2846,7 @@
         <v>106</v>
       </c>
       <c r="D24">
-        <v>21317</v>
+        <v>21809</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2860,7 +2860,7 @@
         <v>113</v>
       </c>
       <c r="D25">
-        <v>20644</v>
+        <v>21239</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2874,7 +2874,7 @@
         <v>110</v>
       </c>
       <c r="D26">
-        <v>19561</v>
+        <v>19952</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2885,10 +2885,10 @@
         <v>75</v>
       </c>
       <c r="C27" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D27">
-        <v>17206</v>
+        <v>17446</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2902,7 +2902,7 @@
         <v>122</v>
       </c>
       <c r="D28">
-        <v>16415</v>
+        <v>16672</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2916,21 +2916,21 @@
         <v>116</v>
       </c>
       <c r="D29">
-        <v>14804</v>
+        <v>15303</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C30" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D30">
-        <v>14424</v>
+        <v>14641</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2944,7 +2944,7 @@
         <v>113</v>
       </c>
       <c r="D31">
-        <v>13337</v>
+        <v>13943</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2958,7 +2958,7 @@
         <v>118</v>
       </c>
       <c r="D32">
-        <v>11843</v>
+        <v>12243</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -2972,35 +2972,35 @@
         <v>112</v>
       </c>
       <c r="D33">
-        <v>11626</v>
+        <v>11714</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B34" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="C34" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="D34">
-        <v>11378</v>
+        <v>11563</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="C35" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="D35">
-        <v>11354</v>
+        <v>11490</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -3011,10 +3011,10 @@
         <v>82</v>
       </c>
       <c r="C36" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D36">
-        <v>11103</v>
+        <v>11316</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -3025,10 +3025,10 @@
         <v>84</v>
       </c>
       <c r="C37" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D37">
-        <v>8831</v>
+        <v>9021</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -3042,7 +3042,7 @@
         <v>119</v>
       </c>
       <c r="D38">
-        <v>7920</v>
+        <v>8001</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -3056,7 +3056,7 @@
         <v>125</v>
       </c>
       <c r="D39">
-        <v>6069</v>
+        <v>6159</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -3067,10 +3067,10 @@
         <v>89</v>
       </c>
       <c r="C40" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D40">
-        <v>4644</v>
+        <v>4685</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -3084,7 +3084,7 @@
         <v>123</v>
       </c>
       <c r="D41">
-        <v>2743</v>
+        <v>2821</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -3098,7 +3098,7 @@
         <v>120</v>
       </c>
       <c r="D42">
-        <v>1749</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -3112,7 +3112,7 @@
         <v>123</v>
       </c>
       <c r="D43">
-        <v>1695</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -3126,7 +3126,7 @@
         <v>121</v>
       </c>
       <c r="D44">
-        <v>1626</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -3140,7 +3140,7 @@
         <v>124</v>
       </c>
       <c r="D45">
-        <v>785</v>
+        <v>808</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -3239,7 +3239,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>3787476</v>
+        <v>3873509</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3247,7 +3247,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>2195712</v>
+        <v>2290795</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3255,7 +3255,7 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>2041544</v>
+        <v>2227137</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3263,7 +3263,7 @@
         <v>130</v>
       </c>
       <c r="B5">
-        <v>1345206</v>
+        <v>1357185</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3271,7 +3271,7 @@
         <v>131</v>
       </c>
       <c r="B6">
-        <v>1345206</v>
+        <v>1357185</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3279,7 +3279,7 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>1085075</v>
+        <v>1097657</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3287,7 +3287,7 @@
         <v>132</v>
       </c>
       <c r="B8">
-        <v>916158</v>
+        <v>925699</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3295,7 +3295,7 @@
         <v>133</v>
       </c>
       <c r="B9">
-        <v>916158</v>
+        <v>925699</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3303,7 +3303,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>830044</v>
+        <v>840899</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3311,7 +3311,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>701131</v>
+        <v>728822</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3319,7 +3319,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>562342</v>
+        <v>590849</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3327,7 +3327,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>458650</v>
+        <v>478049</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3335,7 +3335,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>443144</v>
+        <v>449561</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3343,7 +3343,7 @@
         <v>134</v>
       </c>
       <c r="B15">
-        <v>420262</v>
+        <v>439615</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3351,7 +3351,7 @@
         <v>135</v>
       </c>
       <c r="B16">
-        <v>420262</v>
+        <v>439615</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -3359,7 +3359,7 @@
         <v>136</v>
       </c>
       <c r="B17">
-        <v>420262</v>
+        <v>439615</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -3367,7 +3367,7 @@
         <v>137</v>
       </c>
       <c r="B18">
-        <v>420262</v>
+        <v>439615</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -3375,7 +3375,7 @@
         <v>16</v>
       </c>
       <c r="B19">
-        <v>346369</v>
+        <v>382016</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -3383,7 +3383,7 @@
         <v>17</v>
       </c>
       <c r="B20">
-        <v>321152</v>
+        <v>343896</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -3391,7 +3391,7 @@
         <v>18</v>
       </c>
       <c r="B21">
-        <v>287050</v>
+        <v>292619</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -3399,7 +3399,7 @@
         <v>19</v>
       </c>
       <c r="B22">
-        <v>167927</v>
+        <v>173936</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -3407,31 +3407,31 @@
         <v>20</v>
       </c>
       <c r="B23">
-        <v>160724</v>
+        <v>163753</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>138</v>
+        <v>21</v>
       </c>
       <c r="B24">
-        <v>160053</v>
+        <v>163694</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B25">
-        <v>160053</v>
+        <v>163227</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>22</v>
+        <v>139</v>
       </c>
       <c r="B26">
-        <v>158976</v>
+        <v>163227</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -3439,7 +3439,7 @@
         <v>23</v>
       </c>
       <c r="B27">
-        <v>141727</v>
+        <v>144072</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -3447,7 +3447,7 @@
         <v>24</v>
       </c>
       <c r="B28">
-        <v>103423</v>
+        <v>105623</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -3455,7 +3455,7 @@
         <v>25</v>
       </c>
       <c r="B29">
-        <v>88118</v>
+        <v>90083</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -3463,7 +3463,7 @@
         <v>26</v>
       </c>
       <c r="B30">
-        <v>85998</v>
+        <v>88491</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -3471,7 +3471,7 @@
         <v>140</v>
       </c>
       <c r="B31">
-        <v>85817</v>
+        <v>86626</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -3479,7 +3479,7 @@
         <v>141</v>
       </c>
       <c r="B32">
-        <v>85817</v>
+        <v>86626</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -3487,7 +3487,7 @@
         <v>28</v>
       </c>
       <c r="B33">
-        <v>85341</v>
+        <v>86624</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -3495,7 +3495,7 @@
         <v>142</v>
       </c>
       <c r="B34">
-        <v>75443</v>
+        <v>76814</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -3503,7 +3503,7 @@
         <v>143</v>
       </c>
       <c r="B35">
-        <v>75443</v>
+        <v>76814</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -3511,7 +3511,7 @@
         <v>144</v>
       </c>
       <c r="B36">
-        <v>72213</v>
+        <v>75482</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -3519,7 +3519,7 @@
         <v>145</v>
       </c>
       <c r="B37">
-        <v>72213</v>
+        <v>75482</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -3527,7 +3527,7 @@
         <v>146</v>
       </c>
       <c r="B38">
-        <v>66279</v>
+        <v>67849</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -3535,7 +3535,7 @@
         <v>147</v>
       </c>
       <c r="B39">
-        <v>66279</v>
+        <v>67849</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -3543,7 +3543,7 @@
         <v>148</v>
       </c>
       <c r="B40">
-        <v>66279</v>
+        <v>67849</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -3551,7 +3551,7 @@
         <v>32</v>
       </c>
       <c r="B41">
-        <v>64690</v>
+        <v>66394</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -3559,7 +3559,7 @@
         <v>33</v>
       </c>
       <c r="B42">
-        <v>49633</v>
+        <v>50285</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -3567,7 +3567,7 @@
         <v>149</v>
       </c>
       <c r="B43">
-        <v>48673</v>
+        <v>49416</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -3575,7 +3575,7 @@
         <v>150</v>
       </c>
       <c r="B44">
-        <v>48673</v>
+        <v>49416</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -3583,7 +3583,7 @@
         <v>35</v>
       </c>
       <c r="B45">
-        <v>41671</v>
+        <v>42933</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -3591,7 +3591,7 @@
         <v>151</v>
       </c>
       <c r="B46">
-        <v>40819</v>
+        <v>41517</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -3599,7 +3599,7 @@
         <v>152</v>
       </c>
       <c r="B47">
-        <v>40819</v>
+        <v>41517</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -3607,7 +3607,7 @@
         <v>153</v>
       </c>
       <c r="B48">
-        <v>40819</v>
+        <v>41517</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -3615,7 +3615,7 @@
         <v>37</v>
       </c>
       <c r="B49">
-        <v>37968</v>
+        <v>38408</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -3623,7 +3623,7 @@
         <v>38</v>
       </c>
       <c r="B50">
-        <v>31060</v>
+        <v>31255</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -3631,7 +3631,7 @@
         <v>154</v>
       </c>
       <c r="B51">
-        <v>28069</v>
+        <v>30904</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -3639,7 +3639,7 @@
         <v>155</v>
       </c>
       <c r="B52">
-        <v>28069</v>
+        <v>30904</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -3647,7 +3647,7 @@
         <v>156</v>
       </c>
       <c r="B53">
-        <v>19401</v>
+        <v>19534</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -3655,7 +3655,7 @@
         <v>157</v>
       </c>
       <c r="B54">
-        <v>19401</v>
+        <v>19534</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -3663,7 +3663,7 @@
         <v>158</v>
       </c>
       <c r="B55">
-        <v>12786</v>
+        <v>12972</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -3671,7 +3671,7 @@
         <v>159</v>
       </c>
       <c r="B56">
-        <v>12786</v>
+        <v>12972</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -3679,7 +3679,7 @@
         <v>160</v>
       </c>
       <c r="B57">
-        <v>12786</v>
+        <v>12972</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -3687,7 +3687,7 @@
         <v>161</v>
       </c>
       <c r="B58">
-        <v>11467</v>
+        <v>12183</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -3695,7 +3695,7 @@
         <v>162</v>
       </c>
       <c r="B59">
-        <v>11467</v>
+        <v>12183</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -3703,7 +3703,7 @@
         <v>43</v>
       </c>
       <c r="B60">
-        <v>11144</v>
+        <v>11302</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -3711,7 +3711,7 @@
         <v>163</v>
       </c>
       <c r="B61">
-        <v>8905</v>
+        <v>8968</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -3719,7 +3719,7 @@
         <v>164</v>
       </c>
       <c r="B62">
-        <v>8905</v>
+        <v>8968</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -3727,7 +3727,7 @@
         <v>45</v>
       </c>
       <c r="B63">
-        <v>7932</v>
+        <v>8068</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -3735,7 +3735,7 @@
         <v>46</v>
       </c>
       <c r="B64">
-        <v>6879</v>
+        <v>6976</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -3743,7 +3743,7 @@
         <v>47</v>
       </c>
       <c r="B65">
-        <v>4939</v>
+        <v>5040</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -3751,7 +3751,7 @@
         <v>48</v>
       </c>
       <c r="B66">
-        <v>4741</v>
+        <v>4793</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -3759,7 +3759,7 @@
         <v>165</v>
       </c>
       <c r="B67">
-        <v>4131</v>
+        <v>4383</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -3767,7 +3767,7 @@
         <v>166</v>
       </c>
       <c r="B68">
-        <v>4131</v>
+        <v>4383</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -3775,7 +3775,7 @@
         <v>50</v>
       </c>
       <c r="B69">
-        <v>3240</v>
+        <v>3274</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -3783,7 +3783,7 @@
         <v>51</v>
       </c>
       <c r="B70">
-        <v>1578</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -3831,21 +3831,21 @@
         <v>35</v>
       </c>
       <c r="B2">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C2">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B3">
         <v>106</v>
       </c>
       <c r="C3">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3856,7 +3856,7 @@
         <v>95</v>
       </c>
       <c r="C4">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3864,10 +3864,10 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C5">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3875,10 +3875,10 @@
         <v>134</v>
       </c>
       <c r="B6">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C6">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3886,10 +3886,10 @@
         <v>135</v>
       </c>
       <c r="B7">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C7">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3897,10 +3897,10 @@
         <v>136</v>
       </c>
       <c r="B8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C8">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3908,10 +3908,10 @@
         <v>137</v>
       </c>
       <c r="B9">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C9">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3922,7 +3922,7 @@
         <v>61</v>
       </c>
       <c r="C10">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3933,7 +3933,7 @@
         <v>61</v>
       </c>
       <c r="C11">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3941,10 +3941,10 @@
         <v>33</v>
       </c>
       <c r="B12">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C12">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3982,29 +3982,29 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="B16">
         <v>35</v>
       </c>
       <c r="C16">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>154</v>
+        <v>37</v>
       </c>
       <c r="B17">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C17">
-        <v>48</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B18">
         <v>33</v>
@@ -4015,13 +4015,13 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>50</v>
+        <v>155</v>
       </c>
       <c r="B19">
         <v>33</v>
       </c>
       <c r="C19">
-        <v>38</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -4032,7 +4032,7 @@
         <v>30</v>
       </c>
       <c r="C20">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -4043,7 +4043,7 @@
         <v>30</v>
       </c>
       <c r="C21">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -4054,7 +4054,7 @@
         <v>30</v>
       </c>
       <c r="C22">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -4139,10 +4139,10 @@
         <v>11</v>
       </c>
       <c r="B30">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C30">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -4235,35 +4235,35 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1" t="s">
-        <v>17</v>
+        <v>161</v>
       </c>
       <c r="B39">
         <v>10</v>
       </c>
       <c r="C39">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B40">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C40">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1" t="s">
-        <v>162</v>
+        <v>17</v>
       </c>
       <c r="B41">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C41">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -4285,7 +4285,7 @@
         <v>8</v>
       </c>
       <c r="C43">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -4433,7 +4433,7 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B57">
         <v>1</v>
@@ -4554,7 +4554,7 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -4633,7 +4633,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>236877</v>
+        <v>243435</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4641,7 +4641,7 @@
         <v>132</v>
       </c>
       <c r="B3">
-        <v>122178</v>
+        <v>124871</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4649,7 +4649,7 @@
         <v>133</v>
       </c>
       <c r="B4">
-        <v>122178</v>
+        <v>124871</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4657,7 +4657,7 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>121469</v>
+        <v>124257</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4665,7 +4665,7 @@
         <v>138</v>
       </c>
       <c r="B6">
-        <v>117751</v>
+        <v>119316</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4673,7 +4673,7 @@
         <v>139</v>
       </c>
       <c r="B7">
-        <v>117751</v>
+        <v>119316</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4681,7 +4681,7 @@
         <v>146</v>
       </c>
       <c r="B8">
-        <v>99168</v>
+        <v>100868</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4689,7 +4689,7 @@
         <v>147</v>
       </c>
       <c r="B9">
-        <v>99168</v>
+        <v>100868</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4697,7 +4697,7 @@
         <v>148</v>
       </c>
       <c r="B10">
-        <v>99168</v>
+        <v>100868</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -4705,15 +4705,15 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>94522</v>
+        <v>98906</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12">
-        <v>82464</v>
+        <v>84276</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -4721,7 +4721,7 @@
         <v>5</v>
       </c>
       <c r="B13">
-        <v>72521</v>
+        <v>74943</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -4729,7 +4729,7 @@
         <v>134</v>
       </c>
       <c r="B14">
-        <v>69888</v>
+        <v>72044</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -4737,7 +4737,7 @@
         <v>135</v>
       </c>
       <c r="B15">
-        <v>69888</v>
+        <v>72044</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -4745,7 +4745,7 @@
         <v>136</v>
       </c>
       <c r="B16">
-        <v>69888</v>
+        <v>72044</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -4753,7 +4753,7 @@
         <v>137</v>
       </c>
       <c r="B17">
-        <v>69888</v>
+        <v>72044</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -4761,7 +4761,7 @@
         <v>12</v>
       </c>
       <c r="B18">
-        <v>61418</v>
+        <v>63625</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -4769,7 +4769,7 @@
         <v>8</v>
       </c>
       <c r="B19">
-        <v>49365</v>
+        <v>50254</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -4777,7 +4777,7 @@
         <v>130</v>
       </c>
       <c r="B20">
-        <v>42404</v>
+        <v>43232</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -4785,7 +4785,7 @@
         <v>131</v>
       </c>
       <c r="B21">
-        <v>42404</v>
+        <v>43232</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -4793,7 +4793,7 @@
         <v>18</v>
       </c>
       <c r="B22">
-        <v>39897</v>
+        <v>41193</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -4801,7 +4801,7 @@
         <v>13</v>
       </c>
       <c r="B23">
-        <v>31186</v>
+        <v>31988</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -4809,7 +4809,7 @@
         <v>14</v>
       </c>
       <c r="B24">
-        <v>27563</v>
+        <v>28246</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -4817,7 +4817,7 @@
         <v>6</v>
       </c>
       <c r="B25">
-        <v>27540</v>
+        <v>28231</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -4825,7 +4825,7 @@
         <v>20</v>
       </c>
       <c r="B26">
-        <v>26822</v>
+        <v>27572</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -4833,7 +4833,7 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>25555</v>
+        <v>26539</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -4841,7 +4841,7 @@
         <v>154</v>
       </c>
       <c r="B28">
-        <v>22811</v>
+        <v>23441</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -4849,15 +4849,15 @@
         <v>155</v>
       </c>
       <c r="B29">
-        <v>22811</v>
+        <v>23441</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B30">
-        <v>22738</v>
+        <v>23244</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -4865,7 +4865,7 @@
         <v>37</v>
       </c>
       <c r="B31">
-        <v>22573</v>
+        <v>23052</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -4873,7 +4873,7 @@
         <v>167</v>
       </c>
       <c r="B32">
-        <v>21346</v>
+        <v>21878</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -4881,7 +4881,7 @@
         <v>168</v>
       </c>
       <c r="B33">
-        <v>21346</v>
+        <v>21878</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -4889,7 +4889,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>21317</v>
+        <v>21809</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -4897,7 +4897,7 @@
         <v>142</v>
       </c>
       <c r="B35">
-        <v>20644</v>
+        <v>21239</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -4905,7 +4905,7 @@
         <v>143</v>
       </c>
       <c r="B36">
-        <v>20644</v>
+        <v>21239</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -4913,7 +4913,7 @@
         <v>25</v>
       </c>
       <c r="B37">
-        <v>19561</v>
+        <v>19952</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -4921,7 +4921,7 @@
         <v>140</v>
       </c>
       <c r="B38">
-        <v>17206</v>
+        <v>17446</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -4929,7 +4929,7 @@
         <v>141</v>
       </c>
       <c r="B39">
-        <v>17206</v>
+        <v>17446</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -4937,7 +4937,7 @@
         <v>46</v>
       </c>
       <c r="B40">
-        <v>16415</v>
+        <v>16672</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -4945,7 +4945,7 @@
         <v>144</v>
       </c>
       <c r="B41">
-        <v>14804</v>
+        <v>15303</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -4953,15 +4953,15 @@
         <v>145</v>
       </c>
       <c r="B42">
-        <v>14804</v>
+        <v>15303</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B43">
-        <v>14424</v>
+        <v>14641</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -4969,7 +4969,7 @@
         <v>35</v>
       </c>
       <c r="B44">
-        <v>13337</v>
+        <v>13943</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -4977,7 +4977,7 @@
         <v>161</v>
       </c>
       <c r="B45">
-        <v>11843</v>
+        <v>12243</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -4985,7 +4985,7 @@
         <v>162</v>
       </c>
       <c r="B46">
-        <v>11843</v>
+        <v>12243</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -4993,23 +4993,23 @@
         <v>17</v>
       </c>
       <c r="B47">
-        <v>11626</v>
+        <v>11714</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B48">
-        <v>11378</v>
+        <v>11563</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="B49">
-        <v>11354</v>
+        <v>11490</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -5017,7 +5017,7 @@
         <v>149</v>
       </c>
       <c r="B50">
-        <v>11103</v>
+        <v>11316</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -5025,7 +5025,7 @@
         <v>150</v>
       </c>
       <c r="B51">
-        <v>11103</v>
+        <v>11316</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -5033,7 +5033,7 @@
         <v>151</v>
       </c>
       <c r="B52">
-        <v>8831</v>
+        <v>9021</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -5041,7 +5041,7 @@
         <v>152</v>
       </c>
       <c r="B53">
-        <v>8831</v>
+        <v>9021</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -5049,7 +5049,7 @@
         <v>153</v>
       </c>
       <c r="B54">
-        <v>8831</v>
+        <v>9021</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -5057,7 +5057,7 @@
         <v>43</v>
       </c>
       <c r="B55">
-        <v>7920</v>
+        <v>8001</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -5065,7 +5065,7 @@
         <v>51</v>
       </c>
       <c r="B56">
-        <v>6069</v>
+        <v>6159</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -5073,7 +5073,7 @@
         <v>158</v>
       </c>
       <c r="B57">
-        <v>4644</v>
+        <v>4685</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -5081,7 +5081,7 @@
         <v>159</v>
       </c>
       <c r="B58">
-        <v>4644</v>
+        <v>4685</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -5089,7 +5089,7 @@
         <v>160</v>
       </c>
       <c r="B59">
-        <v>4644</v>
+        <v>4685</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -5097,7 +5097,7 @@
         <v>47</v>
       </c>
       <c r="B60">
-        <v>2743</v>
+        <v>2821</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -5105,7 +5105,7 @@
         <v>163</v>
       </c>
       <c r="B61">
-        <v>1749</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -5113,7 +5113,7 @@
         <v>164</v>
       </c>
       <c r="B62">
-        <v>1749</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -5121,7 +5121,7 @@
         <v>48</v>
       </c>
       <c r="B63">
-        <v>1695</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -5129,7 +5129,7 @@
         <v>45</v>
       </c>
       <c r="B64">
-        <v>1626</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -5137,7 +5137,7 @@
         <v>165</v>
       </c>
       <c r="B65">
-        <v>785</v>
+        <v>808</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -5145,7 +5145,7 @@
         <v>166</v>
       </c>
       <c r="B66">
-        <v>785</v>
+        <v>808</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -5222,7 +5222,7 @@
         <v>101</v>
       </c>
       <c r="B2">
-        <v>3787476</v>
+        <v>3873509</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -5230,7 +5230,7 @@
         <v>169</v>
       </c>
       <c r="B3">
-        <v>2461806</v>
+        <v>2666752</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -5238,7 +5238,7 @@
         <v>104</v>
       </c>
       <c r="B4">
-        <v>2430281</v>
+        <v>2454842</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -5246,7 +5246,7 @@
         <v>170</v>
       </c>
       <c r="B5">
-        <v>2195712</v>
+        <v>2290795</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -5254,7 +5254,7 @@
         <v>171</v>
       </c>
       <c r="B6">
-        <v>2195712</v>
+        <v>2290795</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -5262,23 +5262,23 @@
         <v>172</v>
       </c>
       <c r="B7">
-        <v>2041544</v>
+        <v>2227137</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B8">
-        <v>1381920</v>
+        <v>1437759</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B9">
-        <v>1366529</v>
+        <v>1421220</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -5286,7 +5286,7 @@
         <v>105</v>
       </c>
       <c r="B10">
-        <v>916158</v>
+        <v>925699</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -5294,7 +5294,7 @@
         <v>113</v>
       </c>
       <c r="B11">
-        <v>725680</v>
+        <v>739684</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -5302,7 +5302,7 @@
         <v>108</v>
       </c>
       <c r="B12">
-        <v>562342</v>
+        <v>590849</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -5310,7 +5310,7 @@
         <v>109</v>
       </c>
       <c r="B13">
-        <v>458650</v>
+        <v>478049</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -5318,7 +5318,7 @@
         <v>173</v>
       </c>
       <c r="B14">
-        <v>420262</v>
+        <v>439615</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -5326,15 +5326,15 @@
         <v>174</v>
       </c>
       <c r="B15">
-        <v>352212</v>
+        <v>375151</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B16">
-        <v>228309</v>
+        <v>233677</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -5342,7 +5342,7 @@
         <v>175</v>
       </c>
       <c r="B17">
-        <v>85998</v>
+        <v>86624</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -5350,7 +5350,7 @@
         <v>176</v>
       </c>
       <c r="B18">
-        <v>85998</v>
+        <v>86624</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -5358,7 +5358,7 @@
         <v>116</v>
       </c>
       <c r="B19">
-        <v>73791</v>
+        <v>77111</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -5366,7 +5366,7 @@
         <v>117</v>
       </c>
       <c r="B20">
-        <v>66279</v>
+        <v>67849</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -5374,7 +5374,7 @@
         <v>123</v>
       </c>
       <c r="B21">
-        <v>17612</v>
+        <v>17901</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -5382,7 +5382,7 @@
         <v>177</v>
       </c>
       <c r="B22">
-        <v>12145</v>
+        <v>12242</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -5390,7 +5390,7 @@
         <v>118</v>
       </c>
       <c r="B23">
-        <v>11467</v>
+        <v>12183</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -5398,7 +5398,7 @@
         <v>119</v>
       </c>
       <c r="B24">
-        <v>11144</v>
+        <v>11302</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -5406,7 +5406,7 @@
         <v>178</v>
       </c>
       <c r="B25">
-        <v>7932</v>
+        <v>8068</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -5414,7 +5414,7 @@
         <v>179</v>
       </c>
       <c r="B26">
-        <v>6879</v>
+        <v>6976</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -5422,7 +5422,7 @@
         <v>180</v>
       </c>
       <c r="B27">
-        <v>6879</v>
+        <v>6976</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -5430,7 +5430,7 @@
         <v>124</v>
       </c>
       <c r="B28">
-        <v>4131</v>
+        <v>4383</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -5438,7 +5438,7 @@
         <v>181</v>
       </c>
       <c r="B29">
-        <v>1578</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -5486,10 +5486,10 @@
         <v>113</v>
       </c>
       <c r="B2">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C2">
-        <v>461</v>
+        <v>469</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -5497,21 +5497,21 @@
         <v>106</v>
       </c>
       <c r="B3">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C3">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B4">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C4">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -5519,10 +5519,10 @@
         <v>170</v>
       </c>
       <c r="B5">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C5">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -5530,10 +5530,10 @@
         <v>171</v>
       </c>
       <c r="B6">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C6">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -5541,10 +5541,10 @@
         <v>169</v>
       </c>
       <c r="B7">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C7">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -5552,10 +5552,10 @@
         <v>173</v>
       </c>
       <c r="B8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C8">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -5563,10 +5563,10 @@
         <v>177</v>
       </c>
       <c r="B9">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C9">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -5585,10 +5585,10 @@
         <v>107</v>
       </c>
       <c r="B11">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C11">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -5640,15 +5640,15 @@
         <v>118</v>
       </c>
       <c r="B16">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C16">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="B17">
         <v>8</v>
@@ -5659,24 +5659,24 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B18">
         <v>8</v>
       </c>
       <c r="C18">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="B19">
         <v>8</v>
       </c>
       <c r="C19">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -5837,7 +5837,7 @@
         <v>107</v>
       </c>
       <c r="B2">
-        <v>416206</v>
+        <v>426755</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -5845,7 +5845,7 @@
         <v>101</v>
       </c>
       <c r="B3">
-        <v>236877</v>
+        <v>243435</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -5853,7 +5853,7 @@
         <v>113</v>
       </c>
       <c r="B4">
-        <v>123273</v>
+        <v>126999</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -5861,7 +5861,7 @@
         <v>105</v>
       </c>
       <c r="B5">
-        <v>122178</v>
+        <v>124871</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -5869,7 +5869,7 @@
         <v>117</v>
       </c>
       <c r="B6">
-        <v>99168</v>
+        <v>100868</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -5877,7 +5877,7 @@
         <v>169</v>
       </c>
       <c r="B7">
-        <v>97428</v>
+        <v>100275</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -5885,7 +5885,7 @@
         <v>106</v>
       </c>
       <c r="B8">
-        <v>92614</v>
+        <v>94796</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -5893,15 +5893,15 @@
         <v>104</v>
       </c>
       <c r="B9">
-        <v>91769</v>
+        <v>93486</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B10">
-        <v>77698</v>
+        <v>79233</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -5909,7 +5909,7 @@
         <v>170</v>
       </c>
       <c r="B11">
-        <v>72521</v>
+        <v>74943</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -5917,7 +5917,7 @@
         <v>171</v>
       </c>
       <c r="B12">
-        <v>72521</v>
+        <v>74943</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -5925,7 +5925,7 @@
         <v>173</v>
       </c>
       <c r="B13">
-        <v>69888</v>
+        <v>72044</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -5933,7 +5933,7 @@
         <v>108</v>
       </c>
       <c r="B14">
-        <v>61418</v>
+        <v>63625</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -5941,7 +5941,7 @@
         <v>109</v>
       </c>
       <c r="B15">
-        <v>31186</v>
+        <v>31988</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -5949,7 +5949,7 @@
         <v>172</v>
       </c>
       <c r="B16">
-        <v>27540</v>
+        <v>28231</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -5957,7 +5957,7 @@
         <v>174</v>
       </c>
       <c r="B17">
-        <v>23004</v>
+        <v>23204</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -5965,7 +5965,7 @@
         <v>182</v>
       </c>
       <c r="B18">
-        <v>21346</v>
+        <v>21878</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -5973,7 +5973,7 @@
         <v>183</v>
       </c>
       <c r="B19">
-        <v>21346</v>
+        <v>21878</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -5981,7 +5981,7 @@
         <v>116</v>
       </c>
       <c r="B20">
-        <v>20873</v>
+        <v>21462</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -5989,7 +5989,7 @@
         <v>179</v>
       </c>
       <c r="B21">
-        <v>16415</v>
+        <v>16672</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -5997,7 +5997,7 @@
         <v>180</v>
       </c>
       <c r="B22">
-        <v>16415</v>
+        <v>16672</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -6005,7 +6005,7 @@
         <v>175</v>
       </c>
       <c r="B23">
-        <v>14424</v>
+        <v>14641</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -6013,7 +6013,7 @@
         <v>176</v>
       </c>
       <c r="B24">
-        <v>14424</v>
+        <v>14641</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -6021,7 +6021,7 @@
         <v>177</v>
       </c>
       <c r="B25">
-        <v>13103</v>
+        <v>13324</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -6029,7 +6029,7 @@
         <v>118</v>
       </c>
       <c r="B26">
-        <v>11843</v>
+        <v>12243</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -6037,23 +6037,23 @@
         <v>119</v>
       </c>
       <c r="B27">
-        <v>7920</v>
+        <v>8001</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>181</v>
+        <v>123</v>
       </c>
       <c r="B28">
-        <v>6069</v>
+        <v>6165</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>123</v>
+        <v>181</v>
       </c>
       <c r="B29">
-        <v>6064</v>
+        <v>6159</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -6061,7 +6061,7 @@
         <v>178</v>
       </c>
       <c r="B30">
-        <v>1626</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -6069,7 +6069,7 @@
         <v>124</v>
       </c>
       <c r="B31">
-        <v>785</v>
+        <v>808</v>
       </c>
     </row>
   </sheetData>

--- a/monthly_reports/monthly_data/2021 Charts Month 1.xlsx
+++ b/monthly_reports/monthly_data/2021 Charts Month 1.xlsx
@@ -84,12 +84,12 @@
     <t>insaneintherainmusic</t>
   </si>
   <si>
+    <t>Rameses B</t>
+  </si>
+  <si>
     <t>Julian Jordan</t>
   </si>
   <si>
-    <t>Rameses B</t>
-  </si>
-  <si>
     <t>TYNAN, Ace Aura</t>
   </si>
   <si>
@@ -111,12 +111,12 @@
     <t>Misfit</t>
   </si>
   <si>
+    <t>Polygon, Martin Jasper</t>
+  </si>
+  <si>
     <t>Matt Nash, Lucas Marx</t>
   </si>
   <si>
-    <t>Polygon, Martin Jasper</t>
-  </si>
-  <si>
     <t>Flux Pavilion, Chime, spaceKDET</t>
   </si>
   <si>
@@ -228,12 +228,12 @@
     <t>Bonetrousle</t>
   </si>
   <si>
+    <t>Samurai</t>
+  </si>
+  <si>
     <t>Big Bad Bass</t>
   </si>
   <si>
-    <t>Samurai</t>
-  </si>
-  <si>
     <t>Stay</t>
   </si>
   <si>
@@ -255,12 +255,12 @@
     <t>Mirage</t>
   </si>
   <si>
+    <t>Coming Home</t>
+  </si>
+  <si>
     <t>Midnight</t>
   </si>
   <si>
-    <t>Coming Home</t>
-  </si>
-  <si>
     <t>Fall To Me</t>
   </si>
   <si>
@@ -450,16 +450,16 @@
     <t>Nino Lucarelli</t>
   </si>
   <si>
+    <t>Martin Jasper</t>
+  </si>
+  <si>
+    <t>Polygon</t>
+  </si>
+  <si>
     <t>Lucas Marx</t>
   </si>
   <si>
     <t>Matt Nash</t>
-  </si>
-  <si>
-    <t>Martin Jasper</t>
-  </si>
-  <si>
-    <t>Polygon</t>
   </si>
   <si>
     <t>Chime</t>
@@ -962,7 +962,7 @@
         <v>101</v>
       </c>
       <c r="D2">
-        <v>3873509</v>
+        <v>3928448</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -976,7 +976,7 @@
         <v>102</v>
       </c>
       <c r="D3">
-        <v>2290795</v>
+        <v>2355797</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -990,7 +990,7 @@
         <v>103</v>
       </c>
       <c r="D4">
-        <v>2227137</v>
+        <v>2336833</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1004,7 +1004,7 @@
         <v>104</v>
       </c>
       <c r="D5">
-        <v>1357185</v>
+        <v>1365016</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1018,7 +1018,7 @@
         <v>104</v>
       </c>
       <c r="D6">
-        <v>1097657</v>
+        <v>1106217</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1032,7 +1032,7 @@
         <v>105</v>
       </c>
       <c r="D7">
-        <v>925699</v>
+        <v>932180</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1046,7 +1046,7 @@
         <v>106</v>
       </c>
       <c r="D8">
-        <v>840899</v>
+        <v>848033</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1060,7 +1060,7 @@
         <v>107</v>
       </c>
       <c r="D9">
-        <v>728822</v>
+        <v>749304</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1074,7 +1074,7 @@
         <v>108</v>
       </c>
       <c r="D10">
-        <v>590849</v>
+        <v>610720</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1088,7 +1088,7 @@
         <v>109</v>
       </c>
       <c r="D11">
-        <v>478049</v>
+        <v>492467</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1102,7 +1102,7 @@
         <v>110</v>
       </c>
       <c r="D12">
-        <v>449561</v>
+        <v>454648</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1116,7 +1116,7 @@
         <v>111</v>
       </c>
       <c r="D13">
-        <v>439615</v>
+        <v>453002</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1130,7 +1130,7 @@
         <v>107</v>
       </c>
       <c r="D14">
-        <v>382016</v>
+        <v>409067</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1144,7 +1144,7 @@
         <v>112</v>
       </c>
       <c r="D15">
-        <v>343896</v>
+        <v>357807</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1158,7 +1158,7 @@
         <v>113</v>
       </c>
       <c r="D16">
-        <v>292619</v>
+        <v>296001</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1172,7 +1172,7 @@
         <v>110</v>
       </c>
       <c r="D17">
-        <v>173936</v>
+        <v>178356</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1183,10 +1183,10 @@
         <v>68</v>
       </c>
       <c r="C18" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D18">
-        <v>163753</v>
+        <v>166795</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1197,10 +1197,10 @@
         <v>69</v>
       </c>
       <c r="C19" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="D19">
-        <v>163694</v>
+        <v>165843</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1214,7 +1214,7 @@
         <v>107</v>
       </c>
       <c r="D20">
-        <v>163227</v>
+        <v>165100</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1228,7 +1228,7 @@
         <v>110</v>
       </c>
       <c r="D21">
-        <v>144072</v>
+        <v>145591</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1242,7 +1242,7 @@
         <v>113</v>
       </c>
       <c r="D22">
-        <v>105623</v>
+        <v>106995</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1256,7 +1256,7 @@
         <v>110</v>
       </c>
       <c r="D23">
-        <v>90083</v>
+        <v>91472</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1270,7 +1270,7 @@
         <v>106</v>
       </c>
       <c r="D24">
-        <v>88491</v>
+        <v>90703</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1284,7 +1284,7 @@
         <v>114</v>
       </c>
       <c r="D25">
-        <v>86626</v>
+        <v>87173</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1298,7 +1298,7 @@
         <v>115</v>
       </c>
       <c r="D26">
-        <v>86624</v>
+        <v>87002</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1309,10 +1309,10 @@
         <v>77</v>
       </c>
       <c r="C27" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D27">
-        <v>76814</v>
+        <v>77991</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1323,10 +1323,10 @@
         <v>78</v>
       </c>
       <c r="C28" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D28">
-        <v>75482</v>
+        <v>77616</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1340,7 +1340,7 @@
         <v>117</v>
       </c>
       <c r="D29">
-        <v>67849</v>
+        <v>68827</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1354,7 +1354,7 @@
         <v>106</v>
       </c>
       <c r="D30">
-        <v>66394</v>
+        <v>67793</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1368,7 +1368,7 @@
         <v>106</v>
       </c>
       <c r="D31">
-        <v>50285</v>
+        <v>50777</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1382,7 +1382,7 @@
         <v>114</v>
       </c>
       <c r="D32">
-        <v>49416</v>
+        <v>49837</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1396,7 +1396,7 @@
         <v>113</v>
       </c>
       <c r="D33">
-        <v>42933</v>
+        <v>43668</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1410,7 +1410,7 @@
         <v>114</v>
       </c>
       <c r="D34">
-        <v>41517</v>
+        <v>42018</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1424,7 +1424,7 @@
         <v>113</v>
       </c>
       <c r="D35">
-        <v>38408</v>
+        <v>38752</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1438,7 +1438,7 @@
         <v>112</v>
       </c>
       <c r="D36">
-        <v>31255</v>
+        <v>31398</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1452,7 +1452,7 @@
         <v>114</v>
       </c>
       <c r="D37">
-        <v>30904</v>
+        <v>31335</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1466,7 +1466,7 @@
         <v>113</v>
       </c>
       <c r="D38">
-        <v>19534</v>
+        <v>19630</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1480,7 +1480,7 @@
         <v>114</v>
       </c>
       <c r="D39">
-        <v>12972</v>
+        <v>13073</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1494,7 +1494,7 @@
         <v>118</v>
       </c>
       <c r="D40">
-        <v>12183</v>
+        <v>12728</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1508,7 +1508,7 @@
         <v>119</v>
       </c>
       <c r="D41">
-        <v>11302</v>
+        <v>11423</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1522,7 +1522,7 @@
         <v>120</v>
       </c>
       <c r="D42">
-        <v>8968</v>
+        <v>9009</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1536,7 +1536,7 @@
         <v>121</v>
       </c>
       <c r="D43">
-        <v>8068</v>
+        <v>8183</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1550,7 +1550,7 @@
         <v>122</v>
       </c>
       <c r="D44">
-        <v>6976</v>
+        <v>7061</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1564,7 +1564,7 @@
         <v>123</v>
       </c>
       <c r="D45">
-        <v>5040</v>
+        <v>5098</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1578,7 +1578,7 @@
         <v>123</v>
       </c>
       <c r="D46">
-        <v>4793</v>
+        <v>4827</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1592,7 +1592,7 @@
         <v>124</v>
       </c>
       <c r="D47">
-        <v>4383</v>
+        <v>4606</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1606,7 +1606,7 @@
         <v>120</v>
       </c>
       <c r="D48">
-        <v>3274</v>
+        <v>3288</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1620,7 +1620,7 @@
         <v>125</v>
       </c>
       <c r="D49">
-        <v>1629</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1678,10 +1678,10 @@
         <v>113</v>
       </c>
       <c r="D2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E2">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1712,10 +1712,10 @@
         <v>113</v>
       </c>
       <c r="D4">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E4">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1746,18 +1746,18 @@
         <v>111</v>
       </c>
       <c r="D6">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E6">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C7" t="s">
         <v>113</v>
@@ -1788,19 +1788,19 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C9" t="s">
         <v>113</v>
       </c>
       <c r="D9">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E9">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1817,7 +1817,7 @@
         <v>48</v>
       </c>
       <c r="E10">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1885,7 +1885,7 @@
         <v>33</v>
       </c>
       <c r="E14">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1936,7 +1936,7 @@
         <v>26</v>
       </c>
       <c r="E17">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1992,36 +1992,36 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="C21" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="D21">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E21">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="B22" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="C22" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="D22">
         <v>17</v>
       </c>
       <c r="E22">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -2123,7 +2123,7 @@
         <v>8</v>
       </c>
       <c r="E28">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -2225,7 +2225,7 @@
         <v>4</v>
       </c>
       <c r="E34">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -2264,10 +2264,10 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B37" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C37" t="s">
         <v>116</v>
@@ -2281,10 +2281,10 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B38" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C38" t="s">
         <v>107</v>
@@ -2538,7 +2538,7 @@
         <v>101</v>
       </c>
       <c r="D2">
-        <v>243435</v>
+        <v>247892</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2552,7 +2552,7 @@
         <v>105</v>
       </c>
       <c r="D3">
-        <v>124871</v>
+        <v>126780</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2566,7 +2566,7 @@
         <v>107</v>
       </c>
       <c r="D4">
-        <v>124257</v>
+        <v>126250</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2580,49 +2580,49 @@
         <v>107</v>
       </c>
       <c r="D5">
-        <v>119316</v>
+        <v>120355</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="C6" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="D6">
-        <v>100868</v>
+        <v>102999</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="C7" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="D7">
-        <v>98906</v>
+        <v>102178</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C8" t="s">
         <v>107</v>
       </c>
       <c r="D8">
-        <v>84276</v>
+        <v>85667</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2636,7 +2636,7 @@
         <v>102</v>
       </c>
       <c r="D9">
-        <v>74943</v>
+        <v>76590</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2650,7 +2650,7 @@
         <v>111</v>
       </c>
       <c r="D10">
-        <v>72044</v>
+        <v>73742</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2664,7 +2664,7 @@
         <v>108</v>
       </c>
       <c r="D11">
-        <v>63625</v>
+        <v>65032</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2678,7 +2678,7 @@
         <v>104</v>
       </c>
       <c r="D12">
-        <v>50254</v>
+        <v>50942</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2692,7 +2692,7 @@
         <v>104</v>
       </c>
       <c r="D13">
-        <v>43232</v>
+        <v>43875</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2706,7 +2706,7 @@
         <v>113</v>
       </c>
       <c r="D14">
-        <v>41193</v>
+        <v>41884</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2720,7 +2720,7 @@
         <v>109</v>
       </c>
       <c r="D15">
-        <v>31988</v>
+        <v>32527</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2734,7 +2734,7 @@
         <v>110</v>
       </c>
       <c r="D16">
-        <v>28246</v>
+        <v>28753</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2748,21 +2748,21 @@
         <v>103</v>
       </c>
       <c r="D17">
-        <v>28231</v>
+        <v>28647</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C18" t="s">
         <v>113</v>
       </c>
       <c r="D18">
-        <v>27572</v>
+        <v>28092</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2776,7 +2776,7 @@
         <v>106</v>
       </c>
       <c r="D19">
-        <v>26539</v>
+        <v>27164</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2790,7 +2790,7 @@
         <v>114</v>
       </c>
       <c r="D20">
-        <v>23441</v>
+        <v>23851</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2804,7 +2804,7 @@
         <v>106</v>
       </c>
       <c r="D21">
-        <v>23244</v>
+        <v>23603</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2818,7 +2818,7 @@
         <v>113</v>
       </c>
       <c r="D22">
-        <v>23052</v>
+        <v>23394</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2832,7 +2832,7 @@
         <v>126</v>
       </c>
       <c r="D23">
-        <v>21878</v>
+        <v>22161</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2846,21 +2846,21 @@
         <v>106</v>
       </c>
       <c r="D24">
-        <v>21809</v>
+        <v>22128</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B25" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C25" t="s">
         <v>113</v>
       </c>
       <c r="D25">
-        <v>21239</v>
+        <v>21635</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2874,7 +2874,7 @@
         <v>110</v>
       </c>
       <c r="D26">
-        <v>19952</v>
+        <v>20198</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2888,7 +2888,7 @@
         <v>114</v>
       </c>
       <c r="D27">
-        <v>17446</v>
+        <v>17637</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2902,21 +2902,21 @@
         <v>122</v>
       </c>
       <c r="D28">
-        <v>16672</v>
+        <v>16846</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C29" t="s">
         <v>116</v>
       </c>
       <c r="D29">
-        <v>15303</v>
+        <v>15724</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2930,7 +2930,7 @@
         <v>115</v>
       </c>
       <c r="D30">
-        <v>14641</v>
+        <v>14857</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2944,7 +2944,7 @@
         <v>113</v>
       </c>
       <c r="D31">
-        <v>13943</v>
+        <v>14415</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2958,35 +2958,35 @@
         <v>118</v>
       </c>
       <c r="D32">
-        <v>12243</v>
+        <v>12535</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="B33" t="s">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="C33" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="D33">
-        <v>11714</v>
+        <v>11843</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="B34" t="s">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="C34" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="D34">
-        <v>11563</v>
+        <v>11772</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -3000,7 +3000,7 @@
         <v>112</v>
       </c>
       <c r="D35">
-        <v>11490</v>
+        <v>11567</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -3014,7 +3014,7 @@
         <v>114</v>
       </c>
       <c r="D36">
-        <v>11316</v>
+        <v>11465</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -3028,7 +3028,7 @@
         <v>114</v>
       </c>
       <c r="D37">
-        <v>9021</v>
+        <v>9145</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -3042,7 +3042,7 @@
         <v>119</v>
       </c>
       <c r="D38">
-        <v>8001</v>
+        <v>8076</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -3056,7 +3056,7 @@
         <v>125</v>
       </c>
       <c r="D39">
-        <v>6159</v>
+        <v>6222</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -3070,7 +3070,7 @@
         <v>114</v>
       </c>
       <c r="D40">
-        <v>4685</v>
+        <v>4712</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -3084,7 +3084,7 @@
         <v>123</v>
       </c>
       <c r="D41">
-        <v>2821</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -3098,7 +3098,7 @@
         <v>120</v>
       </c>
       <c r="D42">
-        <v>1761</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -3112,7 +3112,7 @@
         <v>123</v>
       </c>
       <c r="D43">
-        <v>1701</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -3126,7 +3126,7 @@
         <v>121</v>
       </c>
       <c r="D44">
-        <v>1643</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -3140,7 +3140,7 @@
         <v>124</v>
       </c>
       <c r="D45">
-        <v>808</v>
+        <v>825</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -3239,7 +3239,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>3873509</v>
+        <v>3928448</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3247,7 +3247,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>2290795</v>
+        <v>2355797</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3255,7 +3255,7 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>2227137</v>
+        <v>2336833</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3263,7 +3263,7 @@
         <v>130</v>
       </c>
       <c r="B5">
-        <v>1357185</v>
+        <v>1365016</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3271,7 +3271,7 @@
         <v>131</v>
       </c>
       <c r="B6">
-        <v>1357185</v>
+        <v>1365016</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3279,7 +3279,7 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>1097657</v>
+        <v>1106217</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3287,7 +3287,7 @@
         <v>132</v>
       </c>
       <c r="B8">
-        <v>925699</v>
+        <v>932180</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3295,7 +3295,7 @@
         <v>133</v>
       </c>
       <c r="B9">
-        <v>925699</v>
+        <v>932180</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3303,7 +3303,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>840899</v>
+        <v>848033</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3311,7 +3311,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>728822</v>
+        <v>749304</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3319,7 +3319,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>590849</v>
+        <v>610720</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3327,7 +3327,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>478049</v>
+        <v>492467</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3335,7 +3335,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>449561</v>
+        <v>454648</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3343,7 +3343,7 @@
         <v>134</v>
       </c>
       <c r="B15">
-        <v>439615</v>
+        <v>453002</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3351,7 +3351,7 @@
         <v>135</v>
       </c>
       <c r="B16">
-        <v>439615</v>
+        <v>453002</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -3359,7 +3359,7 @@
         <v>136</v>
       </c>
       <c r="B17">
-        <v>439615</v>
+        <v>453002</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -3367,7 +3367,7 @@
         <v>137</v>
       </c>
       <c r="B18">
-        <v>439615</v>
+        <v>453002</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -3375,7 +3375,7 @@
         <v>16</v>
       </c>
       <c r="B19">
-        <v>382016</v>
+        <v>409067</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -3383,7 +3383,7 @@
         <v>17</v>
       </c>
       <c r="B20">
-        <v>343896</v>
+        <v>357807</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -3391,7 +3391,7 @@
         <v>18</v>
       </c>
       <c r="B21">
-        <v>292619</v>
+        <v>296001</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -3399,7 +3399,7 @@
         <v>19</v>
       </c>
       <c r="B22">
-        <v>173936</v>
+        <v>178356</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -3407,7 +3407,7 @@
         <v>20</v>
       </c>
       <c r="B23">
-        <v>163753</v>
+        <v>166795</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -3415,7 +3415,7 @@
         <v>21</v>
       </c>
       <c r="B24">
-        <v>163694</v>
+        <v>165843</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -3423,7 +3423,7 @@
         <v>138</v>
       </c>
       <c r="B25">
-        <v>163227</v>
+        <v>165100</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -3431,7 +3431,7 @@
         <v>139</v>
       </c>
       <c r="B26">
-        <v>163227</v>
+        <v>165100</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -3439,7 +3439,7 @@
         <v>23</v>
       </c>
       <c r="B27">
-        <v>144072</v>
+        <v>145591</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -3447,7 +3447,7 @@
         <v>24</v>
       </c>
       <c r="B28">
-        <v>105623</v>
+        <v>106995</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -3455,7 +3455,7 @@
         <v>25</v>
       </c>
       <c r="B29">
-        <v>90083</v>
+        <v>91472</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -3463,7 +3463,7 @@
         <v>26</v>
       </c>
       <c r="B30">
-        <v>88491</v>
+        <v>90703</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -3471,7 +3471,7 @@
         <v>140</v>
       </c>
       <c r="B31">
-        <v>86626</v>
+        <v>87173</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -3479,7 +3479,7 @@
         <v>141</v>
       </c>
       <c r="B32">
-        <v>86626</v>
+        <v>87173</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -3487,7 +3487,7 @@
         <v>28</v>
       </c>
       <c r="B33">
-        <v>86624</v>
+        <v>87002</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -3495,7 +3495,7 @@
         <v>142</v>
       </c>
       <c r="B34">
-        <v>76814</v>
+        <v>77991</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -3503,7 +3503,7 @@
         <v>143</v>
       </c>
       <c r="B35">
-        <v>76814</v>
+        <v>77991</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -3511,7 +3511,7 @@
         <v>144</v>
       </c>
       <c r="B36">
-        <v>75482</v>
+        <v>77616</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -3519,7 +3519,7 @@
         <v>145</v>
       </c>
       <c r="B37">
-        <v>75482</v>
+        <v>77616</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -3527,7 +3527,7 @@
         <v>146</v>
       </c>
       <c r="B38">
-        <v>67849</v>
+        <v>68827</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -3535,7 +3535,7 @@
         <v>147</v>
       </c>
       <c r="B39">
-        <v>67849</v>
+        <v>68827</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -3543,7 +3543,7 @@
         <v>148</v>
       </c>
       <c r="B40">
-        <v>67849</v>
+        <v>68827</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -3551,7 +3551,7 @@
         <v>32</v>
       </c>
       <c r="B41">
-        <v>66394</v>
+        <v>67793</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -3559,7 +3559,7 @@
         <v>33</v>
       </c>
       <c r="B42">
-        <v>50285</v>
+        <v>50777</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -3567,7 +3567,7 @@
         <v>149</v>
       </c>
       <c r="B43">
-        <v>49416</v>
+        <v>49837</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -3575,7 +3575,7 @@
         <v>150</v>
       </c>
       <c r="B44">
-        <v>49416</v>
+        <v>49837</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -3583,7 +3583,7 @@
         <v>35</v>
       </c>
       <c r="B45">
-        <v>42933</v>
+        <v>43668</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -3591,7 +3591,7 @@
         <v>151</v>
       </c>
       <c r="B46">
-        <v>41517</v>
+        <v>42018</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -3599,7 +3599,7 @@
         <v>152</v>
       </c>
       <c r="B47">
-        <v>41517</v>
+        <v>42018</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -3607,7 +3607,7 @@
         <v>153</v>
       </c>
       <c r="B48">
-        <v>41517</v>
+        <v>42018</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -3615,7 +3615,7 @@
         <v>37</v>
       </c>
       <c r="B49">
-        <v>38408</v>
+        <v>38752</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -3623,7 +3623,7 @@
         <v>38</v>
       </c>
       <c r="B50">
-        <v>31255</v>
+        <v>31398</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -3631,7 +3631,7 @@
         <v>154</v>
       </c>
       <c r="B51">
-        <v>30904</v>
+        <v>31335</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -3639,7 +3639,7 @@
         <v>155</v>
       </c>
       <c r="B52">
-        <v>30904</v>
+        <v>31335</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -3647,7 +3647,7 @@
         <v>156</v>
       </c>
       <c r="B53">
-        <v>19534</v>
+        <v>19630</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -3655,7 +3655,7 @@
         <v>157</v>
       </c>
       <c r="B54">
-        <v>19534</v>
+        <v>19630</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -3663,7 +3663,7 @@
         <v>158</v>
       </c>
       <c r="B55">
-        <v>12972</v>
+        <v>13073</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -3671,7 +3671,7 @@
         <v>159</v>
       </c>
       <c r="B56">
-        <v>12972</v>
+        <v>13073</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -3679,7 +3679,7 @@
         <v>160</v>
       </c>
       <c r="B57">
-        <v>12972</v>
+        <v>13073</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -3687,7 +3687,7 @@
         <v>161</v>
       </c>
       <c r="B58">
-        <v>12183</v>
+        <v>12728</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -3695,7 +3695,7 @@
         <v>162</v>
       </c>
       <c r="B59">
-        <v>12183</v>
+        <v>12728</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -3703,7 +3703,7 @@
         <v>43</v>
       </c>
       <c r="B60">
-        <v>11302</v>
+        <v>11423</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -3711,7 +3711,7 @@
         <v>163</v>
       </c>
       <c r="B61">
-        <v>8968</v>
+        <v>9009</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -3719,7 +3719,7 @@
         <v>164</v>
       </c>
       <c r="B62">
-        <v>8968</v>
+        <v>9009</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -3727,7 +3727,7 @@
         <v>45</v>
       </c>
       <c r="B63">
-        <v>8068</v>
+        <v>8183</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -3735,7 +3735,7 @@
         <v>46</v>
       </c>
       <c r="B64">
-        <v>6976</v>
+        <v>7061</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -3743,7 +3743,7 @@
         <v>47</v>
       </c>
       <c r="B65">
-        <v>5040</v>
+        <v>5098</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -3751,7 +3751,7 @@
         <v>48</v>
       </c>
       <c r="B66">
-        <v>4793</v>
+        <v>4827</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -3759,7 +3759,7 @@
         <v>165</v>
       </c>
       <c r="B67">
-        <v>4383</v>
+        <v>4606</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -3767,7 +3767,7 @@
         <v>166</v>
       </c>
       <c r="B68">
-        <v>4383</v>
+        <v>4606</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -3775,7 +3775,7 @@
         <v>50</v>
       </c>
       <c r="B69">
-        <v>3274</v>
+        <v>3288</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -3783,7 +3783,7 @@
         <v>51</v>
       </c>
       <c r="B70">
-        <v>1629</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -3831,10 +3831,10 @@
         <v>35</v>
       </c>
       <c r="B2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C2">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3853,10 +3853,10 @@
         <v>24</v>
       </c>
       <c r="B4">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C4">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3875,10 +3875,10 @@
         <v>134</v>
       </c>
       <c r="B6">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C6">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3886,10 +3886,10 @@
         <v>135</v>
       </c>
       <c r="B7">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C7">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3897,10 +3897,10 @@
         <v>136</v>
       </c>
       <c r="B8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C8">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3908,15 +3908,15 @@
         <v>137</v>
       </c>
       <c r="B9">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C9">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B10">
         <v>61</v>
@@ -3927,7 +3927,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B11">
         <v>61</v>
@@ -3949,13 +3949,13 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B13">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C13">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -3966,7 +3966,7 @@
         <v>48</v>
       </c>
       <c r="C14">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -4010,7 +4010,7 @@
         <v>33</v>
       </c>
       <c r="C18">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -4021,7 +4021,7 @@
         <v>33</v>
       </c>
       <c r="C19">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -4087,7 +4087,7 @@
         <v>26</v>
       </c>
       <c r="C25">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -4098,7 +4098,7 @@
         <v>26</v>
       </c>
       <c r="C26">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -4147,18 +4147,18 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1" t="s">
-        <v>149</v>
+        <v>10</v>
       </c>
       <c r="B31">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C31">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B32">
         <v>17</v>
@@ -4169,13 +4169,13 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="B33">
         <v>17</v>
       </c>
       <c r="C33">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -4268,18 +4268,18 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>8</v>
       </c>
       <c r="C42">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="B43">
         <v>8</v>
@@ -4373,7 +4373,7 @@
         <v>4</v>
       </c>
       <c r="C51">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -4411,7 +4411,7 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B55">
         <v>2</v>
@@ -4422,7 +4422,7 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B56">
         <v>2</v>
@@ -4433,7 +4433,7 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B57">
         <v>1</v>
@@ -4633,7 +4633,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>243435</v>
+        <v>247892</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4641,7 +4641,7 @@
         <v>132</v>
       </c>
       <c r="B3">
-        <v>124871</v>
+        <v>126780</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4649,7 +4649,7 @@
         <v>133</v>
       </c>
       <c r="B4">
-        <v>124871</v>
+        <v>126780</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4657,7 +4657,7 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>124257</v>
+        <v>126250</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4665,7 +4665,7 @@
         <v>138</v>
       </c>
       <c r="B6">
-        <v>119316</v>
+        <v>120355</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4673,47 +4673,47 @@
         <v>139</v>
       </c>
       <c r="B7">
-        <v>119316</v>
+        <v>120355</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>146</v>
+        <v>16</v>
       </c>
       <c r="B8">
-        <v>100868</v>
+        <v>102999</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B9">
-        <v>100868</v>
+        <v>102178</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B10">
-        <v>100868</v>
+        <v>102178</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>148</v>
       </c>
       <c r="B11">
-        <v>98906</v>
+        <v>102178</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B12">
-        <v>84276</v>
+        <v>85667</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -4721,7 +4721,7 @@
         <v>5</v>
       </c>
       <c r="B13">
-        <v>74943</v>
+        <v>76590</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -4729,7 +4729,7 @@
         <v>134</v>
       </c>
       <c r="B14">
-        <v>72044</v>
+        <v>73742</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -4737,7 +4737,7 @@
         <v>135</v>
       </c>
       <c r="B15">
-        <v>72044</v>
+        <v>73742</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -4745,7 +4745,7 @@
         <v>136</v>
       </c>
       <c r="B16">
-        <v>72044</v>
+        <v>73742</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -4753,7 +4753,7 @@
         <v>137</v>
       </c>
       <c r="B17">
-        <v>72044</v>
+        <v>73742</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -4761,7 +4761,7 @@
         <v>12</v>
       </c>
       <c r="B18">
-        <v>63625</v>
+        <v>65032</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -4769,7 +4769,7 @@
         <v>8</v>
       </c>
       <c r="B19">
-        <v>50254</v>
+        <v>50942</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -4777,7 +4777,7 @@
         <v>130</v>
       </c>
       <c r="B20">
-        <v>43232</v>
+        <v>43875</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -4785,7 +4785,7 @@
         <v>131</v>
       </c>
       <c r="B21">
-        <v>43232</v>
+        <v>43875</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -4793,7 +4793,7 @@
         <v>18</v>
       </c>
       <c r="B22">
-        <v>41193</v>
+        <v>41884</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -4801,7 +4801,7 @@
         <v>13</v>
       </c>
       <c r="B23">
-        <v>31988</v>
+        <v>32527</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -4809,7 +4809,7 @@
         <v>14</v>
       </c>
       <c r="B24">
-        <v>28246</v>
+        <v>28753</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -4817,15 +4817,15 @@
         <v>6</v>
       </c>
       <c r="B25">
-        <v>28231</v>
+        <v>28647</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B26">
-        <v>27572</v>
+        <v>28092</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -4833,7 +4833,7 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>26539</v>
+        <v>27164</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -4841,7 +4841,7 @@
         <v>154</v>
       </c>
       <c r="B28">
-        <v>23441</v>
+        <v>23851</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -4849,7 +4849,7 @@
         <v>155</v>
       </c>
       <c r="B29">
-        <v>23441</v>
+        <v>23851</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -4857,7 +4857,7 @@
         <v>26</v>
       </c>
       <c r="B30">
-        <v>23244</v>
+        <v>23603</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -4865,7 +4865,7 @@
         <v>37</v>
       </c>
       <c r="B31">
-        <v>23052</v>
+        <v>23394</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -4873,7 +4873,7 @@
         <v>167</v>
       </c>
       <c r="B32">
-        <v>21878</v>
+        <v>22161</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -4881,7 +4881,7 @@
         <v>168</v>
       </c>
       <c r="B33">
-        <v>21878</v>
+        <v>22161</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -4889,23 +4889,23 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>21809</v>
+        <v>22128</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B35">
-        <v>21239</v>
+        <v>21635</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B36">
-        <v>21239</v>
+        <v>21635</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -4913,7 +4913,7 @@
         <v>25</v>
       </c>
       <c r="B37">
-        <v>19952</v>
+        <v>20198</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -4921,7 +4921,7 @@
         <v>140</v>
       </c>
       <c r="B38">
-        <v>17446</v>
+        <v>17637</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -4929,7 +4929,7 @@
         <v>141</v>
       </c>
       <c r="B39">
-        <v>17446</v>
+        <v>17637</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -4937,23 +4937,23 @@
         <v>46</v>
       </c>
       <c r="B40">
-        <v>16672</v>
+        <v>16846</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B41">
-        <v>15303</v>
+        <v>15724</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B42">
-        <v>15303</v>
+        <v>15724</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -4961,7 +4961,7 @@
         <v>28</v>
       </c>
       <c r="B43">
-        <v>14641</v>
+        <v>14857</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -4969,7 +4969,7 @@
         <v>35</v>
       </c>
       <c r="B44">
-        <v>13943</v>
+        <v>14415</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -4977,7 +4977,7 @@
         <v>161</v>
       </c>
       <c r="B45">
-        <v>12243</v>
+        <v>12535</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -4985,23 +4985,23 @@
         <v>162</v>
       </c>
       <c r="B46">
-        <v>12243</v>
+        <v>12535</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>11714</v>
+        <v>11843</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="B48">
-        <v>11563</v>
+        <v>11772</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -5009,7 +5009,7 @@
         <v>38</v>
       </c>
       <c r="B49">
-        <v>11490</v>
+        <v>11567</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -5017,7 +5017,7 @@
         <v>149</v>
       </c>
       <c r="B50">
-        <v>11316</v>
+        <v>11465</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -5025,7 +5025,7 @@
         <v>150</v>
       </c>
       <c r="B51">
-        <v>11316</v>
+        <v>11465</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -5033,7 +5033,7 @@
         <v>151</v>
       </c>
       <c r="B52">
-        <v>9021</v>
+        <v>9145</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -5041,7 +5041,7 @@
         <v>152</v>
       </c>
       <c r="B53">
-        <v>9021</v>
+        <v>9145</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -5049,7 +5049,7 @@
         <v>153</v>
       </c>
       <c r="B54">
-        <v>9021</v>
+        <v>9145</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -5057,7 +5057,7 @@
         <v>43</v>
       </c>
       <c r="B55">
-        <v>8001</v>
+        <v>8076</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -5065,7 +5065,7 @@
         <v>51</v>
       </c>
       <c r="B56">
-        <v>6159</v>
+        <v>6222</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -5073,7 +5073,7 @@
         <v>158</v>
       </c>
       <c r="B57">
-        <v>4685</v>
+        <v>4712</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -5081,7 +5081,7 @@
         <v>159</v>
       </c>
       <c r="B58">
-        <v>4685</v>
+        <v>4712</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -5089,7 +5089,7 @@
         <v>160</v>
       </c>
       <c r="B59">
-        <v>4685</v>
+        <v>4712</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -5097,7 +5097,7 @@
         <v>47</v>
       </c>
       <c r="B60">
-        <v>2821</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -5105,7 +5105,7 @@
         <v>163</v>
       </c>
       <c r="B61">
-        <v>1761</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -5113,7 +5113,7 @@
         <v>164</v>
       </c>
       <c r="B62">
-        <v>1761</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -5121,7 +5121,7 @@
         <v>48</v>
       </c>
       <c r="B63">
-        <v>1701</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -5129,7 +5129,7 @@
         <v>45</v>
       </c>
       <c r="B64">
-        <v>1643</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -5137,7 +5137,7 @@
         <v>165</v>
       </c>
       <c r="B65">
-        <v>808</v>
+        <v>825</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -5145,7 +5145,7 @@
         <v>166</v>
       </c>
       <c r="B66">
-        <v>808</v>
+        <v>825</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -5222,7 +5222,7 @@
         <v>101</v>
       </c>
       <c r="B2">
-        <v>3873509</v>
+        <v>3928448</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -5230,7 +5230,7 @@
         <v>169</v>
       </c>
       <c r="B3">
-        <v>2666752</v>
+        <v>2789835</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -5238,7 +5238,7 @@
         <v>104</v>
       </c>
       <c r="B4">
-        <v>2454842</v>
+        <v>2471233</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -5246,7 +5246,7 @@
         <v>170</v>
       </c>
       <c r="B5">
-        <v>2290795</v>
+        <v>2355797</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -5254,7 +5254,7 @@
         <v>171</v>
       </c>
       <c r="B6">
-        <v>2290795</v>
+        <v>2355797</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -5262,7 +5262,7 @@
         <v>172</v>
       </c>
       <c r="B7">
-        <v>2227137</v>
+        <v>2336833</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -5270,7 +5270,7 @@
         <v>107</v>
       </c>
       <c r="B8">
-        <v>1437759</v>
+        <v>1490266</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -5278,7 +5278,7 @@
         <v>106</v>
       </c>
       <c r="B9">
-        <v>1421220</v>
+        <v>1446511</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -5286,7 +5286,7 @@
         <v>105</v>
       </c>
       <c r="B10">
-        <v>925699</v>
+        <v>932180</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -5294,7 +5294,7 @@
         <v>113</v>
       </c>
       <c r="B11">
-        <v>739684</v>
+        <v>748505</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -5302,7 +5302,7 @@
         <v>108</v>
       </c>
       <c r="B12">
-        <v>590849</v>
+        <v>610720</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -5310,7 +5310,7 @@
         <v>109</v>
       </c>
       <c r="B13">
-        <v>478049</v>
+        <v>492467</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -5318,7 +5318,7 @@
         <v>173</v>
       </c>
       <c r="B14">
-        <v>439615</v>
+        <v>453002</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -5326,7 +5326,7 @@
         <v>174</v>
       </c>
       <c r="B15">
-        <v>375151</v>
+        <v>389205</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -5334,7 +5334,7 @@
         <v>114</v>
       </c>
       <c r="B16">
-        <v>233677</v>
+        <v>235733</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -5342,7 +5342,7 @@
         <v>175</v>
       </c>
       <c r="B17">
-        <v>86624</v>
+        <v>87002</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -5350,7 +5350,7 @@
         <v>176</v>
       </c>
       <c r="B18">
-        <v>86624</v>
+        <v>87002</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -5358,7 +5358,7 @@
         <v>116</v>
       </c>
       <c r="B19">
-        <v>77111</v>
+        <v>79649</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -5366,7 +5366,7 @@
         <v>117</v>
       </c>
       <c r="B20">
-        <v>67849</v>
+        <v>68827</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -5374,23 +5374,23 @@
         <v>123</v>
       </c>
       <c r="B21">
-        <v>17901</v>
+        <v>18108</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>177</v>
+        <v>118</v>
       </c>
       <c r="B22">
-        <v>12242</v>
+        <v>12728</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>118</v>
+        <v>177</v>
       </c>
       <c r="B23">
-        <v>12183</v>
+        <v>12297</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -5398,7 +5398,7 @@
         <v>119</v>
       </c>
       <c r="B24">
-        <v>11302</v>
+        <v>11423</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -5406,7 +5406,7 @@
         <v>178</v>
       </c>
       <c r="B25">
-        <v>8068</v>
+        <v>8183</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -5414,7 +5414,7 @@
         <v>179</v>
       </c>
       <c r="B26">
-        <v>6976</v>
+        <v>7061</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -5422,7 +5422,7 @@
         <v>180</v>
       </c>
       <c r="B27">
-        <v>6976</v>
+        <v>7061</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -5430,7 +5430,7 @@
         <v>124</v>
       </c>
       <c r="B28">
-        <v>4383</v>
+        <v>4606</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -5438,7 +5438,7 @@
         <v>181</v>
       </c>
       <c r="B29">
-        <v>1629</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -5486,10 +5486,10 @@
         <v>113</v>
       </c>
       <c r="B2">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="C2">
-        <v>469</v>
+        <v>477</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -5497,10 +5497,10 @@
         <v>106</v>
       </c>
       <c r="B3">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C3">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -5511,7 +5511,7 @@
         <v>184</v>
       </c>
       <c r="C4">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -5541,10 +5541,10 @@
         <v>169</v>
       </c>
       <c r="B7">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C7">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -5552,10 +5552,10 @@
         <v>173</v>
       </c>
       <c r="B8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C8">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -5599,7 +5599,7 @@
         <v>26</v>
       </c>
       <c r="C12">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -5654,7 +5654,7 @@
         <v>8</v>
       </c>
       <c r="C17">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -5665,7 +5665,7 @@
         <v>8</v>
       </c>
       <c r="C18">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -5698,7 +5698,7 @@
         <v>6</v>
       </c>
       <c r="C21">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -5709,7 +5709,7 @@
         <v>4</v>
       </c>
       <c r="C22">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -5837,7 +5837,7 @@
         <v>107</v>
       </c>
       <c r="B2">
-        <v>426755</v>
+        <v>435271</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -5845,7 +5845,7 @@
         <v>101</v>
       </c>
       <c r="B3">
-        <v>243435</v>
+        <v>247892</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -5853,7 +5853,7 @@
         <v>113</v>
       </c>
       <c r="B4">
-        <v>126999</v>
+        <v>129420</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -5861,23 +5861,23 @@
         <v>105</v>
       </c>
       <c r="B5">
-        <v>124871</v>
+        <v>126780</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>117</v>
+        <v>169</v>
       </c>
       <c r="B6">
-        <v>100868</v>
+        <v>102389</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>169</v>
+        <v>117</v>
       </c>
       <c r="B7">
-        <v>100275</v>
+        <v>102178</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -5885,7 +5885,7 @@
         <v>106</v>
       </c>
       <c r="B8">
-        <v>94796</v>
+        <v>96234</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -5893,7 +5893,7 @@
         <v>104</v>
       </c>
       <c r="B9">
-        <v>93486</v>
+        <v>94817</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -5901,7 +5901,7 @@
         <v>114</v>
       </c>
       <c r="B10">
-        <v>79233</v>
+        <v>80422</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -5909,7 +5909,7 @@
         <v>170</v>
       </c>
       <c r="B11">
-        <v>74943</v>
+        <v>76590</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -5917,7 +5917,7 @@
         <v>171</v>
       </c>
       <c r="B12">
-        <v>74943</v>
+        <v>76590</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -5925,7 +5925,7 @@
         <v>173</v>
       </c>
       <c r="B13">
-        <v>72044</v>
+        <v>73742</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -5933,7 +5933,7 @@
         <v>108</v>
       </c>
       <c r="B14">
-        <v>63625</v>
+        <v>65032</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -5941,7 +5941,7 @@
         <v>109</v>
       </c>
       <c r="B15">
-        <v>31988</v>
+        <v>32527</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -5949,7 +5949,7 @@
         <v>172</v>
       </c>
       <c r="B16">
-        <v>28231</v>
+        <v>28647</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -5957,7 +5957,7 @@
         <v>174</v>
       </c>
       <c r="B17">
-        <v>23204</v>
+        <v>23339</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -5965,7 +5965,7 @@
         <v>182</v>
       </c>
       <c r="B18">
-        <v>21878</v>
+        <v>22161</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -5973,7 +5973,7 @@
         <v>183</v>
       </c>
       <c r="B19">
-        <v>21878</v>
+        <v>22161</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -5981,7 +5981,7 @@
         <v>116</v>
       </c>
       <c r="B20">
-        <v>21462</v>
+        <v>21946</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -5989,7 +5989,7 @@
         <v>179</v>
       </c>
       <c r="B21">
-        <v>16672</v>
+        <v>16846</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -5997,7 +5997,7 @@
         <v>180</v>
       </c>
       <c r="B22">
-        <v>16672</v>
+        <v>16846</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -6005,7 +6005,7 @@
         <v>175</v>
       </c>
       <c r="B23">
-        <v>14641</v>
+        <v>14857</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -6013,7 +6013,7 @@
         <v>176</v>
       </c>
       <c r="B24">
-        <v>14641</v>
+        <v>14857</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -6021,7 +6021,7 @@
         <v>177</v>
       </c>
       <c r="B25">
-        <v>13324</v>
+        <v>13612</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -6029,7 +6029,7 @@
         <v>118</v>
       </c>
       <c r="B26">
-        <v>12243</v>
+        <v>12535</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -6037,7 +6037,7 @@
         <v>119</v>
       </c>
       <c r="B27">
-        <v>8001</v>
+        <v>8076</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -6045,7 +6045,7 @@
         <v>123</v>
       </c>
       <c r="B28">
-        <v>6165</v>
+        <v>6229</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -6053,7 +6053,7 @@
         <v>181</v>
       </c>
       <c r="B29">
-        <v>6159</v>
+        <v>6222</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -6061,7 +6061,7 @@
         <v>178</v>
       </c>
       <c r="B30">
-        <v>1643</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -6069,7 +6069,7 @@
         <v>124</v>
       </c>
       <c r="B31">
-        <v>808</v>
+        <v>825</v>
       </c>
     </row>
   </sheetData>

--- a/monthly_reports/monthly_data/2021 Charts Month 1.xlsx
+++ b/monthly_reports/monthly_data/2021 Charts Month 1.xlsx
@@ -39,12 +39,12 @@
     <t>Porter Robinson</t>
   </si>
   <si>
+    <t>KEVU</t>
+  </si>
+  <si>
     <t>Armin van Buuren</t>
   </si>
   <si>
-    <t>KEVU</t>
-  </si>
-  <si>
     <t>Arlow, Shiah Maisel</t>
   </si>
   <si>
@@ -66,15 +66,15 @@
     <t>Rosenfeld</t>
   </si>
   <si>
+    <t>Saint Punk</t>
+  </si>
+  <si>
+    <t>DubDogz, Mariana Bo, Flakkë, Luisah</t>
+  </si>
+  <si>
     <t>Kirara Magic</t>
   </si>
   <si>
-    <t>DubDogz, Mariana Bo, Flakkë, Luisah</t>
-  </si>
-  <si>
-    <t>Saint Punk</t>
-  </si>
-  <si>
     <t>WbToys</t>
   </si>
   <si>
@@ -99,12 +99,12 @@
     <t>DubVision</t>
   </si>
   <si>
+    <t>Malarkey</t>
+  </si>
+  <si>
     <t>Dirty Palm</t>
   </si>
   <si>
-    <t>Malarkey</t>
-  </si>
-  <si>
     <t>KAAZE, Nino Lucarelli</t>
   </si>
   <si>
@@ -138,21 +138,21 @@
     <t>NUZB</t>
   </si>
   <si>
+    <t>REGGIO, Rave Republic</t>
+  </si>
+  <si>
     <t>Maurice Lessing</t>
   </si>
   <si>
-    <t>REGGIO, Rave Republic</t>
-  </si>
-  <si>
     <t>Julian Calor, Aiobahn</t>
   </si>
   <si>
+    <t>Lady Bee, Dame1</t>
+  </si>
+  <si>
     <t>MR.BLACK, Offer Nissim, Chester Young</t>
   </si>
   <si>
-    <t>Lady Bee, Dame1</t>
-  </si>
-  <si>
     <t>RAMSSEY</t>
   </si>
   <si>
@@ -186,12 +186,12 @@
     <t>Look At The Sky</t>
   </si>
   <si>
+    <t>Melody</t>
+  </si>
+  <si>
     <t>Turn The World Into A Dancefloor (ASOT 1000 Anthem)</t>
   </si>
   <si>
-    <t>Melody</t>
-  </si>
-  <si>
     <t>Banger Machine</t>
   </si>
   <si>
@@ -210,15 +210,15 @@
     <t>Dangerous Woman</t>
   </si>
   <si>
+    <t>Empty Bed</t>
+  </si>
+  <si>
+    <t>Drop It</t>
+  </si>
+  <si>
     <t>Wraith</t>
   </si>
   <si>
-    <t>Drop It</t>
-  </si>
-  <si>
-    <t>Empty Bed</t>
-  </si>
-  <si>
     <t>Let Me Love You</t>
   </si>
   <si>
@@ -243,12 +243,12 @@
     <t>Deeper</t>
   </si>
   <si>
+    <t>Shackles (Praise You)</t>
+  </si>
+  <si>
     <t>Diamonds</t>
   </si>
   <si>
-    <t>Shackles (Praise You)</t>
-  </si>
-  <si>
     <t>Temperature</t>
   </si>
   <si>
@@ -282,21 +282,21 @@
     <t>Nighttime</t>
   </si>
   <si>
+    <t>Legacy</t>
+  </si>
+  <si>
     <t>Never Let You Go</t>
   </si>
   <si>
-    <t>Legacy</t>
-  </si>
-  <si>
     <t>Moving Foward (Aiobahn Remix)</t>
   </si>
   <si>
+    <t>Soon Not Later</t>
+  </si>
+  <si>
     <t>Mucho Bien (Chester Young Remix)</t>
   </si>
   <si>
-    <t>Soon Not Later</t>
-  </si>
-  <si>
     <t>Anubis</t>
   </si>
   <si>
@@ -330,12 +330,12 @@
     <t>MOM+POP</t>
   </si>
   <si>
+    <t>Maxximize Records, Spinnin' Records</t>
+  </si>
+  <si>
     <t>A State Of Trance, Armada Music</t>
   </si>
   <si>
-    <t>Maxximize Records, Spinnin' Records</t>
-  </si>
-  <si>
     <t>NCS</t>
   </si>
   <si>
@@ -354,12 +354,12 @@
     <t>WLTD Entertainment LTD</t>
   </si>
   <si>
+    <t>Musical Freedom, Spinnin' Records</t>
+  </si>
+  <si>
     <t>NONE</t>
   </si>
   <si>
-    <t>Musical Freedom, Spinnin' Records</t>
-  </si>
-  <si>
     <t>HEXAGON, GenerationHEX</t>
   </si>
   <si>
@@ -498,6 +498,12 @@
     <t>Julian Calor</t>
   </si>
   <si>
+    <t>Dame1</t>
+  </si>
+  <si>
+    <t>Lady Bee</t>
+  </si>
+  <si>
     <t>Chester Young</t>
   </si>
   <si>
@@ -507,12 +513,6 @@
     <t>Offer Nissim</t>
   </si>
   <si>
-    <t>Dame1</t>
-  </si>
-  <si>
-    <t>Lady Bee</t>
-  </si>
-  <si>
     <t>DJ St3v3</t>
   </si>
   <si>
@@ -534,13 +534,13 @@
     <t>Spinnin' Records</t>
   </si>
   <si>
+    <t>Maxximize Records</t>
+  </si>
+  <si>
     <t>A State Of Trance</t>
   </si>
   <si>
     <t>Armada Music</t>
-  </si>
-  <si>
-    <t>Maxximize Records</t>
   </si>
   <si>
     <t>Musical Freedom</t>
@@ -962,7 +962,7 @@
         <v>101</v>
       </c>
       <c r="D2">
-        <v>3928448</v>
+        <v>3997240</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -976,7 +976,7 @@
         <v>102</v>
       </c>
       <c r="D3">
-        <v>2355797</v>
+        <v>2477130</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -990,7 +990,7 @@
         <v>103</v>
       </c>
       <c r="D4">
-        <v>2336833</v>
+        <v>2444201</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1004,7 +1004,7 @@
         <v>104</v>
       </c>
       <c r="D5">
-        <v>1365016</v>
+        <v>1374847</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1018,7 +1018,7 @@
         <v>104</v>
       </c>
       <c r="D6">
-        <v>1106217</v>
+        <v>1116874</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1032,7 +1032,7 @@
         <v>105</v>
       </c>
       <c r="D7">
-        <v>932180</v>
+        <v>938734</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1046,7 +1046,7 @@
         <v>106</v>
       </c>
       <c r="D8">
-        <v>848033</v>
+        <v>857206</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1060,7 +1060,7 @@
         <v>107</v>
       </c>
       <c r="D9">
-        <v>749304</v>
+        <v>773364</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1074,7 +1074,7 @@
         <v>108</v>
       </c>
       <c r="D10">
-        <v>610720</v>
+        <v>633737</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1088,7 +1088,7 @@
         <v>109</v>
       </c>
       <c r="D11">
-        <v>492467</v>
+        <v>509810</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1099,10 +1099,10 @@
         <v>62</v>
       </c>
       <c r="C12" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D12">
-        <v>454648</v>
+        <v>506402</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1113,10 +1113,10 @@
         <v>63</v>
       </c>
       <c r="C13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D13">
-        <v>453002</v>
+        <v>469559</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1127,10 +1127,10 @@
         <v>64</v>
       </c>
       <c r="C14" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D14">
-        <v>409067</v>
+        <v>460789</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1144,7 +1144,7 @@
         <v>112</v>
       </c>
       <c r="D15">
-        <v>357807</v>
+        <v>380360</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1158,7 +1158,7 @@
         <v>113</v>
       </c>
       <c r="D16">
-        <v>296001</v>
+        <v>300007</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1169,10 +1169,10 @@
         <v>67</v>
       </c>
       <c r="C17" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D17">
-        <v>178356</v>
+        <v>185338</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1186,7 +1186,7 @@
         <v>107</v>
       </c>
       <c r="D18">
-        <v>166795</v>
+        <v>171059</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1200,7 +1200,7 @@
         <v>113</v>
       </c>
       <c r="D19">
-        <v>165843</v>
+        <v>168150</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1214,7 +1214,7 @@
         <v>107</v>
       </c>
       <c r="D20">
-        <v>165100</v>
+        <v>167511</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1225,10 +1225,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D21">
-        <v>145591</v>
+        <v>147485</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1242,7 +1242,7 @@
         <v>113</v>
       </c>
       <c r="D22">
-        <v>106995</v>
+        <v>108731</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1253,10 +1253,10 @@
         <v>73</v>
       </c>
       <c r="C23" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D23">
-        <v>91472</v>
+        <v>93699</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1267,10 +1267,10 @@
         <v>74</v>
       </c>
       <c r="C24" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="D24">
-        <v>90703</v>
+        <v>93268</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1284,7 +1284,7 @@
         <v>114</v>
       </c>
       <c r="D25">
-        <v>87173</v>
+        <v>88082</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1298,7 +1298,7 @@
         <v>115</v>
       </c>
       <c r="D26">
-        <v>87002</v>
+        <v>87526</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1312,7 +1312,7 @@
         <v>116</v>
       </c>
       <c r="D27">
-        <v>77991</v>
+        <v>82639</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1326,7 +1326,7 @@
         <v>113</v>
       </c>
       <c r="D28">
-        <v>77616</v>
+        <v>78650</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1340,7 +1340,7 @@
         <v>117</v>
       </c>
       <c r="D29">
-        <v>68827</v>
+        <v>70218</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1354,7 +1354,7 @@
         <v>106</v>
       </c>
       <c r="D30">
-        <v>67793</v>
+        <v>69506</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1368,7 +1368,7 @@
         <v>106</v>
       </c>
       <c r="D31">
-        <v>50777</v>
+        <v>51376</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1382,7 +1382,7 @@
         <v>114</v>
       </c>
       <c r="D32">
-        <v>49837</v>
+        <v>50469</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1396,7 +1396,7 @@
         <v>113</v>
       </c>
       <c r="D33">
-        <v>43668</v>
+        <v>44604</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1410,7 +1410,7 @@
         <v>114</v>
       </c>
       <c r="D34">
-        <v>42018</v>
+        <v>42601</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1424,7 +1424,7 @@
         <v>113</v>
       </c>
       <c r="D35">
-        <v>38752</v>
+        <v>39165</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1435,10 +1435,10 @@
         <v>86</v>
       </c>
       <c r="C36" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D36">
-        <v>31398</v>
+        <v>31763</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1449,10 +1449,10 @@
         <v>87</v>
       </c>
       <c r="C37" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D37">
-        <v>31335</v>
+        <v>31544</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1466,7 +1466,7 @@
         <v>113</v>
       </c>
       <c r="D38">
-        <v>19630</v>
+        <v>19747</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1477,10 +1477,10 @@
         <v>89</v>
       </c>
       <c r="C39" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D39">
-        <v>13073</v>
+        <v>13418</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1491,10 +1491,10 @@
         <v>90</v>
       </c>
       <c r="C40" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D40">
-        <v>12728</v>
+        <v>13207</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1508,7 +1508,7 @@
         <v>119</v>
       </c>
       <c r="D41">
-        <v>11423</v>
+        <v>11586</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1522,7 +1522,7 @@
         <v>120</v>
       </c>
       <c r="D42">
-        <v>9009</v>
+        <v>9067</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1536,7 +1536,7 @@
         <v>121</v>
       </c>
       <c r="D43">
-        <v>8183</v>
+        <v>8290</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1550,7 +1550,7 @@
         <v>122</v>
       </c>
       <c r="D44">
-        <v>7061</v>
+        <v>7151</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1564,7 +1564,7 @@
         <v>123</v>
       </c>
       <c r="D45">
-        <v>5098</v>
+        <v>5167</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1578,7 +1578,7 @@
         <v>123</v>
       </c>
       <c r="D46">
-        <v>4827</v>
+        <v>4865</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1592,7 +1592,7 @@
         <v>124</v>
       </c>
       <c r="D47">
-        <v>4606</v>
+        <v>4837</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1606,7 +1606,7 @@
         <v>120</v>
       </c>
       <c r="D48">
-        <v>3288</v>
+        <v>3304</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1620,7 +1620,7 @@
         <v>125</v>
       </c>
       <c r="D49">
-        <v>1658</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1678,18 +1678,18 @@
         <v>113</v>
       </c>
       <c r="D2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C3" t="s">
         <v>106</v>
@@ -1715,18 +1715,18 @@
         <v>96</v>
       </c>
       <c r="E4">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D5">
         <v>85</v>
@@ -1743,13 +1743,13 @@
         <v>63</v>
       </c>
       <c r="C6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D6">
+        <v>68</v>
+      </c>
+      <c r="E6">
         <v>111</v>
-      </c>
-      <c r="D6">
-        <v>67</v>
-      </c>
-      <c r="E6">
-        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1797,10 +1797,10 @@
         <v>113</v>
       </c>
       <c r="D9">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E9">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1814,18 +1814,18 @@
         <v>113</v>
       </c>
       <c r="D10">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E10">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C11" t="s">
         <v>112</v>
@@ -1851,7 +1851,7 @@
         <v>35</v>
       </c>
       <c r="E12">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1873,10 +1873,10 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C14" t="s">
         <v>114</v>
@@ -1890,36 +1890,36 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B15" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="C15" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="D15">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E15">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B16" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C16" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D16">
         <v>30</v>
       </c>
       <c r="E16">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -2060,10 +2060,10 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B25" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C25" t="s">
         <v>114</v>
@@ -2077,10 +2077,10 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C26" t="s">
         <v>118</v>
@@ -2128,13 +2128,13 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C29" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D29">
         <v>8</v>
@@ -2157,15 +2157,15 @@
         <v>7</v>
       </c>
       <c r="E30">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B31" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C31" t="s">
         <v>107</v>
@@ -2247,36 +2247,36 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="B36" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="C36" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D36">
         <v>3</v>
       </c>
       <c r="E36">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="C37" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E37">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -2355,7 +2355,7 @@
         <v>67</v>
       </c>
       <c r="C42" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -2400,13 +2400,13 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B45" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C45" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -2474,7 +2474,7 @@
         <v>71</v>
       </c>
       <c r="C49" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -2485,13 +2485,13 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B50" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C50" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -2538,7 +2538,7 @@
         <v>101</v>
       </c>
       <c r="D2">
-        <v>247892</v>
+        <v>253577</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2552,7 +2552,7 @@
         <v>105</v>
       </c>
       <c r="D3">
-        <v>126780</v>
+        <v>128752</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2566,7 +2566,7 @@
         <v>107</v>
       </c>
       <c r="D4">
-        <v>126250</v>
+        <v>128701</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2580,21 +2580,21 @@
         <v>107</v>
       </c>
       <c r="D5">
-        <v>120355</v>
+        <v>121743</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C6" t="s">
         <v>107</v>
       </c>
       <c r="D6">
-        <v>102999</v>
+        <v>112335</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2608,7 +2608,7 @@
         <v>117</v>
       </c>
       <c r="D7">
-        <v>102178</v>
+        <v>103915</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2622,21 +2622,21 @@
         <v>107</v>
       </c>
       <c r="D8">
-        <v>85667</v>
+        <v>87588</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D9">
-        <v>76590</v>
+        <v>78630</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2647,10 +2647,10 @@
         <v>63</v>
       </c>
       <c r="C10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D10">
-        <v>73742</v>
+        <v>75481</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2664,7 +2664,7 @@
         <v>108</v>
       </c>
       <c r="D11">
-        <v>65032</v>
+        <v>66810</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2678,7 +2678,7 @@
         <v>104</v>
       </c>
       <c r="D12">
-        <v>50942</v>
+        <v>51864</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2692,7 +2692,7 @@
         <v>104</v>
       </c>
       <c r="D13">
-        <v>43875</v>
+        <v>44530</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2706,7 +2706,7 @@
         <v>113</v>
       </c>
       <c r="D14">
-        <v>41884</v>
+        <v>42845</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2720,35 +2720,35 @@
         <v>109</v>
       </c>
       <c r="D15">
-        <v>32527</v>
+        <v>33475</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C16" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D16">
-        <v>28753</v>
+        <v>29376</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D17">
-        <v>28647</v>
+        <v>29181</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2762,7 +2762,7 @@
         <v>113</v>
       </c>
       <c r="D18">
-        <v>28092</v>
+        <v>28702</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2776,35 +2776,35 @@
         <v>106</v>
       </c>
       <c r="D19">
-        <v>27164</v>
+        <v>27812</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C20" t="s">
         <v>114</v>
       </c>
       <c r="D20">
-        <v>23851</v>
+        <v>24483</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C21" t="s">
         <v>106</v>
       </c>
       <c r="D21">
-        <v>23603</v>
+        <v>24108</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2818,7 +2818,7 @@
         <v>113</v>
       </c>
       <c r="D22">
-        <v>23394</v>
+        <v>23831</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2832,7 +2832,7 @@
         <v>126</v>
       </c>
       <c r="D23">
-        <v>22161</v>
+        <v>22528</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2846,7 +2846,7 @@
         <v>106</v>
       </c>
       <c r="D24">
-        <v>22128</v>
+        <v>22525</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2860,21 +2860,21 @@
         <v>113</v>
       </c>
       <c r="D25">
-        <v>21635</v>
+        <v>22112</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C26" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D26">
-        <v>20198</v>
+        <v>20626</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2888,7 +2888,7 @@
         <v>114</v>
       </c>
       <c r="D27">
-        <v>17637</v>
+        <v>17946</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2902,7 +2902,7 @@
         <v>122</v>
       </c>
       <c r="D28">
-        <v>16846</v>
+        <v>16995</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2916,7 +2916,7 @@
         <v>116</v>
       </c>
       <c r="D29">
-        <v>15724</v>
+        <v>16179</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2930,7 +2930,7 @@
         <v>115</v>
       </c>
       <c r="D30">
-        <v>14857</v>
+        <v>15103</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2944,21 +2944,21 @@
         <v>113</v>
       </c>
       <c r="D31">
-        <v>14415</v>
+        <v>14958</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B32" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C32" t="s">
         <v>118</v>
       </c>
       <c r="D32">
-        <v>12535</v>
+        <v>12902</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -2972,7 +2972,7 @@
         <v>120</v>
       </c>
       <c r="D33">
-        <v>11843</v>
+        <v>12195</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -2986,21 +2986,21 @@
         <v>112</v>
       </c>
       <c r="D34">
-        <v>11772</v>
+        <v>11841</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B35" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C35" t="s">
         <v>112</v>
       </c>
       <c r="D35">
-        <v>11567</v>
+        <v>11691</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -3014,7 +3014,7 @@
         <v>114</v>
       </c>
       <c r="D36">
-        <v>11465</v>
+        <v>11644</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -3028,7 +3028,7 @@
         <v>114</v>
       </c>
       <c r="D37">
-        <v>9145</v>
+        <v>9351</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -3042,7 +3042,7 @@
         <v>119</v>
       </c>
       <c r="D38">
-        <v>8076</v>
+        <v>8152</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -3056,21 +3056,21 @@
         <v>125</v>
       </c>
       <c r="D39">
-        <v>6222</v>
+        <v>6291</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B40" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C40" t="s">
         <v>114</v>
       </c>
       <c r="D40">
-        <v>4712</v>
+        <v>4750</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -3084,7 +3084,7 @@
         <v>123</v>
       </c>
       <c r="D41">
-        <v>2861</v>
+        <v>2885</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -3098,7 +3098,7 @@
         <v>120</v>
       </c>
       <c r="D42">
-        <v>1769</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -3112,7 +3112,7 @@
         <v>123</v>
       </c>
       <c r="D43">
-        <v>1705</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -3126,7 +3126,7 @@
         <v>121</v>
       </c>
       <c r="D44">
-        <v>1663</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -3140,7 +3140,7 @@
         <v>124</v>
       </c>
       <c r="D45">
-        <v>825</v>
+        <v>842</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -3151,7 +3151,7 @@
         <v>67</v>
       </c>
       <c r="C46" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>71</v>
       </c>
       <c r="C50" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -3239,7 +3239,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>3928448</v>
+        <v>3997240</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3247,7 +3247,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>2355797</v>
+        <v>2477130</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3255,7 +3255,7 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>2336833</v>
+        <v>2444201</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3263,7 +3263,7 @@
         <v>130</v>
       </c>
       <c r="B5">
-        <v>1365016</v>
+        <v>1374847</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3271,7 +3271,7 @@
         <v>131</v>
       </c>
       <c r="B6">
-        <v>1365016</v>
+        <v>1374847</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3279,7 +3279,7 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>1106217</v>
+        <v>1116874</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3287,7 +3287,7 @@
         <v>132</v>
       </c>
       <c r="B8">
-        <v>932180</v>
+        <v>938734</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3295,7 +3295,7 @@
         <v>133</v>
       </c>
       <c r="B9">
-        <v>932180</v>
+        <v>938734</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3303,7 +3303,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>848033</v>
+        <v>857206</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3311,7 +3311,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>749304</v>
+        <v>773364</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3319,7 +3319,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>610720</v>
+        <v>633737</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3327,7 +3327,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>492467</v>
+        <v>509810</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3335,7 +3335,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>454648</v>
+        <v>506402</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3343,7 +3343,7 @@
         <v>134</v>
       </c>
       <c r="B15">
-        <v>453002</v>
+        <v>469559</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3351,7 +3351,7 @@
         <v>135</v>
       </c>
       <c r="B16">
-        <v>453002</v>
+        <v>469559</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -3359,7 +3359,7 @@
         <v>136</v>
       </c>
       <c r="B17">
-        <v>453002</v>
+        <v>469559</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -3367,7 +3367,7 @@
         <v>137</v>
       </c>
       <c r="B18">
-        <v>453002</v>
+        <v>469559</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -3375,7 +3375,7 @@
         <v>16</v>
       </c>
       <c r="B19">
-        <v>409067</v>
+        <v>460789</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -3383,7 +3383,7 @@
         <v>17</v>
       </c>
       <c r="B20">
-        <v>357807</v>
+        <v>380360</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -3391,7 +3391,7 @@
         <v>18</v>
       </c>
       <c r="B21">
-        <v>296001</v>
+        <v>300007</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -3399,7 +3399,7 @@
         <v>19</v>
       </c>
       <c r="B22">
-        <v>178356</v>
+        <v>185338</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -3407,7 +3407,7 @@
         <v>20</v>
       </c>
       <c r="B23">
-        <v>166795</v>
+        <v>171059</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -3415,7 +3415,7 @@
         <v>21</v>
       </c>
       <c r="B24">
-        <v>165843</v>
+        <v>168150</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -3423,7 +3423,7 @@
         <v>138</v>
       </c>
       <c r="B25">
-        <v>165100</v>
+        <v>167511</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -3431,7 +3431,7 @@
         <v>139</v>
       </c>
       <c r="B26">
-        <v>165100</v>
+        <v>167511</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -3439,7 +3439,7 @@
         <v>23</v>
       </c>
       <c r="B27">
-        <v>145591</v>
+        <v>147485</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -3447,7 +3447,7 @@
         <v>24</v>
       </c>
       <c r="B28">
-        <v>106995</v>
+        <v>108731</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -3455,7 +3455,7 @@
         <v>25</v>
       </c>
       <c r="B29">
-        <v>91472</v>
+        <v>93699</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -3463,7 +3463,7 @@
         <v>26</v>
       </c>
       <c r="B30">
-        <v>90703</v>
+        <v>93268</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -3471,7 +3471,7 @@
         <v>140</v>
       </c>
       <c r="B31">
-        <v>87173</v>
+        <v>88082</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -3479,7 +3479,7 @@
         <v>141</v>
       </c>
       <c r="B32">
-        <v>87173</v>
+        <v>88082</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -3487,7 +3487,7 @@
         <v>28</v>
       </c>
       <c r="B33">
-        <v>87002</v>
+        <v>87526</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -3495,7 +3495,7 @@
         <v>142</v>
       </c>
       <c r="B34">
-        <v>77991</v>
+        <v>82639</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -3503,7 +3503,7 @@
         <v>143</v>
       </c>
       <c r="B35">
-        <v>77991</v>
+        <v>82639</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -3511,7 +3511,7 @@
         <v>144</v>
       </c>
       <c r="B36">
-        <v>77616</v>
+        <v>78650</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -3519,7 +3519,7 @@
         <v>145</v>
       </c>
       <c r="B37">
-        <v>77616</v>
+        <v>78650</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -3527,7 +3527,7 @@
         <v>146</v>
       </c>
       <c r="B38">
-        <v>68827</v>
+        <v>70218</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -3535,7 +3535,7 @@
         <v>147</v>
       </c>
       <c r="B39">
-        <v>68827</v>
+        <v>70218</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -3543,7 +3543,7 @@
         <v>148</v>
       </c>
       <c r="B40">
-        <v>68827</v>
+        <v>70218</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -3551,7 +3551,7 @@
         <v>32</v>
       </c>
       <c r="B41">
-        <v>67793</v>
+        <v>69506</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -3559,7 +3559,7 @@
         <v>33</v>
       </c>
       <c r="B42">
-        <v>50777</v>
+        <v>51376</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -3567,7 +3567,7 @@
         <v>149</v>
       </c>
       <c r="B43">
-        <v>49837</v>
+        <v>50469</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -3575,7 +3575,7 @@
         <v>150</v>
       </c>
       <c r="B44">
-        <v>49837</v>
+        <v>50469</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -3583,7 +3583,7 @@
         <v>35</v>
       </c>
       <c r="B45">
-        <v>43668</v>
+        <v>44604</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -3591,7 +3591,7 @@
         <v>151</v>
       </c>
       <c r="B46">
-        <v>42018</v>
+        <v>42601</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -3599,7 +3599,7 @@
         <v>152</v>
       </c>
       <c r="B47">
-        <v>42018</v>
+        <v>42601</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -3607,7 +3607,7 @@
         <v>153</v>
       </c>
       <c r="B48">
-        <v>42018</v>
+        <v>42601</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -3615,31 +3615,31 @@
         <v>37</v>
       </c>
       <c r="B49">
-        <v>38752</v>
+        <v>39165</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>38</v>
+        <v>154</v>
       </c>
       <c r="B50">
-        <v>31398</v>
+        <v>31763</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B51">
-        <v>31335</v>
+        <v>31763</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>155</v>
+        <v>39</v>
       </c>
       <c r="B52">
-        <v>31335</v>
+        <v>31544</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -3647,7 +3647,7 @@
         <v>156</v>
       </c>
       <c r="B53">
-        <v>19630</v>
+        <v>19747</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -3655,7 +3655,7 @@
         <v>157</v>
       </c>
       <c r="B54">
-        <v>19630</v>
+        <v>19747</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -3663,7 +3663,7 @@
         <v>158</v>
       </c>
       <c r="B55">
-        <v>13073</v>
+        <v>13418</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -3671,7 +3671,7 @@
         <v>159</v>
       </c>
       <c r="B56">
-        <v>13073</v>
+        <v>13418</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -3679,7 +3679,7 @@
         <v>160</v>
       </c>
       <c r="B57">
-        <v>13073</v>
+        <v>13207</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -3687,7 +3687,7 @@
         <v>161</v>
       </c>
       <c r="B58">
-        <v>12728</v>
+        <v>13207</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -3695,7 +3695,7 @@
         <v>162</v>
       </c>
       <c r="B59">
-        <v>12728</v>
+        <v>13207</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -3703,7 +3703,7 @@
         <v>43</v>
       </c>
       <c r="B60">
-        <v>11423</v>
+        <v>11586</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -3711,7 +3711,7 @@
         <v>163</v>
       </c>
       <c r="B61">
-        <v>9009</v>
+        <v>9067</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -3719,7 +3719,7 @@
         <v>164</v>
       </c>
       <c r="B62">
-        <v>9009</v>
+        <v>9067</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -3727,7 +3727,7 @@
         <v>45</v>
       </c>
       <c r="B63">
-        <v>8183</v>
+        <v>8290</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -3735,7 +3735,7 @@
         <v>46</v>
       </c>
       <c r="B64">
-        <v>7061</v>
+        <v>7151</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -3743,7 +3743,7 @@
         <v>47</v>
       </c>
       <c r="B65">
-        <v>5098</v>
+        <v>5167</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -3751,7 +3751,7 @@
         <v>48</v>
       </c>
       <c r="B66">
-        <v>4827</v>
+        <v>4865</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -3759,7 +3759,7 @@
         <v>165</v>
       </c>
       <c r="B67">
-        <v>4606</v>
+        <v>4837</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -3767,7 +3767,7 @@
         <v>166</v>
       </c>
       <c r="B68">
-        <v>4606</v>
+        <v>4837</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -3775,7 +3775,7 @@
         <v>50</v>
       </c>
       <c r="B69">
-        <v>3288</v>
+        <v>3304</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -3783,7 +3783,7 @@
         <v>51</v>
       </c>
       <c r="B70">
-        <v>1658</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -3831,15 +3831,15 @@
         <v>35</v>
       </c>
       <c r="B2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3">
         <v>106</v>
@@ -3856,12 +3856,12 @@
         <v>96</v>
       </c>
       <c r="C4">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>85</v>
@@ -3875,10 +3875,10 @@
         <v>134</v>
       </c>
       <c r="B6">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C6">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3886,10 +3886,10 @@
         <v>135</v>
       </c>
       <c r="B7">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C7">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3897,10 +3897,10 @@
         <v>136</v>
       </c>
       <c r="B8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C8">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3908,10 +3908,10 @@
         <v>137</v>
       </c>
       <c r="B9">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C9">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3952,10 +3952,10 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C13">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -3963,15 +3963,15 @@
         <v>18</v>
       </c>
       <c r="B14">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C14">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B15">
         <v>36</v>
@@ -3988,7 +3988,7 @@
         <v>35</v>
       </c>
       <c r="C16">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -4026,29 +4026,29 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="B20">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C20">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="B21">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C21">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B22">
         <v>30</v>
@@ -4059,24 +4059,24 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="B23">
         <v>30</v>
       </c>
       <c r="C23">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="B24">
         <v>30</v>
       </c>
       <c r="C24">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -4202,7 +4202,7 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B36">
         <v>13</v>
@@ -4213,7 +4213,7 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B37">
         <v>13</v>
@@ -4224,7 +4224,7 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B38">
         <v>13</v>
@@ -4235,7 +4235,7 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B39">
         <v>10</v>
@@ -4246,7 +4246,7 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B40">
         <v>10</v>
@@ -4279,7 +4279,7 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B43">
         <v>8</v>
@@ -4296,7 +4296,7 @@
         <v>7</v>
       </c>
       <c r="C44">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -4307,12 +4307,12 @@
         <v>7</v>
       </c>
       <c r="C45">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B46">
         <v>7</v>
@@ -4389,46 +4389,46 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="1" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="B53">
         <v>3</v>
       </c>
       <c r="C53">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="1" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="B54">
         <v>3</v>
       </c>
       <c r="C54">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="1" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="B55">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C55">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="1" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="B56">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C56">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -4499,7 +4499,7 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -4521,7 +4521,7 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -4633,7 +4633,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>247892</v>
+        <v>253577</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4641,7 +4641,7 @@
         <v>132</v>
       </c>
       <c r="B3">
-        <v>126780</v>
+        <v>128752</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4649,7 +4649,7 @@
         <v>133</v>
       </c>
       <c r="B4">
-        <v>126780</v>
+        <v>128752</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4657,7 +4657,7 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>126250</v>
+        <v>128701</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4665,7 +4665,7 @@
         <v>138</v>
       </c>
       <c r="B6">
-        <v>120355</v>
+        <v>121743</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4673,15 +4673,15 @@
         <v>139</v>
       </c>
       <c r="B7">
-        <v>120355</v>
+        <v>121743</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>102999</v>
+        <v>112335</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4689,7 +4689,7 @@
         <v>146</v>
       </c>
       <c r="B9">
-        <v>102178</v>
+        <v>103915</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4697,7 +4697,7 @@
         <v>147</v>
       </c>
       <c r="B10">
-        <v>102178</v>
+        <v>103915</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -4705,7 +4705,7 @@
         <v>148</v>
       </c>
       <c r="B11">
-        <v>102178</v>
+        <v>103915</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -4713,15 +4713,15 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>85667</v>
+        <v>87588</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B13">
-        <v>76590</v>
+        <v>78630</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -4729,7 +4729,7 @@
         <v>134</v>
       </c>
       <c r="B14">
-        <v>73742</v>
+        <v>75481</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -4737,7 +4737,7 @@
         <v>135</v>
       </c>
       <c r="B15">
-        <v>73742</v>
+        <v>75481</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -4745,7 +4745,7 @@
         <v>136</v>
       </c>
       <c r="B16">
-        <v>73742</v>
+        <v>75481</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -4753,7 +4753,7 @@
         <v>137</v>
       </c>
       <c r="B17">
-        <v>73742</v>
+        <v>75481</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -4761,7 +4761,7 @@
         <v>12</v>
       </c>
       <c r="B18">
-        <v>65032</v>
+        <v>66810</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -4769,7 +4769,7 @@
         <v>8</v>
       </c>
       <c r="B19">
-        <v>50942</v>
+        <v>51864</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -4777,7 +4777,7 @@
         <v>130</v>
       </c>
       <c r="B20">
-        <v>43875</v>
+        <v>44530</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -4785,7 +4785,7 @@
         <v>131</v>
       </c>
       <c r="B21">
-        <v>43875</v>
+        <v>44530</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -4793,7 +4793,7 @@
         <v>18</v>
       </c>
       <c r="B22">
-        <v>41884</v>
+        <v>42845</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -4801,23 +4801,23 @@
         <v>13</v>
       </c>
       <c r="B23">
-        <v>32527</v>
+        <v>33475</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B24">
-        <v>28753</v>
+        <v>29376</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B25">
-        <v>28647</v>
+        <v>29181</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -4825,7 +4825,7 @@
         <v>21</v>
       </c>
       <c r="B26">
-        <v>28092</v>
+        <v>28702</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -4833,7 +4833,7 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>27164</v>
+        <v>27812</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -4841,7 +4841,7 @@
         <v>154</v>
       </c>
       <c r="B28">
-        <v>23851</v>
+        <v>24483</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -4849,15 +4849,15 @@
         <v>155</v>
       </c>
       <c r="B29">
-        <v>23851</v>
+        <v>24483</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B30">
-        <v>23603</v>
+        <v>24108</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -4865,7 +4865,7 @@
         <v>37</v>
       </c>
       <c r="B31">
-        <v>23394</v>
+        <v>23831</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -4873,7 +4873,7 @@
         <v>167</v>
       </c>
       <c r="B32">
-        <v>22161</v>
+        <v>22528</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -4881,7 +4881,7 @@
         <v>168</v>
       </c>
       <c r="B33">
-        <v>22161</v>
+        <v>22528</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -4889,7 +4889,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>22128</v>
+        <v>22525</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -4897,7 +4897,7 @@
         <v>144</v>
       </c>
       <c r="B35">
-        <v>21635</v>
+        <v>22112</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -4905,15 +4905,15 @@
         <v>145</v>
       </c>
       <c r="B36">
-        <v>21635</v>
+        <v>22112</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B37">
-        <v>20198</v>
+        <v>20626</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -4921,7 +4921,7 @@
         <v>140</v>
       </c>
       <c r="B38">
-        <v>17637</v>
+        <v>17946</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -4929,7 +4929,7 @@
         <v>141</v>
       </c>
       <c r="B39">
-        <v>17637</v>
+        <v>17946</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -4937,7 +4937,7 @@
         <v>46</v>
       </c>
       <c r="B40">
-        <v>16846</v>
+        <v>16995</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -4945,7 +4945,7 @@
         <v>142</v>
       </c>
       <c r="B41">
-        <v>15724</v>
+        <v>16179</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -4953,7 +4953,7 @@
         <v>143</v>
       </c>
       <c r="B42">
-        <v>15724</v>
+        <v>16179</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -4961,7 +4961,7 @@
         <v>28</v>
       </c>
       <c r="B43">
-        <v>14857</v>
+        <v>15103</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -4969,23 +4969,23 @@
         <v>35</v>
       </c>
       <c r="B44">
-        <v>14415</v>
+        <v>14958</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B45">
-        <v>12535</v>
+        <v>12902</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B46">
-        <v>12535</v>
+        <v>12902</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -4993,7 +4993,7 @@
         <v>50</v>
       </c>
       <c r="B47">
-        <v>11843</v>
+        <v>12195</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -5001,15 +5001,15 @@
         <v>17</v>
       </c>
       <c r="B48">
-        <v>11772</v>
+        <v>11841</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B49">
-        <v>11567</v>
+        <v>11691</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -5017,7 +5017,7 @@
         <v>149</v>
       </c>
       <c r="B50">
-        <v>11465</v>
+        <v>11644</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -5025,7 +5025,7 @@
         <v>150</v>
       </c>
       <c r="B51">
-        <v>11465</v>
+        <v>11644</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -5033,7 +5033,7 @@
         <v>151</v>
       </c>
       <c r="B52">
-        <v>9145</v>
+        <v>9351</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -5041,7 +5041,7 @@
         <v>152</v>
       </c>
       <c r="B53">
-        <v>9145</v>
+        <v>9351</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -5049,7 +5049,7 @@
         <v>153</v>
       </c>
       <c r="B54">
-        <v>9145</v>
+        <v>9351</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -5057,7 +5057,7 @@
         <v>43</v>
       </c>
       <c r="B55">
-        <v>8076</v>
+        <v>8152</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -5065,31 +5065,31 @@
         <v>51</v>
       </c>
       <c r="B56">
-        <v>6222</v>
+        <v>6291</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B57">
-        <v>4712</v>
+        <v>4750</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B58">
-        <v>4712</v>
+        <v>4750</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B59">
-        <v>4712</v>
+        <v>4750</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -5097,7 +5097,7 @@
         <v>47</v>
       </c>
       <c r="B60">
-        <v>2861</v>
+        <v>2885</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -5105,7 +5105,7 @@
         <v>163</v>
       </c>
       <c r="B61">
-        <v>1769</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -5113,7 +5113,7 @@
         <v>164</v>
       </c>
       <c r="B62">
-        <v>1769</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -5121,7 +5121,7 @@
         <v>48</v>
       </c>
       <c r="B63">
-        <v>1705</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -5129,7 +5129,7 @@
         <v>45</v>
       </c>
       <c r="B64">
-        <v>1663</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -5137,7 +5137,7 @@
         <v>165</v>
       </c>
       <c r="B65">
-        <v>825</v>
+        <v>842</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -5145,7 +5145,7 @@
         <v>166</v>
       </c>
       <c r="B66">
-        <v>825</v>
+        <v>842</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -5222,7 +5222,7 @@
         <v>101</v>
       </c>
       <c r="B2">
-        <v>3928448</v>
+        <v>3997240</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -5230,7 +5230,7 @@
         <v>169</v>
       </c>
       <c r="B3">
-        <v>2789835</v>
+        <v>2946689</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -5238,7 +5238,7 @@
         <v>104</v>
       </c>
       <c r="B4">
-        <v>2471233</v>
+        <v>2491721</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -5246,7 +5246,7 @@
         <v>170</v>
       </c>
       <c r="B5">
-        <v>2355797</v>
+        <v>2477130</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -5254,7 +5254,7 @@
         <v>171</v>
       </c>
       <c r="B6">
-        <v>2355797</v>
+        <v>2444201</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -5262,7 +5262,7 @@
         <v>172</v>
       </c>
       <c r="B7">
-        <v>2336833</v>
+        <v>2444201</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -5270,7 +5270,7 @@
         <v>107</v>
       </c>
       <c r="B8">
-        <v>1490266</v>
+        <v>1618336</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -5278,7 +5278,7 @@
         <v>106</v>
       </c>
       <c r="B9">
-        <v>1446511</v>
+        <v>1483691</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -5286,7 +5286,7 @@
         <v>105</v>
       </c>
       <c r="B10">
-        <v>932180</v>
+        <v>938734</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -5294,7 +5294,7 @@
         <v>113</v>
       </c>
       <c r="B11">
-        <v>748505</v>
+        <v>759054</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -5302,7 +5302,7 @@
         <v>108</v>
       </c>
       <c r="B12">
-        <v>610720</v>
+        <v>633737</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -5310,7 +5310,7 @@
         <v>109</v>
       </c>
       <c r="B13">
-        <v>492467</v>
+        <v>509810</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -5318,7 +5318,7 @@
         <v>173</v>
       </c>
       <c r="B14">
-        <v>453002</v>
+        <v>469559</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -5326,7 +5326,7 @@
         <v>174</v>
       </c>
       <c r="B15">
-        <v>389205</v>
+        <v>411904</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -5334,7 +5334,7 @@
         <v>114</v>
       </c>
       <c r="B16">
-        <v>235733</v>
+        <v>238493</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -5342,7 +5342,7 @@
         <v>175</v>
       </c>
       <c r="B17">
-        <v>87002</v>
+        <v>87526</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -5350,7 +5350,7 @@
         <v>176</v>
       </c>
       <c r="B18">
-        <v>87002</v>
+        <v>87526</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -5358,7 +5358,7 @@
         <v>116</v>
       </c>
       <c r="B19">
-        <v>79649</v>
+        <v>84333</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -5366,7 +5366,7 @@
         <v>117</v>
       </c>
       <c r="B20">
-        <v>68827</v>
+        <v>70218</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -5374,7 +5374,7 @@
         <v>123</v>
       </c>
       <c r="B21">
-        <v>18108</v>
+        <v>18322</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -5382,7 +5382,7 @@
         <v>118</v>
       </c>
       <c r="B22">
-        <v>12728</v>
+        <v>13418</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -5390,7 +5390,7 @@
         <v>177</v>
       </c>
       <c r="B23">
-        <v>12297</v>
+        <v>12371</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -5398,7 +5398,7 @@
         <v>119</v>
       </c>
       <c r="B24">
-        <v>11423</v>
+        <v>11586</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -5406,7 +5406,7 @@
         <v>178</v>
       </c>
       <c r="B25">
-        <v>8183</v>
+        <v>8290</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -5414,7 +5414,7 @@
         <v>179</v>
       </c>
       <c r="B26">
-        <v>7061</v>
+        <v>7151</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -5422,7 +5422,7 @@
         <v>180</v>
       </c>
       <c r="B27">
-        <v>7061</v>
+        <v>7151</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -5430,7 +5430,7 @@
         <v>124</v>
       </c>
       <c r="B28">
-        <v>4606</v>
+        <v>4837</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -5438,7 +5438,7 @@
         <v>181</v>
       </c>
       <c r="B29">
-        <v>1658</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -5486,10 +5486,10 @@
         <v>113</v>
       </c>
       <c r="B2">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="C2">
-        <v>477</v>
+        <v>482</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -5508,15 +5508,15 @@
         <v>114</v>
       </c>
       <c r="B4">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C4">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B5">
         <v>85</v>
@@ -5527,7 +5527,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B6">
         <v>85</v>
@@ -5541,10 +5541,10 @@
         <v>169</v>
       </c>
       <c r="B7">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C7">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -5552,10 +5552,10 @@
         <v>173</v>
       </c>
       <c r="B8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C8">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -5563,10 +5563,10 @@
         <v>177</v>
       </c>
       <c r="B9">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C9">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -5588,7 +5588,7 @@
         <v>33</v>
       </c>
       <c r="C11">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -5670,7 +5670,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B19">
         <v>8</v>
@@ -5681,18 +5681,18 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B20">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C20">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B21">
         <v>6</v>
@@ -5837,7 +5837,7 @@
         <v>107</v>
       </c>
       <c r="B2">
-        <v>435271</v>
+        <v>450367</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -5845,7 +5845,7 @@
         <v>101</v>
       </c>
       <c r="B3">
-        <v>247892</v>
+        <v>253577</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -5853,7 +5853,7 @@
         <v>113</v>
       </c>
       <c r="B4">
-        <v>129420</v>
+        <v>132448</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -5861,7 +5861,7 @@
         <v>105</v>
       </c>
       <c r="B5">
-        <v>126780</v>
+        <v>128752</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -5869,7 +5869,7 @@
         <v>169</v>
       </c>
       <c r="B6">
-        <v>102389</v>
+        <v>104662</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -5877,7 +5877,7 @@
         <v>117</v>
       </c>
       <c r="B7">
-        <v>102178</v>
+        <v>103915</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -5885,7 +5885,7 @@
         <v>106</v>
       </c>
       <c r="B8">
-        <v>96234</v>
+        <v>97977</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -5893,7 +5893,7 @@
         <v>104</v>
       </c>
       <c r="B9">
-        <v>94817</v>
+        <v>96394</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -5901,23 +5901,23 @@
         <v>114</v>
       </c>
       <c r="B10">
-        <v>80422</v>
+        <v>82163</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B11">
-        <v>76590</v>
+        <v>78630</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B12">
-        <v>76590</v>
+        <v>78630</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -5925,7 +5925,7 @@
         <v>173</v>
       </c>
       <c r="B13">
-        <v>73742</v>
+        <v>75481</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -5933,7 +5933,7 @@
         <v>108</v>
       </c>
       <c r="B14">
-        <v>65032</v>
+        <v>66810</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -5941,15 +5941,15 @@
         <v>109</v>
       </c>
       <c r="B15">
-        <v>32527</v>
+        <v>33475</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B16">
-        <v>28647</v>
+        <v>29181</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -5957,7 +5957,7 @@
         <v>174</v>
       </c>
       <c r="B17">
-        <v>23339</v>
+        <v>23532</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -5965,7 +5965,7 @@
         <v>182</v>
       </c>
       <c r="B18">
-        <v>22161</v>
+        <v>22528</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -5973,7 +5973,7 @@
         <v>183</v>
       </c>
       <c r="B19">
-        <v>22161</v>
+        <v>22528</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -5981,7 +5981,7 @@
         <v>116</v>
       </c>
       <c r="B20">
-        <v>21946</v>
+        <v>22470</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -5989,7 +5989,7 @@
         <v>179</v>
       </c>
       <c r="B21">
-        <v>16846</v>
+        <v>16995</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -5997,7 +5997,7 @@
         <v>180</v>
       </c>
       <c r="B22">
-        <v>16846</v>
+        <v>16995</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -6005,7 +6005,7 @@
         <v>175</v>
       </c>
       <c r="B23">
-        <v>14857</v>
+        <v>15103</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -6013,7 +6013,7 @@
         <v>176</v>
       </c>
       <c r="B24">
-        <v>14857</v>
+        <v>15103</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -6021,7 +6021,7 @@
         <v>177</v>
       </c>
       <c r="B25">
-        <v>13612</v>
+        <v>13989</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -6029,7 +6029,7 @@
         <v>118</v>
       </c>
       <c r="B26">
-        <v>12535</v>
+        <v>12902</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -6037,7 +6037,7 @@
         <v>119</v>
       </c>
       <c r="B27">
-        <v>8076</v>
+        <v>8152</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -6045,7 +6045,7 @@
         <v>123</v>
       </c>
       <c r="B28">
-        <v>6229</v>
+        <v>6304</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -6053,7 +6053,7 @@
         <v>181</v>
       </c>
       <c r="B29">
-        <v>6222</v>
+        <v>6291</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -6061,7 +6061,7 @@
         <v>178</v>
       </c>
       <c r="B30">
-        <v>1663</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -6069,7 +6069,7 @@
         <v>124</v>
       </c>
       <c r="B31">
-        <v>825</v>
+        <v>842</v>
       </c>
     </row>
   </sheetData>

--- a/monthly_reports/monthly_data/2021 Charts Month 1.xlsx
+++ b/monthly_reports/monthly_data/2021 Charts Month 1.xlsx
@@ -60,15 +60,15 @@
     <t>Kaskade</t>
   </si>
   <si>
+    <t>Saint Punk</t>
+  </si>
+  <si>
     <t>Maggie Lindemann</t>
   </si>
   <si>
     <t>Rosenfeld</t>
   </si>
   <si>
-    <t>Saint Punk</t>
-  </si>
-  <si>
     <t>DubDogz, Mariana Bo, Flakkë, Luisah</t>
   </si>
   <si>
@@ -168,12 +168,12 @@
     <t>Aitor Hertz</t>
   </si>
   <si>
+    <t>Lost Identities, Anna Vellington</t>
+  </si>
+  <si>
     <t>DNVX</t>
   </si>
   <si>
-    <t>Lost Identities, Anna Vellington</t>
-  </si>
-  <si>
     <t>Deekey</t>
   </si>
   <si>
@@ -204,15 +204,15 @@
     <t>Closer</t>
   </si>
   <si>
+    <t>Empty Bed</t>
+  </si>
+  <si>
     <t>Crash And Burn</t>
   </si>
   <si>
     <t>Dangerous Woman</t>
   </si>
   <si>
-    <t>Empty Bed</t>
-  </si>
-  <si>
     <t>Drop It</t>
   </si>
   <si>
@@ -312,10 +312,10 @@
     <t>Dance</t>
   </si>
   <si>
+    <t>Any Other Way</t>
+  </si>
+  <si>
     <t>Losing Control</t>
-  </si>
-  <si>
-    <t>Any Other Way</t>
   </si>
   <si>
     <t>Without You</t>
@@ -962,7 +962,7 @@
         <v>101</v>
       </c>
       <c r="D2">
-        <v>3997240</v>
+        <v>4089003</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -976,7 +976,7 @@
         <v>102</v>
       </c>
       <c r="D3">
-        <v>2477130</v>
+        <v>2656621</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -990,7 +990,7 @@
         <v>103</v>
       </c>
       <c r="D4">
-        <v>2444201</v>
+        <v>2553633</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1004,7 +1004,7 @@
         <v>104</v>
       </c>
       <c r="D5">
-        <v>1374847</v>
+        <v>1387405</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1018,7 +1018,7 @@
         <v>104</v>
       </c>
       <c r="D6">
-        <v>1116874</v>
+        <v>1131355</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1032,7 +1032,7 @@
         <v>105</v>
       </c>
       <c r="D7">
-        <v>938734</v>
+        <v>946986</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1046,7 +1046,7 @@
         <v>106</v>
       </c>
       <c r="D8">
-        <v>857206</v>
+        <v>868765</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1060,7 +1060,7 @@
         <v>107</v>
       </c>
       <c r="D9">
-        <v>773364</v>
+        <v>803216</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1071,10 +1071,10 @@
         <v>60</v>
       </c>
       <c r="C10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D10">
-        <v>633737</v>
+        <v>714096</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1085,10 +1085,10 @@
         <v>61</v>
       </c>
       <c r="C11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D11">
-        <v>509810</v>
+        <v>663548</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1099,10 +1099,10 @@
         <v>62</v>
       </c>
       <c r="C12" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D12">
-        <v>506402</v>
+        <v>531590</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1116,7 +1116,7 @@
         <v>110</v>
       </c>
       <c r="D13">
-        <v>469559</v>
+        <v>489859</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1130,7 +1130,7 @@
         <v>111</v>
       </c>
       <c r="D14">
-        <v>460789</v>
+        <v>469461</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1144,7 +1144,7 @@
         <v>112</v>
       </c>
       <c r="D15">
-        <v>380360</v>
+        <v>412497</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1158,7 +1158,7 @@
         <v>113</v>
       </c>
       <c r="D16">
-        <v>300007</v>
+        <v>305523</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1172,7 +1172,7 @@
         <v>111</v>
       </c>
       <c r="D17">
-        <v>185338</v>
+        <v>192917</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1186,7 +1186,7 @@
         <v>107</v>
       </c>
       <c r="D18">
-        <v>171059</v>
+        <v>177115</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1200,7 +1200,7 @@
         <v>113</v>
       </c>
       <c r="D19">
-        <v>168150</v>
+        <v>171237</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1214,7 +1214,7 @@
         <v>107</v>
       </c>
       <c r="D20">
-        <v>167511</v>
+        <v>170902</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1228,7 +1228,7 @@
         <v>111</v>
       </c>
       <c r="D21">
-        <v>147485</v>
+        <v>150247</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1242,7 +1242,7 @@
         <v>113</v>
       </c>
       <c r="D22">
-        <v>108731</v>
+        <v>111040</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1256,7 +1256,7 @@
         <v>106</v>
       </c>
       <c r="D23">
-        <v>93699</v>
+        <v>97324</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1270,7 +1270,7 @@
         <v>111</v>
       </c>
       <c r="D24">
-        <v>93268</v>
+        <v>95533</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1284,7 +1284,7 @@
         <v>114</v>
       </c>
       <c r="D25">
-        <v>88082</v>
+        <v>89094</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1298,7 +1298,7 @@
         <v>115</v>
       </c>
       <c r="D26">
-        <v>87526</v>
+        <v>88080</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1312,7 +1312,7 @@
         <v>116</v>
       </c>
       <c r="D27">
-        <v>82639</v>
+        <v>87143</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1326,7 +1326,7 @@
         <v>113</v>
       </c>
       <c r="D28">
-        <v>78650</v>
+        <v>80227</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1340,7 +1340,7 @@
         <v>117</v>
       </c>
       <c r="D29">
-        <v>70218</v>
+        <v>71865</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1354,7 +1354,7 @@
         <v>106</v>
       </c>
       <c r="D30">
-        <v>69506</v>
+        <v>71700</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1368,7 +1368,7 @@
         <v>106</v>
       </c>
       <c r="D31">
-        <v>51376</v>
+        <v>52069</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1382,7 +1382,7 @@
         <v>114</v>
       </c>
       <c r="D32">
-        <v>50469</v>
+        <v>51130</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1396,7 +1396,7 @@
         <v>113</v>
       </c>
       <c r="D33">
-        <v>44604</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1410,7 +1410,7 @@
         <v>114</v>
       </c>
       <c r="D34">
-        <v>42601</v>
+        <v>43224</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1424,7 +1424,7 @@
         <v>113</v>
       </c>
       <c r="D35">
-        <v>39165</v>
+        <v>39746</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1438,7 +1438,7 @@
         <v>114</v>
       </c>
       <c r="D36">
-        <v>31763</v>
+        <v>32261</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1452,7 +1452,7 @@
         <v>112</v>
       </c>
       <c r="D37">
-        <v>31544</v>
+        <v>31688</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1466,7 +1466,7 @@
         <v>113</v>
       </c>
       <c r="D38">
-        <v>19747</v>
+        <v>19917</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1480,7 +1480,7 @@
         <v>118</v>
       </c>
       <c r="D39">
-        <v>13418</v>
+        <v>14405</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1494,7 +1494,7 @@
         <v>114</v>
       </c>
       <c r="D40">
-        <v>13207</v>
+        <v>13420</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1508,7 +1508,7 @@
         <v>119</v>
       </c>
       <c r="D41">
-        <v>11586</v>
+        <v>11794</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1522,7 +1522,7 @@
         <v>120</v>
       </c>
       <c r="D42">
-        <v>9067</v>
+        <v>9131</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1536,7 +1536,7 @@
         <v>121</v>
       </c>
       <c r="D43">
-        <v>8290</v>
+        <v>8415</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1550,7 +1550,7 @@
         <v>122</v>
       </c>
       <c r="D44">
-        <v>7151</v>
+        <v>7288</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1564,7 +1564,7 @@
         <v>123</v>
       </c>
       <c r="D45">
-        <v>5167</v>
+        <v>5250</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1575,10 +1575,10 @@
         <v>96</v>
       </c>
       <c r="C46" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D46">
-        <v>4865</v>
+        <v>5113</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1589,10 +1589,10 @@
         <v>97</v>
       </c>
       <c r="C47" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D47">
-        <v>4837</v>
+        <v>4916</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1606,7 +1606,7 @@
         <v>120</v>
       </c>
       <c r="D48">
-        <v>3304</v>
+        <v>3339</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1620,7 +1620,7 @@
         <v>125</v>
       </c>
       <c r="D49">
-        <v>1694</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1712,10 +1712,10 @@
         <v>113</v>
       </c>
       <c r="D4">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E4">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1749,7 +1749,7 @@
         <v>68</v>
       </c>
       <c r="E6">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1763,10 +1763,10 @@
         <v>113</v>
       </c>
       <c r="D7">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E7">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1783,7 +1783,7 @@
         <v>60</v>
       </c>
       <c r="E8">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1797,10 +1797,10 @@
         <v>113</v>
       </c>
       <c r="D9">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E9">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1814,61 +1814,61 @@
         <v>113</v>
       </c>
       <c r="D10">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E10">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C11" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D11">
         <v>36</v>
       </c>
       <c r="E11">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="B12" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C12" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="D12">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E12">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="B13" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="C13" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="D13">
         <v>35</v>
       </c>
       <c r="E13">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1882,146 +1882,146 @@
         <v>114</v>
       </c>
       <c r="D14">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E14">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B15" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C15" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D15">
         <v>31</v>
       </c>
       <c r="E15">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B16" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="C16" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="D16">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E16">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="B17" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="C17" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="D17">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E17">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="C18" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="D18">
         <v>26</v>
       </c>
       <c r="E18">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="C19" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D19">
         <v>19</v>
       </c>
       <c r="E19">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="B20" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="C20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D20">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E20">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="B21" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="C21" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="D21">
         <v>18</v>
       </c>
       <c r="E21">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="B22" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="C22" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="D22">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E22">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -2111,61 +2111,61 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="B28" t="s">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="C28" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="D28">
         <v>8</v>
       </c>
       <c r="E28">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="B29" t="s">
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="C29" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="D29">
         <v>8</v>
       </c>
       <c r="E29">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="C30" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D30">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E30">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B31" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C31" t="s">
         <v>107</v>
@@ -2179,10 +2179,10 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B32" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C32" t="s">
         <v>123</v>
@@ -2213,36 +2213,36 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B34" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C34" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D34">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E34">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B35" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C35" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D35">
         <v>4</v>
       </c>
       <c r="E35">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -2332,10 +2332,10 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B41" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C41" t="s">
         <v>124</v>
@@ -2366,10 +2366,10 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B43" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C43" t="s">
         <v>108</v>
@@ -2383,10 +2383,10 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B44" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C44" t="s">
         <v>109</v>
@@ -2538,21 +2538,21 @@
         <v>101</v>
       </c>
       <c r="D2">
-        <v>253577</v>
+        <v>260503</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D3">
-        <v>128752</v>
+        <v>135963</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2566,35 +2566,35 @@
         <v>107</v>
       </c>
       <c r="D4">
-        <v>128701</v>
+        <v>131800</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="C5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D5">
-        <v>121743</v>
+        <v>131225</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="C6" t="s">
         <v>107</v>
       </c>
       <c r="D6">
-        <v>112335</v>
+        <v>123550</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2608,7 +2608,7 @@
         <v>117</v>
       </c>
       <c r="D7">
-        <v>103915</v>
+        <v>106111</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2622,7 +2622,7 @@
         <v>107</v>
       </c>
       <c r="D8">
-        <v>87588</v>
+        <v>89504</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2636,7 +2636,7 @@
         <v>103</v>
       </c>
       <c r="D9">
-        <v>78630</v>
+        <v>81292</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2650,21 +2650,21 @@
         <v>110</v>
       </c>
       <c r="D10">
-        <v>75481</v>
+        <v>77882</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C11" t="s">
         <v>108</v>
       </c>
       <c r="D11">
-        <v>66810</v>
+        <v>69382</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2678,7 +2678,7 @@
         <v>104</v>
       </c>
       <c r="D12">
-        <v>51864</v>
+        <v>52784</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2692,7 +2692,7 @@
         <v>104</v>
       </c>
       <c r="D13">
-        <v>44530</v>
+        <v>45333</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2706,21 +2706,21 @@
         <v>113</v>
       </c>
       <c r="D14">
-        <v>42845</v>
+        <v>44045</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C15" t="s">
         <v>109</v>
       </c>
       <c r="D15">
-        <v>33475</v>
+        <v>34452</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2734,7 +2734,7 @@
         <v>111</v>
       </c>
       <c r="D16">
-        <v>29376</v>
+        <v>30183</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2748,7 +2748,7 @@
         <v>102</v>
       </c>
       <c r="D17">
-        <v>29181</v>
+        <v>29799</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2762,7 +2762,7 @@
         <v>113</v>
       </c>
       <c r="D18">
-        <v>28702</v>
+        <v>29393</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2776,7 +2776,7 @@
         <v>106</v>
       </c>
       <c r="D19">
-        <v>27812</v>
+        <v>28693</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2790,7 +2790,7 @@
         <v>114</v>
       </c>
       <c r="D20">
-        <v>24483</v>
+        <v>25294</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2804,7 +2804,7 @@
         <v>106</v>
       </c>
       <c r="D21">
-        <v>24108</v>
+        <v>24689</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2818,35 +2818,35 @@
         <v>113</v>
       </c>
       <c r="D22">
-        <v>23831</v>
+        <v>24423</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="B23" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="C23" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="D23">
-        <v>22528</v>
+        <v>23091</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="B24" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="C24" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="D24">
-        <v>22525</v>
+        <v>23047</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2860,7 +2860,7 @@
         <v>113</v>
       </c>
       <c r="D25">
-        <v>22112</v>
+        <v>22766</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2874,7 +2874,7 @@
         <v>111</v>
       </c>
       <c r="D26">
-        <v>20626</v>
+        <v>21149</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2888,7 +2888,7 @@
         <v>114</v>
       </c>
       <c r="D27">
-        <v>17946</v>
+        <v>18285</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2902,7 +2902,7 @@
         <v>122</v>
       </c>
       <c r="D28">
-        <v>16995</v>
+        <v>17189</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2916,35 +2916,35 @@
         <v>116</v>
       </c>
       <c r="D29">
-        <v>16179</v>
+        <v>16748</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B30" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="C30" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D30">
-        <v>15103</v>
+        <v>15762</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C31" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D31">
-        <v>14958</v>
+        <v>15372</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2958,7 +2958,7 @@
         <v>118</v>
       </c>
       <c r="D32">
-        <v>12902</v>
+        <v>13350</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -2972,49 +2972,49 @@
         <v>120</v>
       </c>
       <c r="D33">
-        <v>12195</v>
+        <v>12527</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="C34" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D34">
-        <v>11841</v>
+        <v>11929</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="B35" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="C35" t="s">
         <v>112</v>
       </c>
       <c r="D35">
-        <v>11691</v>
+        <v>11921</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C36" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D36">
-        <v>11644</v>
+        <v>11812</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -3028,7 +3028,7 @@
         <v>114</v>
       </c>
       <c r="D37">
-        <v>9351</v>
+        <v>9565</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -3042,7 +3042,7 @@
         <v>119</v>
       </c>
       <c r="D38">
-        <v>8152</v>
+        <v>8232</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -3056,7 +3056,7 @@
         <v>125</v>
       </c>
       <c r="D39">
-        <v>6291</v>
+        <v>6372</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -3070,7 +3070,7 @@
         <v>114</v>
       </c>
       <c r="D40">
-        <v>4750</v>
+        <v>4814</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -3084,7 +3084,7 @@
         <v>123</v>
       </c>
       <c r="D41">
-        <v>2885</v>
+        <v>2934</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -3098,49 +3098,49 @@
         <v>120</v>
       </c>
       <c r="D42">
-        <v>1794</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B43" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C43" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D43">
-        <v>1716</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C44" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D44">
-        <v>1703</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B45" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C45" t="s">
         <v>124</v>
       </c>
       <c r="D45">
-        <v>842</v>
+        <v>862</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -3239,7 +3239,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>3997240</v>
+        <v>4089003</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3247,7 +3247,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>2477130</v>
+        <v>2656621</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3255,7 +3255,7 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>2444201</v>
+        <v>2553633</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3263,7 +3263,7 @@
         <v>130</v>
       </c>
       <c r="B5">
-        <v>1374847</v>
+        <v>1387405</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3271,7 +3271,7 @@
         <v>131</v>
       </c>
       <c r="B6">
-        <v>1374847</v>
+        <v>1387405</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3279,7 +3279,7 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>1116874</v>
+        <v>1131355</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3287,7 +3287,7 @@
         <v>132</v>
       </c>
       <c r="B8">
-        <v>938734</v>
+        <v>946986</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3295,7 +3295,7 @@
         <v>133</v>
       </c>
       <c r="B9">
-        <v>938734</v>
+        <v>946986</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3303,7 +3303,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>857206</v>
+        <v>868765</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3311,7 +3311,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>773364</v>
+        <v>803216</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3319,7 +3319,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>633737</v>
+        <v>714096</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3327,7 +3327,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>509810</v>
+        <v>663548</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3335,7 +3335,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>506402</v>
+        <v>531590</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3343,7 +3343,7 @@
         <v>134</v>
       </c>
       <c r="B15">
-        <v>469559</v>
+        <v>489859</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3351,7 +3351,7 @@
         <v>135</v>
       </c>
       <c r="B16">
-        <v>469559</v>
+        <v>489859</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -3359,7 +3359,7 @@
         <v>136</v>
       </c>
       <c r="B17">
-        <v>469559</v>
+        <v>489859</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -3367,7 +3367,7 @@
         <v>137</v>
       </c>
       <c r="B18">
-        <v>469559</v>
+        <v>489859</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -3375,7 +3375,7 @@
         <v>16</v>
       </c>
       <c r="B19">
-        <v>460789</v>
+        <v>469461</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -3383,7 +3383,7 @@
         <v>17</v>
       </c>
       <c r="B20">
-        <v>380360</v>
+        <v>412497</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -3391,7 +3391,7 @@
         <v>18</v>
       </c>
       <c r="B21">
-        <v>300007</v>
+        <v>305523</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -3399,7 +3399,7 @@
         <v>19</v>
       </c>
       <c r="B22">
-        <v>185338</v>
+        <v>192917</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -3407,7 +3407,7 @@
         <v>20</v>
       </c>
       <c r="B23">
-        <v>171059</v>
+        <v>177115</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -3415,7 +3415,7 @@
         <v>21</v>
       </c>
       <c r="B24">
-        <v>168150</v>
+        <v>171237</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -3423,7 +3423,7 @@
         <v>138</v>
       </c>
       <c r="B25">
-        <v>167511</v>
+        <v>170902</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -3431,7 +3431,7 @@
         <v>139</v>
       </c>
       <c r="B26">
-        <v>167511</v>
+        <v>170902</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -3439,7 +3439,7 @@
         <v>23</v>
       </c>
       <c r="B27">
-        <v>147485</v>
+        <v>150247</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -3447,7 +3447,7 @@
         <v>24</v>
       </c>
       <c r="B28">
-        <v>108731</v>
+        <v>111040</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -3455,7 +3455,7 @@
         <v>25</v>
       </c>
       <c r="B29">
-        <v>93699</v>
+        <v>97324</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -3463,7 +3463,7 @@
         <v>26</v>
       </c>
       <c r="B30">
-        <v>93268</v>
+        <v>95533</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -3471,7 +3471,7 @@
         <v>140</v>
       </c>
       <c r="B31">
-        <v>88082</v>
+        <v>89094</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -3479,7 +3479,7 @@
         <v>141</v>
       </c>
       <c r="B32">
-        <v>88082</v>
+        <v>89094</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -3487,7 +3487,7 @@
         <v>28</v>
       </c>
       <c r="B33">
-        <v>87526</v>
+        <v>88080</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -3495,7 +3495,7 @@
         <v>142</v>
       </c>
       <c r="B34">
-        <v>82639</v>
+        <v>87143</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -3503,7 +3503,7 @@
         <v>143</v>
       </c>
       <c r="B35">
-        <v>82639</v>
+        <v>87143</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -3511,7 +3511,7 @@
         <v>144</v>
       </c>
       <c r="B36">
-        <v>78650</v>
+        <v>80227</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -3519,7 +3519,7 @@
         <v>145</v>
       </c>
       <c r="B37">
-        <v>78650</v>
+        <v>80227</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -3527,7 +3527,7 @@
         <v>146</v>
       </c>
       <c r="B38">
-        <v>70218</v>
+        <v>71865</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -3535,7 +3535,7 @@
         <v>147</v>
       </c>
       <c r="B39">
-        <v>70218</v>
+        <v>71865</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -3543,7 +3543,7 @@
         <v>148</v>
       </c>
       <c r="B40">
-        <v>70218</v>
+        <v>71865</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -3551,7 +3551,7 @@
         <v>32</v>
       </c>
       <c r="B41">
-        <v>69506</v>
+        <v>71700</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -3559,7 +3559,7 @@
         <v>33</v>
       </c>
       <c r="B42">
-        <v>51376</v>
+        <v>52069</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -3567,7 +3567,7 @@
         <v>149</v>
       </c>
       <c r="B43">
-        <v>50469</v>
+        <v>51130</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -3575,7 +3575,7 @@
         <v>150</v>
       </c>
       <c r="B44">
-        <v>50469</v>
+        <v>51130</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -3583,7 +3583,7 @@
         <v>35</v>
       </c>
       <c r="B45">
-        <v>44604</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -3591,7 +3591,7 @@
         <v>151</v>
       </c>
       <c r="B46">
-        <v>42601</v>
+        <v>43224</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -3599,7 +3599,7 @@
         <v>152</v>
       </c>
       <c r="B47">
-        <v>42601</v>
+        <v>43224</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -3607,7 +3607,7 @@
         <v>153</v>
       </c>
       <c r="B48">
-        <v>42601</v>
+        <v>43224</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -3615,7 +3615,7 @@
         <v>37</v>
       </c>
       <c r="B49">
-        <v>39165</v>
+        <v>39746</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -3623,7 +3623,7 @@
         <v>154</v>
       </c>
       <c r="B50">
-        <v>31763</v>
+        <v>32261</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -3631,7 +3631,7 @@
         <v>155</v>
       </c>
       <c r="B51">
-        <v>31763</v>
+        <v>32261</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -3639,7 +3639,7 @@
         <v>39</v>
       </c>
       <c r="B52">
-        <v>31544</v>
+        <v>31688</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -3647,7 +3647,7 @@
         <v>156</v>
       </c>
       <c r="B53">
-        <v>19747</v>
+        <v>19917</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -3655,7 +3655,7 @@
         <v>157</v>
       </c>
       <c r="B54">
-        <v>19747</v>
+        <v>19917</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -3663,7 +3663,7 @@
         <v>158</v>
       </c>
       <c r="B55">
-        <v>13418</v>
+        <v>14405</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -3671,7 +3671,7 @@
         <v>159</v>
       </c>
       <c r="B56">
-        <v>13418</v>
+        <v>14405</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -3679,7 +3679,7 @@
         <v>160</v>
       </c>
       <c r="B57">
-        <v>13207</v>
+        <v>13420</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -3687,7 +3687,7 @@
         <v>161</v>
       </c>
       <c r="B58">
-        <v>13207</v>
+        <v>13420</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -3695,7 +3695,7 @@
         <v>162</v>
       </c>
       <c r="B59">
-        <v>13207</v>
+        <v>13420</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -3703,7 +3703,7 @@
         <v>43</v>
       </c>
       <c r="B60">
-        <v>11586</v>
+        <v>11794</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -3711,7 +3711,7 @@
         <v>163</v>
       </c>
       <c r="B61">
-        <v>9067</v>
+        <v>9131</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -3719,7 +3719,7 @@
         <v>164</v>
       </c>
       <c r="B62">
-        <v>9067</v>
+        <v>9131</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -3727,7 +3727,7 @@
         <v>45</v>
       </c>
       <c r="B63">
-        <v>8290</v>
+        <v>8415</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -3735,7 +3735,7 @@
         <v>46</v>
       </c>
       <c r="B64">
-        <v>7151</v>
+        <v>7288</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -3743,31 +3743,31 @@
         <v>47</v>
       </c>
       <c r="B65">
-        <v>5167</v>
+        <v>5250</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="1" t="s">
-        <v>48</v>
+        <v>165</v>
       </c>
       <c r="B66">
-        <v>4865</v>
+        <v>5113</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B67">
-        <v>4837</v>
+        <v>5113</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="1" t="s">
-        <v>166</v>
+        <v>49</v>
       </c>
       <c r="B68">
-        <v>4837</v>
+        <v>4916</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -3775,7 +3775,7 @@
         <v>50</v>
       </c>
       <c r="B69">
-        <v>3304</v>
+        <v>3339</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -3783,7 +3783,7 @@
         <v>51</v>
       </c>
       <c r="B70">
-        <v>1694</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -3853,10 +3853,10 @@
         <v>24</v>
       </c>
       <c r="B4">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C4">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3878,7 +3878,7 @@
         <v>68</v>
       </c>
       <c r="C6">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3889,7 +3889,7 @@
         <v>68</v>
       </c>
       <c r="C7">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3900,7 +3900,7 @@
         <v>68</v>
       </c>
       <c r="C8">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3911,7 +3911,7 @@
         <v>68</v>
       </c>
       <c r="C9">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3919,10 +3919,10 @@
         <v>144</v>
       </c>
       <c r="B10">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C10">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3930,10 +3930,10 @@
         <v>145</v>
       </c>
       <c r="B11">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C11">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3944,7 +3944,7 @@
         <v>60</v>
       </c>
       <c r="C12">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3952,10 +3952,10 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C13">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -3963,43 +3963,43 @@
         <v>18</v>
       </c>
       <c r="B14">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C14">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B15">
         <v>36</v>
       </c>
       <c r="C15">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="B16">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C16">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="B17">
         <v>35</v>
       </c>
       <c r="C17">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -4007,10 +4007,10 @@
         <v>154</v>
       </c>
       <c r="B18">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C18">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -4018,164 +4018,164 @@
         <v>155</v>
       </c>
       <c r="B19">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C19">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="B20">
         <v>31</v>
       </c>
       <c r="C20">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="B21">
         <v>31</v>
       </c>
       <c r="C21">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B22">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C22">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="B23">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C23">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="B24">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C24">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="B25">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C25">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="B26">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C26">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B27">
         <v>26</v>
       </c>
       <c r="C27">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="B28">
         <v>26</v>
       </c>
       <c r="C28">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="B29">
         <v>19</v>
       </c>
       <c r="C29">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="B30">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C30">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1" t="s">
-        <v>10</v>
+        <v>149</v>
       </c>
       <c r="B31">
         <v>18</v>
       </c>
       <c r="C31">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B32">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C32">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="B33">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C33">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -4268,51 +4268,51 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>138</v>
       </c>
       <c r="B42">
         <v>8</v>
       </c>
       <c r="C42">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1" t="s">
-        <v>5</v>
+        <v>139</v>
       </c>
       <c r="B43">
         <v>8</v>
       </c>
       <c r="C43">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1" t="s">
-        <v>138</v>
+        <v>46</v>
       </c>
       <c r="B44">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="1" t="s">
-        <v>139</v>
+        <v>5</v>
       </c>
       <c r="B45">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B46">
         <v>7</v>
@@ -4323,7 +4323,7 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B47">
         <v>7</v>
@@ -4367,24 +4367,24 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B51">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C51">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B52">
         <v>4</v>
       </c>
       <c r="C52">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -4543,7 +4543,7 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -4576,7 +4576,7 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -4633,55 +4633,55 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>253577</v>
+        <v>260503</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>132</v>
+        <v>12</v>
       </c>
       <c r="B3">
-        <v>128752</v>
+        <v>135963</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>133</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>128752</v>
+        <v>131800</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>132</v>
       </c>
       <c r="B5">
-        <v>128701</v>
+        <v>131225</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B6">
-        <v>121743</v>
+        <v>131225</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B7">
-        <v>121743</v>
+        <v>123550</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>139</v>
       </c>
       <c r="B8">
-        <v>112335</v>
+        <v>123550</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4689,7 +4689,7 @@
         <v>146</v>
       </c>
       <c r="B9">
-        <v>103915</v>
+        <v>106111</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4697,7 +4697,7 @@
         <v>147</v>
       </c>
       <c r="B10">
-        <v>103915</v>
+        <v>106111</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -4705,7 +4705,7 @@
         <v>148</v>
       </c>
       <c r="B11">
-        <v>103915</v>
+        <v>106111</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -4713,7 +4713,7 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>87588</v>
+        <v>89504</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -4721,7 +4721,7 @@
         <v>6</v>
       </c>
       <c r="B13">
-        <v>78630</v>
+        <v>81292</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -4729,7 +4729,7 @@
         <v>134</v>
       </c>
       <c r="B14">
-        <v>75481</v>
+        <v>77882</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -4737,7 +4737,7 @@
         <v>135</v>
       </c>
       <c r="B15">
-        <v>75481</v>
+        <v>77882</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -4745,7 +4745,7 @@
         <v>136</v>
       </c>
       <c r="B16">
-        <v>75481</v>
+        <v>77882</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -4753,15 +4753,15 @@
         <v>137</v>
       </c>
       <c r="B17">
-        <v>75481</v>
+        <v>77882</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B18">
-        <v>66810</v>
+        <v>69382</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -4769,7 +4769,7 @@
         <v>8</v>
       </c>
       <c r="B19">
-        <v>51864</v>
+        <v>52784</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -4777,7 +4777,7 @@
         <v>130</v>
       </c>
       <c r="B20">
-        <v>44530</v>
+        <v>45333</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -4785,7 +4785,7 @@
         <v>131</v>
       </c>
       <c r="B21">
-        <v>44530</v>
+        <v>45333</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -4793,15 +4793,15 @@
         <v>18</v>
       </c>
       <c r="B22">
-        <v>42845</v>
+        <v>44045</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B23">
-        <v>33475</v>
+        <v>34452</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -4809,7 +4809,7 @@
         <v>16</v>
       </c>
       <c r="B24">
-        <v>29376</v>
+        <v>30183</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -4817,7 +4817,7 @@
         <v>5</v>
       </c>
       <c r="B25">
-        <v>29181</v>
+        <v>29799</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -4825,7 +4825,7 @@
         <v>21</v>
       </c>
       <c r="B26">
-        <v>28702</v>
+        <v>29393</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -4833,7 +4833,7 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>27812</v>
+        <v>28693</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -4841,7 +4841,7 @@
         <v>154</v>
       </c>
       <c r="B28">
-        <v>24483</v>
+        <v>25294</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -4849,7 +4849,7 @@
         <v>155</v>
       </c>
       <c r="B29">
-        <v>24483</v>
+        <v>25294</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -4857,7 +4857,7 @@
         <v>25</v>
       </c>
       <c r="B30">
-        <v>24108</v>
+        <v>24689</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -4865,31 +4865,31 @@
         <v>37</v>
       </c>
       <c r="B31">
-        <v>23831</v>
+        <v>24423</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>167</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>22528</v>
+        <v>23091</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B33">
-        <v>22528</v>
+        <v>23047</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>168</v>
       </c>
       <c r="B34">
-        <v>22525</v>
+        <v>23047</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -4897,7 +4897,7 @@
         <v>144</v>
       </c>
       <c r="B35">
-        <v>22112</v>
+        <v>22766</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -4905,7 +4905,7 @@
         <v>145</v>
       </c>
       <c r="B36">
-        <v>22112</v>
+        <v>22766</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -4913,7 +4913,7 @@
         <v>26</v>
       </c>
       <c r="B37">
-        <v>20626</v>
+        <v>21149</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -4921,7 +4921,7 @@
         <v>140</v>
       </c>
       <c r="B38">
-        <v>17946</v>
+        <v>18285</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -4929,7 +4929,7 @@
         <v>141</v>
       </c>
       <c r="B39">
-        <v>17946</v>
+        <v>18285</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -4937,7 +4937,7 @@
         <v>46</v>
       </c>
       <c r="B40">
-        <v>16995</v>
+        <v>17189</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -4945,7 +4945,7 @@
         <v>142</v>
       </c>
       <c r="B41">
-        <v>16179</v>
+        <v>16748</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -4953,23 +4953,23 @@
         <v>143</v>
       </c>
       <c r="B42">
-        <v>16179</v>
+        <v>16748</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B43">
-        <v>15103</v>
+        <v>15762</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B44">
-        <v>14958</v>
+        <v>15372</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -4977,7 +4977,7 @@
         <v>158</v>
       </c>
       <c r="B45">
-        <v>12902</v>
+        <v>13350</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -4985,7 +4985,7 @@
         <v>159</v>
       </c>
       <c r="B46">
-        <v>12902</v>
+        <v>13350</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -4993,39 +4993,39 @@
         <v>50</v>
       </c>
       <c r="B47">
-        <v>12195</v>
+        <v>12527</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>17</v>
+        <v>149</v>
       </c>
       <c r="B48">
-        <v>11841</v>
+        <v>11929</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>39</v>
+        <v>150</v>
       </c>
       <c r="B49">
-        <v>11691</v>
+        <v>11929</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>149</v>
+        <v>17</v>
       </c>
       <c r="B50">
-        <v>11644</v>
+        <v>11921</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>150</v>
+        <v>39</v>
       </c>
       <c r="B51">
-        <v>11644</v>
+        <v>11812</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -5033,7 +5033,7 @@
         <v>151</v>
       </c>
       <c r="B52">
-        <v>9351</v>
+        <v>9565</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -5041,7 +5041,7 @@
         <v>152</v>
       </c>
       <c r="B53">
-        <v>9351</v>
+        <v>9565</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -5049,7 +5049,7 @@
         <v>153</v>
       </c>
       <c r="B54">
-        <v>9351</v>
+        <v>9565</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -5057,7 +5057,7 @@
         <v>43</v>
       </c>
       <c r="B55">
-        <v>8152</v>
+        <v>8232</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -5065,7 +5065,7 @@
         <v>51</v>
       </c>
       <c r="B56">
-        <v>6291</v>
+        <v>6372</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -5073,7 +5073,7 @@
         <v>160</v>
       </c>
       <c r="B57">
-        <v>4750</v>
+        <v>4814</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -5081,7 +5081,7 @@
         <v>161</v>
       </c>
       <c r="B58">
-        <v>4750</v>
+        <v>4814</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -5089,7 +5089,7 @@
         <v>162</v>
       </c>
       <c r="B59">
-        <v>4750</v>
+        <v>4814</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -5097,7 +5097,7 @@
         <v>47</v>
       </c>
       <c r="B60">
-        <v>2885</v>
+        <v>2934</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -5105,7 +5105,7 @@
         <v>163</v>
       </c>
       <c r="B61">
-        <v>1794</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -5113,23 +5113,23 @@
         <v>164</v>
       </c>
       <c r="B62">
-        <v>1794</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B63">
-        <v>1716</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B64">
-        <v>1703</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -5137,7 +5137,7 @@
         <v>165</v>
       </c>
       <c r="B65">
-        <v>842</v>
+        <v>862</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -5145,7 +5145,7 @@
         <v>166</v>
       </c>
       <c r="B66">
-        <v>842</v>
+        <v>862</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -5222,7 +5222,7 @@
         <v>101</v>
       </c>
       <c r="B2">
-        <v>3997240</v>
+        <v>4089003</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -5230,39 +5230,39 @@
         <v>169</v>
       </c>
       <c r="B3">
-        <v>2946689</v>
+        <v>3146480</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>104</v>
+        <v>170</v>
       </c>
       <c r="B4">
-        <v>2491721</v>
+        <v>2656621</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B5">
-        <v>2477130</v>
+        <v>2553633</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B6">
-        <v>2444201</v>
+        <v>2553633</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>172</v>
+        <v>104</v>
       </c>
       <c r="B7">
-        <v>2444201</v>
+        <v>2518760</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -5270,7 +5270,7 @@
         <v>107</v>
       </c>
       <c r="B8">
-        <v>1618336</v>
+        <v>1865329</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -5278,7 +5278,7 @@
         <v>106</v>
       </c>
       <c r="B9">
-        <v>1483691</v>
+        <v>1534043</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -5286,7 +5286,7 @@
         <v>105</v>
       </c>
       <c r="B10">
-        <v>938734</v>
+        <v>946986</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -5294,7 +5294,7 @@
         <v>113</v>
       </c>
       <c r="B11">
-        <v>759054</v>
+        <v>773591</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -5302,7 +5302,7 @@
         <v>108</v>
       </c>
       <c r="B12">
-        <v>633737</v>
+        <v>663548</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -5310,7 +5310,7 @@
         <v>109</v>
       </c>
       <c r="B13">
-        <v>509810</v>
+        <v>531590</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -5318,7 +5318,7 @@
         <v>173</v>
       </c>
       <c r="B14">
-        <v>469559</v>
+        <v>489859</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -5326,7 +5326,7 @@
         <v>174</v>
       </c>
       <c r="B15">
-        <v>411904</v>
+        <v>444185</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -5334,31 +5334,31 @@
         <v>114</v>
       </c>
       <c r="B16">
-        <v>238493</v>
+        <v>241599</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>175</v>
+        <v>116</v>
       </c>
       <c r="B17">
-        <v>87526</v>
+        <v>88887</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B18">
-        <v>87526</v>
+        <v>88080</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>116</v>
+        <v>176</v>
       </c>
       <c r="B19">
-        <v>84333</v>
+        <v>88080</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -5366,7 +5366,7 @@
         <v>117</v>
       </c>
       <c r="B20">
-        <v>70218</v>
+        <v>71865</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -5374,7 +5374,7 @@
         <v>123</v>
       </c>
       <c r="B21">
-        <v>18322</v>
+        <v>18581</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -5382,7 +5382,7 @@
         <v>118</v>
       </c>
       <c r="B22">
-        <v>13418</v>
+        <v>14405</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -5390,7 +5390,7 @@
         <v>177</v>
       </c>
       <c r="B23">
-        <v>12371</v>
+        <v>12470</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -5398,7 +5398,7 @@
         <v>119</v>
       </c>
       <c r="B24">
-        <v>11586</v>
+        <v>11794</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -5406,7 +5406,7 @@
         <v>178</v>
       </c>
       <c r="B25">
-        <v>8290</v>
+        <v>8415</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -5414,7 +5414,7 @@
         <v>179</v>
       </c>
       <c r="B26">
-        <v>7151</v>
+        <v>7288</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -5422,7 +5422,7 @@
         <v>180</v>
       </c>
       <c r="B27">
-        <v>7151</v>
+        <v>7288</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -5430,7 +5430,7 @@
         <v>124</v>
       </c>
       <c r="B28">
-        <v>4837</v>
+        <v>5113</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -5438,7 +5438,7 @@
         <v>181</v>
       </c>
       <c r="B29">
-        <v>1694</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -5486,10 +5486,10 @@
         <v>113</v>
       </c>
       <c r="B2">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="C2">
-        <v>482</v>
+        <v>490</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -5500,7 +5500,7 @@
         <v>249</v>
       </c>
       <c r="C3">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -5508,10 +5508,10 @@
         <v>114</v>
       </c>
       <c r="B4">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="C4">
-        <v>239</v>
+        <v>244</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -5544,7 +5544,7 @@
         <v>76</v>
       </c>
       <c r="C7">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -5555,7 +5555,7 @@
         <v>68</v>
       </c>
       <c r="C8">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -5585,10 +5585,10 @@
         <v>107</v>
       </c>
       <c r="B11">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C11">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -5629,10 +5629,10 @@
         <v>123</v>
       </c>
       <c r="B15">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C15">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -5837,7 +5837,7 @@
         <v>107</v>
       </c>
       <c r="B2">
-        <v>450367</v>
+        <v>480817</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -5845,7 +5845,7 @@
         <v>101</v>
       </c>
       <c r="B3">
-        <v>253577</v>
+        <v>260503</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -5853,7 +5853,7 @@
         <v>113</v>
       </c>
       <c r="B4">
-        <v>132448</v>
+        <v>136389</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -5861,7 +5861,7 @@
         <v>105</v>
       </c>
       <c r="B5">
-        <v>128752</v>
+        <v>131225</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -5869,7 +5869,7 @@
         <v>169</v>
       </c>
       <c r="B6">
-        <v>104662</v>
+        <v>107681</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -5877,7 +5877,7 @@
         <v>117</v>
       </c>
       <c r="B7">
-        <v>103915</v>
+        <v>106111</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -5885,7 +5885,7 @@
         <v>106</v>
       </c>
       <c r="B8">
-        <v>97977</v>
+        <v>100206</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -5893,7 +5893,7 @@
         <v>104</v>
       </c>
       <c r="B9">
-        <v>96394</v>
+        <v>98117</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -5901,7 +5901,7 @@
         <v>114</v>
       </c>
       <c r="B10">
-        <v>82163</v>
+        <v>84258</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -5909,7 +5909,7 @@
         <v>171</v>
       </c>
       <c r="B11">
-        <v>78630</v>
+        <v>81292</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -5917,7 +5917,7 @@
         <v>172</v>
       </c>
       <c r="B12">
-        <v>78630</v>
+        <v>81292</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -5925,7 +5925,7 @@
         <v>173</v>
       </c>
       <c r="B13">
-        <v>75481</v>
+        <v>77882</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -5933,7 +5933,7 @@
         <v>108</v>
       </c>
       <c r="B14">
-        <v>66810</v>
+        <v>69382</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -5941,7 +5941,7 @@
         <v>109</v>
       </c>
       <c r="B15">
-        <v>33475</v>
+        <v>34452</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -5949,7 +5949,7 @@
         <v>170</v>
       </c>
       <c r="B16">
-        <v>29181</v>
+        <v>29799</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -5957,31 +5957,31 @@
         <v>174</v>
       </c>
       <c r="B17">
-        <v>23532</v>
+        <v>23733</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>182</v>
+        <v>116</v>
       </c>
       <c r="B18">
-        <v>22528</v>
+        <v>23120</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B19">
-        <v>22528</v>
+        <v>23047</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>116</v>
+        <v>183</v>
       </c>
       <c r="B20">
-        <v>22470</v>
+        <v>23047</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -5989,7 +5989,7 @@
         <v>179</v>
       </c>
       <c r="B21">
-        <v>16995</v>
+        <v>17189</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -5997,7 +5997,7 @@
         <v>180</v>
       </c>
       <c r="B22">
-        <v>16995</v>
+        <v>17189</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -6005,7 +6005,7 @@
         <v>175</v>
       </c>
       <c r="B23">
-        <v>15103</v>
+        <v>15372</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -6013,7 +6013,7 @@
         <v>176</v>
       </c>
       <c r="B24">
-        <v>15103</v>
+        <v>15372</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -6021,7 +6021,7 @@
         <v>177</v>
       </c>
       <c r="B25">
-        <v>13989</v>
+        <v>14371</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -6029,7 +6029,7 @@
         <v>118</v>
       </c>
       <c r="B26">
-        <v>12902</v>
+        <v>13350</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -6037,7 +6037,7 @@
         <v>119</v>
       </c>
       <c r="B27">
-        <v>8152</v>
+        <v>8232</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -6045,7 +6045,7 @@
         <v>123</v>
       </c>
       <c r="B28">
-        <v>6304</v>
+        <v>6384</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -6053,7 +6053,7 @@
         <v>181</v>
       </c>
       <c r="B29">
-        <v>6291</v>
+        <v>6372</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -6061,7 +6061,7 @@
         <v>178</v>
       </c>
       <c r="B30">
-        <v>1703</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -6069,7 +6069,7 @@
         <v>124</v>
       </c>
       <c r="B31">
-        <v>842</v>
+        <v>862</v>
       </c>
     </row>
   </sheetData>

--- a/monthly_reports/monthly_data/2021 Charts Month 1.xlsx
+++ b/monthly_reports/monthly_data/2021 Charts Month 1.xlsx
@@ -108,12 +108,12 @@
     <t>KAAZE, Nino Lucarelli</t>
   </si>
   <si>
+    <t>Polygon, Martin Jasper</t>
+  </si>
+  <si>
     <t>Misfit</t>
   </si>
   <si>
-    <t>Polygon, Martin Jasper</t>
-  </si>
-  <si>
     <t>Matt Nash, Lucas Marx</t>
   </si>
   <si>
@@ -252,12 +252,12 @@
     <t>Temperature</t>
   </si>
   <si>
+    <t>Coming Home</t>
+  </si>
+  <si>
     <t>Mirage</t>
   </si>
   <si>
-    <t>Coming Home</t>
-  </si>
-  <si>
     <t>Midnight</t>
   </si>
   <si>
@@ -369,10 +369,10 @@
     <t>Revealed Music</t>
   </si>
   <si>
+    <t>Liquicity</t>
+  </si>
+  <si>
     <t>BreadnButter, Trap City</t>
-  </si>
-  <si>
-    <t>Liquicity</t>
   </si>
   <si>
     <t>Circus Records</t>
@@ -962,7 +962,7 @@
         <v>101</v>
       </c>
       <c r="D2">
-        <v>4089003</v>
+        <v>4115575</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -976,7 +976,7 @@
         <v>102</v>
       </c>
       <c r="D3">
-        <v>2656621</v>
+        <v>2704987</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -990,7 +990,7 @@
         <v>103</v>
       </c>
       <c r="D4">
-        <v>2553633</v>
+        <v>2586074</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1004,7 +1004,7 @@
         <v>104</v>
       </c>
       <c r="D5">
-        <v>1387405</v>
+        <v>1390854</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1018,7 +1018,7 @@
         <v>104</v>
       </c>
       <c r="D6">
-        <v>1131355</v>
+        <v>1135472</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1032,7 +1032,7 @@
         <v>105</v>
       </c>
       <c r="D7">
-        <v>946986</v>
+        <v>949123</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1046,7 +1046,7 @@
         <v>106</v>
       </c>
       <c r="D8">
-        <v>868765</v>
+        <v>872028</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1060,7 +1060,7 @@
         <v>107</v>
       </c>
       <c r="D9">
-        <v>803216</v>
+        <v>810728</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1074,7 +1074,7 @@
         <v>107</v>
       </c>
       <c r="D10">
-        <v>714096</v>
+        <v>779867</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1088,7 +1088,7 @@
         <v>108</v>
       </c>
       <c r="D11">
-        <v>663548</v>
+        <v>672005</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1102,7 +1102,7 @@
         <v>109</v>
       </c>
       <c r="D12">
-        <v>531590</v>
+        <v>537760</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1116,7 +1116,7 @@
         <v>110</v>
       </c>
       <c r="D13">
-        <v>489859</v>
+        <v>496429</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1130,7 +1130,7 @@
         <v>111</v>
       </c>
       <c r="D14">
-        <v>469461</v>
+        <v>471809</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1144,7 +1144,7 @@
         <v>112</v>
       </c>
       <c r="D15">
-        <v>412497</v>
+        <v>422176</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1158,7 +1158,7 @@
         <v>113</v>
       </c>
       <c r="D16">
-        <v>305523</v>
+        <v>306902</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1172,7 +1172,7 @@
         <v>111</v>
       </c>
       <c r="D17">
-        <v>192917</v>
+        <v>194546</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1186,7 +1186,7 @@
         <v>107</v>
       </c>
       <c r="D18">
-        <v>177115</v>
+        <v>178964</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1200,7 +1200,7 @@
         <v>113</v>
       </c>
       <c r="D19">
-        <v>171237</v>
+        <v>172114</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1214,7 +1214,7 @@
         <v>107</v>
       </c>
       <c r="D20">
-        <v>170902</v>
+        <v>171961</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1228,7 +1228,7 @@
         <v>111</v>
       </c>
       <c r="D21">
-        <v>150247</v>
+        <v>151337</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1242,7 +1242,7 @@
         <v>113</v>
       </c>
       <c r="D22">
-        <v>111040</v>
+        <v>111629</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1256,7 +1256,7 @@
         <v>106</v>
       </c>
       <c r="D23">
-        <v>97324</v>
+        <v>98439</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1270,7 +1270,7 @@
         <v>111</v>
       </c>
       <c r="D24">
-        <v>95533</v>
+        <v>96022</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1284,7 +1284,7 @@
         <v>114</v>
       </c>
       <c r="D25">
-        <v>89094</v>
+        <v>89444</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1298,7 +1298,7 @@
         <v>115</v>
       </c>
       <c r="D26">
-        <v>88080</v>
+        <v>88220</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1312,7 +1312,7 @@
         <v>116</v>
       </c>
       <c r="D27">
-        <v>87143</v>
+        <v>88205</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1326,7 +1326,7 @@
         <v>113</v>
       </c>
       <c r="D28">
-        <v>80227</v>
+        <v>80621</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1340,7 +1340,7 @@
         <v>117</v>
       </c>
       <c r="D29">
-        <v>71865</v>
+        <v>72318</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1354,7 +1354,7 @@
         <v>106</v>
       </c>
       <c r="D30">
-        <v>71700</v>
+        <v>72256</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1368,7 +1368,7 @@
         <v>106</v>
       </c>
       <c r="D31">
-        <v>52069</v>
+        <v>52269</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1382,7 +1382,7 @@
         <v>114</v>
       </c>
       <c r="D32">
-        <v>51130</v>
+        <v>51327</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1396,7 +1396,7 @@
         <v>113</v>
       </c>
       <c r="D33">
-        <v>45901</v>
+        <v>46242</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1410,7 +1410,7 @@
         <v>114</v>
       </c>
       <c r="D34">
-        <v>43224</v>
+        <v>43371</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1424,7 +1424,7 @@
         <v>113</v>
       </c>
       <c r="D35">
-        <v>39746</v>
+        <v>39920</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1438,7 +1438,7 @@
         <v>114</v>
       </c>
       <c r="D36">
-        <v>32261</v>
+        <v>32394</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1452,7 +1452,7 @@
         <v>112</v>
       </c>
       <c r="D37">
-        <v>31688</v>
+        <v>31726</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1466,7 +1466,7 @@
         <v>113</v>
       </c>
       <c r="D38">
-        <v>19917</v>
+        <v>19949</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1480,7 +1480,7 @@
         <v>118</v>
       </c>
       <c r="D39">
-        <v>14405</v>
+        <v>14721</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1494,7 +1494,7 @@
         <v>114</v>
       </c>
       <c r="D40">
-        <v>13420</v>
+        <v>13468</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1508,7 +1508,7 @@
         <v>119</v>
       </c>
       <c r="D41">
-        <v>11794</v>
+        <v>11853</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1522,7 +1522,7 @@
         <v>120</v>
       </c>
       <c r="D42">
-        <v>9131</v>
+        <v>9154</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1536,7 +1536,7 @@
         <v>121</v>
       </c>
       <c r="D43">
-        <v>8415</v>
+        <v>8463</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1550,7 +1550,7 @@
         <v>122</v>
       </c>
       <c r="D44">
-        <v>7288</v>
+        <v>7326</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1564,7 +1564,7 @@
         <v>123</v>
       </c>
       <c r="D45">
-        <v>5250</v>
+        <v>5292</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1578,7 +1578,7 @@
         <v>124</v>
       </c>
       <c r="D46">
-        <v>5113</v>
+        <v>5165</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1592,7 +1592,7 @@
         <v>123</v>
       </c>
       <c r="D47">
-        <v>4916</v>
+        <v>4933</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1606,7 +1606,7 @@
         <v>120</v>
       </c>
       <c r="D48">
-        <v>3339</v>
+        <v>3355</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1620,7 +1620,7 @@
         <v>125</v>
       </c>
       <c r="D49">
-        <v>1744</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1732,7 +1732,7 @@
         <v>85</v>
       </c>
       <c r="E5">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1749,7 +1749,7 @@
         <v>68</v>
       </c>
       <c r="E6">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1817,7 +1817,7 @@
         <v>51</v>
       </c>
       <c r="E10">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1899,10 +1899,10 @@
         <v>114</v>
       </c>
       <c r="D15">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E15">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -2247,13 +2247,13 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B36" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C36" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D36">
         <v>3</v>
@@ -2451,13 +2451,13 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B48" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C48" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -2538,7 +2538,7 @@
         <v>101</v>
       </c>
       <c r="D2">
-        <v>260503</v>
+        <v>262431</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2552,7 +2552,7 @@
         <v>107</v>
       </c>
       <c r="D3">
-        <v>135963</v>
+        <v>143487</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2566,7 +2566,7 @@
         <v>107</v>
       </c>
       <c r="D4">
-        <v>131800</v>
+        <v>132716</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2580,7 +2580,7 @@
         <v>105</v>
       </c>
       <c r="D5">
-        <v>131225</v>
+        <v>131849</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2594,7 +2594,7 @@
         <v>107</v>
       </c>
       <c r="D6">
-        <v>123550</v>
+        <v>124076</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2608,7 +2608,7 @@
         <v>117</v>
       </c>
       <c r="D7">
-        <v>106111</v>
+        <v>106697</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2622,7 +2622,7 @@
         <v>107</v>
       </c>
       <c r="D8">
-        <v>89504</v>
+        <v>90077</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2636,7 +2636,7 @@
         <v>103</v>
       </c>
       <c r="D9">
-        <v>81292</v>
+        <v>82119</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2650,7 +2650,7 @@
         <v>110</v>
       </c>
       <c r="D10">
-        <v>77882</v>
+        <v>78639</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2664,7 +2664,7 @@
         <v>108</v>
       </c>
       <c r="D11">
-        <v>69382</v>
+        <v>70120</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2678,7 +2678,7 @@
         <v>104</v>
       </c>
       <c r="D12">
-        <v>52784</v>
+        <v>53032</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2692,7 +2692,7 @@
         <v>104</v>
       </c>
       <c r="D13">
-        <v>45333</v>
+        <v>45529</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2706,7 +2706,7 @@
         <v>113</v>
       </c>
       <c r="D14">
-        <v>44045</v>
+        <v>44402</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2720,7 +2720,7 @@
         <v>109</v>
       </c>
       <c r="D15">
-        <v>34452</v>
+        <v>34694</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2734,7 +2734,7 @@
         <v>111</v>
       </c>
       <c r="D16">
-        <v>30183</v>
+        <v>30389</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2748,7 +2748,7 @@
         <v>102</v>
       </c>
       <c r="D17">
-        <v>29799</v>
+        <v>29978</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2762,7 +2762,7 @@
         <v>113</v>
       </c>
       <c r="D18">
-        <v>29393</v>
+        <v>29586</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2776,7 +2776,7 @@
         <v>106</v>
       </c>
       <c r="D19">
-        <v>28693</v>
+        <v>28884</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2790,7 +2790,7 @@
         <v>114</v>
       </c>
       <c r="D20">
-        <v>25294</v>
+        <v>25527</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2804,7 +2804,7 @@
         <v>106</v>
       </c>
       <c r="D21">
-        <v>24689</v>
+        <v>24824</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2818,7 +2818,7 @@
         <v>113</v>
       </c>
       <c r="D22">
-        <v>24423</v>
+        <v>24590</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2832,7 +2832,7 @@
         <v>106</v>
       </c>
       <c r="D23">
-        <v>23091</v>
+        <v>23235</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2846,7 +2846,7 @@
         <v>126</v>
       </c>
       <c r="D24">
-        <v>23047</v>
+        <v>23169</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2860,7 +2860,7 @@
         <v>113</v>
       </c>
       <c r="D25">
-        <v>22766</v>
+        <v>22934</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2874,7 +2874,7 @@
         <v>111</v>
       </c>
       <c r="D26">
-        <v>21149</v>
+        <v>21289</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2888,7 +2888,7 @@
         <v>114</v>
       </c>
       <c r="D27">
-        <v>18285</v>
+        <v>18370</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2902,21 +2902,21 @@
         <v>122</v>
       </c>
       <c r="D28">
-        <v>17189</v>
+        <v>17243</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C29" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D29">
-        <v>16748</v>
+        <v>16898</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2930,21 +2930,21 @@
         <v>113</v>
       </c>
       <c r="D30">
-        <v>15762</v>
+        <v>15979</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C31" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D31">
-        <v>15372</v>
+        <v>15443</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2958,7 +2958,7 @@
         <v>118</v>
       </c>
       <c r="D32">
-        <v>13350</v>
+        <v>13486</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -2972,7 +2972,7 @@
         <v>120</v>
       </c>
       <c r="D33">
-        <v>12527</v>
+        <v>12603</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -2986,7 +2986,7 @@
         <v>114</v>
       </c>
       <c r="D34">
-        <v>11929</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -3000,7 +3000,7 @@
         <v>112</v>
       </c>
       <c r="D35">
-        <v>11921</v>
+        <v>11942</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -3014,7 +3014,7 @@
         <v>112</v>
       </c>
       <c r="D36">
-        <v>11812</v>
+        <v>11842</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -3028,7 +3028,7 @@
         <v>114</v>
       </c>
       <c r="D37">
-        <v>9565</v>
+        <v>9627</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -3042,7 +3042,7 @@
         <v>119</v>
       </c>
       <c r="D38">
-        <v>8232</v>
+        <v>8250</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -3056,7 +3056,7 @@
         <v>125</v>
       </c>
       <c r="D39">
-        <v>6372</v>
+        <v>6385</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -3070,7 +3070,7 @@
         <v>114</v>
       </c>
       <c r="D40">
-        <v>4814</v>
+        <v>4821</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -3084,7 +3084,7 @@
         <v>123</v>
       </c>
       <c r="D41">
-        <v>2934</v>
+        <v>2943</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -3098,7 +3098,7 @@
         <v>120</v>
       </c>
       <c r="D42">
-        <v>1844</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -3112,7 +3112,7 @@
         <v>121</v>
       </c>
       <c r="D43">
-        <v>1725</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -3140,7 +3140,7 @@
         <v>124</v>
       </c>
       <c r="D45">
-        <v>862</v>
+        <v>867</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -3239,7 +3239,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>4089003</v>
+        <v>4115575</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3247,7 +3247,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>2656621</v>
+        <v>2704987</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3255,7 +3255,7 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>2553633</v>
+        <v>2586074</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3263,7 +3263,7 @@
         <v>130</v>
       </c>
       <c r="B5">
-        <v>1387405</v>
+        <v>1390854</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3271,7 +3271,7 @@
         <v>131</v>
       </c>
       <c r="B6">
-        <v>1387405</v>
+        <v>1390854</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3279,7 +3279,7 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>1131355</v>
+        <v>1135472</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3287,7 +3287,7 @@
         <v>132</v>
       </c>
       <c r="B8">
-        <v>946986</v>
+        <v>949123</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3295,7 +3295,7 @@
         <v>133</v>
       </c>
       <c r="B9">
-        <v>946986</v>
+        <v>949123</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3303,7 +3303,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>868765</v>
+        <v>872028</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3311,7 +3311,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>803216</v>
+        <v>810728</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3319,7 +3319,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>714096</v>
+        <v>779867</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3327,7 +3327,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>663548</v>
+        <v>672005</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3335,7 +3335,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>531590</v>
+        <v>537760</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3343,7 +3343,7 @@
         <v>134</v>
       </c>
       <c r="B15">
-        <v>489859</v>
+        <v>496429</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3351,7 +3351,7 @@
         <v>135</v>
       </c>
       <c r="B16">
-        <v>489859</v>
+        <v>496429</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -3359,7 +3359,7 @@
         <v>136</v>
       </c>
       <c r="B17">
-        <v>489859</v>
+        <v>496429</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -3367,7 +3367,7 @@
         <v>137</v>
       </c>
       <c r="B18">
-        <v>489859</v>
+        <v>496429</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -3375,7 +3375,7 @@
         <v>16</v>
       </c>
       <c r="B19">
-        <v>469461</v>
+        <v>471809</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -3383,7 +3383,7 @@
         <v>17</v>
       </c>
       <c r="B20">
-        <v>412497</v>
+        <v>422176</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -3391,7 +3391,7 @@
         <v>18</v>
       </c>
       <c r="B21">
-        <v>305523</v>
+        <v>306902</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -3399,7 +3399,7 @@
         <v>19</v>
       </c>
       <c r="B22">
-        <v>192917</v>
+        <v>194546</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -3407,7 +3407,7 @@
         <v>20</v>
       </c>
       <c r="B23">
-        <v>177115</v>
+        <v>178964</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -3415,7 +3415,7 @@
         <v>21</v>
       </c>
       <c r="B24">
-        <v>171237</v>
+        <v>172114</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -3423,7 +3423,7 @@
         <v>138</v>
       </c>
       <c r="B25">
-        <v>170902</v>
+        <v>171961</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -3431,7 +3431,7 @@
         <v>139</v>
       </c>
       <c r="B26">
-        <v>170902</v>
+        <v>171961</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -3439,7 +3439,7 @@
         <v>23</v>
       </c>
       <c r="B27">
-        <v>150247</v>
+        <v>151337</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -3447,7 +3447,7 @@
         <v>24</v>
       </c>
       <c r="B28">
-        <v>111040</v>
+        <v>111629</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -3455,7 +3455,7 @@
         <v>25</v>
       </c>
       <c r="B29">
-        <v>97324</v>
+        <v>98439</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -3463,7 +3463,7 @@
         <v>26</v>
       </c>
       <c r="B30">
-        <v>95533</v>
+        <v>96022</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -3471,7 +3471,7 @@
         <v>140</v>
       </c>
       <c r="B31">
-        <v>89094</v>
+        <v>89444</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -3479,31 +3479,31 @@
         <v>141</v>
       </c>
       <c r="B32">
-        <v>89094</v>
+        <v>89444</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>28</v>
+        <v>142</v>
       </c>
       <c r="B33">
-        <v>88080</v>
+        <v>88220</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B34">
-        <v>87143</v>
+        <v>88220</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>143</v>
+        <v>29</v>
       </c>
       <c r="B35">
-        <v>87143</v>
+        <v>88205</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -3511,7 +3511,7 @@
         <v>144</v>
       </c>
       <c r="B36">
-        <v>80227</v>
+        <v>80621</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -3519,7 +3519,7 @@
         <v>145</v>
       </c>
       <c r="B37">
-        <v>80227</v>
+        <v>80621</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -3527,7 +3527,7 @@
         <v>146</v>
       </c>
       <c r="B38">
-        <v>71865</v>
+        <v>72318</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -3535,7 +3535,7 @@
         <v>147</v>
       </c>
       <c r="B39">
-        <v>71865</v>
+        <v>72318</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -3543,7 +3543,7 @@
         <v>148</v>
       </c>
       <c r="B40">
-        <v>71865</v>
+        <v>72318</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -3551,7 +3551,7 @@
         <v>32</v>
       </c>
       <c r="B41">
-        <v>71700</v>
+        <v>72256</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -3559,7 +3559,7 @@
         <v>33</v>
       </c>
       <c r="B42">
-        <v>52069</v>
+        <v>52269</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -3567,7 +3567,7 @@
         <v>149</v>
       </c>
       <c r="B43">
-        <v>51130</v>
+        <v>51327</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -3575,7 +3575,7 @@
         <v>150</v>
       </c>
       <c r="B44">
-        <v>51130</v>
+        <v>51327</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -3583,7 +3583,7 @@
         <v>35</v>
       </c>
       <c r="B45">
-        <v>45901</v>
+        <v>46242</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -3591,7 +3591,7 @@
         <v>151</v>
       </c>
       <c r="B46">
-        <v>43224</v>
+        <v>43371</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -3599,7 +3599,7 @@
         <v>152</v>
       </c>
       <c r="B47">
-        <v>43224</v>
+        <v>43371</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -3607,7 +3607,7 @@
         <v>153</v>
       </c>
       <c r="B48">
-        <v>43224</v>
+        <v>43371</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -3615,7 +3615,7 @@
         <v>37</v>
       </c>
       <c r="B49">
-        <v>39746</v>
+        <v>39920</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -3623,7 +3623,7 @@
         <v>154</v>
       </c>
       <c r="B50">
-        <v>32261</v>
+        <v>32394</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -3631,7 +3631,7 @@
         <v>155</v>
       </c>
       <c r="B51">
-        <v>32261</v>
+        <v>32394</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -3639,7 +3639,7 @@
         <v>39</v>
       </c>
       <c r="B52">
-        <v>31688</v>
+        <v>31726</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -3647,7 +3647,7 @@
         <v>156</v>
       </c>
       <c r="B53">
-        <v>19917</v>
+        <v>19949</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -3655,7 +3655,7 @@
         <v>157</v>
       </c>
       <c r="B54">
-        <v>19917</v>
+        <v>19949</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -3663,7 +3663,7 @@
         <v>158</v>
       </c>
       <c r="B55">
-        <v>14405</v>
+        <v>14721</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -3671,7 +3671,7 @@
         <v>159</v>
       </c>
       <c r="B56">
-        <v>14405</v>
+        <v>14721</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -3679,7 +3679,7 @@
         <v>160</v>
       </c>
       <c r="B57">
-        <v>13420</v>
+        <v>13468</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -3687,7 +3687,7 @@
         <v>161</v>
       </c>
       <c r="B58">
-        <v>13420</v>
+        <v>13468</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -3695,7 +3695,7 @@
         <v>162</v>
       </c>
       <c r="B59">
-        <v>13420</v>
+        <v>13468</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -3703,7 +3703,7 @@
         <v>43</v>
       </c>
       <c r="B60">
-        <v>11794</v>
+        <v>11853</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -3711,7 +3711,7 @@
         <v>163</v>
       </c>
       <c r="B61">
-        <v>9131</v>
+        <v>9154</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -3719,7 +3719,7 @@
         <v>164</v>
       </c>
       <c r="B62">
-        <v>9131</v>
+        <v>9154</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -3727,7 +3727,7 @@
         <v>45</v>
       </c>
       <c r="B63">
-        <v>8415</v>
+        <v>8463</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -3735,7 +3735,7 @@
         <v>46</v>
       </c>
       <c r="B64">
-        <v>7288</v>
+        <v>7326</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -3743,7 +3743,7 @@
         <v>47</v>
       </c>
       <c r="B65">
-        <v>5250</v>
+        <v>5292</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -3751,7 +3751,7 @@
         <v>165</v>
       </c>
       <c r="B66">
-        <v>5113</v>
+        <v>5165</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -3759,7 +3759,7 @@
         <v>166</v>
       </c>
       <c r="B67">
-        <v>5113</v>
+        <v>5165</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -3767,7 +3767,7 @@
         <v>49</v>
       </c>
       <c r="B68">
-        <v>4916</v>
+        <v>4933</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -3775,7 +3775,7 @@
         <v>50</v>
       </c>
       <c r="B69">
-        <v>3339</v>
+        <v>3355</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -3783,7 +3783,7 @@
         <v>51</v>
       </c>
       <c r="B70">
-        <v>1744</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -3867,7 +3867,7 @@
         <v>85</v>
       </c>
       <c r="C5">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3878,7 +3878,7 @@
         <v>68</v>
       </c>
       <c r="C6">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3889,7 +3889,7 @@
         <v>68</v>
       </c>
       <c r="C7">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3900,7 +3900,7 @@
         <v>68</v>
       </c>
       <c r="C8">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3911,7 +3911,7 @@
         <v>68</v>
       </c>
       <c r="C9">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3966,7 +3966,7 @@
         <v>51</v>
       </c>
       <c r="C14">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -4029,10 +4029,10 @@
         <v>151</v>
       </c>
       <c r="B20">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C20">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -4040,10 +4040,10 @@
         <v>152</v>
       </c>
       <c r="B21">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C21">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -4051,10 +4051,10 @@
         <v>153</v>
       </c>
       <c r="B22">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C22">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -4554,7 +4554,7 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -4633,7 +4633,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>260503</v>
+        <v>262431</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4641,7 +4641,7 @@
         <v>12</v>
       </c>
       <c r="B3">
-        <v>135963</v>
+        <v>143487</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4649,7 +4649,7 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>131800</v>
+        <v>132716</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4657,7 +4657,7 @@
         <v>132</v>
       </c>
       <c r="B5">
-        <v>131225</v>
+        <v>131849</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4665,7 +4665,7 @@
         <v>133</v>
       </c>
       <c r="B6">
-        <v>131225</v>
+        <v>131849</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4673,7 +4673,7 @@
         <v>138</v>
       </c>
       <c r="B7">
-        <v>123550</v>
+        <v>124076</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4681,7 +4681,7 @@
         <v>139</v>
       </c>
       <c r="B8">
-        <v>123550</v>
+        <v>124076</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4689,7 +4689,7 @@
         <v>146</v>
       </c>
       <c r="B9">
-        <v>106111</v>
+        <v>106697</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4697,7 +4697,7 @@
         <v>147</v>
       </c>
       <c r="B10">
-        <v>106111</v>
+        <v>106697</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -4705,7 +4705,7 @@
         <v>148</v>
       </c>
       <c r="B11">
-        <v>106111</v>
+        <v>106697</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -4713,7 +4713,7 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>89504</v>
+        <v>90077</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -4721,7 +4721,7 @@
         <v>6</v>
       </c>
       <c r="B13">
-        <v>81292</v>
+        <v>82119</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -4729,7 +4729,7 @@
         <v>134</v>
       </c>
       <c r="B14">
-        <v>77882</v>
+        <v>78639</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -4737,7 +4737,7 @@
         <v>135</v>
       </c>
       <c r="B15">
-        <v>77882</v>
+        <v>78639</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -4745,7 +4745,7 @@
         <v>136</v>
       </c>
       <c r="B16">
-        <v>77882</v>
+        <v>78639</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -4753,7 +4753,7 @@
         <v>137</v>
       </c>
       <c r="B17">
-        <v>77882</v>
+        <v>78639</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -4761,7 +4761,7 @@
         <v>13</v>
       </c>
       <c r="B18">
-        <v>69382</v>
+        <v>70120</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -4769,7 +4769,7 @@
         <v>8</v>
       </c>
       <c r="B19">
-        <v>52784</v>
+        <v>53032</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -4777,7 +4777,7 @@
         <v>130</v>
       </c>
       <c r="B20">
-        <v>45333</v>
+        <v>45529</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -4785,7 +4785,7 @@
         <v>131</v>
       </c>
       <c r="B21">
-        <v>45333</v>
+        <v>45529</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -4793,7 +4793,7 @@
         <v>18</v>
       </c>
       <c r="B22">
-        <v>44045</v>
+        <v>44402</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -4801,7 +4801,7 @@
         <v>14</v>
       </c>
       <c r="B23">
-        <v>34452</v>
+        <v>34694</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -4809,7 +4809,7 @@
         <v>16</v>
       </c>
       <c r="B24">
-        <v>30183</v>
+        <v>30389</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -4817,7 +4817,7 @@
         <v>5</v>
       </c>
       <c r="B25">
-        <v>29799</v>
+        <v>29978</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -4825,7 +4825,7 @@
         <v>21</v>
       </c>
       <c r="B26">
-        <v>29393</v>
+        <v>29586</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -4833,7 +4833,7 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>28693</v>
+        <v>28884</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -4841,7 +4841,7 @@
         <v>154</v>
       </c>
       <c r="B28">
-        <v>25294</v>
+        <v>25527</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -4849,7 +4849,7 @@
         <v>155</v>
       </c>
       <c r="B29">
-        <v>25294</v>
+        <v>25527</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -4857,7 +4857,7 @@
         <v>25</v>
       </c>
       <c r="B30">
-        <v>24689</v>
+        <v>24824</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -4865,7 +4865,7 @@
         <v>37</v>
       </c>
       <c r="B31">
-        <v>24423</v>
+        <v>24590</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -4873,7 +4873,7 @@
         <v>33</v>
       </c>
       <c r="B32">
-        <v>23091</v>
+        <v>23235</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -4881,7 +4881,7 @@
         <v>167</v>
       </c>
       <c r="B33">
-        <v>23047</v>
+        <v>23169</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -4889,7 +4889,7 @@
         <v>168</v>
       </c>
       <c r="B34">
-        <v>23047</v>
+        <v>23169</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -4897,7 +4897,7 @@
         <v>144</v>
       </c>
       <c r="B35">
-        <v>22766</v>
+        <v>22934</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -4905,7 +4905,7 @@
         <v>145</v>
       </c>
       <c r="B36">
-        <v>22766</v>
+        <v>22934</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -4913,7 +4913,7 @@
         <v>26</v>
       </c>
       <c r="B37">
-        <v>21149</v>
+        <v>21289</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -4921,7 +4921,7 @@
         <v>140</v>
       </c>
       <c r="B38">
-        <v>18285</v>
+        <v>18370</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -4929,7 +4929,7 @@
         <v>141</v>
       </c>
       <c r="B39">
-        <v>18285</v>
+        <v>18370</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -4937,7 +4937,7 @@
         <v>46</v>
       </c>
       <c r="B40">
-        <v>17189</v>
+        <v>17243</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -4945,7 +4945,7 @@
         <v>142</v>
       </c>
       <c r="B41">
-        <v>16748</v>
+        <v>16898</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -4953,7 +4953,7 @@
         <v>143</v>
       </c>
       <c r="B42">
-        <v>16748</v>
+        <v>16898</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -4961,15 +4961,15 @@
         <v>35</v>
       </c>
       <c r="B43">
-        <v>15762</v>
+        <v>15979</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B44">
-        <v>15372</v>
+        <v>15443</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -4977,7 +4977,7 @@
         <v>158</v>
       </c>
       <c r="B45">
-        <v>13350</v>
+        <v>13486</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -4985,7 +4985,7 @@
         <v>159</v>
       </c>
       <c r="B46">
-        <v>13350</v>
+        <v>13486</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -4993,7 +4993,7 @@
         <v>50</v>
       </c>
       <c r="B47">
-        <v>12527</v>
+        <v>12603</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -5001,7 +5001,7 @@
         <v>149</v>
       </c>
       <c r="B48">
-        <v>11929</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -5009,7 +5009,7 @@
         <v>150</v>
       </c>
       <c r="B49">
-        <v>11929</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -5017,7 +5017,7 @@
         <v>17</v>
       </c>
       <c r="B50">
-        <v>11921</v>
+        <v>11942</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -5025,7 +5025,7 @@
         <v>39</v>
       </c>
       <c r="B51">
-        <v>11812</v>
+        <v>11842</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -5033,7 +5033,7 @@
         <v>151</v>
       </c>
       <c r="B52">
-        <v>9565</v>
+        <v>9627</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -5041,7 +5041,7 @@
         <v>152</v>
       </c>
       <c r="B53">
-        <v>9565</v>
+        <v>9627</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -5049,7 +5049,7 @@
         <v>153</v>
       </c>
       <c r="B54">
-        <v>9565</v>
+        <v>9627</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -5057,7 +5057,7 @@
         <v>43</v>
       </c>
       <c r="B55">
-        <v>8232</v>
+        <v>8250</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -5065,7 +5065,7 @@
         <v>51</v>
       </c>
       <c r="B56">
-        <v>6372</v>
+        <v>6385</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -5073,7 +5073,7 @@
         <v>160</v>
       </c>
       <c r="B57">
-        <v>4814</v>
+        <v>4821</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -5081,7 +5081,7 @@
         <v>161</v>
       </c>
       <c r="B58">
-        <v>4814</v>
+        <v>4821</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -5089,7 +5089,7 @@
         <v>162</v>
       </c>
       <c r="B59">
-        <v>4814</v>
+        <v>4821</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -5097,7 +5097,7 @@
         <v>47</v>
       </c>
       <c r="B60">
-        <v>2934</v>
+        <v>2943</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -5105,7 +5105,7 @@
         <v>163</v>
       </c>
       <c r="B61">
-        <v>1844</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -5113,7 +5113,7 @@
         <v>164</v>
       </c>
       <c r="B62">
-        <v>1844</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -5121,7 +5121,7 @@
         <v>45</v>
       </c>
       <c r="B63">
-        <v>1725</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -5137,7 +5137,7 @@
         <v>165</v>
       </c>
       <c r="B65">
-        <v>862</v>
+        <v>867</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -5145,7 +5145,7 @@
         <v>166</v>
       </c>
       <c r="B66">
-        <v>862</v>
+        <v>867</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -5222,7 +5222,7 @@
         <v>101</v>
       </c>
       <c r="B2">
-        <v>4089003</v>
+        <v>4115575</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -5230,7 +5230,7 @@
         <v>169</v>
       </c>
       <c r="B3">
-        <v>3146480</v>
+        <v>3201416</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -5238,7 +5238,7 @@
         <v>170</v>
       </c>
       <c r="B4">
-        <v>2656621</v>
+        <v>2704987</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -5246,7 +5246,7 @@
         <v>171</v>
       </c>
       <c r="B5">
-        <v>2553633</v>
+        <v>2586074</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -5254,7 +5254,7 @@
         <v>172</v>
       </c>
       <c r="B6">
-        <v>2553633</v>
+        <v>2586074</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -5262,7 +5262,7 @@
         <v>104</v>
       </c>
       <c r="B7">
-        <v>2518760</v>
+        <v>2526326</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -5270,7 +5270,7 @@
         <v>107</v>
       </c>
       <c r="B8">
-        <v>1865329</v>
+        <v>1941520</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -5278,7 +5278,7 @@
         <v>106</v>
       </c>
       <c r="B9">
-        <v>1534043</v>
+        <v>1548894</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -5286,7 +5286,7 @@
         <v>105</v>
       </c>
       <c r="B10">
-        <v>946986</v>
+        <v>949123</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -5294,7 +5294,7 @@
         <v>113</v>
       </c>
       <c r="B11">
-        <v>773591</v>
+        <v>777377</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -5302,7 +5302,7 @@
         <v>108</v>
       </c>
       <c r="B12">
-        <v>663548</v>
+        <v>672005</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -5310,7 +5310,7 @@
         <v>109</v>
       </c>
       <c r="B13">
-        <v>531590</v>
+        <v>537760</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -5318,7 +5318,7 @@
         <v>173</v>
       </c>
       <c r="B14">
-        <v>489859</v>
+        <v>496429</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -5326,7 +5326,7 @@
         <v>174</v>
       </c>
       <c r="B15">
-        <v>444185</v>
+        <v>453902</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -5334,15 +5334,15 @@
         <v>114</v>
       </c>
       <c r="B16">
-        <v>241599</v>
+        <v>242513</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B17">
-        <v>88887</v>
+        <v>89975</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -5350,7 +5350,7 @@
         <v>175</v>
       </c>
       <c r="B18">
-        <v>88080</v>
+        <v>88205</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -5358,7 +5358,7 @@
         <v>176</v>
       </c>
       <c r="B19">
-        <v>88080</v>
+        <v>88205</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -5366,7 +5366,7 @@
         <v>117</v>
       </c>
       <c r="B20">
-        <v>71865</v>
+        <v>72318</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -5374,7 +5374,7 @@
         <v>123</v>
       </c>
       <c r="B21">
-        <v>18581</v>
+        <v>18688</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -5382,7 +5382,7 @@
         <v>118</v>
       </c>
       <c r="B22">
-        <v>14405</v>
+        <v>14721</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -5390,7 +5390,7 @@
         <v>177</v>
       </c>
       <c r="B23">
-        <v>12470</v>
+        <v>12509</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -5398,7 +5398,7 @@
         <v>119</v>
       </c>
       <c r="B24">
-        <v>11794</v>
+        <v>11853</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -5406,7 +5406,7 @@
         <v>178</v>
       </c>
       <c r="B25">
-        <v>8415</v>
+        <v>8463</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -5414,7 +5414,7 @@
         <v>179</v>
       </c>
       <c r="B26">
-        <v>7288</v>
+        <v>7326</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -5422,7 +5422,7 @@
         <v>180</v>
       </c>
       <c r="B27">
-        <v>7288</v>
+        <v>7326</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -5430,7 +5430,7 @@
         <v>124</v>
       </c>
       <c r="B28">
-        <v>5113</v>
+        <v>5165</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -5438,7 +5438,7 @@
         <v>181</v>
       </c>
       <c r="B29">
-        <v>1744</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -5489,7 +5489,7 @@
         <v>417</v>
       </c>
       <c r="C2">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -5508,10 +5508,10 @@
         <v>114</v>
       </c>
       <c r="B4">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C4">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -5522,7 +5522,7 @@
         <v>85</v>
       </c>
       <c r="C5">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -5533,7 +5533,7 @@
         <v>85</v>
       </c>
       <c r="C6">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -5544,7 +5544,7 @@
         <v>76</v>
       </c>
       <c r="C7">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -5555,7 +5555,7 @@
         <v>68</v>
       </c>
       <c r="C8">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -5681,7 +5681,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B20">
         <v>7</v>
@@ -5837,7 +5837,7 @@
         <v>107</v>
       </c>
       <c r="B2">
-        <v>480817</v>
+        <v>490356</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -5845,7 +5845,7 @@
         <v>101</v>
       </c>
       <c r="B3">
-        <v>260503</v>
+        <v>262431</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -5853,7 +5853,7 @@
         <v>113</v>
       </c>
       <c r="B4">
-        <v>136389</v>
+        <v>137491</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -5861,7 +5861,7 @@
         <v>105</v>
       </c>
       <c r="B5">
-        <v>131225</v>
+        <v>131849</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -5869,7 +5869,7 @@
         <v>169</v>
       </c>
       <c r="B6">
-        <v>107681</v>
+        <v>108617</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -5877,7 +5877,7 @@
         <v>117</v>
       </c>
       <c r="B7">
-        <v>106111</v>
+        <v>106697</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -5885,7 +5885,7 @@
         <v>106</v>
       </c>
       <c r="B8">
-        <v>100206</v>
+        <v>100727</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -5893,7 +5893,7 @@
         <v>104</v>
       </c>
       <c r="B9">
-        <v>98117</v>
+        <v>98561</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -5901,7 +5901,7 @@
         <v>114</v>
       </c>
       <c r="B10">
-        <v>84258</v>
+        <v>84803</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -5909,7 +5909,7 @@
         <v>171</v>
       </c>
       <c r="B11">
-        <v>81292</v>
+        <v>82119</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -5917,7 +5917,7 @@
         <v>172</v>
       </c>
       <c r="B12">
-        <v>81292</v>
+        <v>82119</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -5925,7 +5925,7 @@
         <v>173</v>
       </c>
       <c r="B13">
-        <v>77882</v>
+        <v>78639</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -5933,7 +5933,7 @@
         <v>108</v>
       </c>
       <c r="B14">
-        <v>69382</v>
+        <v>70120</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -5941,7 +5941,7 @@
         <v>109</v>
       </c>
       <c r="B15">
-        <v>34452</v>
+        <v>34694</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -5949,7 +5949,7 @@
         <v>170</v>
       </c>
       <c r="B16">
-        <v>29799</v>
+        <v>29978</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -5957,15 +5957,15 @@
         <v>174</v>
       </c>
       <c r="B17">
-        <v>23733</v>
+        <v>23784</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B18">
-        <v>23120</v>
+        <v>23283</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -5973,7 +5973,7 @@
         <v>182</v>
       </c>
       <c r="B19">
-        <v>23047</v>
+        <v>23169</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -5981,7 +5981,7 @@
         <v>183</v>
       </c>
       <c r="B20">
-        <v>23047</v>
+        <v>23169</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -5989,7 +5989,7 @@
         <v>179</v>
       </c>
       <c r="B21">
-        <v>17189</v>
+        <v>17243</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -5997,7 +5997,7 @@
         <v>180</v>
       </c>
       <c r="B22">
-        <v>17189</v>
+        <v>17243</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -6005,7 +6005,7 @@
         <v>175</v>
       </c>
       <c r="B23">
-        <v>15372</v>
+        <v>15443</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -6013,7 +6013,7 @@
         <v>176</v>
       </c>
       <c r="B24">
-        <v>15372</v>
+        <v>15443</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -6021,7 +6021,7 @@
         <v>177</v>
       </c>
       <c r="B25">
-        <v>14371</v>
+        <v>14458</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -6029,7 +6029,7 @@
         <v>118</v>
       </c>
       <c r="B26">
-        <v>13350</v>
+        <v>13486</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -6037,7 +6037,7 @@
         <v>119</v>
       </c>
       <c r="B27">
-        <v>8232</v>
+        <v>8250</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -6045,7 +6045,7 @@
         <v>123</v>
       </c>
       <c r="B28">
-        <v>6384</v>
+        <v>6400</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -6053,7 +6053,7 @@
         <v>181</v>
       </c>
       <c r="B29">
-        <v>6372</v>
+        <v>6385</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -6061,7 +6061,7 @@
         <v>178</v>
       </c>
       <c r="B30">
-        <v>1725</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -6069,7 +6069,7 @@
         <v>124</v>
       </c>
       <c r="B31">
-        <v>862</v>
+        <v>867</v>
       </c>
     </row>
   </sheetData>
